--- a/key-value.xlsx
+++ b/key-value.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tatiana/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tatiana/Documents/GitHub/glygen-frontend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98370E78-4C10-684F-B1FA-F0F6174C4A3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7B43876-039A-2441-854B-263CDB9E6CF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26260" yWindow="460" windowWidth="33920" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27880" yWindow="460" windowWidth="23560" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="256">
   <si>
     <t>Field/Term</t>
   </si>
@@ -476,9 +476,6 @@
     <t>The DNA sequence of human chromosome 7</t>
   </si>
   <si>
-    <t>RefSeq Accession:</t>
-  </si>
-  <si>
     <t>ac</t>
   </si>
   <si>
@@ -677,6 +674,9 @@
     <t>Enter complete or partial GlyTouCan Accession of your glycan (see https://glytoucan.org/)</t>
   </si>
   <si>
+    <t>monoisotopic_mass</t>
+  </si>
+  <si>
     <t>Use the sliders to select a Monoisotopic Mass range for your protein(s)</t>
   </si>
   <si>
@@ -686,10 +686,19 @@
     <t>Use the sliders to select a Number of Sugars range for your protein(s)</t>
   </si>
   <si>
+    <t>glycan_type</t>
+  </si>
+  <si>
     <t>Click to select a Glycan Type</t>
   </si>
   <si>
+    <t>glycan_subtype</t>
+  </si>
+  <si>
     <t>Click to select a Glycan Subtype</t>
+  </si>
+  <si>
+    <t>glycan_motif</t>
   </si>
   <si>
     <t>Enter a Glycan Motif comprising part of your glycan(s)</t>
@@ -817,49 +826,46 @@
     <t>Interacting Glycan</t>
   </si>
   <si>
+    <t>interacting_glycan</t>
+  </si>
+  <si>
     <t>Glycosylated Amino Acid</t>
   </si>
   <si>
-    <t>glycosylated_aa</t>
-  </si>
-  <si>
     <t>Click to highlight multiple selections for Glycosylated Amino Acid</t>
   </si>
   <si>
     <t>Glycosylation Evidences Type</t>
   </si>
   <si>
-    <t>glycosylation_evidence</t>
-  </si>
-  <si>
     <t>Click to select Glycosylation Evidence Type</t>
   </si>
   <si>
-    <t>glycan_id</t>
-  </si>
-  <si>
-    <t>slider sliderbox-slider</t>
-  </si>
-  <si>
-    <t>slider1 sliderbox-slider1</t>
-  </si>
-  <si>
-    <t>protein</t>
-  </si>
-  <si>
-    <t>refseq</t>
-  </si>
-  <si>
-    <t>sequence_type  sequences</t>
-  </si>
-  <si>
-    <t>ddl</t>
-  </si>
-  <si>
-    <t>ddl2</t>
-  </si>
-  <si>
-    <t>motif</t>
+    <t>glycosyl_evidence</t>
+  </si>
+  <si>
+    <t>glycosylated_amino</t>
+  </si>
+  <si>
+    <t>number_sugars</t>
+  </si>
+  <si>
+    <t>uniprot_accession</t>
+  </si>
+  <si>
+    <t>RefSeq Accession</t>
+  </si>
+  <si>
+    <t>refseq_accession</t>
+  </si>
+  <si>
+    <t>protein_sequence</t>
+  </si>
+  <si>
+    <t>glytoucan_accession</t>
+  </si>
+  <si>
+    <t>biosynt_enzyme</t>
   </si>
 </sst>
 </file>
@@ -923,6 +929,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -959,16 +971,8 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF980000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1011,7 +1015,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1111,28 +1115,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1452,8 +1457,8 @@
   </sheetPr>
   <dimension ref="A1:AD1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="149" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="165" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1473,16 +1478,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>213</v>
+        <v>238</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>212</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -1532,14 +1537,14 @@
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="43" t="s">
-        <v>13</v>
+      <c r="C4" s="36" t="s">
+        <v>255</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>14</v>
@@ -1574,14 +1579,14 @@
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="42" t="s">
-        <v>246</v>
+      <c r="C6" s="41" t="s">
+        <v>19</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>20</v>
@@ -1790,14 +1795,14 @@
       <c r="A18" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="43" t="s">
-        <v>231</v>
+      <c r="C18" s="36" t="s">
+        <v>234</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>61</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>62</v>
@@ -1830,14 +1835,14 @@
       <c r="A20" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="43" t="s">
-        <v>253</v>
+      <c r="C20" s="36" t="s">
+        <v>224</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>66</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>67</v>
@@ -1854,14 +1859,14 @@
       <c r="A21" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="43" t="s">
-        <v>252</v>
+      <c r="C21" s="36" t="s">
+        <v>222</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>70</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>71</v>
@@ -1878,14 +1883,14 @@
       <c r="A22" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="43" t="s">
-        <v>251</v>
+      <c r="C22" s="36" t="s">
+        <v>220</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>74</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>75</v>
@@ -1973,16 +1978,16 @@
         <v>88</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="C27" s="43" t="s">
-        <v>245</v>
+        <v>214</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>254</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>89</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>90</v>
@@ -2069,8 +2074,8 @@
       <c r="A32" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C32" s="42" t="s">
-        <v>246</v>
+      <c r="C32" s="41" t="s">
+        <v>216</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>109</v>
@@ -2142,14 +2147,14 @@
       <c r="A36" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="36" t="s">
         <v>119</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>119</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>120</v>
@@ -2184,14 +2189,14 @@
       <c r="A38" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="36" t="s">
         <v>125</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>125</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>126</v>
@@ -2277,14 +2282,14 @@
       <c r="A43" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C43" s="43" t="s">
-        <v>229</v>
+      <c r="C43" s="36" t="s">
+        <v>232</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>139</v>
       </c>
       <c r="E43" s="36" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>140</v>
@@ -2302,16 +2307,16 @@
         <v>142</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="C44" s="42" t="s">
-        <v>250</v>
+        <v>237</v>
+      </c>
+      <c r="C44" s="43" t="s">
+        <v>253</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>143</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>144</v>
@@ -2343,26 +2348,26 @@
       <c r="I45" s="8"/>
     </row>
     <row r="46" spans="1:9" ht="28">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C46" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D46" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="B46" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="C46" s="43" t="s">
-        <v>249</v>
-      </c>
-      <c r="D46" s="14" t="s">
+      <c r="E46" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E46" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="F46" s="5" t="s">
+      <c r="G46" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>153</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>9</v>
@@ -2371,16 +2376,16 @@
     </row>
     <row r="47" spans="1:9" ht="28">
       <c r="A47" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D47" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="F47" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="G47" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>157</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>9</v>
@@ -2389,13 +2394,13 @@
     </row>
     <row r="48" spans="1:9" ht="14">
       <c r="A48" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G48" s="20"/>
       <c r="H48" s="7" t="s">
@@ -2405,16 +2410,16 @@
     </row>
     <row r="49" spans="1:30" ht="14">
       <c r="A49" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D49" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="F49" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="F49" s="18" t="s">
+      <c r="G49" s="14" t="s">
         <v>162</v>
-      </c>
-      <c r="G49" s="14" t="s">
-        <v>163</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>9</v>
@@ -2422,16 +2427,16 @@
     </row>
     <row r="50" spans="1:30" ht="28">
       <c r="A50" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="F50" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="G50" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>167</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>9</v>
@@ -2440,16 +2445,16 @@
     </row>
     <row r="51" spans="1:30" ht="14">
       <c r="A51" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>61</v>
       </c>
       <c r="F51" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G51" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>9</v>
@@ -2458,13 +2463,13 @@
     </row>
     <row r="52" spans="1:30" ht="14">
       <c r="A52" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="F52" s="18" t="s">
         <v>172</v>
-      </c>
-      <c r="F52" s="18" t="s">
-        <v>173</v>
       </c>
       <c r="G52" s="14">
         <v>700</v>
@@ -2475,13 +2480,13 @@
     </row>
     <row r="53" spans="1:30" ht="14">
       <c r="A53" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D53" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="F53" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>176</v>
       </c>
       <c r="G53" s="6">
         <v>9606</v>
@@ -2493,16 +2498,16 @@
     </row>
     <row r="54" spans="1:30" ht="13">
       <c r="A54" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F54" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="G54" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>9</v>
@@ -2511,16 +2516,16 @@
     </row>
     <row r="55" spans="1:30" ht="14">
       <c r="A55" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D55" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="F55" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="F55" s="18" t="s">
+      <c r="G55" s="14" t="s">
         <v>182</v>
-      </c>
-      <c r="G55" s="14" t="s">
-        <v>183</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>9</v>
@@ -2528,16 +2533,16 @@
     </row>
     <row r="56" spans="1:30" ht="14">
       <c r="A56" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="D56" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="F56" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="F56" s="18" t="s">
+      <c r="G56" s="14" t="s">
         <v>186</v>
-      </c>
-      <c r="G56" s="14" t="s">
-        <v>187</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>9</v>
@@ -2545,16 +2550,16 @@
     </row>
     <row r="57" spans="1:30" ht="14">
       <c r="A57" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="F57" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="G57" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>191</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>9</v>
@@ -2563,25 +2568,25 @@
     </row>
     <row r="58" spans="1:30" ht="32">
       <c r="A58" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="B58" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="C58" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="D58" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="B58" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="C58" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="D58" s="14" t="s">
+      <c r="E58" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="F58" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="E58" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="F58" s="40" t="s">
+      <c r="G58" s="16" t="s">
         <v>194</v>
-      </c>
-      <c r="G58" s="16" t="s">
-        <v>195</v>
       </c>
       <c r="H58" s="22" t="s">
         <v>9</v>
@@ -2590,16 +2595,16 @@
     </row>
     <row r="59" spans="1:30" ht="28">
       <c r="A59" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="F59" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="G59" s="41" t="s">
         <v>198</v>
-      </c>
-      <c r="G59" s="41" t="s">
-        <v>199</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>9</v>
@@ -2608,16 +2613,16 @@
     </row>
     <row r="60" spans="1:30" ht="14">
       <c r="A60" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D60" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="F60" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="G60" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>203</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>9</v>
@@ -2630,10 +2635,10 @@
       </c>
       <c r="B61" s="28"/>
       <c r="D61" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="F61" s="26" t="s">
         <v>204</v>
-      </c>
-      <c r="F61" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="G61" s="27" t="s">
         <v>6</v>
@@ -2670,10 +2675,10 @@
       </c>
       <c r="B62" s="28"/>
       <c r="D62" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="F62" s="26" t="s">
         <v>206</v>
-      </c>
-      <c r="F62" s="26" t="s">
-        <v>207</v>
       </c>
       <c r="G62" s="27" t="s">
         <v>6</v>
@@ -2710,10 +2715,10 @@
       </c>
       <c r="B63" s="28"/>
       <c r="D63" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="F63" s="26" t="s">
         <v>208</v>
-      </c>
-      <c r="F63" s="26" t="s">
-        <v>209</v>
       </c>
       <c r="G63" s="27">
         <v>1125</v>
@@ -2750,10 +2755,10 @@
       </c>
       <c r="B64" s="28"/>
       <c r="D64" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="F64" s="26" t="s">
         <v>210</v>
-      </c>
-      <c r="F64" s="26" t="s">
-        <v>211</v>
       </c>
       <c r="G64" s="27" t="s">
         <v>6</v>
@@ -2802,8 +2807,8 @@
       <c r="A67" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="C67" s="42" t="s">
-        <v>247</v>
+      <c r="C67" s="41" t="s">
+        <v>249</v>
       </c>
       <c r="D67" s="32"/>
       <c r="E67" s="36" t="s">
@@ -2815,14 +2820,14 @@
     </row>
     <row r="68" spans="1:8" ht="13">
       <c r="A68" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="C68" s="42" t="s">
-        <v>245</v>
+        <v>241</v>
+      </c>
+      <c r="C68" s="43" t="s">
+        <v>242</v>
       </c>
       <c r="D68" s="32"/>
       <c r="E68" s="36" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F68" s="32"/>
       <c r="G68" s="33"/>
@@ -2830,14 +2835,14 @@
     </row>
     <row r="69" spans="1:8" ht="13">
       <c r="A69" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="C69" s="43" t="s">
-        <v>240</v>
+        <v>243</v>
+      </c>
+      <c r="C69" s="36" t="s">
+        <v>248</v>
       </c>
       <c r="D69" s="32"/>
       <c r="E69" s="36" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F69" s="32"/>
       <c r="G69" s="33"/>
@@ -2845,14 +2850,14 @@
     </row>
     <row r="70" spans="1:8" ht="13">
       <c r="A70" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="C70" s="43" t="s">
-        <v>243</v>
+        <v>245</v>
+      </c>
+      <c r="C70" s="36" t="s">
+        <v>247</v>
       </c>
       <c r="D70" s="32"/>
       <c r="E70" s="36" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F70" s="32"/>
       <c r="G70" s="33"/>

--- a/key-value.xlsx
+++ b/key-value.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="279">
   <si>
     <t>Property in JSON</t>
   </si>
@@ -537,9 +537,6 @@
   </si>
   <si>
     <t>keywords</t>
-  </si>
-  <si>
-    <t>GlyTouCan_Accession</t>
   </si>
   <si>
     <t>number_proteins</t>
@@ -900,6 +897,21 @@
   </si>
   <si>
     <t xml:space="preserve">3b:b-dglc-HEX-1:5..... </t>
+  </si>
+  <si>
+    <t>C-GLYCOSYLATION</t>
+  </si>
+  <si>
+    <t>S-GLYCOSYLATION</t>
+  </si>
+  <si>
+    <t>pmid</t>
+  </si>
+  <si>
+    <t>glycosylation</t>
+  </si>
+  <si>
+    <t>GLYCOSYLATION</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1074,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1116,9 +1128,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1164,9 +1173,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1201,6 +1207,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1527,36 +1546,36 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD1010"/>
+  <dimension ref="A1:AD1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B20"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="165" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" style="30" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" style="29" customWidth="1"/>
     <col min="2" max="2" width="20.1640625" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="44" customWidth="1"/>
-    <col min="4" max="4" width="39.5" style="42" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="42" customWidth="1"/>
+    <col min="4" max="4" width="39.5" style="40" customWidth="1"/>
     <col min="5" max="5" width="60" style="14" customWidth="1"/>
     <col min="6" max="6" width="119.1640625" customWidth="1"/>
     <col min="7" max="7" width="19.6640625" customWidth="1"/>
-    <col min="9" max="9" width="33.83203125" style="22" customWidth="1"/>
+    <col min="9" max="9" width="33.83203125" style="21" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="38" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -1571,36 +1590,36 @@
       <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
       <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="D3" s="35" t="s">
+      <c r="C3" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="29" t="s">
         <v>140</v>
       </c>
       <c r="F3" s="11" t="s">
@@ -1615,17 +1634,17 @@
       <c r="I3"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30" t="s">
+      <c r="D4" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="D4" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="29" t="s">
         <v>141</v>
       </c>
       <c r="F4" s="11" t="s">
@@ -1640,36 +1659,36 @@
       <c r="I4"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="D5" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="D5" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="I5"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30" t="s">
+      <c r="D6" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="30" t="s">
         <v>189</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>190</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>71</v>
@@ -1683,17 +1702,17 @@
       <c r="I6"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="D7" s="35" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="29" t="s">
         <v>145</v>
       </c>
       <c r="F7" s="11" t="s">
@@ -1706,17 +1725,17 @@
       <c r="I7"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="D8" s="35" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="29" t="s">
         <v>147</v>
       </c>
       <c r="F8" s="11" t="s">
@@ -1731,22 +1750,22 @@
       <c r="I8"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="D9" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="D9" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="32" t="s">
         <v>129</v>
       </c>
       <c r="G9" s="7" t="s">
@@ -1758,17 +1777,17 @@
       <c r="I9"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="D10" s="35" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="29" t="s">
         <v>149</v>
       </c>
       <c r="F10" s="11" t="s">
@@ -1783,17 +1802,17 @@
       <c r="I10"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="D11" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="29" t="s">
         <v>150</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -1808,171 +1827,168 @@
       <c r="I11"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="E12" s="49"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39" t="s">
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="B14" s="29"/>
+      <c r="C14" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="E14" s="30"/>
+      <c r="E14" s="29"/>
       <c r="I14"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="30"/>
+      <c r="E15" s="29"/>
       <c r="F15" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="47"/>
+      <c r="H15" s="50"/>
       <c r="I15"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="30" t="s">
+    <row r="16" spans="1:11" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I16"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39" t="s">
+      <c r="A17" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="49"/>
+      <c r="F17" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="D17" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="38" t="s">
+      <c r="G17" s="9" t="s">
         <v>205</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>206</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="38"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="53"/>
       <c r="G18" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="9" t="s">
+      <c r="H19" s="9"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="30"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="29"/>
       <c r="F21" s="11" t="s">
         <v>106</v>
       </c>
@@ -1985,43 +2001,43 @@
       <c r="I21"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30" t="s">
+      <c r="A22" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="D22" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="E22" s="29"/>
+      <c r="I22"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="I22"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="30" t="s">
+      <c r="B23" s="29"/>
+      <c r="C23" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30" t="s">
+      <c r="D23" s="34"/>
+      <c r="E23" s="29"/>
+      <c r="I23"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="30"/>
-      <c r="I23"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30" t="s">
+      <c r="D24" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="D24" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="E24" s="30"/>
+      <c r="E24" s="29"/>
       <c r="F24" s="11" t="s">
         <v>24</v>
       </c>
@@ -2034,15 +2050,15 @@
       <c r="I24"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="30"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="D25" s="34"/>
+      <c r="E25" s="29"/>
       <c r="F25" s="11" t="s">
         <v>27</v>
       </c>
@@ -2053,31 +2069,31 @@
       <c r="I25"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30" t="s">
+      <c r="A26" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="D26" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="E26" s="29"/>
+      <c r="I26"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="E26" s="30"/>
-      <c r="I26"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="30" t="s">
+      <c r="B27" s="29"/>
+      <c r="C27" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30" t="s">
+      <c r="D27" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="D27" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="E27" s="30"/>
+      <c r="E27" s="29"/>
       <c r="F27" s="11" t="s">
         <v>111</v>
       </c>
@@ -2090,15 +2106,15 @@
       <c r="I27"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="30"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="D28" s="34"/>
+      <c r="E28" s="29"/>
       <c r="F28" s="11" t="s">
         <v>27</v>
       </c>
@@ -2109,17 +2125,17 @@
       <c r="I28"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="D29" s="35" t="s">
+      <c r="B29" s="29"/>
+      <c r="C29" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="D29" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="29" t="s">
         <v>155</v>
       </c>
       <c r="F29" s="11" t="s">
@@ -2134,17 +2150,17 @@
       <c r="I29"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="D30" s="35" t="s">
+      <c r="B30" s="29"/>
+      <c r="C30" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="D30" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="29" t="s">
         <v>154</v>
       </c>
       <c r="F30" s="11" t="s">
@@ -2159,19 +2175,19 @@
       <c r="I30"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="C31" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="D31" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="D31" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="E31" s="30" t="s">
+      <c r="E31" s="29" t="s">
         <v>151</v>
       </c>
       <c r="F31" s="11" t="s">
@@ -2186,17 +2202,17 @@
       <c r="I31"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30" t="s">
+      <c r="B32" s="29"/>
+      <c r="C32" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="D32" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="D32" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="E32" s="30" t="s">
+      <c r="E32" s="29" t="s">
         <v>156</v>
       </c>
       <c r="F32" s="11" t="s">
@@ -2211,59 +2227,59 @@
       <c r="I32"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30" t="s">
+      <c r="D33" s="34" t="s">
         <v>230</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="E33" s="29"/>
+      <c r="I33"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="I33"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="30" t="s">
+      <c r="B34" s="29"/>
+      <c r="C34" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30" t="s">
+      <c r="D34" s="34" t="s">
         <v>233</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="E34" s="29"/>
+      <c r="I34"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="E34" s="30"/>
-      <c r="I34"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="30" t="s">
+      <c r="B35" s="29"/>
+      <c r="C35" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30" t="s">
+      <c r="D35" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="E35" s="29"/>
+      <c r="I35"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="E35" s="30"/>
-      <c r="I35"/>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="30" t="s">
+      <c r="E36" s="29" t="s">
         <v>152</v>
       </c>
       <c r="F36" s="6" t="s">
@@ -2278,29 +2294,29 @@
       <c r="I36"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30" t="s">
+      <c r="D37" s="34" t="s">
         <v>240</v>
       </c>
-      <c r="D37" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="E37" s="30"/>
+      <c r="E37" s="29"/>
       <c r="I37"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="D38" s="35"/>
-      <c r="E38" s="30" t="s">
+      <c r="A38" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="D38" s="34"/>
+      <c r="E38" s="29" t="s">
         <v>158</v>
       </c>
       <c r="F38" s="11" t="s">
@@ -2315,15 +2331,15 @@
       <c r="I38"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="D39" s="35"/>
-      <c r="E39" s="30"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="D39" s="34"/>
+      <c r="E39" s="29"/>
       <c r="F39" s="11" t="s">
         <v>55</v>
       </c>
@@ -2336,31 +2352,31 @@
       <c r="I39"/>
     </row>
     <row r="40" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30" t="s">
+      <c r="D40" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="29"/>
+      <c r="I40"/>
+    </row>
+    <row r="41" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+      <c r="A41" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="D40" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" s="30"/>
-      <c r="I40"/>
-    </row>
-    <row r="41" spans="1:9" ht="26" x14ac:dyDescent="0.15">
-      <c r="A41" s="30" t="s">
+      <c r="D41" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="D41" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="30"/>
+      <c r="E41" s="29"/>
       <c r="F41" s="11" t="s">
         <v>20</v>
       </c>
@@ -2373,122 +2389,124 @@
       <c r="I41"/>
     </row>
     <row r="42" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="D42" s="34"/>
+      <c r="E42" s="29"/>
+      <c r="I42"/>
+    </row>
+    <row r="43" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A43" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="29"/>
+      <c r="I43"/>
+    </row>
+    <row r="44" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A44" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="29"/>
+      <c r="I44"/>
+    </row>
+    <row r="45" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A45" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="29"/>
+      <c r="I45"/>
+    </row>
+    <row r="46" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A46" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" s="29"/>
+      <c r="I46"/>
+    </row>
+    <row r="47" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A47" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="D47" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47" s="29"/>
+      <c r="I47"/>
+    </row>
+    <row r="48" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A48" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="E48" s="29"/>
+      <c r="I48"/>
+    </row>
+    <row r="49" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+      <c r="A49" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="D42" s="35"/>
-      <c r="E42" s="30"/>
-      <c r="I42"/>
-    </row>
-    <row r="43" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A43" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="D43" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" s="30"/>
-      <c r="I43"/>
-    </row>
-    <row r="44" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A44" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="E44" s="30"/>
-      <c r="I44"/>
-    </row>
-    <row r="45" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A45" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="D45" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="E45" s="30"/>
-      <c r="I45"/>
-    </row>
-    <row r="46" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A46" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="D46" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="E46" s="30"/>
-      <c r="I46"/>
-    </row>
-    <row r="47" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A47" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="D47" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="E47" s="30"/>
-      <c r="I47"/>
-    </row>
-    <row r="48" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A48" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="D48" s="35" t="s">
+      <c r="B49" s="29"/>
+      <c r="C49" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="E48" s="30"/>
-      <c r="I48"/>
-    </row>
-    <row r="49" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A49" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30" t="s">
-        <v>253</v>
-      </c>
-      <c r="D49" s="35" t="s">
+      <c r="D49" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E49" s="30"/>
+      <c r="E49" s="29"/>
       <c r="I49"/>
     </row>
     <row r="50" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A50" s="30" t="s">
+      <c r="A50" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="35" t="s">
-        <v>4</v>
+      <c r="C50" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>276</v>
       </c>
       <c r="E50"/>
       <c r="F50" s="11" t="s">
@@ -2498,25 +2516,35 @@
       <c r="H50" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I50" s="32"/>
-    </row>
-    <row r="51" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="I51"/>
+      <c r="I50" s="31"/>
+    </row>
+    <row r="51" spans="1:30" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A51" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="C51" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="D51" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="F51" s="45"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="31"/>
     </row>
     <row r="52" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A52" s="30" t="s">
+      <c r="A52" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="35" t="s">
+      <c r="B52" s="29"/>
+      <c r="C52" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="D52" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="30"/>
+      <c r="E52" s="29"/>
       <c r="F52" s="11" t="s">
         <v>14</v>
       </c>
@@ -2526,20 +2554,20 @@
       <c r="H52" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I52" s="32"/>
+      <c r="I52" s="31"/>
     </row>
     <row r="53" spans="1:30" ht="26" x14ac:dyDescent="0.15">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="D53" s="35" t="s">
+      <c r="B53" s="29"/>
+      <c r="C53" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="D53" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E53" s="30"/>
+      <c r="E53" s="29"/>
       <c r="F53" s="11" t="s">
         <v>66</v>
       </c>
@@ -2549,20 +2577,20 @@
       <c r="H53" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I53" s="32"/>
+      <c r="I53" s="31"/>
     </row>
     <row r="54" spans="1:30" ht="26" x14ac:dyDescent="0.15">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30" t="s">
-        <v>255</v>
-      </c>
-      <c r="D54" s="35" t="s">
+      <c r="B54" s="29"/>
+      <c r="C54" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="D54" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E54" s="30"/>
+      <c r="E54" s="29"/>
       <c r="F54" s="11" t="s">
         <v>68</v>
       </c>
@@ -2570,20 +2598,20 @@
       <c r="H54" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I54" s="32"/>
+      <c r="I54" s="31"/>
     </row>
     <row r="55" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A55" s="30" t="s">
+      <c r="A55" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="D55" s="35" t="s">
+      <c r="B55" s="29"/>
+      <c r="C55" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="D55" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E55" s="30"/>
+      <c r="E55" s="29"/>
       <c r="F55" s="11" t="s">
         <v>74</v>
       </c>
@@ -2593,20 +2621,20 @@
       <c r="H55" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I55" s="32"/>
-    </row>
-    <row r="56" spans="1:30" ht="39" x14ac:dyDescent="0.15">
-      <c r="A56" s="30" t="s">
+      <c r="I55" s="31"/>
+    </row>
+    <row r="56" spans="1:30" ht="26" x14ac:dyDescent="0.15">
+      <c r="A56" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="30"/>
-      <c r="C56" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="D56" s="35" t="s">
+      <c r="B56" s="29"/>
+      <c r="C56" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="D56" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="E56" s="34" t="s">
+      <c r="E56" s="33" t="s">
         <v>159</v>
       </c>
       <c r="F56" s="11"/>
@@ -2615,17 +2643,17 @@
       <c r="I56"/>
     </row>
     <row r="57" spans="1:30" ht="26" x14ac:dyDescent="0.15">
-      <c r="A57" s="30" t="s">
+      <c r="A57" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30" t="s">
+      <c r="B57" s="29"/>
+      <c r="C57" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="D57" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="D57" s="35" t="s">
-        <v>259</v>
-      </c>
-      <c r="E57" s="34" t="s">
+      <c r="E57" s="33" t="s">
         <v>162</v>
       </c>
       <c r="F57" s="11" t="s">
@@ -2640,17 +2668,17 @@
       <c r="I57"/>
     </row>
     <row r="58" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A58" s="30" t="s">
+      <c r="A58" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="B58" s="30"/>
-      <c r="C58" s="30" t="s">
+      <c r="B58" s="29"/>
+      <c r="C58" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="D58" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="D58" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="E58" s="34" t="s">
+      <c r="E58" s="33" t="s">
         <v>164</v>
       </c>
       <c r="F58" s="11"/>
@@ -2659,34 +2687,34 @@
       <c r="I58"/>
     </row>
     <row r="59" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="D59" s="35" t="s">
+      <c r="B59" s="29"/>
+      <c r="C59" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="D59" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="E59" s="34"/>
+      <c r="E59" s="33"/>
       <c r="F59" s="11"/>
       <c r="G59" s="12"/>
       <c r="H59" s="13"/>
       <c r="I59"/>
     </row>
     <row r="60" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A60" s="30" t="s">
+      <c r="A60" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="B60" s="30"/>
-      <c r="C60" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="D60" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="E60" s="35"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="D60" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="E60" s="34"/>
       <c r="F60" s="12" t="s">
         <v>113</v>
       </c>
@@ -2696,20 +2724,20 @@
       <c r="H60" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I60" s="32"/>
+      <c r="I60" s="31"/>
     </row>
     <row r="61" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A61" s="30" t="s">
+      <c r="A61" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="B61" s="30"/>
-      <c r="C61" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="D61" s="35" t="s">
+      <c r="B61" s="29"/>
+      <c r="C61" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="D61" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="E61" s="35"/>
+      <c r="E61" s="34"/>
       <c r="F61" s="11" t="s">
         <v>117</v>
       </c>
@@ -2742,17 +2770,17 @@
       <c r="AD61" s="10"/>
     </row>
     <row r="62" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A62" s="30" t="s">
+      <c r="A62" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="B62" s="30"/>
-      <c r="C62" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="D62" s="35" t="s">
+      <c r="B62" s="29"/>
+      <c r="C62" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="D62" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="E62" s="35"/>
+      <c r="E62" s="34"/>
       <c r="F62" s="11" t="s">
         <v>121</v>
       </c>
@@ -2785,17 +2813,17 @@
       <c r="AD62" s="10"/>
     </row>
     <row r="63" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="B63" s="30"/>
-      <c r="C63" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D63" s="35" t="s">
+      <c r="B63" s="29"/>
+      <c r="C63" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="D63" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="E63" s="35"/>
+      <c r="E63" s="34"/>
       <c r="F63" s="11" t="s">
         <v>125</v>
       </c>
@@ -2805,7 +2833,7 @@
       <c r="H63" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I63" s="32"/>
+      <c r="I63" s="31"/>
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
       <c r="M63" s="10"/>
@@ -2828,13 +2856,15 @@
       <c r="AD63" s="10"/>
     </row>
     <row r="64" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A64" s="30" t="s">
+      <c r="A64" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="30"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D64" s="34"/>
+      <c r="E64" s="29"/>
       <c r="I64"/>
       <c r="K64" s="10"/>
       <c r="L64" s="10"/>
@@ -2857,14 +2887,14 @@
       <c r="AC64" s="10"/>
       <c r="AD64" s="10"/>
     </row>
-    <row r="65" spans="1:10" ht="26" x14ac:dyDescent="0.15">
-      <c r="A65" s="30" t="s">
+    <row r="65" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+      <c r="A65" s="29" t="s">
         <v>91</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D65" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="D65" s="34" t="s">
         <v>92</v>
       </c>
       <c r="E65"/>
@@ -2877,16 +2907,16 @@
       <c r="H65" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I65" s="32"/>
-    </row>
-    <row r="66" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A66" s="30" t="s">
+      <c r="I65" s="31"/>
+    </row>
+    <row r="66" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A66" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="C66" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="D66" s="35" t="s">
+      <c r="C66" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="D66" s="34" t="s">
         <v>98</v>
       </c>
       <c r="E66"/>
@@ -2901,14 +2931,14 @@
       </c>
       <c r="I66"/>
     </row>
-    <row r="67" spans="1:10" ht="26" x14ac:dyDescent="0.15">
-      <c r="A67" s="30" t="s">
+    <row r="67" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+      <c r="A67" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="C67" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="D67" s="35" t="s">
+      <c r="C67" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="D67" s="34" t="s">
         <v>102</v>
       </c>
       <c r="E67"/>
@@ -2921,16 +2951,16 @@
       <c r="H67" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I67" s="32"/>
-    </row>
-    <row r="68" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A68" s="30" t="s">
+      <c r="I67" s="31"/>
+    </row>
+    <row r="68" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A68" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C68" s="30" t="s">
-        <v>269</v>
-      </c>
-      <c r="D68" s="35" t="s">
+      <c r="C68" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="D68" s="34" t="s">
         <v>48</v>
       </c>
       <c r="E68"/>
@@ -2943,16 +2973,16 @@
       <c r="H68" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I68" s="32"/>
-    </row>
-    <row r="69" spans="1:10" ht="26" x14ac:dyDescent="0.15">
-      <c r="A69" s="30" t="s">
+      <c r="I68" s="31"/>
+    </row>
+    <row r="69" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+      <c r="A69" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C69" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="D69" s="35" t="s">
+      <c r="C69" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="D69" s="34" t="s">
         <v>4</v>
       </c>
       <c r="E69"/>
@@ -2965,19 +2995,19 @@
       <c r="H69" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I69" s="32"/>
-    </row>
-    <row r="70" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A70" s="30" t="s">
-        <v>180</v>
+      <c r="I69" s="31"/>
+    </row>
+    <row r="70" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A70" s="29" t="s">
+        <v>179</v>
       </c>
       <c r="B70" t="s">
         <v>108</v>
       </c>
-      <c r="C70" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="D70" s="35" t="s">
+      <c r="C70" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="D70" s="34" t="s">
         <v>109</v>
       </c>
       <c r="E70"/>
@@ -2992,17 +3022,17 @@
       </c>
       <c r="I70"/>
     </row>
-    <row r="71" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A71" s="30" t="s">
-        <v>181</v>
+    <row r="71" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A71" s="29" t="s">
+        <v>180</v>
       </c>
       <c r="B71" t="s">
         <v>32</v>
       </c>
-      <c r="C71" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="D71" s="35" t="s">
+      <c r="C71" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="D71" s="34" t="s">
         <v>33</v>
       </c>
       <c r="E71"/>
@@ -3017,42 +3047,36 @@
       </c>
       <c r="I71"/>
     </row>
-    <row r="72" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A72" s="30" t="s">
+    <row r="72" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A72" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C72" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="D72" s="35" t="s">
+      <c r="C72" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="D72" s="34" t="s">
         <v>9</v>
       </c>
       <c r="E72"/>
       <c r="F72" s="4"/>
-      <c r="G72" s="36"/>
+      <c r="G72" s="35"/>
       <c r="H72" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I72" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="J72" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A73" s="49"/>
-      <c r="D73" s="42" t="str">
-        <f t="shared" ref="D66:D129" si="0">UPPER(C73)</f>
+    </row>
+    <row r="73" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A73" s="47"/>
+      <c r="D73" s="40" t="str">
+        <f t="shared" ref="D73:D128" si="0">UPPER(C73)</f>
         <v/>
       </c>
       <c r="F73" s="11"/>
       <c r="G73" s="12"/>
       <c r="H73" s="13"/>
     </row>
-    <row r="74" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A74" s="49"/>
-      <c r="D74" s="42" t="str">
+    <row r="74" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A74" s="47"/>
+      <c r="D74" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3060,9 +3084,9 @@
       <c r="G74" s="12"/>
       <c r="H74" s="13"/>
     </row>
-    <row r="75" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A75" s="49"/>
-      <c r="D75" s="42" t="str">
+    <row r="75" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A75" s="47"/>
+      <c r="D75" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3070,9 +3094,9 @@
       <c r="G75" s="12"/>
       <c r="H75" s="13"/>
     </row>
-    <row r="76" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A76" s="49"/>
-      <c r="D76" s="42" t="str">
+    <row r="76" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A76" s="47"/>
+      <c r="D76" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3080,9 +3104,9 @@
       <c r="G76" s="12"/>
       <c r="H76" s="13"/>
     </row>
-    <row r="77" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A77" s="49"/>
-      <c r="D77" s="42" t="str">
+    <row r="77" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A77" s="47"/>
+      <c r="D77" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3090,9 +3114,9 @@
       <c r="G77" s="12"/>
       <c r="H77" s="13"/>
     </row>
-    <row r="78" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A78" s="49"/>
-      <c r="D78" s="42" t="str">
+    <row r="78" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A78" s="47"/>
+      <c r="D78" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3100,9 +3124,9 @@
       <c r="G78" s="12"/>
       <c r="H78" s="13"/>
     </row>
-    <row r="79" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A79" s="49"/>
-      <c r="D79" s="42" t="str">
+    <row r="79" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A79" s="47"/>
+      <c r="D79" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3110,9 +3134,9 @@
       <c r="G79" s="12"/>
       <c r="H79" s="13"/>
     </row>
-    <row r="80" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A80" s="49"/>
-      <c r="D80" s="42" t="str">
+    <row r="80" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A80" s="47"/>
+      <c r="D80" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3121,8 +3145,8 @@
       <c r="H80" s="13"/>
     </row>
     <row r="81" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A81" s="49"/>
-      <c r="D81" s="42" t="str">
+      <c r="A81" s="47"/>
+      <c r="D81" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3131,8 +3155,8 @@
       <c r="H81" s="13"/>
     </row>
     <row r="82" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A82" s="49"/>
-      <c r="D82" s="42" t="str">
+      <c r="A82" s="47"/>
+      <c r="D82" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3141,8 +3165,8 @@
       <c r="H82" s="13"/>
     </row>
     <row r="83" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A83" s="49"/>
-      <c r="D83" s="42" t="str">
+      <c r="A83" s="47"/>
+      <c r="D83" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3151,8 +3175,8 @@
       <c r="H83" s="13"/>
     </row>
     <row r="84" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A84" s="49"/>
-      <c r="D84" s="42" t="str">
+      <c r="A84" s="47"/>
+      <c r="D84" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3161,8 +3185,8 @@
       <c r="H84" s="13"/>
     </row>
     <row r="85" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A85" s="49"/>
-      <c r="D85" s="42" t="str">
+      <c r="A85" s="47"/>
+      <c r="D85" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3171,8 +3195,8 @@
       <c r="H85" s="13"/>
     </row>
     <row r="86" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A86" s="49"/>
-      <c r="D86" s="42" t="str">
+      <c r="A86" s="47"/>
+      <c r="D86" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3181,8 +3205,8 @@
       <c r="H86" s="13"/>
     </row>
     <row r="87" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A87" s="49"/>
-      <c r="D87" s="42" t="str">
+      <c r="A87" s="47"/>
+      <c r="D87" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3191,8 +3215,8 @@
       <c r="H87" s="13"/>
     </row>
     <row r="88" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A88" s="49"/>
-      <c r="D88" s="42" t="str">
+      <c r="A88" s="47"/>
+      <c r="D88" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3201,8 +3225,8 @@
       <c r="H88" s="13"/>
     </row>
     <row r="89" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A89" s="49"/>
-      <c r="D89" s="42" t="str">
+      <c r="A89" s="47"/>
+      <c r="D89" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3211,8 +3235,8 @@
       <c r="H89" s="13"/>
     </row>
     <row r="90" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A90" s="49"/>
-      <c r="D90" s="42" t="str">
+      <c r="A90" s="47"/>
+      <c r="D90" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3221,8 +3245,8 @@
       <c r="H90" s="13"/>
     </row>
     <row r="91" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A91" s="49"/>
-      <c r="D91" s="42" t="str">
+      <c r="A91" s="47"/>
+      <c r="D91" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3231,50 +3255,50 @@
       <c r="H91" s="13"/>
     </row>
     <row r="92" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A92" s="49"/>
-      <c r="D92" s="42" t="str">
+      <c r="A92" s="47"/>
+      <c r="D92" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F92" s="11"/>
       <c r="G92" s="12"/>
       <c r="H92" s="13"/>
-    </row>
-    <row r="93" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A93" s="49"/>
-      <c r="D93" s="42" t="str">
+      <c r="I92" s="22"/>
+    </row>
+    <row r="93" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+      <c r="A93" s="47"/>
+      <c r="D93" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F93" s="11"/>
       <c r="G93" s="12"/>
       <c r="H93" s="13"/>
+      <c r="I93" s="23"/>
     </row>
     <row r="94" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A94" s="49"/>
-      <c r="D94" s="42" t="str">
+      <c r="A94" s="47"/>
+      <c r="D94" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F94" s="11"/>
       <c r="G94" s="12"/>
       <c r="H94" s="13"/>
-      <c r="I94" s="23"/>
-    </row>
-    <row r="95" spans="1:9" ht="16" x14ac:dyDescent="0.25">
-      <c r="A95" s="49"/>
-      <c r="D95" s="42" t="str">
+    </row>
+    <row r="95" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A95" s="47"/>
+      <c r="D95" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F95" s="11"/>
       <c r="G95" s="12"/>
       <c r="H95" s="13"/>
-      <c r="I95" s="24"/>
     </row>
     <row r="96" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A96" s="49"/>
-      <c r="D96" s="42" t="str">
+      <c r="A96" s="47"/>
+      <c r="D96" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3282,39 +3306,41 @@
       <c r="G96" s="12"/>
       <c r="H96" s="13"/>
     </row>
-    <row r="97" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A97" s="49"/>
-      <c r="D97" s="42" t="str">
+    <row r="97" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D97" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F97" s="11"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="13"/>
-    </row>
-    <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D98" s="42" t="str">
+      <c r="J97" s="16"/>
+    </row>
+    <row r="98" spans="1:10" s="16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A98" s="48"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="99" spans="1:9" s="16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A99" s="50"/>
-      <c r="C99" s="45"/>
-      <c r="D99" s="42" t="str">
+      <c r="E98" s="17"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="20"/>
+      <c r="I98" s="21"/>
+      <c r="J98"/>
+    </row>
+    <row r="99" spans="1:10" ht="16" x14ac:dyDescent="0.25">
+      <c r="A99" s="47"/>
+      <c r="C99" s="44"/>
+      <c r="D99" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E99" s="17"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="19"/>
-      <c r="H99" s="20"/>
-      <c r="I99" s="22"/>
-    </row>
-    <row r="100" spans="1:9" ht="16" x14ac:dyDescent="0.25">
-      <c r="A100" s="49"/>
-      <c r="C100" s="46"/>
-      <c r="D100" s="42" t="str">
+      <c r="F99" s="11"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="13"/>
+    </row>
+    <row r="100" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A100" s="47"/>
+      <c r="D100" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3322,9 +3348,9 @@
       <c r="G100" s="12"/>
       <c r="H100" s="13"/>
     </row>
-    <row r="101" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A101" s="49"/>
-      <c r="D101" s="42" t="str">
+    <row r="101" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A101" s="47"/>
+      <c r="D101" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3332,9 +3358,9 @@
       <c r="G101" s="12"/>
       <c r="H101" s="13"/>
     </row>
-    <row r="102" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A102" s="49"/>
-      <c r="D102" s="42" t="str">
+    <row r="102" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A102" s="47"/>
+      <c r="D102" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3342,9 +3368,9 @@
       <c r="G102" s="12"/>
       <c r="H102" s="13"/>
     </row>
-    <row r="103" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A103" s="49"/>
-      <c r="D103" s="42" t="str">
+    <row r="103" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A103" s="47"/>
+      <c r="D103" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3352,9 +3378,9 @@
       <c r="G103" s="12"/>
       <c r="H103" s="13"/>
     </row>
-    <row r="104" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A104" s="49"/>
-      <c r="D104" s="42" t="str">
+    <row r="104" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A104" s="47"/>
+      <c r="D104" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3362,9 +3388,9 @@
       <c r="G104" s="12"/>
       <c r="H104" s="13"/>
     </row>
-    <row r="105" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A105" s="49"/>
-      <c r="D105" s="42" t="str">
+    <row r="105" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A105" s="47"/>
+      <c r="D105" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3372,9 +3398,9 @@
       <c r="G105" s="12"/>
       <c r="H105" s="13"/>
     </row>
-    <row r="106" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A106" s="49"/>
-      <c r="D106" s="42" t="str">
+    <row r="106" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A106" s="47"/>
+      <c r="D106" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3382,9 +3408,9 @@
       <c r="G106" s="12"/>
       <c r="H106" s="13"/>
     </row>
-    <row r="107" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A107" s="49"/>
-      <c r="D107" s="42" t="str">
+    <row r="107" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A107" s="47"/>
+      <c r="D107" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3392,9 +3418,9 @@
       <c r="G107" s="12"/>
       <c r="H107" s="13"/>
     </row>
-    <row r="108" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A108" s="49"/>
-      <c r="D108" s="42" t="str">
+    <row r="108" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A108" s="47"/>
+      <c r="D108" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3402,9 +3428,9 @@
       <c r="G108" s="12"/>
       <c r="H108" s="13"/>
     </row>
-    <row r="109" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A109" s="49"/>
-      <c r="D109" s="42" t="str">
+    <row r="109" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A109" s="47"/>
+      <c r="D109" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3412,9 +3438,9 @@
       <c r="G109" s="12"/>
       <c r="H109" s="13"/>
     </row>
-    <row r="110" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A110" s="49"/>
-      <c r="D110" s="42" t="str">
+    <row r="110" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A110" s="47"/>
+      <c r="D110" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3422,9 +3448,9 @@
       <c r="G110" s="12"/>
       <c r="H110" s="13"/>
     </row>
-    <row r="111" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A111" s="49"/>
-      <c r="D111" s="42" t="str">
+    <row r="111" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A111" s="47"/>
+      <c r="D111" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3432,9 +3458,9 @@
       <c r="G111" s="12"/>
       <c r="H111" s="13"/>
     </row>
-    <row r="112" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A112" s="49"/>
-      <c r="D112" s="42" t="str">
+    <row r="112" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A112" s="47"/>
+      <c r="D112" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3443,8 +3469,8 @@
       <c r="H112" s="13"/>
     </row>
     <row r="113" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A113" s="49"/>
-      <c r="D113" s="42" t="str">
+      <c r="A113" s="47"/>
+      <c r="D113" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3453,8 +3479,8 @@
       <c r="H113" s="13"/>
     </row>
     <row r="114" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A114" s="49"/>
-      <c r="D114" s="42" t="str">
+      <c r="A114" s="47"/>
+      <c r="D114" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3463,8 +3489,8 @@
       <c r="H114" s="13"/>
     </row>
     <row r="115" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A115" s="49"/>
-      <c r="D115" s="42" t="str">
+      <c r="A115" s="47"/>
+      <c r="D115" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3473,8 +3499,8 @@
       <c r="H115" s="13"/>
     </row>
     <row r="116" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A116" s="49"/>
-      <c r="D116" s="42" t="str">
+      <c r="A116" s="47"/>
+      <c r="D116" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3483,8 +3509,8 @@
       <c r="H116" s="13"/>
     </row>
     <row r="117" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A117" s="49"/>
-      <c r="D117" s="42" t="str">
+      <c r="A117" s="47"/>
+      <c r="D117" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3493,8 +3519,8 @@
       <c r="H117" s="13"/>
     </row>
     <row r="118" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A118" s="49"/>
-      <c r="D118" s="42" t="str">
+      <c r="A118" s="47"/>
+      <c r="D118" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3503,8 +3529,8 @@
       <c r="H118" s="13"/>
     </row>
     <row r="119" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A119" s="49"/>
-      <c r="D119" s="42" t="str">
+      <c r="A119" s="47"/>
+      <c r="D119" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3513,8 +3539,8 @@
       <c r="H119" s="13"/>
     </row>
     <row r="120" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A120" s="49"/>
-      <c r="D120" s="42" t="str">
+      <c r="A120" s="47"/>
+      <c r="D120" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3523,8 +3549,8 @@
       <c r="H120" s="13"/>
     </row>
     <row r="121" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A121" s="49"/>
-      <c r="D121" s="42" t="str">
+      <c r="A121" s="47"/>
+      <c r="D121" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3533,8 +3559,8 @@
       <c r="H121" s="13"/>
     </row>
     <row r="122" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A122" s="49"/>
-      <c r="D122" s="42" t="str">
+      <c r="A122" s="47"/>
+      <c r="D122" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3543,8 +3569,8 @@
       <c r="H122" s="13"/>
     </row>
     <row r="123" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A123" s="49"/>
-      <c r="D123" s="42" t="str">
+      <c r="A123" s="47"/>
+      <c r="D123" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3553,8 +3579,8 @@
       <c r="H123" s="13"/>
     </row>
     <row r="124" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A124" s="49"/>
-      <c r="D124" s="42" t="str">
+      <c r="A124" s="47"/>
+      <c r="D124" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3563,8 +3589,8 @@
       <c r="H124" s="13"/>
     </row>
     <row r="125" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A125" s="49"/>
-      <c r="D125" s="42" t="str">
+      <c r="A125" s="47"/>
+      <c r="D125" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3573,8 +3599,8 @@
       <c r="H125" s="13"/>
     </row>
     <row r="126" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A126" s="49"/>
-      <c r="D126" s="42" t="str">
+      <c r="A126" s="47"/>
+      <c r="D126" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3583,8 +3609,8 @@
       <c r="H126" s="13"/>
     </row>
     <row r="127" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A127" s="49"/>
-      <c r="D127" s="42" t="str">
+      <c r="A127" s="47"/>
+      <c r="D127" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3593,8 +3619,8 @@
       <c r="H127" s="13"/>
     </row>
     <row r="128" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A128" s="49"/>
-      <c r="D128" s="42" t="str">
+      <c r="A128" s="47"/>
+      <c r="D128" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3603,9 +3629,9 @@
       <c r="H128" s="13"/>
     </row>
     <row r="129" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A129" s="49"/>
-      <c r="D129" s="42" t="str">
-        <f t="shared" si="0"/>
+      <c r="A129" s="47"/>
+      <c r="D129" s="40" t="str">
+        <f t="shared" ref="D129:D192" si="1">UPPER(C129)</f>
         <v/>
       </c>
       <c r="F129" s="11"/>
@@ -3613,9 +3639,9 @@
       <c r="H129" s="13"/>
     </row>
     <row r="130" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A130" s="49"/>
-      <c r="D130" s="42" t="str">
-        <f t="shared" ref="D130:D193" si="1">UPPER(C130)</f>
+      <c r="A130" s="47"/>
+      <c r="D130" s="40" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F130" s="11"/>
@@ -3623,8 +3649,8 @@
       <c r="H130" s="13"/>
     </row>
     <row r="131" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A131" s="49"/>
-      <c r="D131" s="42" t="str">
+      <c r="A131" s="47"/>
+      <c r="D131" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3633,8 +3659,8 @@
       <c r="H131" s="13"/>
     </row>
     <row r="132" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A132" s="49"/>
-      <c r="D132" s="42" t="str">
+      <c r="A132" s="47"/>
+      <c r="D132" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3643,8 +3669,8 @@
       <c r="H132" s="13"/>
     </row>
     <row r="133" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A133" s="49"/>
-      <c r="D133" s="42" t="str">
+      <c r="A133" s="47"/>
+      <c r="D133" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3653,8 +3679,8 @@
       <c r="H133" s="13"/>
     </row>
     <row r="134" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A134" s="49"/>
-      <c r="D134" s="42" t="str">
+      <c r="A134" s="47"/>
+      <c r="D134" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3663,8 +3689,8 @@
       <c r="H134" s="13"/>
     </row>
     <row r="135" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A135" s="49"/>
-      <c r="D135" s="42" t="str">
+      <c r="A135" s="47"/>
+      <c r="D135" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3673,8 +3699,8 @@
       <c r="H135" s="13"/>
     </row>
     <row r="136" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A136" s="49"/>
-      <c r="D136" s="42" t="str">
+      <c r="A136" s="47"/>
+      <c r="D136" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3683,8 +3709,8 @@
       <c r="H136" s="13"/>
     </row>
     <row r="137" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A137" s="49"/>
-      <c r="D137" s="42" t="str">
+      <c r="A137" s="47"/>
+      <c r="D137" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3693,8 +3719,8 @@
       <c r="H137" s="13"/>
     </row>
     <row r="138" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A138" s="49"/>
-      <c r="D138" s="42" t="str">
+      <c r="A138" s="47"/>
+      <c r="D138" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3703,8 +3729,8 @@
       <c r="H138" s="13"/>
     </row>
     <row r="139" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A139" s="49"/>
-      <c r="D139" s="42" t="str">
+      <c r="A139" s="47"/>
+      <c r="D139" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3713,8 +3739,8 @@
       <c r="H139" s="13"/>
     </row>
     <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A140" s="49"/>
-      <c r="D140" s="42" t="str">
+      <c r="A140" s="47"/>
+      <c r="D140" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3723,8 +3749,8 @@
       <c r="H140" s="13"/>
     </row>
     <row r="141" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A141" s="49"/>
-      <c r="D141" s="42" t="str">
+      <c r="A141" s="47"/>
+      <c r="D141" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3733,8 +3759,8 @@
       <c r="H141" s="13"/>
     </row>
     <row r="142" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A142" s="49"/>
-      <c r="D142" s="42" t="str">
+      <c r="A142" s="47"/>
+      <c r="D142" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3743,8 +3769,8 @@
       <c r="H142" s="13"/>
     </row>
     <row r="143" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A143" s="49"/>
-      <c r="D143" s="42" t="str">
+      <c r="A143" s="47"/>
+      <c r="D143" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3753,8 +3779,8 @@
       <c r="H143" s="13"/>
     </row>
     <row r="144" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A144" s="49"/>
-      <c r="D144" s="42" t="str">
+      <c r="A144" s="47"/>
+      <c r="D144" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3763,8 +3789,8 @@
       <c r="H144" s="13"/>
     </row>
     <row r="145" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A145" s="49"/>
-      <c r="D145" s="42" t="str">
+      <c r="A145" s="47"/>
+      <c r="D145" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3773,8 +3799,8 @@
       <c r="H145" s="13"/>
     </row>
     <row r="146" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A146" s="49"/>
-      <c r="D146" s="42" t="str">
+      <c r="A146" s="47"/>
+      <c r="D146" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3783,8 +3809,8 @@
       <c r="H146" s="13"/>
     </row>
     <row r="147" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A147" s="49"/>
-      <c r="D147" s="42" t="str">
+      <c r="A147" s="47"/>
+      <c r="D147" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3793,8 +3819,8 @@
       <c r="H147" s="13"/>
     </row>
     <row r="148" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A148" s="49"/>
-      <c r="D148" s="42" t="str">
+      <c r="A148" s="47"/>
+      <c r="D148" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3803,8 +3829,8 @@
       <c r="H148" s="13"/>
     </row>
     <row r="149" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A149" s="49"/>
-      <c r="D149" s="42" t="str">
+      <c r="A149" s="47"/>
+      <c r="D149" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3813,8 +3839,8 @@
       <c r="H149" s="13"/>
     </row>
     <row r="150" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A150" s="49"/>
-      <c r="D150" s="42" t="str">
+      <c r="A150" s="47"/>
+      <c r="D150" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3823,8 +3849,8 @@
       <c r="H150" s="13"/>
     </row>
     <row r="151" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A151" s="49"/>
-      <c r="D151" s="42" t="str">
+      <c r="A151" s="47"/>
+      <c r="D151" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3833,8 +3859,8 @@
       <c r="H151" s="13"/>
     </row>
     <row r="152" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A152" s="49"/>
-      <c r="D152" s="42" t="str">
+      <c r="A152" s="47"/>
+      <c r="D152" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3843,8 +3869,8 @@
       <c r="H152" s="13"/>
     </row>
     <row r="153" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A153" s="49"/>
-      <c r="D153" s="42" t="str">
+      <c r="A153" s="47"/>
+      <c r="D153" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3853,8 +3879,8 @@
       <c r="H153" s="13"/>
     </row>
     <row r="154" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A154" s="49"/>
-      <c r="D154" s="42" t="str">
+      <c r="A154" s="47"/>
+      <c r="D154" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3863,8 +3889,8 @@
       <c r="H154" s="13"/>
     </row>
     <row r="155" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A155" s="49"/>
-      <c r="D155" s="42" t="str">
+      <c r="A155" s="47"/>
+      <c r="D155" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3873,8 +3899,8 @@
       <c r="H155" s="13"/>
     </row>
     <row r="156" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A156" s="49"/>
-      <c r="D156" s="42" t="str">
+      <c r="A156" s="47"/>
+      <c r="D156" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3883,8 +3909,8 @@
       <c r="H156" s="13"/>
     </row>
     <row r="157" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A157" s="49"/>
-      <c r="D157" s="42" t="str">
+      <c r="A157" s="47"/>
+      <c r="D157" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3893,8 +3919,8 @@
       <c r="H157" s="13"/>
     </row>
     <row r="158" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A158" s="49"/>
-      <c r="D158" s="42" t="str">
+      <c r="A158" s="47"/>
+      <c r="D158" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3903,8 +3929,8 @@
       <c r="H158" s="13"/>
     </row>
     <row r="159" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A159" s="49"/>
-      <c r="D159" s="42" t="str">
+      <c r="A159" s="47"/>
+      <c r="D159" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3913,8 +3939,8 @@
       <c r="H159" s="13"/>
     </row>
     <row r="160" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A160" s="49"/>
-      <c r="D160" s="42" t="str">
+      <c r="A160" s="47"/>
+      <c r="D160" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3923,8 +3949,8 @@
       <c r="H160" s="13"/>
     </row>
     <row r="161" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A161" s="49"/>
-      <c r="D161" s="42" t="str">
+      <c r="A161" s="47"/>
+      <c r="D161" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3933,8 +3959,8 @@
       <c r="H161" s="13"/>
     </row>
     <row r="162" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A162" s="49"/>
-      <c r="D162" s="42" t="str">
+      <c r="A162" s="47"/>
+      <c r="D162" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3943,8 +3969,8 @@
       <c r="H162" s="13"/>
     </row>
     <row r="163" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A163" s="49"/>
-      <c r="D163" s="42" t="str">
+      <c r="A163" s="47"/>
+      <c r="D163" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3953,8 +3979,8 @@
       <c r="H163" s="13"/>
     </row>
     <row r="164" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A164" s="49"/>
-      <c r="D164" s="42" t="str">
+      <c r="A164" s="47"/>
+      <c r="D164" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3963,8 +3989,8 @@
       <c r="H164" s="13"/>
     </row>
     <row r="165" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A165" s="49"/>
-      <c r="D165" s="42" t="str">
+      <c r="A165" s="47"/>
+      <c r="D165" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3973,8 +3999,8 @@
       <c r="H165" s="13"/>
     </row>
     <row r="166" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A166" s="49"/>
-      <c r="D166" s="42" t="str">
+      <c r="A166" s="47"/>
+      <c r="D166" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3983,8 +4009,8 @@
       <c r="H166" s="13"/>
     </row>
     <row r="167" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A167" s="49"/>
-      <c r="D167" s="42" t="str">
+      <c r="A167" s="47"/>
+      <c r="D167" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3993,8 +4019,8 @@
       <c r="H167" s="13"/>
     </row>
     <row r="168" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A168" s="49"/>
-      <c r="D168" s="42" t="str">
+      <c r="A168" s="47"/>
+      <c r="D168" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4003,8 +4029,8 @@
       <c r="H168" s="13"/>
     </row>
     <row r="169" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A169" s="49"/>
-      <c r="D169" s="42" t="str">
+      <c r="A169" s="47"/>
+      <c r="D169" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4013,8 +4039,8 @@
       <c r="H169" s="13"/>
     </row>
     <row r="170" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A170" s="49"/>
-      <c r="D170" s="42" t="str">
+      <c r="A170" s="47"/>
+      <c r="D170" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4023,8 +4049,8 @@
       <c r="H170" s="13"/>
     </row>
     <row r="171" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A171" s="49"/>
-      <c r="D171" s="42" t="str">
+      <c r="A171" s="47"/>
+      <c r="D171" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4033,8 +4059,8 @@
       <c r="H171" s="13"/>
     </row>
     <row r="172" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A172" s="49"/>
-      <c r="D172" s="42" t="str">
+      <c r="A172" s="47"/>
+      <c r="D172" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4043,8 +4069,8 @@
       <c r="H172" s="13"/>
     </row>
     <row r="173" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A173" s="49"/>
-      <c r="D173" s="42" t="str">
+      <c r="A173" s="47"/>
+      <c r="D173" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4053,8 +4079,8 @@
       <c r="H173" s="13"/>
     </row>
     <row r="174" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A174" s="49"/>
-      <c r="D174" s="42" t="str">
+      <c r="A174" s="47"/>
+      <c r="D174" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4063,8 +4089,8 @@
       <c r="H174" s="13"/>
     </row>
     <row r="175" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A175" s="49"/>
-      <c r="D175" s="42" t="str">
+      <c r="A175" s="47"/>
+      <c r="D175" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4073,8 +4099,8 @@
       <c r="H175" s="13"/>
     </row>
     <row r="176" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A176" s="49"/>
-      <c r="D176" s="42" t="str">
+      <c r="A176" s="47"/>
+      <c r="D176" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4083,8 +4109,8 @@
       <c r="H176" s="13"/>
     </row>
     <row r="177" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A177" s="49"/>
-      <c r="D177" s="42" t="str">
+      <c r="A177" s="47"/>
+      <c r="D177" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4093,8 +4119,8 @@
       <c r="H177" s="13"/>
     </row>
     <row r="178" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A178" s="49"/>
-      <c r="D178" s="42" t="str">
+      <c r="A178" s="47"/>
+      <c r="D178" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4103,8 +4129,8 @@
       <c r="H178" s="13"/>
     </row>
     <row r="179" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A179" s="49"/>
-      <c r="D179" s="42" t="str">
+      <c r="A179" s="47"/>
+      <c r="D179" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4113,8 +4139,8 @@
       <c r="H179" s="13"/>
     </row>
     <row r="180" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A180" s="49"/>
-      <c r="D180" s="42" t="str">
+      <c r="A180" s="47"/>
+      <c r="D180" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4123,8 +4149,8 @@
       <c r="H180" s="13"/>
     </row>
     <row r="181" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A181" s="49"/>
-      <c r="D181" s="42" t="str">
+      <c r="A181" s="47"/>
+      <c r="D181" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4133,8 +4159,8 @@
       <c r="H181" s="13"/>
     </row>
     <row r="182" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A182" s="49"/>
-      <c r="D182" s="42" t="str">
+      <c r="A182" s="47"/>
+      <c r="D182" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4143,8 +4169,8 @@
       <c r="H182" s="13"/>
     </row>
     <row r="183" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A183" s="49"/>
-      <c r="D183" s="42" t="str">
+      <c r="A183" s="47"/>
+      <c r="D183" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4153,8 +4179,8 @@
       <c r="H183" s="13"/>
     </row>
     <row r="184" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A184" s="49"/>
-      <c r="D184" s="42" t="str">
+      <c r="A184" s="47"/>
+      <c r="D184" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4163,8 +4189,8 @@
       <c r="H184" s="13"/>
     </row>
     <row r="185" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A185" s="49"/>
-      <c r="D185" s="42" t="str">
+      <c r="A185" s="47"/>
+      <c r="D185" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4173,8 +4199,8 @@
       <c r="H185" s="13"/>
     </row>
     <row r="186" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A186" s="49"/>
-      <c r="D186" s="42" t="str">
+      <c r="A186" s="47"/>
+      <c r="D186" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4183,8 +4209,8 @@
       <c r="H186" s="13"/>
     </row>
     <row r="187" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A187" s="49"/>
-      <c r="D187" s="42" t="str">
+      <c r="A187" s="47"/>
+      <c r="D187" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4193,8 +4219,8 @@
       <c r="H187" s="13"/>
     </row>
     <row r="188" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A188" s="49"/>
-      <c r="D188" s="42" t="str">
+      <c r="A188" s="47"/>
+      <c r="D188" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4203,8 +4229,8 @@
       <c r="H188" s="13"/>
     </row>
     <row r="189" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A189" s="49"/>
-      <c r="D189" s="42" t="str">
+      <c r="A189" s="47"/>
+      <c r="D189" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4213,8 +4239,8 @@
       <c r="H189" s="13"/>
     </row>
     <row r="190" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A190" s="49"/>
-      <c r="D190" s="42" t="str">
+      <c r="A190" s="47"/>
+      <c r="D190" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4223,8 +4249,8 @@
       <c r="H190" s="13"/>
     </row>
     <row r="191" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A191" s="49"/>
-      <c r="D191" s="42" t="str">
+      <c r="A191" s="47"/>
+      <c r="D191" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4233,8 +4259,8 @@
       <c r="H191" s="13"/>
     </row>
     <row r="192" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A192" s="49"/>
-      <c r="D192" s="42" t="str">
+      <c r="A192" s="47"/>
+      <c r="D192" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4243,9 +4269,9 @@
       <c r="H192" s="13"/>
     </row>
     <row r="193" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A193" s="49"/>
-      <c r="D193" s="42" t="str">
-        <f t="shared" si="1"/>
+      <c r="A193" s="47"/>
+      <c r="D193" s="40" t="str">
+        <f t="shared" ref="D193:D256" si="2">UPPER(C193)</f>
         <v/>
       </c>
       <c r="F193" s="11"/>
@@ -4253,9 +4279,9 @@
       <c r="H193" s="13"/>
     </row>
     <row r="194" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A194" s="49"/>
-      <c r="D194" s="42" t="str">
-        <f t="shared" ref="D194:D257" si="2">UPPER(C194)</f>
+      <c r="A194" s="47"/>
+      <c r="D194" s="40" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F194" s="11"/>
@@ -4263,8 +4289,8 @@
       <c r="H194" s="13"/>
     </row>
     <row r="195" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A195" s="49"/>
-      <c r="D195" s="42" t="str">
+      <c r="A195" s="47"/>
+      <c r="D195" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4273,8 +4299,8 @@
       <c r="H195" s="13"/>
     </row>
     <row r="196" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A196" s="49"/>
-      <c r="D196" s="42" t="str">
+      <c r="A196" s="47"/>
+      <c r="D196" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4283,8 +4309,8 @@
       <c r="H196" s="13"/>
     </row>
     <row r="197" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A197" s="49"/>
-      <c r="D197" s="42" t="str">
+      <c r="A197" s="47"/>
+      <c r="D197" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4293,8 +4319,8 @@
       <c r="H197" s="13"/>
     </row>
     <row r="198" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A198" s="49"/>
-      <c r="D198" s="42" t="str">
+      <c r="A198" s="47"/>
+      <c r="D198" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4303,8 +4329,8 @@
       <c r="H198" s="13"/>
     </row>
     <row r="199" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A199" s="49"/>
-      <c r="D199" s="42" t="str">
+      <c r="A199" s="47"/>
+      <c r="D199" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4313,8 +4339,8 @@
       <c r="H199" s="13"/>
     </row>
     <row r="200" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A200" s="49"/>
-      <c r="D200" s="42" t="str">
+      <c r="A200" s="47"/>
+      <c r="D200" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4323,8 +4349,8 @@
       <c r="H200" s="13"/>
     </row>
     <row r="201" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A201" s="49"/>
-      <c r="D201" s="42" t="str">
+      <c r="A201" s="47"/>
+      <c r="D201" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4333,8 +4359,8 @@
       <c r="H201" s="13"/>
     </row>
     <row r="202" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A202" s="49"/>
-      <c r="D202" s="42" t="str">
+      <c r="A202" s="47"/>
+      <c r="D202" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4343,8 +4369,8 @@
       <c r="H202" s="13"/>
     </row>
     <row r="203" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A203" s="49"/>
-      <c r="D203" s="42" t="str">
+      <c r="A203" s="47"/>
+      <c r="D203" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4353,8 +4379,8 @@
       <c r="H203" s="13"/>
     </row>
     <row r="204" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A204" s="49"/>
-      <c r="D204" s="42" t="str">
+      <c r="A204" s="47"/>
+      <c r="D204" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4363,8 +4389,8 @@
       <c r="H204" s="13"/>
     </row>
     <row r="205" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A205" s="49"/>
-      <c r="D205" s="42" t="str">
+      <c r="A205" s="47"/>
+      <c r="D205" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4373,8 +4399,8 @@
       <c r="H205" s="13"/>
     </row>
     <row r="206" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A206" s="49"/>
-      <c r="D206" s="42" t="str">
+      <c r="A206" s="47"/>
+      <c r="D206" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4383,8 +4409,8 @@
       <c r="H206" s="13"/>
     </row>
     <row r="207" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A207" s="49"/>
-      <c r="D207" s="42" t="str">
+      <c r="A207" s="47"/>
+      <c r="D207" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4393,8 +4419,8 @@
       <c r="H207" s="13"/>
     </row>
     <row r="208" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A208" s="49"/>
-      <c r="D208" s="42" t="str">
+      <c r="A208" s="47"/>
+      <c r="D208" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4403,8 +4429,8 @@
       <c r="H208" s="13"/>
     </row>
     <row r="209" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A209" s="49"/>
-      <c r="D209" s="42" t="str">
+      <c r="A209" s="47"/>
+      <c r="D209" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4413,8 +4439,8 @@
       <c r="H209" s="13"/>
     </row>
     <row r="210" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A210" s="49"/>
-      <c r="D210" s="42" t="str">
+      <c r="A210" s="47"/>
+      <c r="D210" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4423,8 +4449,8 @@
       <c r="H210" s="13"/>
     </row>
     <row r="211" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A211" s="49"/>
-      <c r="D211" s="42" t="str">
+      <c r="A211" s="47"/>
+      <c r="D211" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4433,8 +4459,8 @@
       <c r="H211" s="13"/>
     </row>
     <row r="212" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A212" s="49"/>
-      <c r="D212" s="42" t="str">
+      <c r="A212" s="47"/>
+      <c r="D212" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4443,8 +4469,8 @@
       <c r="H212" s="13"/>
     </row>
     <row r="213" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A213" s="49"/>
-      <c r="D213" s="42" t="str">
+      <c r="A213" s="47"/>
+      <c r="D213" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4453,8 +4479,8 @@
       <c r="H213" s="13"/>
     </row>
     <row r="214" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A214" s="49"/>
-      <c r="D214" s="42" t="str">
+      <c r="A214" s="47"/>
+      <c r="D214" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4463,8 +4489,8 @@
       <c r="H214" s="13"/>
     </row>
     <row r="215" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A215" s="49"/>
-      <c r="D215" s="42" t="str">
+      <c r="A215" s="47"/>
+      <c r="D215" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4473,8 +4499,8 @@
       <c r="H215" s="13"/>
     </row>
     <row r="216" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A216" s="49"/>
-      <c r="D216" s="42" t="str">
+      <c r="A216" s="47"/>
+      <c r="D216" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4483,8 +4509,8 @@
       <c r="H216" s="13"/>
     </row>
     <row r="217" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A217" s="49"/>
-      <c r="D217" s="42" t="str">
+      <c r="A217" s="47"/>
+      <c r="D217" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4493,8 +4519,8 @@
       <c r="H217" s="13"/>
     </row>
     <row r="218" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A218" s="49"/>
-      <c r="D218" s="42" t="str">
+      <c r="A218" s="47"/>
+      <c r="D218" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4503,8 +4529,8 @@
       <c r="H218" s="13"/>
     </row>
     <row r="219" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A219" s="49"/>
-      <c r="D219" s="42" t="str">
+      <c r="A219" s="47"/>
+      <c r="D219" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4513,8 +4539,8 @@
       <c r="H219" s="13"/>
     </row>
     <row r="220" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A220" s="49"/>
-      <c r="D220" s="42" t="str">
+      <c r="A220" s="47"/>
+      <c r="D220" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4523,8 +4549,8 @@
       <c r="H220" s="13"/>
     </row>
     <row r="221" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A221" s="49"/>
-      <c r="D221" s="42" t="str">
+      <c r="A221" s="47"/>
+      <c r="D221" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4533,8 +4559,8 @@
       <c r="H221" s="13"/>
     </row>
     <row r="222" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A222" s="49"/>
-      <c r="D222" s="42" t="str">
+      <c r="A222" s="47"/>
+      <c r="D222" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4543,8 +4569,8 @@
       <c r="H222" s="13"/>
     </row>
     <row r="223" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A223" s="49"/>
-      <c r="D223" s="42" t="str">
+      <c r="A223" s="47"/>
+      <c r="D223" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4553,8 +4579,8 @@
       <c r="H223" s="13"/>
     </row>
     <row r="224" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A224" s="49"/>
-      <c r="D224" s="42" t="str">
+      <c r="A224" s="47"/>
+      <c r="D224" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4563,8 +4589,8 @@
       <c r="H224" s="13"/>
     </row>
     <row r="225" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A225" s="49"/>
-      <c r="D225" s="42" t="str">
+      <c r="A225" s="47"/>
+      <c r="D225" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4573,8 +4599,8 @@
       <c r="H225" s="13"/>
     </row>
     <row r="226" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A226" s="49"/>
-      <c r="D226" s="42" t="str">
+      <c r="A226" s="47"/>
+      <c r="D226" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4583,8 +4609,8 @@
       <c r="H226" s="13"/>
     </row>
     <row r="227" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A227" s="49"/>
-      <c r="D227" s="42" t="str">
+      <c r="A227" s="47"/>
+      <c r="D227" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4593,8 +4619,8 @@
       <c r="H227" s="13"/>
     </row>
     <row r="228" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A228" s="49"/>
-      <c r="D228" s="42" t="str">
+      <c r="A228" s="47"/>
+      <c r="D228" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4603,8 +4629,8 @@
       <c r="H228" s="13"/>
     </row>
     <row r="229" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A229" s="49"/>
-      <c r="D229" s="42" t="str">
+      <c r="A229" s="47"/>
+      <c r="D229" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4613,8 +4639,8 @@
       <c r="H229" s="13"/>
     </row>
     <row r="230" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A230" s="49"/>
-      <c r="D230" s="42" t="str">
+      <c r="A230" s="47"/>
+      <c r="D230" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4623,8 +4649,8 @@
       <c r="H230" s="13"/>
     </row>
     <row r="231" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A231" s="49"/>
-      <c r="D231" s="42" t="str">
+      <c r="A231" s="47"/>
+      <c r="D231" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4633,8 +4659,8 @@
       <c r="H231" s="13"/>
     </row>
     <row r="232" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A232" s="49"/>
-      <c r="D232" s="42" t="str">
+      <c r="A232" s="47"/>
+      <c r="D232" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4643,8 +4669,8 @@
       <c r="H232" s="13"/>
     </row>
     <row r="233" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A233" s="49"/>
-      <c r="D233" s="42" t="str">
+      <c r="A233" s="47"/>
+      <c r="D233" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4653,8 +4679,8 @@
       <c r="H233" s="13"/>
     </row>
     <row r="234" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A234" s="49"/>
-      <c r="D234" s="42" t="str">
+      <c r="A234" s="47"/>
+      <c r="D234" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4663,8 +4689,8 @@
       <c r="H234" s="13"/>
     </row>
     <row r="235" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A235" s="49"/>
-      <c r="D235" s="42" t="str">
+      <c r="A235" s="47"/>
+      <c r="D235" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4673,8 +4699,8 @@
       <c r="H235" s="13"/>
     </row>
     <row r="236" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A236" s="49"/>
-      <c r="D236" s="42" t="str">
+      <c r="A236" s="47"/>
+      <c r="D236" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4683,8 +4709,8 @@
       <c r="H236" s="13"/>
     </row>
     <row r="237" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A237" s="49"/>
-      <c r="D237" s="42" t="str">
+      <c r="A237" s="47"/>
+      <c r="D237" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4693,8 +4719,8 @@
       <c r="H237" s="13"/>
     </row>
     <row r="238" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A238" s="49"/>
-      <c r="D238" s="42" t="str">
+      <c r="A238" s="47"/>
+      <c r="D238" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4703,8 +4729,8 @@
       <c r="H238" s="13"/>
     </row>
     <row r="239" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A239" s="49"/>
-      <c r="D239" s="42" t="str">
+      <c r="A239" s="47"/>
+      <c r="D239" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4713,8 +4739,8 @@
       <c r="H239" s="13"/>
     </row>
     <row r="240" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A240" s="49"/>
-      <c r="D240" s="42" t="str">
+      <c r="A240" s="47"/>
+      <c r="D240" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4723,8 +4749,8 @@
       <c r="H240" s="13"/>
     </row>
     <row r="241" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A241" s="49"/>
-      <c r="D241" s="42" t="str">
+      <c r="A241" s="47"/>
+      <c r="D241" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4733,8 +4759,8 @@
       <c r="H241" s="13"/>
     </row>
     <row r="242" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A242" s="49"/>
-      <c r="D242" s="42" t="str">
+      <c r="A242" s="47"/>
+      <c r="D242" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4743,8 +4769,8 @@
       <c r="H242" s="13"/>
     </row>
     <row r="243" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A243" s="49"/>
-      <c r="D243" s="42" t="str">
+      <c r="A243" s="47"/>
+      <c r="D243" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4753,8 +4779,8 @@
       <c r="H243" s="13"/>
     </row>
     <row r="244" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A244" s="49"/>
-      <c r="D244" s="42" t="str">
+      <c r="A244" s="47"/>
+      <c r="D244" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4763,8 +4789,8 @@
       <c r="H244" s="13"/>
     </row>
     <row r="245" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A245" s="49"/>
-      <c r="D245" s="42" t="str">
+      <c r="A245" s="47"/>
+      <c r="D245" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4773,8 +4799,8 @@
       <c r="H245" s="13"/>
     </row>
     <row r="246" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A246" s="49"/>
-      <c r="D246" s="42" t="str">
+      <c r="A246" s="47"/>
+      <c r="D246" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4783,8 +4809,8 @@
       <c r="H246" s="13"/>
     </row>
     <row r="247" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A247" s="49"/>
-      <c r="D247" s="42" t="str">
+      <c r="A247" s="47"/>
+      <c r="D247" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4793,8 +4819,8 @@
       <c r="H247" s="13"/>
     </row>
     <row r="248" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A248" s="49"/>
-      <c r="D248" s="42" t="str">
+      <c r="A248" s="47"/>
+      <c r="D248" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4803,8 +4829,8 @@
       <c r="H248" s="13"/>
     </row>
     <row r="249" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A249" s="49"/>
-      <c r="D249" s="42" t="str">
+      <c r="A249" s="47"/>
+      <c r="D249" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4813,8 +4839,8 @@
       <c r="H249" s="13"/>
     </row>
     <row r="250" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A250" s="49"/>
-      <c r="D250" s="42" t="str">
+      <c r="A250" s="47"/>
+      <c r="D250" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4823,8 +4849,8 @@
       <c r="H250" s="13"/>
     </row>
     <row r="251" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A251" s="49"/>
-      <c r="D251" s="42" t="str">
+      <c r="A251" s="47"/>
+      <c r="D251" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4833,8 +4859,8 @@
       <c r="H251" s="13"/>
     </row>
     <row r="252" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A252" s="49"/>
-      <c r="D252" s="42" t="str">
+      <c r="A252" s="47"/>
+      <c r="D252" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4843,8 +4869,8 @@
       <c r="H252" s="13"/>
     </row>
     <row r="253" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A253" s="49"/>
-      <c r="D253" s="42" t="str">
+      <c r="A253" s="47"/>
+      <c r="D253" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4853,8 +4879,8 @@
       <c r="H253" s="13"/>
     </row>
     <row r="254" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A254" s="49"/>
-      <c r="D254" s="42" t="str">
+      <c r="A254" s="47"/>
+      <c r="D254" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4863,8 +4889,8 @@
       <c r="H254" s="13"/>
     </row>
     <row r="255" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A255" s="49"/>
-      <c r="D255" s="42" t="str">
+      <c r="A255" s="47"/>
+      <c r="D255" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4873,8 +4899,8 @@
       <c r="H255" s="13"/>
     </row>
     <row r="256" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A256" s="49"/>
-      <c r="D256" s="42" t="str">
+      <c r="A256" s="47"/>
+      <c r="D256" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -4883,9 +4909,9 @@
       <c r="H256" s="13"/>
     </row>
     <row r="257" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A257" s="49"/>
-      <c r="D257" s="42" t="str">
-        <f t="shared" si="2"/>
+      <c r="A257" s="47"/>
+      <c r="D257" s="40" t="str">
+        <f t="shared" ref="D257:D320" si="3">UPPER(C257)</f>
         <v/>
       </c>
       <c r="F257" s="11"/>
@@ -4893,9 +4919,9 @@
       <c r="H257" s="13"/>
     </row>
     <row r="258" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A258" s="49"/>
-      <c r="D258" s="42" t="str">
-        <f t="shared" ref="D258:D321" si="3">UPPER(C258)</f>
+      <c r="A258" s="47"/>
+      <c r="D258" s="40" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F258" s="11"/>
@@ -4903,8 +4929,8 @@
       <c r="H258" s="13"/>
     </row>
     <row r="259" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A259" s="49"/>
-      <c r="D259" s="42" t="str">
+      <c r="A259" s="47"/>
+      <c r="D259" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4913,8 +4939,8 @@
       <c r="H259" s="13"/>
     </row>
     <row r="260" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A260" s="49"/>
-      <c r="D260" s="42" t="str">
+      <c r="A260" s="47"/>
+      <c r="D260" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4923,8 +4949,8 @@
       <c r="H260" s="13"/>
     </row>
     <row r="261" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A261" s="49"/>
-      <c r="D261" s="42" t="str">
+      <c r="A261" s="47"/>
+      <c r="D261" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4933,8 +4959,8 @@
       <c r="H261" s="13"/>
     </row>
     <row r="262" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A262" s="49"/>
-      <c r="D262" s="42" t="str">
+      <c r="A262" s="47"/>
+      <c r="D262" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4943,8 +4969,8 @@
       <c r="H262" s="13"/>
     </row>
     <row r="263" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A263" s="49"/>
-      <c r="D263" s="42" t="str">
+      <c r="A263" s="47"/>
+      <c r="D263" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4953,8 +4979,8 @@
       <c r="H263" s="13"/>
     </row>
     <row r="264" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A264" s="49"/>
-      <c r="D264" s="42" t="str">
+      <c r="A264" s="47"/>
+      <c r="D264" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4963,8 +4989,8 @@
       <c r="H264" s="13"/>
     </row>
     <row r="265" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A265" s="49"/>
-      <c r="D265" s="42" t="str">
+      <c r="A265" s="47"/>
+      <c r="D265" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4973,8 +4999,8 @@
       <c r="H265" s="13"/>
     </row>
     <row r="266" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A266" s="49"/>
-      <c r="D266" s="42" t="str">
+      <c r="A266" s="47"/>
+      <c r="D266" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4983,8 +5009,8 @@
       <c r="H266" s="13"/>
     </row>
     <row r="267" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A267" s="49"/>
-      <c r="D267" s="42" t="str">
+      <c r="A267" s="47"/>
+      <c r="D267" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -4993,8 +5019,8 @@
       <c r="H267" s="13"/>
     </row>
     <row r="268" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A268" s="49"/>
-      <c r="D268" s="42" t="str">
+      <c r="A268" s="47"/>
+      <c r="D268" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5003,8 +5029,8 @@
       <c r="H268" s="13"/>
     </row>
     <row r="269" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A269" s="49"/>
-      <c r="D269" s="42" t="str">
+      <c r="A269" s="47"/>
+      <c r="D269" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5013,8 +5039,8 @@
       <c r="H269" s="13"/>
     </row>
     <row r="270" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A270" s="49"/>
-      <c r="D270" s="42" t="str">
+      <c r="A270" s="47"/>
+      <c r="D270" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5023,8 +5049,8 @@
       <c r="H270" s="13"/>
     </row>
     <row r="271" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A271" s="49"/>
-      <c r="D271" s="42" t="str">
+      <c r="A271" s="47"/>
+      <c r="D271" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5033,8 +5059,8 @@
       <c r="H271" s="13"/>
     </row>
     <row r="272" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A272" s="49"/>
-      <c r="D272" s="42" t="str">
+      <c r="A272" s="47"/>
+      <c r="D272" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5043,8 +5069,8 @@
       <c r="H272" s="13"/>
     </row>
     <row r="273" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A273" s="49"/>
-      <c r="D273" s="42" t="str">
+      <c r="A273" s="47"/>
+      <c r="D273" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5053,8 +5079,8 @@
       <c r="H273" s="13"/>
     </row>
     <row r="274" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A274" s="49"/>
-      <c r="D274" s="42" t="str">
+      <c r="A274" s="47"/>
+      <c r="D274" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5063,8 +5089,8 @@
       <c r="H274" s="13"/>
     </row>
     <row r="275" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A275" s="49"/>
-      <c r="D275" s="42" t="str">
+      <c r="A275" s="47"/>
+      <c r="D275" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5073,8 +5099,8 @@
       <c r="H275" s="13"/>
     </row>
     <row r="276" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A276" s="49"/>
-      <c r="D276" s="42" t="str">
+      <c r="A276" s="47"/>
+      <c r="D276" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5083,8 +5109,8 @@
       <c r="H276" s="13"/>
     </row>
     <row r="277" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A277" s="49"/>
-      <c r="D277" s="42" t="str">
+      <c r="A277" s="47"/>
+      <c r="D277" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5093,8 +5119,8 @@
       <c r="H277" s="13"/>
     </row>
     <row r="278" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A278" s="49"/>
-      <c r="D278" s="42" t="str">
+      <c r="A278" s="47"/>
+      <c r="D278" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5103,8 +5129,8 @@
       <c r="H278" s="13"/>
     </row>
     <row r="279" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A279" s="49"/>
-      <c r="D279" s="42" t="str">
+      <c r="A279" s="47"/>
+      <c r="D279" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5113,8 +5139,8 @@
       <c r="H279" s="13"/>
     </row>
     <row r="280" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A280" s="49"/>
-      <c r="D280" s="42" t="str">
+      <c r="A280" s="47"/>
+      <c r="D280" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5123,8 +5149,8 @@
       <c r="H280" s="13"/>
     </row>
     <row r="281" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A281" s="49"/>
-      <c r="D281" s="42" t="str">
+      <c r="A281" s="47"/>
+      <c r="D281" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5133,8 +5159,8 @@
       <c r="H281" s="13"/>
     </row>
     <row r="282" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A282" s="49"/>
-      <c r="D282" s="42" t="str">
+      <c r="A282" s="47"/>
+      <c r="D282" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5143,8 +5169,8 @@
       <c r="H282" s="13"/>
     </row>
     <row r="283" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A283" s="49"/>
-      <c r="D283" s="42" t="str">
+      <c r="A283" s="47"/>
+      <c r="D283" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5153,8 +5179,8 @@
       <c r="H283" s="13"/>
     </row>
     <row r="284" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A284" s="49"/>
-      <c r="D284" s="42" t="str">
+      <c r="A284" s="47"/>
+      <c r="D284" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5163,8 +5189,8 @@
       <c r="H284" s="13"/>
     </row>
     <row r="285" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A285" s="49"/>
-      <c r="D285" s="42" t="str">
+      <c r="A285" s="47"/>
+      <c r="D285" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5173,8 +5199,8 @@
       <c r="H285" s="13"/>
     </row>
     <row r="286" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A286" s="49"/>
-      <c r="D286" s="42" t="str">
+      <c r="A286" s="47"/>
+      <c r="D286" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5183,8 +5209,8 @@
       <c r="H286" s="13"/>
     </row>
     <row r="287" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A287" s="49"/>
-      <c r="D287" s="42" t="str">
+      <c r="A287" s="47"/>
+      <c r="D287" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5193,8 +5219,8 @@
       <c r="H287" s="13"/>
     </row>
     <row r="288" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A288" s="49"/>
-      <c r="D288" s="42" t="str">
+      <c r="A288" s="47"/>
+      <c r="D288" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5203,8 +5229,8 @@
       <c r="H288" s="13"/>
     </row>
     <row r="289" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A289" s="49"/>
-      <c r="D289" s="42" t="str">
+      <c r="A289" s="47"/>
+      <c r="D289" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5213,8 +5239,8 @@
       <c r="H289" s="13"/>
     </row>
     <row r="290" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A290" s="49"/>
-      <c r="D290" s="42" t="str">
+      <c r="A290" s="47"/>
+      <c r="D290" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5223,8 +5249,8 @@
       <c r="H290" s="13"/>
     </row>
     <row r="291" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A291" s="49"/>
-      <c r="D291" s="42" t="str">
+      <c r="A291" s="47"/>
+      <c r="D291" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5233,8 +5259,8 @@
       <c r="H291" s="13"/>
     </row>
     <row r="292" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A292" s="49"/>
-      <c r="D292" s="42" t="str">
+      <c r="A292" s="47"/>
+      <c r="D292" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5243,8 +5269,8 @@
       <c r="H292" s="13"/>
     </row>
     <row r="293" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A293" s="49"/>
-      <c r="D293" s="42" t="str">
+      <c r="A293" s="47"/>
+      <c r="D293" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5253,8 +5279,8 @@
       <c r="H293" s="13"/>
     </row>
     <row r="294" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A294" s="49"/>
-      <c r="D294" s="42" t="str">
+      <c r="A294" s="47"/>
+      <c r="D294" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5263,8 +5289,8 @@
       <c r="H294" s="13"/>
     </row>
     <row r="295" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A295" s="49"/>
-      <c r="D295" s="42" t="str">
+      <c r="A295" s="47"/>
+      <c r="D295" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5273,8 +5299,8 @@
       <c r="H295" s="13"/>
     </row>
     <row r="296" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A296" s="49"/>
-      <c r="D296" s="42" t="str">
+      <c r="A296" s="47"/>
+      <c r="D296" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5283,8 +5309,8 @@
       <c r="H296" s="13"/>
     </row>
     <row r="297" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A297" s="49"/>
-      <c r="D297" s="42" t="str">
+      <c r="A297" s="47"/>
+      <c r="D297" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5293,8 +5319,8 @@
       <c r="H297" s="13"/>
     </row>
     <row r="298" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A298" s="49"/>
-      <c r="D298" s="42" t="str">
+      <c r="A298" s="47"/>
+      <c r="D298" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5303,8 +5329,8 @@
       <c r="H298" s="13"/>
     </row>
     <row r="299" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A299" s="49"/>
-      <c r="D299" s="42" t="str">
+      <c r="A299" s="47"/>
+      <c r="D299" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5313,8 +5339,8 @@
       <c r="H299" s="13"/>
     </row>
     <row r="300" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A300" s="49"/>
-      <c r="D300" s="42" t="str">
+      <c r="A300" s="47"/>
+      <c r="D300" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5323,8 +5349,8 @@
       <c r="H300" s="13"/>
     </row>
     <row r="301" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A301" s="49"/>
-      <c r="D301" s="42" t="str">
+      <c r="A301" s="47"/>
+      <c r="D301" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5333,8 +5359,8 @@
       <c r="H301" s="13"/>
     </row>
     <row r="302" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A302" s="49"/>
-      <c r="D302" s="42" t="str">
+      <c r="A302" s="47"/>
+      <c r="D302" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5343,8 +5369,8 @@
       <c r="H302" s="13"/>
     </row>
     <row r="303" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A303" s="49"/>
-      <c r="D303" s="42" t="str">
+      <c r="A303" s="47"/>
+      <c r="D303" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5353,8 +5379,8 @@
       <c r="H303" s="13"/>
     </row>
     <row r="304" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A304" s="49"/>
-      <c r="D304" s="42" t="str">
+      <c r="A304" s="47"/>
+      <c r="D304" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5363,8 +5389,8 @@
       <c r="H304" s="13"/>
     </row>
     <row r="305" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A305" s="49"/>
-      <c r="D305" s="42" t="str">
+      <c r="A305" s="47"/>
+      <c r="D305" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5373,8 +5399,8 @@
       <c r="H305" s="13"/>
     </row>
     <row r="306" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A306" s="49"/>
-      <c r="D306" s="42" t="str">
+      <c r="A306" s="47"/>
+      <c r="D306" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5383,8 +5409,8 @@
       <c r="H306" s="13"/>
     </row>
     <row r="307" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A307" s="49"/>
-      <c r="D307" s="42" t="str">
+      <c r="A307" s="47"/>
+      <c r="D307" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5393,8 +5419,8 @@
       <c r="H307" s="13"/>
     </row>
     <row r="308" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A308" s="49"/>
-      <c r="D308" s="42" t="str">
+      <c r="A308" s="47"/>
+      <c r="D308" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5403,8 +5429,8 @@
       <c r="H308" s="13"/>
     </row>
     <row r="309" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A309" s="49"/>
-      <c r="D309" s="42" t="str">
+      <c r="A309" s="47"/>
+      <c r="D309" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5413,8 +5439,8 @@
       <c r="H309" s="13"/>
     </row>
     <row r="310" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A310" s="49"/>
-      <c r="D310" s="42" t="str">
+      <c r="A310" s="47"/>
+      <c r="D310" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5423,8 +5449,8 @@
       <c r="H310" s="13"/>
     </row>
     <row r="311" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A311" s="49"/>
-      <c r="D311" s="42" t="str">
+      <c r="A311" s="47"/>
+      <c r="D311" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5433,8 +5459,8 @@
       <c r="H311" s="13"/>
     </row>
     <row r="312" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A312" s="49"/>
-      <c r="D312" s="42" t="str">
+      <c r="A312" s="47"/>
+      <c r="D312" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5443,8 +5469,8 @@
       <c r="H312" s="13"/>
     </row>
     <row r="313" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A313" s="49"/>
-      <c r="D313" s="42" t="str">
+      <c r="A313" s="47"/>
+      <c r="D313" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5453,8 +5479,8 @@
       <c r="H313" s="13"/>
     </row>
     <row r="314" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A314" s="49"/>
-      <c r="D314" s="42" t="str">
+      <c r="A314" s="47"/>
+      <c r="D314" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5463,8 +5489,8 @@
       <c r="H314" s="13"/>
     </row>
     <row r="315" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A315" s="49"/>
-      <c r="D315" s="42" t="str">
+      <c r="A315" s="47"/>
+      <c r="D315" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5473,8 +5499,8 @@
       <c r="H315" s="13"/>
     </row>
     <row r="316" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A316" s="49"/>
-      <c r="D316" s="42" t="str">
+      <c r="A316" s="47"/>
+      <c r="D316" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5483,8 +5509,8 @@
       <c r="H316" s="13"/>
     </row>
     <row r="317" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A317" s="49"/>
-      <c r="D317" s="42" t="str">
+      <c r="A317" s="47"/>
+      <c r="D317" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5493,8 +5519,8 @@
       <c r="H317" s="13"/>
     </row>
     <row r="318" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A318" s="49"/>
-      <c r="D318" s="42" t="str">
+      <c r="A318" s="47"/>
+      <c r="D318" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5503,8 +5529,8 @@
       <c r="H318" s="13"/>
     </row>
     <row r="319" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A319" s="49"/>
-      <c r="D319" s="42" t="str">
+      <c r="A319" s="47"/>
+      <c r="D319" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5513,8 +5539,8 @@
       <c r="H319" s="13"/>
     </row>
     <row r="320" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A320" s="49"/>
-      <c r="D320" s="42" t="str">
+      <c r="A320" s="47"/>
+      <c r="D320" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5523,9 +5549,9 @@
       <c r="H320" s="13"/>
     </row>
     <row r="321" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A321" s="49"/>
-      <c r="D321" s="42" t="str">
-        <f t="shared" si="3"/>
+      <c r="A321" s="47"/>
+      <c r="D321" s="40" t="str">
+        <f t="shared" ref="D321:D339" si="4">UPPER(C321)</f>
         <v/>
       </c>
       <c r="F321" s="11"/>
@@ -5533,9 +5559,9 @@
       <c r="H321" s="13"/>
     </row>
     <row r="322" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A322" s="49"/>
-      <c r="D322" s="42" t="str">
-        <f t="shared" ref="D322:D340" si="4">UPPER(C322)</f>
+      <c r="A322" s="47"/>
+      <c r="D322" s="40" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F322" s="11"/>
@@ -5543,8 +5569,8 @@
       <c r="H322" s="13"/>
     </row>
     <row r="323" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A323" s="49"/>
-      <c r="D323" s="42" t="str">
+      <c r="A323" s="47"/>
+      <c r="D323" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5553,8 +5579,8 @@
       <c r="H323" s="13"/>
     </row>
     <row r="324" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A324" s="49"/>
-      <c r="D324" s="42" t="str">
+      <c r="A324" s="47"/>
+      <c r="D324" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5563,8 +5589,8 @@
       <c r="H324" s="13"/>
     </row>
     <row r="325" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A325" s="49"/>
-      <c r="D325" s="42" t="str">
+      <c r="A325" s="47"/>
+      <c r="D325" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5573,8 +5599,8 @@
       <c r="H325" s="13"/>
     </row>
     <row r="326" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A326" s="49"/>
-      <c r="D326" s="42" t="str">
+      <c r="A326" s="47"/>
+      <c r="D326" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5583,8 +5609,8 @@
       <c r="H326" s="13"/>
     </row>
     <row r="327" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A327" s="49"/>
-      <c r="D327" s="42" t="str">
+      <c r="A327" s="47"/>
+      <c r="D327" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5593,8 +5619,8 @@
       <c r="H327" s="13"/>
     </row>
     <row r="328" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A328" s="49"/>
-      <c r="D328" s="42" t="str">
+      <c r="A328" s="47"/>
+      <c r="D328" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5603,8 +5629,8 @@
       <c r="H328" s="13"/>
     </row>
     <row r="329" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A329" s="49"/>
-      <c r="D329" s="42" t="str">
+      <c r="A329" s="47"/>
+      <c r="D329" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5613,8 +5639,8 @@
       <c r="H329" s="13"/>
     </row>
     <row r="330" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A330" s="49"/>
-      <c r="D330" s="42" t="str">
+      <c r="A330" s="47"/>
+      <c r="D330" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5623,8 +5649,8 @@
       <c r="H330" s="13"/>
     </row>
     <row r="331" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A331" s="49"/>
-      <c r="D331" s="42" t="str">
+      <c r="A331" s="47"/>
+      <c r="D331" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5633,8 +5659,8 @@
       <c r="H331" s="13"/>
     </row>
     <row r="332" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A332" s="49"/>
-      <c r="D332" s="42" t="str">
+      <c r="A332" s="47"/>
+      <c r="D332" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5643,8 +5669,8 @@
       <c r="H332" s="13"/>
     </row>
     <row r="333" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A333" s="49"/>
-      <c r="D333" s="42" t="str">
+      <c r="A333" s="47"/>
+      <c r="D333" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5653,8 +5679,8 @@
       <c r="H333" s="13"/>
     </row>
     <row r="334" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A334" s="49"/>
-      <c r="D334" s="42" t="str">
+      <c r="A334" s="47"/>
+      <c r="D334" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5663,8 +5689,8 @@
       <c r="H334" s="13"/>
     </row>
     <row r="335" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A335" s="49"/>
-      <c r="D335" s="42" t="str">
+      <c r="A335" s="47"/>
+      <c r="D335" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5673,8 +5699,8 @@
       <c r="H335" s="13"/>
     </row>
     <row r="336" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A336" s="49"/>
-      <c r="D336" s="42" t="str">
+      <c r="A336" s="47"/>
+      <c r="D336" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5683,8 +5709,8 @@
       <c r="H336" s="13"/>
     </row>
     <row r="337" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A337" s="49"/>
-      <c r="D337" s="42" t="str">
+      <c r="A337" s="47"/>
+      <c r="D337" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5693,8 +5719,8 @@
       <c r="H337" s="13"/>
     </row>
     <row r="338" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A338" s="49"/>
-      <c r="D338" s="42" t="str">
+      <c r="A338" s="47"/>
+      <c r="D338" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5703,8 +5729,8 @@
       <c r="H338" s="13"/>
     </row>
     <row r="339" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A339" s="49"/>
-      <c r="D339" s="42" t="str">
+      <c r="A339" s="47"/>
+      <c r="D339" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5713,4042 +5739,4027 @@
       <c r="H339" s="13"/>
     </row>
     <row r="340" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A340" s="49"/>
-      <c r="D340" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="A340" s="47"/>
       <c r="F340" s="11"/>
       <c r="G340" s="12"/>
       <c r="H340" s="13"/>
     </row>
     <row r="341" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A341" s="49"/>
+      <c r="A341" s="47"/>
       <c r="F341" s="11"/>
       <c r="G341" s="12"/>
       <c r="H341" s="13"/>
     </row>
     <row r="342" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A342" s="49"/>
+      <c r="A342" s="47"/>
       <c r="F342" s="11"/>
       <c r="G342" s="12"/>
       <c r="H342" s="13"/>
     </row>
     <row r="343" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A343" s="49"/>
+      <c r="A343" s="47"/>
       <c r="F343" s="11"/>
       <c r="G343" s="12"/>
       <c r="H343" s="13"/>
     </row>
     <row r="344" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A344" s="49"/>
+      <c r="A344" s="47"/>
       <c r="F344" s="11"/>
       <c r="G344" s="12"/>
       <c r="H344" s="13"/>
     </row>
     <row r="345" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A345" s="49"/>
+      <c r="A345" s="47"/>
       <c r="F345" s="11"/>
       <c r="G345" s="12"/>
       <c r="H345" s="13"/>
     </row>
     <row r="346" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A346" s="49"/>
+      <c r="A346" s="47"/>
       <c r="F346" s="11"/>
       <c r="G346" s="12"/>
       <c r="H346" s="13"/>
     </row>
     <row r="347" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A347" s="49"/>
+      <c r="A347" s="47"/>
       <c r="F347" s="11"/>
       <c r="G347" s="12"/>
       <c r="H347" s="13"/>
     </row>
     <row r="348" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A348" s="49"/>
+      <c r="A348" s="47"/>
       <c r="F348" s="11"/>
       <c r="G348" s="12"/>
       <c r="H348" s="13"/>
     </row>
     <row r="349" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A349" s="49"/>
+      <c r="A349" s="47"/>
       <c r="F349" s="11"/>
       <c r="G349" s="12"/>
       <c r="H349" s="13"/>
     </row>
     <row r="350" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A350" s="49"/>
+      <c r="A350" s="47"/>
       <c r="F350" s="11"/>
       <c r="G350" s="12"/>
       <c r="H350" s="13"/>
     </row>
     <row r="351" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A351" s="49"/>
+      <c r="A351" s="47"/>
       <c r="F351" s="11"/>
       <c r="G351" s="12"/>
       <c r="H351" s="13"/>
     </row>
     <row r="352" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A352" s="49"/>
+      <c r="A352" s="47"/>
       <c r="F352" s="11"/>
       <c r="G352" s="12"/>
       <c r="H352" s="13"/>
     </row>
     <row r="353" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A353" s="49"/>
+      <c r="A353" s="47"/>
       <c r="F353" s="11"/>
       <c r="G353" s="12"/>
       <c r="H353" s="13"/>
     </row>
     <row r="354" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A354" s="49"/>
+      <c r="A354" s="47"/>
       <c r="F354" s="11"/>
       <c r="G354" s="12"/>
       <c r="H354" s="13"/>
     </row>
     <row r="355" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A355" s="49"/>
+      <c r="A355" s="47"/>
       <c r="F355" s="11"/>
       <c r="G355" s="12"/>
       <c r="H355" s="13"/>
     </row>
     <row r="356" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A356" s="49"/>
+      <c r="A356" s="47"/>
       <c r="F356" s="11"/>
       <c r="G356" s="12"/>
       <c r="H356" s="13"/>
     </row>
     <row r="357" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A357" s="49"/>
+      <c r="A357" s="47"/>
       <c r="F357" s="11"/>
       <c r="G357" s="12"/>
       <c r="H357" s="13"/>
     </row>
     <row r="358" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A358" s="49"/>
+      <c r="A358" s="47"/>
       <c r="F358" s="11"/>
       <c r="G358" s="12"/>
       <c r="H358" s="13"/>
     </row>
     <row r="359" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A359" s="49"/>
+      <c r="A359" s="47"/>
       <c r="F359" s="11"/>
       <c r="G359" s="12"/>
       <c r="H359" s="13"/>
     </row>
     <row r="360" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A360" s="49"/>
+      <c r="A360" s="47"/>
       <c r="F360" s="11"/>
       <c r="G360" s="12"/>
       <c r="H360" s="13"/>
     </row>
     <row r="361" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A361" s="49"/>
+      <c r="A361" s="47"/>
       <c r="F361" s="11"/>
       <c r="G361" s="12"/>
       <c r="H361" s="13"/>
     </row>
     <row r="362" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A362" s="49"/>
+      <c r="A362" s="47"/>
       <c r="F362" s="11"/>
       <c r="G362" s="12"/>
       <c r="H362" s="13"/>
     </row>
     <row r="363" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A363" s="49"/>
+      <c r="A363" s="47"/>
       <c r="F363" s="11"/>
       <c r="G363" s="12"/>
       <c r="H363" s="13"/>
     </row>
     <row r="364" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A364" s="49"/>
+      <c r="A364" s="47"/>
       <c r="F364" s="11"/>
       <c r="G364" s="12"/>
       <c r="H364" s="13"/>
     </row>
     <row r="365" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A365" s="49"/>
+      <c r="A365" s="47"/>
       <c r="F365" s="11"/>
       <c r="G365" s="12"/>
       <c r="H365" s="13"/>
     </row>
     <row r="366" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A366" s="49"/>
+      <c r="A366" s="47"/>
       <c r="F366" s="11"/>
       <c r="G366" s="12"/>
       <c r="H366" s="13"/>
     </row>
     <row r="367" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A367" s="49"/>
+      <c r="A367" s="47"/>
       <c r="F367" s="11"/>
       <c r="G367" s="12"/>
       <c r="H367" s="13"/>
     </row>
     <row r="368" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A368" s="49"/>
+      <c r="A368" s="47"/>
       <c r="F368" s="11"/>
       <c r="G368" s="12"/>
       <c r="H368" s="13"/>
     </row>
     <row r="369" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A369" s="49"/>
+      <c r="A369" s="47"/>
       <c r="F369" s="11"/>
       <c r="G369" s="12"/>
       <c r="H369" s="13"/>
     </row>
     <row r="370" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A370" s="49"/>
+      <c r="A370" s="47"/>
       <c r="F370" s="11"/>
       <c r="G370" s="12"/>
       <c r="H370" s="13"/>
     </row>
     <row r="371" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A371" s="49"/>
+      <c r="A371" s="47"/>
       <c r="F371" s="11"/>
       <c r="G371" s="12"/>
       <c r="H371" s="13"/>
     </row>
     <row r="372" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A372" s="49"/>
+      <c r="A372" s="47"/>
       <c r="F372" s="11"/>
       <c r="G372" s="12"/>
       <c r="H372" s="13"/>
     </row>
     <row r="373" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A373" s="49"/>
+      <c r="A373" s="47"/>
       <c r="F373" s="11"/>
       <c r="G373" s="12"/>
       <c r="H373" s="13"/>
     </row>
     <row r="374" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A374" s="49"/>
+      <c r="A374" s="47"/>
       <c r="F374" s="11"/>
       <c r="G374" s="12"/>
       <c r="H374" s="13"/>
     </row>
     <row r="375" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A375" s="49"/>
+      <c r="A375" s="47"/>
       <c r="F375" s="11"/>
       <c r="G375" s="12"/>
       <c r="H375" s="13"/>
     </row>
     <row r="376" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A376" s="49"/>
+      <c r="A376" s="47"/>
       <c r="F376" s="11"/>
       <c r="G376" s="12"/>
       <c r="H376" s="13"/>
     </row>
     <row r="377" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A377" s="49"/>
+      <c r="A377" s="47"/>
       <c r="F377" s="11"/>
       <c r="G377" s="12"/>
       <c r="H377" s="13"/>
     </row>
     <row r="378" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A378" s="49"/>
+      <c r="A378" s="47"/>
       <c r="F378" s="11"/>
       <c r="G378" s="12"/>
       <c r="H378" s="13"/>
     </row>
     <row r="379" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A379" s="49"/>
+      <c r="A379" s="47"/>
       <c r="F379" s="11"/>
       <c r="G379" s="12"/>
       <c r="H379" s="13"/>
     </row>
     <row r="380" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A380" s="49"/>
+      <c r="A380" s="47"/>
       <c r="F380" s="11"/>
       <c r="G380" s="12"/>
       <c r="H380" s="13"/>
     </row>
     <row r="381" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A381" s="49"/>
+      <c r="A381" s="47"/>
       <c r="F381" s="11"/>
       <c r="G381" s="12"/>
       <c r="H381" s="13"/>
     </row>
     <row r="382" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A382" s="49"/>
+      <c r="A382" s="47"/>
       <c r="F382" s="11"/>
       <c r="G382" s="12"/>
       <c r="H382" s="13"/>
     </row>
     <row r="383" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A383" s="49"/>
+      <c r="A383" s="47"/>
       <c r="F383" s="11"/>
       <c r="G383" s="12"/>
       <c r="H383" s="13"/>
     </row>
     <row r="384" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A384" s="49"/>
+      <c r="A384" s="47"/>
       <c r="F384" s="11"/>
       <c r="G384" s="12"/>
       <c r="H384" s="13"/>
     </row>
     <row r="385" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A385" s="49"/>
+      <c r="A385" s="47"/>
       <c r="F385" s="11"/>
       <c r="G385" s="12"/>
       <c r="H385" s="13"/>
     </row>
     <row r="386" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A386" s="49"/>
+      <c r="A386" s="47"/>
       <c r="F386" s="11"/>
       <c r="G386" s="12"/>
       <c r="H386" s="13"/>
     </row>
     <row r="387" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A387" s="49"/>
+      <c r="A387" s="47"/>
       <c r="F387" s="11"/>
       <c r="G387" s="12"/>
       <c r="H387" s="13"/>
     </row>
     <row r="388" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A388" s="49"/>
+      <c r="A388" s="47"/>
       <c r="F388" s="11"/>
       <c r="G388" s="12"/>
       <c r="H388" s="13"/>
     </row>
     <row r="389" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A389" s="49"/>
+      <c r="A389" s="47"/>
       <c r="F389" s="11"/>
       <c r="G389" s="12"/>
       <c r="H389" s="13"/>
     </row>
     <row r="390" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A390" s="49"/>
+      <c r="A390" s="47"/>
       <c r="F390" s="11"/>
       <c r="G390" s="12"/>
       <c r="H390" s="13"/>
     </row>
     <row r="391" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A391" s="49"/>
+      <c r="A391" s="47"/>
       <c r="F391" s="11"/>
       <c r="G391" s="12"/>
       <c r="H391" s="13"/>
     </row>
     <row r="392" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A392" s="49"/>
+      <c r="A392" s="47"/>
       <c r="F392" s="11"/>
       <c r="G392" s="12"/>
       <c r="H392" s="13"/>
     </row>
     <row r="393" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A393" s="49"/>
+      <c r="A393" s="47"/>
       <c r="F393" s="11"/>
       <c r="G393" s="12"/>
       <c r="H393" s="13"/>
     </row>
     <row r="394" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A394" s="49"/>
+      <c r="A394" s="47"/>
       <c r="F394" s="11"/>
       <c r="G394" s="12"/>
       <c r="H394" s="13"/>
     </row>
     <row r="395" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A395" s="49"/>
+      <c r="A395" s="47"/>
       <c r="F395" s="11"/>
       <c r="G395" s="12"/>
       <c r="H395" s="13"/>
     </row>
     <row r="396" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A396" s="49"/>
+      <c r="A396" s="47"/>
       <c r="F396" s="11"/>
       <c r="G396" s="12"/>
       <c r="H396" s="13"/>
     </row>
     <row r="397" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A397" s="49"/>
+      <c r="A397" s="47"/>
       <c r="F397" s="11"/>
       <c r="G397" s="12"/>
       <c r="H397" s="13"/>
     </row>
     <row r="398" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A398" s="49"/>
+      <c r="A398" s="47"/>
       <c r="F398" s="11"/>
       <c r="G398" s="12"/>
       <c r="H398" s="13"/>
     </row>
     <row r="399" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A399" s="49"/>
+      <c r="A399" s="47"/>
       <c r="F399" s="11"/>
       <c r="G399" s="12"/>
       <c r="H399" s="13"/>
     </row>
     <row r="400" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A400" s="49"/>
+      <c r="A400" s="47"/>
       <c r="F400" s="11"/>
       <c r="G400" s="12"/>
       <c r="H400" s="13"/>
     </row>
     <row r="401" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A401" s="49"/>
+      <c r="A401" s="47"/>
       <c r="F401" s="11"/>
       <c r="G401" s="12"/>
       <c r="H401" s="13"/>
     </row>
     <row r="402" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A402" s="49"/>
+      <c r="A402" s="47"/>
       <c r="F402" s="11"/>
       <c r="G402" s="12"/>
       <c r="H402" s="13"/>
     </row>
     <row r="403" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A403" s="49"/>
+      <c r="A403" s="47"/>
       <c r="F403" s="11"/>
       <c r="G403" s="12"/>
       <c r="H403" s="13"/>
     </row>
     <row r="404" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A404" s="49"/>
+      <c r="A404" s="47"/>
       <c r="F404" s="11"/>
       <c r="G404" s="12"/>
       <c r="H404" s="13"/>
     </row>
     <row r="405" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A405" s="49"/>
+      <c r="A405" s="47"/>
       <c r="F405" s="11"/>
       <c r="G405" s="12"/>
       <c r="H405" s="13"/>
     </row>
     <row r="406" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A406" s="49"/>
+      <c r="A406" s="47"/>
       <c r="F406" s="11"/>
       <c r="G406" s="12"/>
       <c r="H406" s="13"/>
     </row>
     <row r="407" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A407" s="49"/>
+      <c r="A407" s="47"/>
       <c r="F407" s="11"/>
       <c r="G407" s="12"/>
       <c r="H407" s="13"/>
     </row>
     <row r="408" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A408" s="49"/>
+      <c r="A408" s="47"/>
       <c r="F408" s="11"/>
       <c r="G408" s="12"/>
       <c r="H408" s="13"/>
     </row>
     <row r="409" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A409" s="49"/>
+      <c r="A409" s="47"/>
       <c r="F409" s="11"/>
       <c r="G409" s="12"/>
       <c r="H409" s="13"/>
     </row>
     <row r="410" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A410" s="49"/>
+      <c r="A410" s="47"/>
       <c r="F410" s="11"/>
       <c r="G410" s="12"/>
       <c r="H410" s="13"/>
     </row>
     <row r="411" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A411" s="49"/>
+      <c r="A411" s="47"/>
       <c r="F411" s="11"/>
       <c r="G411" s="12"/>
       <c r="H411" s="13"/>
     </row>
     <row r="412" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A412" s="49"/>
+      <c r="A412" s="47"/>
       <c r="F412" s="11"/>
       <c r="G412" s="12"/>
       <c r="H412" s="13"/>
     </row>
     <row r="413" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A413" s="49"/>
+      <c r="A413" s="47"/>
       <c r="F413" s="11"/>
       <c r="G413" s="12"/>
       <c r="H413" s="13"/>
     </row>
     <row r="414" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A414" s="49"/>
+      <c r="A414" s="47"/>
       <c r="F414" s="11"/>
       <c r="G414" s="12"/>
       <c r="H414" s="13"/>
     </row>
     <row r="415" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A415" s="49"/>
+      <c r="A415" s="47"/>
       <c r="F415" s="11"/>
       <c r="G415" s="12"/>
       <c r="H415" s="13"/>
     </row>
     <row r="416" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A416" s="49"/>
+      <c r="A416" s="47"/>
       <c r="F416" s="11"/>
       <c r="G416" s="12"/>
       <c r="H416" s="13"/>
     </row>
     <row r="417" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A417" s="49"/>
+      <c r="A417" s="47"/>
       <c r="F417" s="11"/>
       <c r="G417" s="12"/>
       <c r="H417" s="13"/>
     </row>
     <row r="418" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A418" s="49"/>
+      <c r="A418" s="47"/>
       <c r="F418" s="11"/>
       <c r="G418" s="12"/>
       <c r="H418" s="13"/>
     </row>
     <row r="419" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A419" s="49"/>
+      <c r="A419" s="47"/>
       <c r="F419" s="11"/>
       <c r="G419" s="12"/>
       <c r="H419" s="13"/>
     </row>
     <row r="420" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A420" s="49"/>
+      <c r="A420" s="47"/>
       <c r="F420" s="11"/>
       <c r="G420" s="12"/>
       <c r="H420" s="13"/>
     </row>
     <row r="421" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A421" s="49"/>
+      <c r="A421" s="47"/>
       <c r="F421" s="11"/>
       <c r="G421" s="12"/>
       <c r="H421" s="13"/>
     </row>
     <row r="422" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A422" s="49"/>
+      <c r="A422" s="47"/>
       <c r="F422" s="11"/>
       <c r="G422" s="12"/>
       <c r="H422" s="13"/>
     </row>
     <row r="423" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A423" s="49"/>
+      <c r="A423" s="47"/>
       <c r="F423" s="11"/>
       <c r="G423" s="12"/>
       <c r="H423" s="13"/>
     </row>
     <row r="424" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A424" s="49"/>
+      <c r="A424" s="47"/>
       <c r="F424" s="11"/>
       <c r="G424" s="12"/>
       <c r="H424" s="13"/>
     </row>
     <row r="425" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A425" s="49"/>
+      <c r="A425" s="47"/>
       <c r="F425" s="11"/>
       <c r="G425" s="12"/>
       <c r="H425" s="13"/>
     </row>
     <row r="426" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A426" s="49"/>
+      <c r="A426" s="47"/>
       <c r="F426" s="11"/>
       <c r="G426" s="12"/>
       <c r="H426" s="13"/>
     </row>
     <row r="427" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A427" s="49"/>
+      <c r="A427" s="47"/>
       <c r="F427" s="11"/>
       <c r="G427" s="12"/>
       <c r="H427" s="13"/>
     </row>
     <row r="428" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A428" s="49"/>
+      <c r="A428" s="47"/>
       <c r="F428" s="11"/>
       <c r="G428" s="12"/>
       <c r="H428" s="13"/>
     </row>
     <row r="429" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A429" s="49"/>
+      <c r="A429" s="47"/>
       <c r="F429" s="11"/>
       <c r="G429" s="12"/>
       <c r="H429" s="13"/>
     </row>
     <row r="430" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A430" s="49"/>
+      <c r="A430" s="47"/>
       <c r="F430" s="11"/>
       <c r="G430" s="12"/>
       <c r="H430" s="13"/>
     </row>
     <row r="431" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A431" s="49"/>
+      <c r="A431" s="47"/>
       <c r="F431" s="11"/>
       <c r="G431" s="12"/>
       <c r="H431" s="13"/>
     </row>
     <row r="432" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A432" s="49"/>
+      <c r="A432" s="47"/>
       <c r="F432" s="11"/>
       <c r="G432" s="12"/>
       <c r="H432" s="13"/>
     </row>
     <row r="433" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A433" s="49"/>
+      <c r="A433" s="47"/>
       <c r="F433" s="11"/>
       <c r="G433" s="12"/>
       <c r="H433" s="13"/>
     </row>
     <row r="434" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A434" s="49"/>
+      <c r="A434" s="47"/>
       <c r="F434" s="11"/>
       <c r="G434" s="12"/>
       <c r="H434" s="13"/>
     </row>
     <row r="435" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A435" s="49"/>
+      <c r="A435" s="47"/>
       <c r="F435" s="11"/>
       <c r="G435" s="12"/>
       <c r="H435" s="13"/>
     </row>
     <row r="436" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A436" s="49"/>
+      <c r="A436" s="47"/>
       <c r="F436" s="11"/>
       <c r="G436" s="12"/>
       <c r="H436" s="13"/>
     </row>
     <row r="437" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A437" s="49"/>
+      <c r="A437" s="47"/>
       <c r="F437" s="11"/>
       <c r="G437" s="12"/>
       <c r="H437" s="13"/>
     </row>
     <row r="438" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A438" s="49"/>
+      <c r="A438" s="47"/>
       <c r="F438" s="11"/>
       <c r="G438" s="12"/>
       <c r="H438" s="13"/>
     </row>
     <row r="439" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A439" s="49"/>
+      <c r="A439" s="47"/>
       <c r="F439" s="11"/>
       <c r="G439" s="12"/>
       <c r="H439" s="13"/>
     </row>
     <row r="440" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A440" s="49"/>
+      <c r="A440" s="47"/>
       <c r="F440" s="11"/>
       <c r="G440" s="12"/>
       <c r="H440" s="13"/>
     </row>
     <row r="441" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A441" s="49"/>
+      <c r="A441" s="47"/>
       <c r="F441" s="11"/>
       <c r="G441" s="12"/>
       <c r="H441" s="13"/>
     </row>
     <row r="442" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A442" s="49"/>
+      <c r="A442" s="47"/>
       <c r="F442" s="11"/>
       <c r="G442" s="12"/>
       <c r="H442" s="13"/>
     </row>
     <row r="443" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A443" s="49"/>
+      <c r="A443" s="47"/>
       <c r="F443" s="11"/>
       <c r="G443" s="12"/>
       <c r="H443" s="13"/>
     </row>
     <row r="444" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A444" s="49"/>
+      <c r="A444" s="47"/>
       <c r="F444" s="11"/>
       <c r="G444" s="12"/>
       <c r="H444" s="13"/>
     </row>
     <row r="445" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A445" s="49"/>
+      <c r="A445" s="47"/>
       <c r="F445" s="11"/>
       <c r="G445" s="12"/>
       <c r="H445" s="13"/>
     </row>
     <row r="446" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A446" s="49"/>
+      <c r="A446" s="47"/>
       <c r="F446" s="11"/>
       <c r="G446" s="12"/>
       <c r="H446" s="13"/>
     </row>
     <row r="447" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A447" s="49"/>
+      <c r="A447" s="47"/>
       <c r="F447" s="11"/>
       <c r="G447" s="12"/>
       <c r="H447" s="13"/>
     </row>
     <row r="448" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A448" s="49"/>
+      <c r="A448" s="47"/>
       <c r="F448" s="11"/>
       <c r="G448" s="12"/>
       <c r="H448" s="13"/>
     </row>
     <row r="449" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A449" s="49"/>
+      <c r="A449" s="47"/>
       <c r="F449" s="11"/>
       <c r="G449" s="12"/>
       <c r="H449" s="13"/>
     </row>
     <row r="450" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A450" s="49"/>
+      <c r="A450" s="47"/>
       <c r="F450" s="11"/>
       <c r="G450" s="12"/>
       <c r="H450" s="13"/>
     </row>
     <row r="451" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A451" s="49"/>
+      <c r="A451" s="47"/>
       <c r="F451" s="11"/>
       <c r="G451" s="12"/>
       <c r="H451" s="13"/>
     </row>
     <row r="452" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A452" s="49"/>
+      <c r="A452" s="47"/>
       <c r="F452" s="11"/>
       <c r="G452" s="12"/>
       <c r="H452" s="13"/>
     </row>
     <row r="453" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A453" s="49"/>
+      <c r="A453" s="47"/>
       <c r="F453" s="11"/>
       <c r="G453" s="12"/>
       <c r="H453" s="13"/>
     </row>
     <row r="454" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A454" s="49"/>
+      <c r="A454" s="47"/>
       <c r="F454" s="11"/>
       <c r="G454" s="12"/>
       <c r="H454" s="13"/>
     </row>
     <row r="455" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A455" s="49"/>
+      <c r="A455" s="47"/>
       <c r="F455" s="11"/>
       <c r="G455" s="12"/>
       <c r="H455" s="13"/>
     </row>
     <row r="456" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A456" s="49"/>
+      <c r="A456" s="47"/>
       <c r="F456" s="11"/>
       <c r="G456" s="12"/>
       <c r="H456" s="13"/>
     </row>
     <row r="457" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A457" s="49"/>
+      <c r="A457" s="47"/>
       <c r="F457" s="11"/>
       <c r="G457" s="12"/>
       <c r="H457" s="13"/>
     </row>
     <row r="458" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A458" s="49"/>
+      <c r="A458" s="47"/>
       <c r="F458" s="11"/>
       <c r="G458" s="12"/>
       <c r="H458" s="13"/>
     </row>
     <row r="459" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A459" s="49"/>
+      <c r="A459" s="47"/>
       <c r="F459" s="11"/>
       <c r="G459" s="12"/>
       <c r="H459" s="13"/>
     </row>
     <row r="460" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A460" s="49"/>
+      <c r="A460" s="47"/>
       <c r="F460" s="11"/>
       <c r="G460" s="12"/>
       <c r="H460" s="13"/>
     </row>
     <row r="461" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A461" s="49"/>
+      <c r="A461" s="47"/>
       <c r="F461" s="11"/>
       <c r="G461" s="12"/>
       <c r="H461" s="13"/>
     </row>
     <row r="462" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A462" s="49"/>
+      <c r="A462" s="47"/>
       <c r="F462" s="11"/>
       <c r="G462" s="12"/>
       <c r="H462" s="13"/>
     </row>
     <row r="463" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A463" s="49"/>
+      <c r="A463" s="47"/>
       <c r="F463" s="11"/>
       <c r="G463" s="12"/>
       <c r="H463" s="13"/>
     </row>
     <row r="464" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A464" s="49"/>
+      <c r="A464" s="47"/>
       <c r="F464" s="11"/>
       <c r="G464" s="12"/>
       <c r="H464" s="13"/>
     </row>
     <row r="465" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A465" s="49"/>
+      <c r="A465" s="47"/>
       <c r="F465" s="11"/>
       <c r="G465" s="12"/>
       <c r="H465" s="13"/>
     </row>
     <row r="466" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A466" s="49"/>
+      <c r="A466" s="47"/>
       <c r="F466" s="11"/>
       <c r="G466" s="12"/>
       <c r="H466" s="13"/>
     </row>
     <row r="467" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A467" s="49"/>
+      <c r="A467" s="47"/>
       <c r="F467" s="11"/>
       <c r="G467" s="12"/>
       <c r="H467" s="13"/>
     </row>
     <row r="468" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A468" s="49"/>
+      <c r="A468" s="47"/>
       <c r="F468" s="11"/>
       <c r="G468" s="12"/>
       <c r="H468" s="13"/>
     </row>
     <row r="469" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A469" s="49"/>
+      <c r="A469" s="47"/>
       <c r="F469" s="11"/>
       <c r="G469" s="12"/>
       <c r="H469" s="13"/>
     </row>
     <row r="470" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A470" s="49"/>
+      <c r="A470" s="47"/>
       <c r="F470" s="11"/>
       <c r="G470" s="12"/>
       <c r="H470" s="13"/>
     </row>
     <row r="471" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A471" s="49"/>
+      <c r="A471" s="47"/>
       <c r="F471" s="11"/>
       <c r="G471" s="12"/>
       <c r="H471" s="13"/>
     </row>
     <row r="472" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A472" s="49"/>
+      <c r="A472" s="47"/>
       <c r="F472" s="11"/>
       <c r="G472" s="12"/>
       <c r="H472" s="13"/>
     </row>
     <row r="473" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A473" s="49"/>
+      <c r="A473" s="47"/>
       <c r="F473" s="11"/>
       <c r="G473" s="12"/>
       <c r="H473" s="13"/>
     </row>
     <row r="474" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A474" s="49"/>
+      <c r="A474" s="47"/>
       <c r="F474" s="11"/>
       <c r="G474" s="12"/>
       <c r="H474" s="13"/>
     </row>
     <row r="475" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A475" s="49"/>
+      <c r="A475" s="47"/>
       <c r="F475" s="11"/>
       <c r="G475" s="12"/>
       <c r="H475" s="13"/>
     </row>
     <row r="476" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A476" s="49"/>
+      <c r="A476" s="47"/>
       <c r="F476" s="11"/>
       <c r="G476" s="12"/>
       <c r="H476" s="13"/>
     </row>
     <row r="477" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A477" s="49"/>
+      <c r="A477" s="47"/>
       <c r="F477" s="11"/>
       <c r="G477" s="12"/>
       <c r="H477" s="13"/>
     </row>
     <row r="478" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A478" s="49"/>
+      <c r="A478" s="47"/>
       <c r="F478" s="11"/>
       <c r="G478" s="12"/>
       <c r="H478" s="13"/>
     </row>
     <row r="479" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A479" s="49"/>
+      <c r="A479" s="47"/>
       <c r="F479" s="11"/>
       <c r="G479" s="12"/>
       <c r="H479" s="13"/>
     </row>
     <row r="480" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A480" s="49"/>
+      <c r="A480" s="47"/>
       <c r="F480" s="11"/>
       <c r="G480" s="12"/>
       <c r="H480" s="13"/>
     </row>
     <row r="481" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A481" s="49"/>
+      <c r="A481" s="47"/>
       <c r="F481" s="11"/>
       <c r="G481" s="12"/>
       <c r="H481" s="13"/>
     </row>
     <row r="482" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A482" s="49"/>
+      <c r="A482" s="47"/>
       <c r="F482" s="11"/>
       <c r="G482" s="12"/>
       <c r="H482" s="13"/>
     </row>
     <row r="483" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A483" s="49"/>
+      <c r="A483" s="47"/>
       <c r="F483" s="11"/>
       <c r="G483" s="12"/>
       <c r="H483" s="13"/>
     </row>
     <row r="484" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A484" s="49"/>
+      <c r="A484" s="47"/>
       <c r="F484" s="11"/>
       <c r="G484" s="12"/>
       <c r="H484" s="13"/>
     </row>
     <row r="485" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A485" s="49"/>
+      <c r="A485" s="47"/>
       <c r="F485" s="11"/>
       <c r="G485" s="12"/>
       <c r="H485" s="13"/>
     </row>
     <row r="486" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A486" s="49"/>
+      <c r="A486" s="47"/>
       <c r="F486" s="11"/>
       <c r="G486" s="12"/>
       <c r="H486" s="13"/>
     </row>
     <row r="487" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A487" s="49"/>
+      <c r="A487" s="47"/>
       <c r="F487" s="11"/>
       <c r="G487" s="12"/>
       <c r="H487" s="13"/>
     </row>
     <row r="488" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A488" s="49"/>
+      <c r="A488" s="47"/>
       <c r="F488" s="11"/>
       <c r="G488" s="12"/>
       <c r="H488" s="13"/>
     </row>
     <row r="489" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A489" s="49"/>
+      <c r="A489" s="47"/>
       <c r="F489" s="11"/>
       <c r="G489" s="12"/>
       <c r="H489" s="13"/>
     </row>
     <row r="490" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A490" s="49"/>
+      <c r="A490" s="47"/>
       <c r="F490" s="11"/>
       <c r="G490" s="12"/>
       <c r="H490" s="13"/>
     </row>
     <row r="491" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A491" s="49"/>
+      <c r="A491" s="47"/>
       <c r="F491" s="11"/>
       <c r="G491" s="12"/>
       <c r="H491" s="13"/>
     </row>
     <row r="492" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A492" s="49"/>
+      <c r="A492" s="47"/>
       <c r="F492" s="11"/>
       <c r="G492" s="12"/>
       <c r="H492" s="13"/>
     </row>
     <row r="493" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A493" s="49"/>
+      <c r="A493" s="47"/>
       <c r="F493" s="11"/>
       <c r="G493" s="12"/>
       <c r="H493" s="13"/>
     </row>
     <row r="494" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A494" s="49"/>
+      <c r="A494" s="47"/>
       <c r="F494" s="11"/>
       <c r="G494" s="12"/>
       <c r="H494" s="13"/>
     </row>
     <row r="495" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A495" s="49"/>
+      <c r="A495" s="47"/>
       <c r="F495" s="11"/>
       <c r="G495" s="12"/>
       <c r="H495" s="13"/>
     </row>
     <row r="496" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A496" s="49"/>
+      <c r="A496" s="47"/>
       <c r="F496" s="11"/>
       <c r="G496" s="12"/>
       <c r="H496" s="13"/>
     </row>
     <row r="497" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A497" s="49"/>
+      <c r="A497" s="47"/>
       <c r="F497" s="11"/>
       <c r="G497" s="12"/>
       <c r="H497" s="13"/>
     </row>
     <row r="498" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A498" s="49"/>
+      <c r="A498" s="47"/>
       <c r="F498" s="11"/>
       <c r="G498" s="12"/>
       <c r="H498" s="13"/>
     </row>
     <row r="499" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A499" s="49"/>
+      <c r="A499" s="47"/>
       <c r="F499" s="11"/>
       <c r="G499" s="12"/>
       <c r="H499" s="13"/>
     </row>
     <row r="500" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A500" s="49"/>
+      <c r="A500" s="47"/>
       <c r="F500" s="11"/>
       <c r="G500" s="12"/>
       <c r="H500" s="13"/>
     </row>
     <row r="501" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A501" s="49"/>
+      <c r="A501" s="47"/>
       <c r="F501" s="11"/>
       <c r="G501" s="12"/>
       <c r="H501" s="13"/>
     </row>
     <row r="502" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A502" s="49"/>
+      <c r="A502" s="47"/>
       <c r="F502" s="11"/>
       <c r="G502" s="12"/>
       <c r="H502" s="13"/>
     </row>
     <row r="503" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A503" s="49"/>
+      <c r="A503" s="47"/>
       <c r="F503" s="11"/>
       <c r="G503" s="12"/>
       <c r="H503" s="13"/>
     </row>
     <row r="504" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A504" s="49"/>
+      <c r="A504" s="47"/>
       <c r="F504" s="11"/>
       <c r="G504" s="12"/>
       <c r="H504" s="13"/>
     </row>
     <row r="505" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A505" s="49"/>
+      <c r="A505" s="47"/>
       <c r="F505" s="11"/>
       <c r="G505" s="12"/>
       <c r="H505" s="13"/>
     </row>
     <row r="506" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A506" s="49"/>
+      <c r="A506" s="47"/>
       <c r="F506" s="11"/>
       <c r="G506" s="12"/>
       <c r="H506" s="13"/>
     </row>
     <row r="507" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A507" s="49"/>
+      <c r="A507" s="47"/>
       <c r="F507" s="11"/>
       <c r="G507" s="12"/>
       <c r="H507" s="13"/>
     </row>
     <row r="508" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A508" s="49"/>
+      <c r="A508" s="47"/>
       <c r="F508" s="11"/>
       <c r="G508" s="12"/>
       <c r="H508" s="13"/>
     </row>
     <row r="509" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A509" s="49"/>
+      <c r="A509" s="47"/>
       <c r="F509" s="11"/>
       <c r="G509" s="12"/>
       <c r="H509" s="13"/>
     </row>
     <row r="510" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A510" s="49"/>
+      <c r="A510" s="47"/>
       <c r="F510" s="11"/>
       <c r="G510" s="12"/>
       <c r="H510" s="13"/>
     </row>
     <row r="511" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A511" s="49"/>
+      <c r="A511" s="47"/>
       <c r="F511" s="11"/>
       <c r="G511" s="12"/>
       <c r="H511" s="13"/>
     </row>
     <row r="512" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A512" s="49"/>
+      <c r="A512" s="47"/>
       <c r="F512" s="11"/>
       <c r="G512" s="12"/>
       <c r="H512" s="13"/>
     </row>
     <row r="513" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A513" s="49"/>
+      <c r="A513" s="47"/>
       <c r="F513" s="11"/>
       <c r="G513" s="12"/>
       <c r="H513" s="13"/>
     </row>
     <row r="514" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A514" s="49"/>
+      <c r="A514" s="47"/>
       <c r="F514" s="11"/>
       <c r="G514" s="12"/>
       <c r="H514" s="13"/>
     </row>
     <row r="515" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A515" s="49"/>
+      <c r="A515" s="47"/>
       <c r="F515" s="11"/>
       <c r="G515" s="12"/>
       <c r="H515" s="13"/>
     </row>
     <row r="516" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A516" s="49"/>
+      <c r="A516" s="47"/>
       <c r="F516" s="11"/>
       <c r="G516" s="12"/>
       <c r="H516" s="13"/>
     </row>
     <row r="517" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A517" s="49"/>
+      <c r="A517" s="47"/>
       <c r="F517" s="11"/>
       <c r="G517" s="12"/>
       <c r="H517" s="13"/>
     </row>
     <row r="518" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A518" s="49"/>
+      <c r="A518" s="47"/>
       <c r="F518" s="11"/>
       <c r="G518" s="12"/>
       <c r="H518" s="13"/>
     </row>
     <row r="519" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A519" s="49"/>
+      <c r="A519" s="47"/>
       <c r="F519" s="11"/>
       <c r="G519" s="12"/>
       <c r="H519" s="13"/>
     </row>
     <row r="520" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A520" s="49"/>
+      <c r="A520" s="47"/>
       <c r="F520" s="11"/>
       <c r="G520" s="12"/>
       <c r="H520" s="13"/>
     </row>
     <row r="521" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A521" s="49"/>
+      <c r="A521" s="47"/>
       <c r="F521" s="11"/>
       <c r="G521" s="12"/>
       <c r="H521" s="13"/>
     </row>
     <row r="522" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A522" s="49"/>
+      <c r="A522" s="47"/>
       <c r="F522" s="11"/>
       <c r="G522" s="12"/>
       <c r="H522" s="13"/>
     </row>
     <row r="523" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A523" s="49"/>
+      <c r="A523" s="47"/>
       <c r="F523" s="11"/>
       <c r="G523" s="12"/>
       <c r="H523" s="13"/>
     </row>
     <row r="524" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A524" s="49"/>
+      <c r="A524" s="47"/>
       <c r="F524" s="11"/>
       <c r="G524" s="12"/>
       <c r="H524" s="13"/>
     </row>
     <row r="525" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A525" s="49"/>
+      <c r="A525" s="47"/>
       <c r="F525" s="11"/>
       <c r="G525" s="12"/>
       <c r="H525" s="13"/>
     </row>
     <row r="526" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A526" s="49"/>
+      <c r="A526" s="47"/>
       <c r="F526" s="11"/>
       <c r="G526" s="12"/>
       <c r="H526" s="13"/>
     </row>
     <row r="527" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A527" s="49"/>
+      <c r="A527" s="47"/>
       <c r="F527" s="11"/>
       <c r="G527" s="12"/>
       <c r="H527" s="13"/>
     </row>
     <row r="528" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A528" s="49"/>
+      <c r="A528" s="47"/>
       <c r="F528" s="11"/>
       <c r="G528" s="12"/>
       <c r="H528" s="13"/>
     </row>
     <row r="529" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A529" s="49"/>
+      <c r="A529" s="47"/>
       <c r="F529" s="11"/>
       <c r="G529" s="12"/>
       <c r="H529" s="13"/>
     </row>
     <row r="530" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A530" s="49"/>
+      <c r="A530" s="47"/>
       <c r="F530" s="11"/>
       <c r="G530" s="12"/>
       <c r="H530" s="13"/>
     </row>
     <row r="531" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A531" s="49"/>
+      <c r="A531" s="47"/>
       <c r="F531" s="11"/>
       <c r="G531" s="12"/>
       <c r="H531" s="13"/>
     </row>
     <row r="532" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A532" s="49"/>
+      <c r="A532" s="47"/>
       <c r="F532" s="11"/>
       <c r="G532" s="12"/>
       <c r="H532" s="13"/>
     </row>
     <row r="533" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A533" s="49"/>
+      <c r="A533" s="47"/>
       <c r="F533" s="11"/>
       <c r="G533" s="12"/>
       <c r="H533" s="13"/>
     </row>
     <row r="534" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A534" s="49"/>
+      <c r="A534" s="47"/>
       <c r="F534" s="11"/>
       <c r="G534" s="12"/>
       <c r="H534" s="13"/>
     </row>
     <row r="535" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A535" s="49"/>
+      <c r="A535" s="47"/>
       <c r="F535" s="11"/>
       <c r="G535" s="12"/>
       <c r="H535" s="13"/>
     </row>
     <row r="536" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A536" s="49"/>
+      <c r="A536" s="47"/>
       <c r="F536" s="11"/>
       <c r="G536" s="12"/>
       <c r="H536" s="13"/>
     </row>
     <row r="537" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A537" s="49"/>
+      <c r="A537" s="47"/>
       <c r="F537" s="11"/>
       <c r="G537" s="12"/>
       <c r="H537" s="13"/>
     </row>
     <row r="538" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A538" s="49"/>
+      <c r="A538" s="47"/>
       <c r="F538" s="11"/>
       <c r="G538" s="12"/>
       <c r="H538" s="13"/>
     </row>
     <row r="539" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A539" s="49"/>
+      <c r="A539" s="47"/>
       <c r="F539" s="11"/>
       <c r="G539" s="12"/>
       <c r="H539" s="13"/>
     </row>
     <row r="540" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A540" s="49"/>
+      <c r="A540" s="47"/>
       <c r="F540" s="11"/>
       <c r="G540" s="12"/>
       <c r="H540" s="13"/>
     </row>
     <row r="541" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A541" s="49"/>
+      <c r="A541" s="47"/>
       <c r="F541" s="11"/>
       <c r="G541" s="12"/>
       <c r="H541" s="13"/>
     </row>
     <row r="542" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A542" s="49"/>
+      <c r="A542" s="47"/>
       <c r="F542" s="11"/>
       <c r="G542" s="12"/>
       <c r="H542" s="13"/>
     </row>
     <row r="543" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A543" s="49"/>
+      <c r="A543" s="47"/>
       <c r="F543" s="11"/>
       <c r="G543" s="12"/>
       <c r="H543" s="13"/>
     </row>
     <row r="544" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A544" s="49"/>
+      <c r="A544" s="47"/>
       <c r="F544" s="11"/>
       <c r="G544" s="12"/>
       <c r="H544" s="13"/>
     </row>
     <row r="545" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A545" s="49"/>
+      <c r="A545" s="47"/>
       <c r="F545" s="11"/>
       <c r="G545" s="12"/>
       <c r="H545" s="13"/>
     </row>
     <row r="546" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A546" s="49"/>
+      <c r="A546" s="47"/>
       <c r="F546" s="11"/>
       <c r="G546" s="12"/>
       <c r="H546" s="13"/>
     </row>
     <row r="547" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A547" s="49"/>
+      <c r="A547" s="47"/>
       <c r="F547" s="11"/>
       <c r="G547" s="12"/>
       <c r="H547" s="13"/>
     </row>
     <row r="548" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A548" s="49"/>
+      <c r="A548" s="47"/>
       <c r="F548" s="11"/>
       <c r="G548" s="12"/>
       <c r="H548" s="13"/>
     </row>
     <row r="549" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A549" s="49"/>
+      <c r="A549" s="47"/>
       <c r="F549" s="11"/>
       <c r="G549" s="12"/>
       <c r="H549" s="13"/>
     </row>
     <row r="550" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A550" s="49"/>
+      <c r="A550" s="47"/>
       <c r="F550" s="11"/>
       <c r="G550" s="12"/>
       <c r="H550" s="13"/>
     </row>
     <row r="551" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A551" s="49"/>
+      <c r="A551" s="47"/>
       <c r="F551" s="11"/>
       <c r="G551" s="12"/>
       <c r="H551" s="13"/>
     </row>
     <row r="552" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A552" s="49"/>
+      <c r="A552" s="47"/>
       <c r="F552" s="11"/>
       <c r="G552" s="12"/>
       <c r="H552" s="13"/>
     </row>
     <row r="553" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A553" s="49"/>
+      <c r="A553" s="47"/>
       <c r="F553" s="11"/>
       <c r="G553" s="12"/>
       <c r="H553" s="13"/>
     </row>
     <row r="554" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A554" s="49"/>
+      <c r="A554" s="47"/>
       <c r="F554" s="11"/>
       <c r="G554" s="12"/>
       <c r="H554" s="13"/>
     </row>
     <row r="555" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A555" s="49"/>
+      <c r="A555" s="47"/>
       <c r="F555" s="11"/>
       <c r="G555" s="12"/>
       <c r="H555" s="13"/>
     </row>
     <row r="556" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A556" s="49"/>
+      <c r="A556" s="47"/>
       <c r="F556" s="11"/>
       <c r="G556" s="12"/>
       <c r="H556" s="13"/>
     </row>
     <row r="557" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A557" s="49"/>
+      <c r="A557" s="47"/>
       <c r="F557" s="11"/>
       <c r="G557" s="12"/>
       <c r="H557" s="13"/>
     </row>
     <row r="558" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A558" s="49"/>
+      <c r="A558" s="47"/>
       <c r="F558" s="11"/>
       <c r="G558" s="12"/>
       <c r="H558" s="13"/>
     </row>
     <row r="559" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A559" s="49"/>
+      <c r="A559" s="47"/>
       <c r="F559" s="11"/>
       <c r="G559" s="12"/>
       <c r="H559" s="13"/>
     </row>
     <row r="560" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A560" s="49"/>
+      <c r="A560" s="47"/>
       <c r="F560" s="11"/>
       <c r="G560" s="12"/>
       <c r="H560" s="13"/>
     </row>
     <row r="561" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A561" s="49"/>
+      <c r="A561" s="47"/>
       <c r="F561" s="11"/>
       <c r="G561" s="12"/>
       <c r="H561" s="13"/>
     </row>
     <row r="562" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A562" s="49"/>
+      <c r="A562" s="47"/>
       <c r="F562" s="11"/>
       <c r="G562" s="12"/>
       <c r="H562" s="13"/>
     </row>
     <row r="563" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A563" s="49"/>
+      <c r="A563" s="47"/>
       <c r="F563" s="11"/>
       <c r="G563" s="12"/>
       <c r="H563" s="13"/>
     </row>
     <row r="564" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A564" s="49"/>
+      <c r="A564" s="47"/>
       <c r="F564" s="11"/>
       <c r="G564" s="12"/>
       <c r="H564" s="13"/>
     </row>
     <row r="565" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A565" s="49"/>
+      <c r="A565" s="47"/>
       <c r="F565" s="11"/>
       <c r="G565" s="12"/>
       <c r="H565" s="13"/>
     </row>
     <row r="566" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A566" s="49"/>
+      <c r="A566" s="47"/>
       <c r="F566" s="11"/>
       <c r="G566" s="12"/>
       <c r="H566" s="13"/>
     </row>
     <row r="567" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A567" s="49"/>
+      <c r="A567" s="47"/>
       <c r="F567" s="11"/>
       <c r="G567" s="12"/>
       <c r="H567" s="13"/>
     </row>
     <row r="568" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A568" s="49"/>
+      <c r="A568" s="47"/>
       <c r="F568" s="11"/>
       <c r="G568" s="12"/>
       <c r="H568" s="13"/>
     </row>
     <row r="569" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A569" s="49"/>
+      <c r="A569" s="47"/>
       <c r="F569" s="11"/>
       <c r="G569" s="12"/>
       <c r="H569" s="13"/>
     </row>
     <row r="570" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A570" s="49"/>
+      <c r="A570" s="47"/>
       <c r="F570" s="11"/>
       <c r="G570" s="12"/>
       <c r="H570" s="13"/>
     </row>
     <row r="571" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A571" s="49"/>
+      <c r="A571" s="47"/>
       <c r="F571" s="11"/>
       <c r="G571" s="12"/>
       <c r="H571" s="13"/>
     </row>
     <row r="572" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A572" s="49"/>
+      <c r="A572" s="47"/>
       <c r="F572" s="11"/>
       <c r="G572" s="12"/>
       <c r="H572" s="13"/>
     </row>
     <row r="573" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A573" s="49"/>
+      <c r="A573" s="47"/>
       <c r="F573" s="11"/>
       <c r="G573" s="12"/>
       <c r="H573" s="13"/>
     </row>
     <row r="574" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A574" s="49"/>
+      <c r="A574" s="47"/>
       <c r="F574" s="11"/>
       <c r="G574" s="12"/>
       <c r="H574" s="13"/>
     </row>
     <row r="575" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A575" s="49"/>
+      <c r="A575" s="47"/>
       <c r="F575" s="11"/>
       <c r="G575" s="12"/>
       <c r="H575" s="13"/>
     </row>
     <row r="576" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A576" s="49"/>
+      <c r="A576" s="47"/>
       <c r="F576" s="11"/>
       <c r="G576" s="12"/>
       <c r="H576" s="13"/>
     </row>
     <row r="577" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A577" s="49"/>
+      <c r="A577" s="47"/>
       <c r="F577" s="11"/>
       <c r="G577" s="12"/>
       <c r="H577" s="13"/>
     </row>
     <row r="578" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A578" s="49"/>
+      <c r="A578" s="47"/>
       <c r="F578" s="11"/>
       <c r="G578" s="12"/>
       <c r="H578" s="13"/>
     </row>
     <row r="579" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A579" s="49"/>
+      <c r="A579" s="47"/>
       <c r="F579" s="11"/>
       <c r="G579" s="12"/>
       <c r="H579" s="13"/>
     </row>
     <row r="580" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A580" s="49"/>
+      <c r="A580" s="47"/>
       <c r="F580" s="11"/>
       <c r="G580" s="12"/>
       <c r="H580" s="13"/>
     </row>
     <row r="581" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A581" s="49"/>
+      <c r="A581" s="47"/>
       <c r="F581" s="11"/>
       <c r="G581" s="12"/>
       <c r="H581" s="13"/>
     </row>
     <row r="582" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A582" s="49"/>
+      <c r="A582" s="47"/>
       <c r="F582" s="11"/>
       <c r="G582" s="12"/>
       <c r="H582" s="13"/>
     </row>
     <row r="583" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A583" s="49"/>
+      <c r="A583" s="47"/>
       <c r="F583" s="11"/>
       <c r="G583" s="12"/>
       <c r="H583" s="13"/>
     </row>
     <row r="584" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A584" s="49"/>
+      <c r="A584" s="47"/>
       <c r="F584" s="11"/>
       <c r="G584" s="12"/>
       <c r="H584" s="13"/>
     </row>
     <row r="585" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A585" s="49"/>
+      <c r="A585" s="47"/>
       <c r="F585" s="11"/>
       <c r="G585" s="12"/>
       <c r="H585" s="13"/>
     </row>
     <row r="586" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A586" s="49"/>
+      <c r="A586" s="47"/>
       <c r="F586" s="11"/>
       <c r="G586" s="12"/>
       <c r="H586" s="13"/>
     </row>
     <row r="587" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A587" s="49"/>
+      <c r="A587" s="47"/>
       <c r="F587" s="11"/>
       <c r="G587" s="12"/>
       <c r="H587" s="13"/>
     </row>
     <row r="588" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A588" s="49"/>
+      <c r="A588" s="47"/>
       <c r="F588" s="11"/>
       <c r="G588" s="12"/>
       <c r="H588" s="13"/>
     </row>
     <row r="589" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A589" s="49"/>
+      <c r="A589" s="47"/>
       <c r="F589" s="11"/>
       <c r="G589" s="12"/>
       <c r="H589" s="13"/>
     </row>
     <row r="590" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A590" s="49"/>
+      <c r="A590" s="47"/>
       <c r="F590" s="11"/>
       <c r="G590" s="12"/>
       <c r="H590" s="13"/>
     </row>
     <row r="591" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A591" s="49"/>
+      <c r="A591" s="47"/>
       <c r="F591" s="11"/>
       <c r="G591" s="12"/>
       <c r="H591" s="13"/>
     </row>
     <row r="592" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A592" s="49"/>
+      <c r="A592" s="47"/>
       <c r="F592" s="11"/>
       <c r="G592" s="12"/>
       <c r="H592" s="13"/>
     </row>
     <row r="593" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A593" s="49"/>
+      <c r="A593" s="47"/>
       <c r="F593" s="11"/>
       <c r="G593" s="12"/>
       <c r="H593" s="13"/>
     </row>
     <row r="594" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A594" s="49"/>
+      <c r="A594" s="47"/>
       <c r="F594" s="11"/>
       <c r="G594" s="12"/>
       <c r="H594" s="13"/>
     </row>
     <row r="595" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A595" s="49"/>
+      <c r="A595" s="47"/>
       <c r="F595" s="11"/>
       <c r="G595" s="12"/>
       <c r="H595" s="13"/>
     </row>
     <row r="596" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A596" s="49"/>
+      <c r="A596" s="47"/>
       <c r="F596" s="11"/>
       <c r="G596" s="12"/>
       <c r="H596" s="13"/>
     </row>
     <row r="597" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A597" s="49"/>
+      <c r="A597" s="47"/>
       <c r="F597" s="11"/>
       <c r="G597" s="12"/>
       <c r="H597" s="13"/>
     </row>
     <row r="598" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A598" s="49"/>
+      <c r="A598" s="47"/>
       <c r="F598" s="11"/>
       <c r="G598" s="12"/>
       <c r="H598" s="13"/>
     </row>
     <row r="599" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A599" s="49"/>
+      <c r="A599" s="47"/>
       <c r="F599" s="11"/>
       <c r="G599" s="12"/>
       <c r="H599" s="13"/>
     </row>
     <row r="600" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A600" s="49"/>
+      <c r="A600" s="47"/>
       <c r="F600" s="11"/>
       <c r="G600" s="12"/>
       <c r="H600" s="13"/>
     </row>
     <row r="601" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A601" s="49"/>
+      <c r="A601" s="47"/>
       <c r="F601" s="11"/>
       <c r="G601" s="12"/>
       <c r="H601" s="13"/>
     </row>
     <row r="602" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A602" s="49"/>
+      <c r="A602" s="47"/>
       <c r="F602" s="11"/>
       <c r="G602" s="12"/>
       <c r="H602" s="13"/>
     </row>
     <row r="603" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A603" s="49"/>
+      <c r="A603" s="47"/>
       <c r="F603" s="11"/>
       <c r="G603" s="12"/>
       <c r="H603" s="13"/>
     </row>
     <row r="604" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A604" s="49"/>
+      <c r="A604" s="47"/>
       <c r="F604" s="11"/>
       <c r="G604" s="12"/>
       <c r="H604" s="13"/>
     </row>
     <row r="605" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A605" s="49"/>
+      <c r="A605" s="47"/>
       <c r="F605" s="11"/>
       <c r="G605" s="12"/>
       <c r="H605" s="13"/>
     </row>
     <row r="606" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A606" s="49"/>
+      <c r="A606" s="47"/>
       <c r="F606" s="11"/>
       <c r="G606" s="12"/>
       <c r="H606" s="13"/>
     </row>
     <row r="607" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A607" s="49"/>
+      <c r="A607" s="47"/>
       <c r="F607" s="11"/>
       <c r="G607" s="12"/>
       <c r="H607" s="13"/>
     </row>
     <row r="608" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A608" s="49"/>
+      <c r="A608" s="47"/>
       <c r="F608" s="11"/>
       <c r="G608" s="12"/>
       <c r="H608" s="13"/>
     </row>
     <row r="609" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A609" s="49"/>
+      <c r="A609" s="47"/>
       <c r="F609" s="11"/>
       <c r="G609" s="12"/>
       <c r="H609" s="13"/>
     </row>
     <row r="610" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A610" s="49"/>
+      <c r="A610" s="47"/>
       <c r="F610" s="11"/>
       <c r="G610" s="12"/>
       <c r="H610" s="13"/>
     </row>
     <row r="611" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A611" s="49"/>
+      <c r="A611" s="47"/>
       <c r="F611" s="11"/>
       <c r="G611" s="12"/>
       <c r="H611" s="13"/>
     </row>
     <row r="612" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A612" s="49"/>
+      <c r="A612" s="47"/>
       <c r="F612" s="11"/>
       <c r="G612" s="12"/>
       <c r="H612" s="13"/>
     </row>
     <row r="613" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A613" s="49"/>
+      <c r="A613" s="47"/>
       <c r="F613" s="11"/>
       <c r="G613" s="12"/>
       <c r="H613" s="13"/>
     </row>
     <row r="614" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A614" s="49"/>
+      <c r="A614" s="47"/>
       <c r="F614" s="11"/>
       <c r="G614" s="12"/>
       <c r="H614" s="13"/>
     </row>
     <row r="615" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A615" s="49"/>
+      <c r="A615" s="47"/>
       <c r="F615" s="11"/>
       <c r="G615" s="12"/>
       <c r="H615" s="13"/>
     </row>
     <row r="616" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A616" s="49"/>
+      <c r="A616" s="47"/>
       <c r="F616" s="11"/>
       <c r="G616" s="12"/>
       <c r="H616" s="13"/>
     </row>
     <row r="617" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A617" s="49"/>
+      <c r="A617" s="47"/>
       <c r="F617" s="11"/>
       <c r="G617" s="12"/>
       <c r="H617" s="13"/>
     </row>
     <row r="618" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A618" s="49"/>
+      <c r="A618" s="47"/>
       <c r="F618" s="11"/>
       <c r="G618" s="12"/>
       <c r="H618" s="13"/>
     </row>
     <row r="619" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A619" s="49"/>
+      <c r="A619" s="47"/>
       <c r="F619" s="11"/>
       <c r="G619" s="12"/>
       <c r="H619" s="13"/>
     </row>
     <row r="620" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A620" s="49"/>
+      <c r="A620" s="47"/>
       <c r="F620" s="11"/>
       <c r="G620" s="12"/>
       <c r="H620" s="13"/>
     </row>
     <row r="621" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A621" s="49"/>
+      <c r="A621" s="47"/>
       <c r="F621" s="11"/>
       <c r="G621" s="12"/>
       <c r="H621" s="13"/>
     </row>
     <row r="622" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A622" s="49"/>
+      <c r="A622" s="47"/>
       <c r="F622" s="11"/>
       <c r="G622" s="12"/>
       <c r="H622" s="13"/>
     </row>
     <row r="623" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A623" s="49"/>
+      <c r="A623" s="47"/>
       <c r="F623" s="11"/>
       <c r="G623" s="12"/>
       <c r="H623" s="13"/>
     </row>
     <row r="624" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A624" s="49"/>
+      <c r="A624" s="47"/>
       <c r="F624" s="11"/>
       <c r="G624" s="12"/>
       <c r="H624" s="13"/>
     </row>
     <row r="625" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A625" s="49"/>
+      <c r="A625" s="47"/>
       <c r="F625" s="11"/>
       <c r="G625" s="12"/>
       <c r="H625" s="13"/>
     </row>
     <row r="626" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A626" s="49"/>
+      <c r="A626" s="47"/>
       <c r="F626" s="11"/>
       <c r="G626" s="12"/>
       <c r="H626" s="13"/>
     </row>
     <row r="627" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A627" s="49"/>
+      <c r="A627" s="47"/>
       <c r="F627" s="11"/>
       <c r="G627" s="12"/>
       <c r="H627" s="13"/>
     </row>
     <row r="628" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A628" s="49"/>
+      <c r="A628" s="47"/>
       <c r="F628" s="11"/>
       <c r="G628" s="12"/>
       <c r="H628" s="13"/>
     </row>
     <row r="629" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A629" s="49"/>
+      <c r="A629" s="47"/>
       <c r="F629" s="11"/>
       <c r="G629" s="12"/>
       <c r="H629" s="13"/>
     </row>
     <row r="630" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A630" s="49"/>
+      <c r="A630" s="47"/>
       <c r="F630" s="11"/>
       <c r="G630" s="12"/>
       <c r="H630" s="13"/>
     </row>
     <row r="631" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A631" s="49"/>
+      <c r="A631" s="47"/>
       <c r="F631" s="11"/>
       <c r="G631" s="12"/>
       <c r="H631" s="13"/>
     </row>
     <row r="632" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A632" s="49"/>
+      <c r="A632" s="47"/>
       <c r="F632" s="11"/>
       <c r="G632" s="12"/>
       <c r="H632" s="13"/>
     </row>
     <row r="633" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A633" s="49"/>
+      <c r="A633" s="47"/>
       <c r="F633" s="11"/>
       <c r="G633" s="12"/>
       <c r="H633" s="13"/>
     </row>
     <row r="634" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A634" s="49"/>
+      <c r="A634" s="47"/>
       <c r="F634" s="11"/>
       <c r="G634" s="12"/>
       <c r="H634" s="13"/>
     </row>
     <row r="635" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A635" s="49"/>
+      <c r="A635" s="47"/>
       <c r="F635" s="11"/>
       <c r="G635" s="12"/>
       <c r="H635" s="13"/>
     </row>
     <row r="636" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A636" s="49"/>
+      <c r="A636" s="47"/>
       <c r="F636" s="11"/>
       <c r="G636" s="12"/>
       <c r="H636" s="13"/>
     </row>
     <row r="637" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A637" s="49"/>
+      <c r="A637" s="47"/>
       <c r="F637" s="11"/>
       <c r="G637" s="12"/>
       <c r="H637" s="13"/>
     </row>
     <row r="638" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A638" s="49"/>
+      <c r="A638" s="47"/>
       <c r="F638" s="11"/>
       <c r="G638" s="12"/>
       <c r="H638" s="13"/>
     </row>
     <row r="639" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A639" s="49"/>
+      <c r="A639" s="47"/>
       <c r="F639" s="11"/>
       <c r="G639" s="12"/>
       <c r="H639" s="13"/>
     </row>
     <row r="640" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A640" s="49"/>
+      <c r="A640" s="47"/>
       <c r="F640" s="11"/>
       <c r="G640" s="12"/>
       <c r="H640" s="13"/>
     </row>
     <row r="641" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A641" s="49"/>
+      <c r="A641" s="47"/>
       <c r="F641" s="11"/>
       <c r="G641" s="12"/>
       <c r="H641" s="13"/>
     </row>
     <row r="642" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A642" s="49"/>
+      <c r="A642" s="47"/>
       <c r="F642" s="11"/>
       <c r="G642" s="12"/>
       <c r="H642" s="13"/>
     </row>
     <row r="643" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A643" s="49"/>
+      <c r="A643" s="47"/>
       <c r="F643" s="11"/>
       <c r="G643" s="12"/>
       <c r="H643" s="13"/>
     </row>
     <row r="644" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A644" s="49"/>
+      <c r="A644" s="47"/>
       <c r="F644" s="11"/>
       <c r="G644" s="12"/>
       <c r="H644" s="13"/>
     </row>
     <row r="645" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A645" s="49"/>
+      <c r="A645" s="47"/>
       <c r="F645" s="11"/>
       <c r="G645" s="12"/>
       <c r="H645" s="13"/>
     </row>
     <row r="646" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A646" s="49"/>
+      <c r="A646" s="47"/>
       <c r="F646" s="11"/>
       <c r="G646" s="12"/>
       <c r="H646" s="13"/>
     </row>
     <row r="647" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A647" s="49"/>
+      <c r="A647" s="47"/>
       <c r="F647" s="11"/>
       <c r="G647" s="12"/>
       <c r="H647" s="13"/>
     </row>
     <row r="648" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A648" s="49"/>
+      <c r="A648" s="47"/>
       <c r="F648" s="11"/>
       <c r="G648" s="12"/>
       <c r="H648" s="13"/>
     </row>
     <row r="649" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A649" s="49"/>
+      <c r="A649" s="47"/>
       <c r="F649" s="11"/>
       <c r="G649" s="12"/>
       <c r="H649" s="13"/>
     </row>
     <row r="650" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A650" s="49"/>
+      <c r="A650" s="47"/>
       <c r="F650" s="11"/>
       <c r="G650" s="12"/>
       <c r="H650" s="13"/>
     </row>
     <row r="651" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A651" s="49"/>
+      <c r="A651" s="47"/>
       <c r="F651" s="11"/>
       <c r="G651" s="12"/>
       <c r="H651" s="13"/>
     </row>
     <row r="652" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A652" s="49"/>
+      <c r="A652" s="47"/>
       <c r="F652" s="11"/>
       <c r="G652" s="12"/>
       <c r="H652" s="13"/>
     </row>
     <row r="653" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A653" s="49"/>
+      <c r="A653" s="47"/>
       <c r="F653" s="11"/>
       <c r="G653" s="12"/>
       <c r="H653" s="13"/>
     </row>
     <row r="654" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A654" s="49"/>
+      <c r="A654" s="47"/>
       <c r="F654" s="11"/>
       <c r="G654" s="12"/>
       <c r="H654" s="13"/>
     </row>
     <row r="655" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A655" s="49"/>
+      <c r="A655" s="47"/>
       <c r="F655" s="11"/>
       <c r="G655" s="12"/>
       <c r="H655" s="13"/>
     </row>
     <row r="656" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A656" s="49"/>
+      <c r="A656" s="47"/>
       <c r="F656" s="11"/>
       <c r="G656" s="12"/>
       <c r="H656" s="13"/>
     </row>
     <row r="657" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A657" s="49"/>
+      <c r="A657" s="47"/>
       <c r="F657" s="11"/>
       <c r="G657" s="12"/>
       <c r="H657" s="13"/>
     </row>
     <row r="658" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A658" s="49"/>
+      <c r="A658" s="47"/>
       <c r="F658" s="11"/>
       <c r="G658" s="12"/>
       <c r="H658" s="13"/>
     </row>
     <row r="659" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A659" s="49"/>
+      <c r="A659" s="47"/>
       <c r="F659" s="11"/>
       <c r="G659" s="12"/>
       <c r="H659" s="13"/>
     </row>
     <row r="660" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A660" s="49"/>
+      <c r="A660" s="47"/>
       <c r="F660" s="11"/>
       <c r="G660" s="12"/>
       <c r="H660" s="13"/>
     </row>
     <row r="661" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A661" s="49"/>
+      <c r="A661" s="47"/>
       <c r="F661" s="11"/>
       <c r="G661" s="12"/>
       <c r="H661" s="13"/>
     </row>
     <row r="662" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A662" s="49"/>
+      <c r="A662" s="47"/>
       <c r="F662" s="11"/>
       <c r="G662" s="12"/>
       <c r="H662" s="13"/>
     </row>
     <row r="663" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A663" s="49"/>
+      <c r="A663" s="47"/>
       <c r="F663" s="11"/>
       <c r="G663" s="12"/>
       <c r="H663" s="13"/>
     </row>
     <row r="664" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A664" s="49"/>
+      <c r="A664" s="47"/>
       <c r="F664" s="11"/>
       <c r="G664" s="12"/>
       <c r="H664" s="13"/>
     </row>
     <row r="665" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A665" s="49"/>
+      <c r="A665" s="47"/>
       <c r="F665" s="11"/>
       <c r="G665" s="12"/>
       <c r="H665" s="13"/>
     </row>
     <row r="666" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A666" s="49"/>
+      <c r="A666" s="47"/>
       <c r="F666" s="11"/>
       <c r="G666" s="12"/>
       <c r="H666" s="13"/>
     </row>
     <row r="667" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A667" s="49"/>
+      <c r="A667" s="47"/>
       <c r="F667" s="11"/>
       <c r="G667" s="12"/>
       <c r="H667" s="13"/>
     </row>
     <row r="668" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A668" s="49"/>
+      <c r="A668" s="47"/>
       <c r="F668" s="11"/>
       <c r="G668" s="12"/>
       <c r="H668" s="13"/>
     </row>
     <row r="669" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A669" s="49"/>
+      <c r="A669" s="47"/>
       <c r="F669" s="11"/>
       <c r="G669" s="12"/>
       <c r="H669" s="13"/>
     </row>
     <row r="670" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A670" s="49"/>
+      <c r="A670" s="47"/>
       <c r="F670" s="11"/>
       <c r="G670" s="12"/>
       <c r="H670" s="13"/>
     </row>
     <row r="671" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A671" s="49"/>
+      <c r="A671" s="47"/>
       <c r="F671" s="11"/>
       <c r="G671" s="12"/>
       <c r="H671" s="13"/>
     </row>
     <row r="672" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A672" s="49"/>
+      <c r="A672" s="47"/>
       <c r="F672" s="11"/>
       <c r="G672" s="12"/>
       <c r="H672" s="13"/>
     </row>
     <row r="673" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A673" s="49"/>
+      <c r="A673" s="47"/>
       <c r="F673" s="11"/>
       <c r="G673" s="12"/>
       <c r="H673" s="13"/>
     </row>
     <row r="674" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A674" s="49"/>
+      <c r="A674" s="47"/>
       <c r="F674" s="11"/>
       <c r="G674" s="12"/>
       <c r="H674" s="13"/>
     </row>
     <row r="675" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A675" s="49"/>
+      <c r="A675" s="47"/>
       <c r="F675" s="11"/>
       <c r="G675" s="12"/>
       <c r="H675" s="13"/>
     </row>
     <row r="676" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A676" s="49"/>
+      <c r="A676" s="47"/>
       <c r="F676" s="11"/>
       <c r="G676" s="12"/>
       <c r="H676" s="13"/>
     </row>
     <row r="677" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A677" s="49"/>
+      <c r="A677" s="47"/>
       <c r="F677" s="11"/>
       <c r="G677" s="12"/>
       <c r="H677" s="13"/>
     </row>
     <row r="678" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A678" s="49"/>
+      <c r="A678" s="47"/>
       <c r="F678" s="11"/>
       <c r="G678" s="12"/>
       <c r="H678" s="13"/>
     </row>
     <row r="679" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A679" s="49"/>
+      <c r="A679" s="47"/>
       <c r="F679" s="11"/>
       <c r="G679" s="12"/>
       <c r="H679" s="13"/>
     </row>
     <row r="680" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A680" s="49"/>
+      <c r="A680" s="47"/>
       <c r="F680" s="11"/>
       <c r="G680" s="12"/>
       <c r="H680" s="13"/>
     </row>
     <row r="681" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A681" s="49"/>
+      <c r="A681" s="47"/>
       <c r="F681" s="11"/>
       <c r="G681" s="12"/>
       <c r="H681" s="13"/>
     </row>
     <row r="682" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A682" s="49"/>
+      <c r="A682" s="47"/>
       <c r="F682" s="11"/>
       <c r="G682" s="12"/>
       <c r="H682" s="13"/>
     </row>
     <row r="683" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A683" s="49"/>
+      <c r="A683" s="47"/>
       <c r="F683" s="11"/>
       <c r="G683" s="12"/>
       <c r="H683" s="13"/>
     </row>
     <row r="684" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A684" s="49"/>
+      <c r="A684" s="47"/>
       <c r="F684" s="11"/>
       <c r="G684" s="12"/>
       <c r="H684" s="13"/>
     </row>
     <row r="685" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A685" s="49"/>
+      <c r="A685" s="47"/>
       <c r="F685" s="11"/>
       <c r="G685" s="12"/>
       <c r="H685" s="13"/>
     </row>
     <row r="686" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A686" s="49"/>
+      <c r="A686" s="47"/>
       <c r="F686" s="11"/>
       <c r="G686" s="12"/>
       <c r="H686" s="13"/>
     </row>
     <row r="687" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A687" s="49"/>
+      <c r="A687" s="47"/>
       <c r="F687" s="11"/>
       <c r="G687" s="12"/>
       <c r="H687" s="13"/>
     </row>
     <row r="688" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A688" s="49"/>
+      <c r="A688" s="47"/>
       <c r="F688" s="11"/>
       <c r="G688" s="12"/>
       <c r="H688" s="13"/>
     </row>
     <row r="689" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A689" s="49"/>
+      <c r="A689" s="47"/>
       <c r="F689" s="11"/>
       <c r="G689" s="12"/>
       <c r="H689" s="13"/>
     </row>
     <row r="690" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A690" s="49"/>
+      <c r="A690" s="47"/>
       <c r="F690" s="11"/>
       <c r="G690" s="12"/>
       <c r="H690" s="13"/>
     </row>
     <row r="691" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A691" s="49"/>
+      <c r="A691" s="47"/>
       <c r="F691" s="11"/>
       <c r="G691" s="12"/>
       <c r="H691" s="13"/>
     </row>
     <row r="692" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A692" s="49"/>
+      <c r="A692" s="47"/>
       <c r="F692" s="11"/>
       <c r="G692" s="12"/>
       <c r="H692" s="13"/>
     </row>
     <row r="693" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A693" s="49"/>
+      <c r="A693" s="47"/>
       <c r="F693" s="11"/>
       <c r="G693" s="12"/>
       <c r="H693" s="13"/>
     </row>
     <row r="694" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A694" s="49"/>
+      <c r="A694" s="47"/>
       <c r="F694" s="11"/>
       <c r="G694" s="12"/>
       <c r="H694" s="13"/>
     </row>
     <row r="695" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A695" s="49"/>
+      <c r="A695" s="47"/>
       <c r="F695" s="11"/>
       <c r="G695" s="12"/>
       <c r="H695" s="13"/>
     </row>
     <row r="696" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A696" s="49"/>
+      <c r="A696" s="47"/>
       <c r="F696" s="11"/>
       <c r="G696" s="12"/>
       <c r="H696" s="13"/>
     </row>
     <row r="697" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A697" s="49"/>
+      <c r="A697" s="47"/>
       <c r="F697" s="11"/>
       <c r="G697" s="12"/>
       <c r="H697" s="13"/>
     </row>
     <row r="698" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A698" s="49"/>
+      <c r="A698" s="47"/>
       <c r="F698" s="11"/>
       <c r="G698" s="12"/>
       <c r="H698" s="13"/>
     </row>
     <row r="699" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A699" s="49"/>
+      <c r="A699" s="47"/>
       <c r="F699" s="11"/>
       <c r="G699" s="12"/>
       <c r="H699" s="13"/>
     </row>
     <row r="700" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A700" s="49"/>
+      <c r="A700" s="47"/>
       <c r="F700" s="11"/>
       <c r="G700" s="12"/>
       <c r="H700" s="13"/>
     </row>
     <row r="701" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A701" s="49"/>
+      <c r="A701" s="47"/>
       <c r="F701" s="11"/>
       <c r="G701" s="12"/>
       <c r="H701" s="13"/>
     </row>
     <row r="702" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A702" s="49"/>
+      <c r="A702" s="47"/>
       <c r="F702" s="11"/>
       <c r="G702" s="12"/>
       <c r="H702" s="13"/>
     </row>
     <row r="703" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A703" s="49"/>
+      <c r="A703" s="47"/>
       <c r="F703" s="11"/>
       <c r="G703" s="12"/>
       <c r="H703" s="13"/>
     </row>
     <row r="704" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A704" s="49"/>
+      <c r="A704" s="47"/>
       <c r="F704" s="11"/>
       <c r="G704" s="12"/>
       <c r="H704" s="13"/>
     </row>
     <row r="705" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A705" s="49"/>
+      <c r="A705" s="47"/>
       <c r="F705" s="11"/>
       <c r="G705" s="12"/>
       <c r="H705" s="13"/>
     </row>
     <row r="706" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A706" s="49"/>
+      <c r="A706" s="47"/>
       <c r="F706" s="11"/>
       <c r="G706" s="12"/>
       <c r="H706" s="13"/>
     </row>
     <row r="707" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A707" s="49"/>
+      <c r="A707" s="47"/>
       <c r="F707" s="11"/>
       <c r="G707" s="12"/>
       <c r="H707" s="13"/>
     </row>
     <row r="708" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A708" s="49"/>
+      <c r="A708" s="47"/>
       <c r="F708" s="11"/>
       <c r="G708" s="12"/>
       <c r="H708" s="13"/>
     </row>
     <row r="709" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A709" s="49"/>
+      <c r="A709" s="47"/>
       <c r="F709" s="11"/>
       <c r="G709" s="12"/>
       <c r="H709" s="13"/>
     </row>
     <row r="710" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A710" s="49"/>
+      <c r="A710" s="47"/>
       <c r="F710" s="11"/>
       <c r="G710" s="12"/>
       <c r="H710" s="13"/>
     </row>
     <row r="711" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A711" s="49"/>
+      <c r="A711" s="47"/>
       <c r="F711" s="11"/>
       <c r="G711" s="12"/>
       <c r="H711" s="13"/>
     </row>
     <row r="712" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A712" s="49"/>
+      <c r="A712" s="47"/>
       <c r="F712" s="11"/>
       <c r="G712" s="12"/>
       <c r="H712" s="13"/>
     </row>
     <row r="713" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A713" s="49"/>
+      <c r="A713" s="47"/>
       <c r="F713" s="11"/>
       <c r="G713" s="12"/>
       <c r="H713" s="13"/>
     </row>
     <row r="714" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A714" s="49"/>
+      <c r="A714" s="47"/>
       <c r="F714" s="11"/>
       <c r="G714" s="12"/>
       <c r="H714" s="13"/>
     </row>
     <row r="715" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A715" s="49"/>
+      <c r="A715" s="47"/>
       <c r="F715" s="11"/>
       <c r="G715" s="12"/>
       <c r="H715" s="13"/>
     </row>
     <row r="716" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A716" s="49"/>
+      <c r="A716" s="47"/>
       <c r="F716" s="11"/>
       <c r="G716" s="12"/>
       <c r="H716" s="13"/>
     </row>
     <row r="717" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A717" s="49"/>
+      <c r="A717" s="47"/>
       <c r="F717" s="11"/>
       <c r="G717" s="12"/>
       <c r="H717" s="13"/>
     </row>
     <row r="718" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A718" s="49"/>
+      <c r="A718" s="47"/>
       <c r="F718" s="11"/>
       <c r="G718" s="12"/>
       <c r="H718" s="13"/>
     </row>
     <row r="719" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A719" s="49"/>
+      <c r="A719" s="47"/>
       <c r="F719" s="11"/>
       <c r="G719" s="12"/>
       <c r="H719" s="13"/>
     </row>
     <row r="720" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A720" s="49"/>
+      <c r="A720" s="47"/>
       <c r="F720" s="11"/>
       <c r="G720" s="12"/>
       <c r="H720" s="13"/>
     </row>
     <row r="721" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A721" s="49"/>
+      <c r="A721" s="47"/>
       <c r="F721" s="11"/>
       <c r="G721" s="12"/>
       <c r="H721" s="13"/>
     </row>
     <row r="722" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A722" s="49"/>
+      <c r="A722" s="47"/>
       <c r="F722" s="11"/>
       <c r="G722" s="12"/>
       <c r="H722" s="13"/>
     </row>
     <row r="723" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A723" s="49"/>
+      <c r="A723" s="47"/>
       <c r="F723" s="11"/>
       <c r="G723" s="12"/>
       <c r="H723" s="13"/>
     </row>
     <row r="724" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A724" s="49"/>
+      <c r="A724" s="47"/>
       <c r="F724" s="11"/>
       <c r="G724" s="12"/>
       <c r="H724" s="13"/>
     </row>
     <row r="725" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A725" s="49"/>
+      <c r="A725" s="47"/>
       <c r="F725" s="11"/>
       <c r="G725" s="12"/>
       <c r="H725" s="13"/>
     </row>
     <row r="726" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A726" s="49"/>
+      <c r="A726" s="47"/>
       <c r="F726" s="11"/>
       <c r="G726" s="12"/>
       <c r="H726" s="13"/>
     </row>
     <row r="727" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A727" s="49"/>
+      <c r="A727" s="47"/>
       <c r="F727" s="11"/>
       <c r="G727" s="12"/>
       <c r="H727" s="13"/>
     </row>
     <row r="728" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A728" s="49"/>
+      <c r="A728" s="47"/>
       <c r="F728" s="11"/>
       <c r="G728" s="12"/>
       <c r="H728" s="13"/>
     </row>
     <row r="729" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A729" s="49"/>
+      <c r="A729" s="47"/>
       <c r="F729" s="11"/>
       <c r="G729" s="12"/>
       <c r="H729" s="13"/>
     </row>
     <row r="730" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A730" s="49"/>
+      <c r="A730" s="47"/>
       <c r="F730" s="11"/>
       <c r="G730" s="12"/>
       <c r="H730" s="13"/>
     </row>
     <row r="731" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A731" s="49"/>
+      <c r="A731" s="47"/>
       <c r="F731" s="11"/>
       <c r="G731" s="12"/>
       <c r="H731" s="13"/>
     </row>
     <row r="732" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A732" s="49"/>
+      <c r="A732" s="47"/>
       <c r="F732" s="11"/>
       <c r="G732" s="12"/>
       <c r="H732" s="13"/>
     </row>
     <row r="733" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A733" s="49"/>
+      <c r="A733" s="47"/>
       <c r="F733" s="11"/>
       <c r="G733" s="12"/>
       <c r="H733" s="13"/>
     </row>
     <row r="734" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A734" s="49"/>
+      <c r="A734" s="47"/>
       <c r="F734" s="11"/>
       <c r="G734" s="12"/>
       <c r="H734" s="13"/>
     </row>
     <row r="735" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A735" s="49"/>
+      <c r="A735" s="47"/>
       <c r="F735" s="11"/>
       <c r="G735" s="12"/>
       <c r="H735" s="13"/>
     </row>
     <row r="736" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A736" s="49"/>
+      <c r="A736" s="47"/>
       <c r="F736" s="11"/>
       <c r="G736" s="12"/>
       <c r="H736" s="13"/>
     </row>
     <row r="737" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A737" s="49"/>
+      <c r="A737" s="47"/>
       <c r="F737" s="11"/>
       <c r="G737" s="12"/>
       <c r="H737" s="13"/>
     </row>
     <row r="738" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A738" s="49"/>
+      <c r="A738" s="47"/>
       <c r="F738" s="11"/>
       <c r="G738" s="12"/>
       <c r="H738" s="13"/>
     </row>
     <row r="739" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A739" s="49"/>
+      <c r="A739" s="47"/>
       <c r="F739" s="11"/>
       <c r="G739" s="12"/>
       <c r="H739" s="13"/>
     </row>
     <row r="740" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A740" s="49"/>
+      <c r="A740" s="47"/>
       <c r="F740" s="11"/>
       <c r="G740" s="12"/>
       <c r="H740" s="13"/>
     </row>
     <row r="741" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A741" s="49"/>
+      <c r="A741" s="47"/>
       <c r="F741" s="11"/>
       <c r="G741" s="12"/>
       <c r="H741" s="13"/>
     </row>
     <row r="742" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A742" s="49"/>
+      <c r="A742" s="47"/>
       <c r="F742" s="11"/>
       <c r="G742" s="12"/>
       <c r="H742" s="13"/>
     </row>
     <row r="743" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A743" s="49"/>
+      <c r="A743" s="47"/>
       <c r="F743" s="11"/>
       <c r="G743" s="12"/>
       <c r="H743" s="13"/>
     </row>
     <row r="744" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A744" s="49"/>
+      <c r="A744" s="47"/>
       <c r="F744" s="11"/>
       <c r="G744" s="12"/>
       <c r="H744" s="13"/>
     </row>
     <row r="745" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A745" s="49"/>
+      <c r="A745" s="47"/>
       <c r="F745" s="11"/>
       <c r="G745" s="12"/>
       <c r="H745" s="13"/>
     </row>
     <row r="746" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A746" s="49"/>
+      <c r="A746" s="47"/>
       <c r="F746" s="11"/>
       <c r="G746" s="12"/>
       <c r="H746" s="13"/>
     </row>
     <row r="747" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A747" s="49"/>
+      <c r="A747" s="47"/>
       <c r="F747" s="11"/>
       <c r="G747" s="12"/>
       <c r="H747" s="13"/>
     </row>
     <row r="748" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A748" s="49"/>
+      <c r="A748" s="47"/>
       <c r="F748" s="11"/>
       <c r="G748" s="12"/>
       <c r="H748" s="13"/>
     </row>
     <row r="749" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A749" s="49"/>
+      <c r="A749" s="47"/>
       <c r="F749" s="11"/>
       <c r="G749" s="12"/>
       <c r="H749" s="13"/>
     </row>
     <row r="750" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A750" s="49"/>
+      <c r="A750" s="47"/>
       <c r="F750" s="11"/>
       <c r="G750" s="12"/>
       <c r="H750" s="13"/>
     </row>
     <row r="751" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A751" s="49"/>
+      <c r="A751" s="47"/>
       <c r="F751" s="11"/>
       <c r="G751" s="12"/>
       <c r="H751" s="13"/>
     </row>
     <row r="752" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A752" s="49"/>
+      <c r="A752" s="47"/>
       <c r="F752" s="11"/>
       <c r="G752" s="12"/>
       <c r="H752" s="13"/>
     </row>
     <row r="753" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A753" s="49"/>
+      <c r="A753" s="47"/>
       <c r="F753" s="11"/>
       <c r="G753" s="12"/>
       <c r="H753" s="13"/>
     </row>
     <row r="754" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A754" s="49"/>
+      <c r="A754" s="47"/>
       <c r="F754" s="11"/>
       <c r="G754" s="12"/>
       <c r="H754" s="13"/>
     </row>
     <row r="755" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A755" s="49"/>
+      <c r="A755" s="47"/>
       <c r="F755" s="11"/>
       <c r="G755" s="12"/>
       <c r="H755" s="13"/>
     </row>
     <row r="756" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A756" s="49"/>
+      <c r="A756" s="47"/>
       <c r="F756" s="11"/>
       <c r="G756" s="12"/>
       <c r="H756" s="13"/>
     </row>
     <row r="757" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A757" s="49"/>
+      <c r="A757" s="47"/>
       <c r="F757" s="11"/>
       <c r="G757" s="12"/>
       <c r="H757" s="13"/>
     </row>
     <row r="758" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A758" s="49"/>
+      <c r="A758" s="47"/>
       <c r="F758" s="11"/>
       <c r="G758" s="12"/>
       <c r="H758" s="13"/>
     </row>
     <row r="759" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A759" s="49"/>
+      <c r="A759" s="47"/>
       <c r="F759" s="11"/>
       <c r="G759" s="12"/>
       <c r="H759" s="13"/>
     </row>
     <row r="760" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A760" s="49"/>
+      <c r="A760" s="47"/>
       <c r="F760" s="11"/>
       <c r="G760" s="12"/>
       <c r="H760" s="13"/>
     </row>
     <row r="761" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A761" s="49"/>
+      <c r="A761" s="47"/>
       <c r="F761" s="11"/>
       <c r="G761" s="12"/>
       <c r="H761" s="13"/>
     </row>
     <row r="762" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A762" s="49"/>
+      <c r="A762" s="47"/>
       <c r="F762" s="11"/>
       <c r="G762" s="12"/>
       <c r="H762" s="13"/>
     </row>
     <row r="763" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A763" s="49"/>
+      <c r="A763" s="47"/>
       <c r="F763" s="11"/>
       <c r="G763" s="12"/>
       <c r="H763" s="13"/>
     </row>
     <row r="764" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A764" s="49"/>
+      <c r="A764" s="47"/>
       <c r="F764" s="11"/>
       <c r="G764" s="12"/>
       <c r="H764" s="13"/>
     </row>
     <row r="765" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A765" s="49"/>
+      <c r="A765" s="47"/>
       <c r="F765" s="11"/>
       <c r="G765" s="12"/>
       <c r="H765" s="13"/>
     </row>
     <row r="766" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A766" s="49"/>
+      <c r="A766" s="47"/>
       <c r="F766" s="11"/>
       <c r="G766" s="12"/>
       <c r="H766" s="13"/>
     </row>
     <row r="767" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A767" s="49"/>
+      <c r="A767" s="47"/>
       <c r="F767" s="11"/>
       <c r="G767" s="12"/>
       <c r="H767" s="13"/>
     </row>
     <row r="768" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A768" s="49"/>
+      <c r="A768" s="47"/>
       <c r="F768" s="11"/>
       <c r="G768" s="12"/>
       <c r="H768" s="13"/>
     </row>
     <row r="769" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A769" s="49"/>
+      <c r="A769" s="47"/>
       <c r="F769" s="11"/>
       <c r="G769" s="12"/>
       <c r="H769" s="13"/>
     </row>
     <row r="770" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A770" s="49"/>
+      <c r="A770" s="47"/>
       <c r="F770" s="11"/>
       <c r="G770" s="12"/>
       <c r="H770" s="13"/>
     </row>
     <row r="771" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A771" s="49"/>
+      <c r="A771" s="47"/>
       <c r="F771" s="11"/>
       <c r="G771" s="12"/>
       <c r="H771" s="13"/>
     </row>
     <row r="772" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A772" s="49"/>
+      <c r="A772" s="47"/>
       <c r="F772" s="11"/>
       <c r="G772" s="12"/>
       <c r="H772" s="13"/>
     </row>
     <row r="773" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A773" s="49"/>
+      <c r="A773" s="47"/>
       <c r="F773" s="11"/>
       <c r="G773" s="12"/>
       <c r="H773" s="13"/>
     </row>
     <row r="774" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A774" s="49"/>
+      <c r="A774" s="47"/>
       <c r="F774" s="11"/>
       <c r="G774" s="12"/>
       <c r="H774" s="13"/>
     </row>
     <row r="775" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A775" s="49"/>
+      <c r="A775" s="47"/>
       <c r="F775" s="11"/>
       <c r="G775" s="12"/>
       <c r="H775" s="13"/>
     </row>
     <row r="776" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A776" s="49"/>
+      <c r="A776" s="47"/>
       <c r="F776" s="11"/>
       <c r="G776" s="12"/>
       <c r="H776" s="13"/>
     </row>
     <row r="777" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A777" s="49"/>
+      <c r="A777" s="47"/>
       <c r="F777" s="11"/>
       <c r="G777" s="12"/>
       <c r="H777" s="13"/>
     </row>
     <row r="778" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A778" s="49"/>
+      <c r="A778" s="47"/>
       <c r="F778" s="11"/>
       <c r="G778" s="12"/>
       <c r="H778" s="13"/>
     </row>
     <row r="779" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A779" s="49"/>
+      <c r="A779" s="47"/>
       <c r="F779" s="11"/>
       <c r="G779" s="12"/>
       <c r="H779" s="13"/>
     </row>
     <row r="780" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A780" s="49"/>
+      <c r="A780" s="47"/>
       <c r="F780" s="11"/>
       <c r="G780" s="12"/>
       <c r="H780" s="13"/>
     </row>
     <row r="781" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A781" s="49"/>
+      <c r="A781" s="47"/>
       <c r="F781" s="11"/>
       <c r="G781" s="12"/>
       <c r="H781" s="13"/>
     </row>
     <row r="782" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A782" s="49"/>
+      <c r="A782" s="47"/>
       <c r="F782" s="11"/>
       <c r="G782" s="12"/>
       <c r="H782" s="13"/>
     </row>
     <row r="783" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A783" s="49"/>
+      <c r="A783" s="47"/>
       <c r="F783" s="11"/>
       <c r="G783" s="12"/>
       <c r="H783" s="13"/>
     </row>
     <row r="784" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A784" s="49"/>
+      <c r="A784" s="47"/>
       <c r="F784" s="11"/>
       <c r="G784" s="12"/>
       <c r="H784" s="13"/>
     </row>
     <row r="785" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A785" s="49"/>
+      <c r="A785" s="47"/>
       <c r="F785" s="11"/>
       <c r="G785" s="12"/>
       <c r="H785" s="13"/>
     </row>
     <row r="786" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A786" s="49"/>
+      <c r="A786" s="47"/>
       <c r="F786" s="11"/>
       <c r="G786" s="12"/>
       <c r="H786" s="13"/>
     </row>
     <row r="787" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A787" s="49"/>
+      <c r="A787" s="47"/>
       <c r="F787" s="11"/>
       <c r="G787" s="12"/>
       <c r="H787" s="13"/>
     </row>
     <row r="788" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A788" s="49"/>
+      <c r="A788" s="47"/>
       <c r="F788" s="11"/>
       <c r="G788" s="12"/>
       <c r="H788" s="13"/>
     </row>
     <row r="789" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A789" s="49"/>
+      <c r="A789" s="47"/>
       <c r="F789" s="11"/>
       <c r="G789" s="12"/>
       <c r="H789" s="13"/>
     </row>
     <row r="790" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A790" s="49"/>
+      <c r="A790" s="47"/>
       <c r="F790" s="11"/>
       <c r="G790" s="12"/>
       <c r="H790" s="13"/>
     </row>
     <row r="791" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A791" s="49"/>
+      <c r="A791" s="47"/>
       <c r="F791" s="11"/>
       <c r="G791" s="12"/>
       <c r="H791" s="13"/>
     </row>
     <row r="792" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A792" s="49"/>
+      <c r="A792" s="47"/>
       <c r="F792" s="11"/>
       <c r="G792" s="12"/>
       <c r="H792" s="13"/>
     </row>
     <row r="793" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A793" s="49"/>
+      <c r="A793" s="47"/>
       <c r="F793" s="11"/>
       <c r="G793" s="12"/>
       <c r="H793" s="13"/>
     </row>
     <row r="794" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A794" s="49"/>
+      <c r="A794" s="47"/>
       <c r="F794" s="11"/>
       <c r="G794" s="12"/>
       <c r="H794" s="13"/>
     </row>
     <row r="795" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A795" s="49"/>
+      <c r="A795" s="47"/>
       <c r="F795" s="11"/>
       <c r="G795" s="12"/>
       <c r="H795" s="13"/>
     </row>
     <row r="796" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A796" s="49"/>
+      <c r="A796" s="47"/>
       <c r="F796" s="11"/>
       <c r="G796" s="12"/>
       <c r="H796" s="13"/>
     </row>
     <row r="797" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A797" s="49"/>
+      <c r="A797" s="47"/>
       <c r="F797" s="11"/>
       <c r="G797" s="12"/>
       <c r="H797" s="13"/>
     </row>
     <row r="798" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A798" s="49"/>
+      <c r="A798" s="47"/>
       <c r="F798" s="11"/>
       <c r="G798" s="12"/>
       <c r="H798" s="13"/>
     </row>
     <row r="799" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A799" s="49"/>
+      <c r="A799" s="47"/>
       <c r="F799" s="11"/>
       <c r="G799" s="12"/>
       <c r="H799" s="13"/>
     </row>
     <row r="800" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A800" s="49"/>
+      <c r="A800" s="47"/>
       <c r="F800" s="11"/>
       <c r="G800" s="12"/>
       <c r="H800" s="13"/>
     </row>
     <row r="801" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A801" s="49"/>
+      <c r="A801" s="47"/>
       <c r="F801" s="11"/>
       <c r="G801" s="12"/>
       <c r="H801" s="13"/>
     </row>
     <row r="802" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A802" s="49"/>
+      <c r="A802" s="47"/>
       <c r="F802" s="11"/>
       <c r="G802" s="12"/>
       <c r="H802" s="13"/>
     </row>
     <row r="803" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A803" s="49"/>
+      <c r="A803" s="47"/>
       <c r="F803" s="11"/>
       <c r="G803" s="12"/>
       <c r="H803" s="13"/>
     </row>
     <row r="804" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A804" s="49"/>
+      <c r="A804" s="47"/>
       <c r="F804" s="11"/>
       <c r="G804" s="12"/>
       <c r="H804" s="13"/>
     </row>
     <row r="805" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A805" s="49"/>
+      <c r="A805" s="47"/>
       <c r="F805" s="11"/>
       <c r="G805" s="12"/>
       <c r="H805" s="13"/>
     </row>
     <row r="806" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A806" s="49"/>
+      <c r="A806" s="47"/>
       <c r="F806" s="11"/>
       <c r="G806" s="12"/>
       <c r="H806" s="13"/>
     </row>
     <row r="807" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A807" s="49"/>
+      <c r="A807" s="47"/>
       <c r="F807" s="11"/>
       <c r="G807" s="12"/>
       <c r="H807" s="13"/>
     </row>
     <row r="808" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A808" s="49"/>
+      <c r="A808" s="47"/>
       <c r="F808" s="11"/>
       <c r="G808" s="12"/>
       <c r="H808" s="13"/>
     </row>
     <row r="809" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A809" s="49"/>
+      <c r="A809" s="47"/>
       <c r="F809" s="11"/>
       <c r="G809" s="12"/>
       <c r="H809" s="13"/>
     </row>
     <row r="810" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A810" s="49"/>
+      <c r="A810" s="47"/>
       <c r="F810" s="11"/>
       <c r="G810" s="12"/>
       <c r="H810" s="13"/>
     </row>
     <row r="811" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A811" s="49"/>
+      <c r="A811" s="47"/>
       <c r="F811" s="11"/>
       <c r="G811" s="12"/>
       <c r="H811" s="13"/>
     </row>
     <row r="812" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A812" s="49"/>
+      <c r="A812" s="47"/>
       <c r="F812" s="11"/>
       <c r="G812" s="12"/>
       <c r="H812" s="13"/>
     </row>
     <row r="813" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A813" s="49"/>
+      <c r="A813" s="47"/>
       <c r="F813" s="11"/>
       <c r="G813" s="12"/>
       <c r="H813" s="13"/>
     </row>
     <row r="814" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A814" s="49"/>
+      <c r="A814" s="47"/>
       <c r="F814" s="11"/>
       <c r="G814" s="12"/>
       <c r="H814" s="13"/>
     </row>
     <row r="815" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A815" s="49"/>
+      <c r="A815" s="47"/>
       <c r="F815" s="11"/>
       <c r="G815" s="12"/>
       <c r="H815" s="13"/>
     </row>
     <row r="816" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A816" s="49"/>
+      <c r="A816" s="47"/>
       <c r="F816" s="11"/>
       <c r="G816" s="12"/>
       <c r="H816" s="13"/>
     </row>
     <row r="817" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A817" s="49"/>
+      <c r="A817" s="47"/>
       <c r="F817" s="11"/>
       <c r="G817" s="12"/>
       <c r="H817" s="13"/>
     </row>
     <row r="818" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A818" s="49"/>
+      <c r="A818" s="47"/>
       <c r="F818" s="11"/>
       <c r="G818" s="12"/>
       <c r="H818" s="13"/>
     </row>
     <row r="819" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A819" s="49"/>
+      <c r="A819" s="47"/>
       <c r="F819" s="11"/>
       <c r="G819" s="12"/>
       <c r="H819" s="13"/>
     </row>
     <row r="820" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A820" s="49"/>
+      <c r="A820" s="47"/>
       <c r="F820" s="11"/>
       <c r="G820" s="12"/>
       <c r="H820" s="13"/>
     </row>
     <row r="821" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A821" s="49"/>
+      <c r="A821" s="47"/>
       <c r="F821" s="11"/>
       <c r="G821" s="12"/>
       <c r="H821" s="13"/>
     </row>
     <row r="822" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A822" s="49"/>
+      <c r="A822" s="47"/>
       <c r="F822" s="11"/>
       <c r="G822" s="12"/>
       <c r="H822" s="13"/>
     </row>
     <row r="823" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A823" s="49"/>
+      <c r="A823" s="47"/>
       <c r="F823" s="11"/>
       <c r="G823" s="12"/>
       <c r="H823" s="13"/>
     </row>
     <row r="824" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A824" s="49"/>
+      <c r="A824" s="47"/>
       <c r="F824" s="11"/>
       <c r="G824" s="12"/>
       <c r="H824" s="13"/>
     </row>
     <row r="825" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A825" s="49"/>
+      <c r="A825" s="47"/>
       <c r="F825" s="11"/>
       <c r="G825" s="12"/>
       <c r="H825" s="13"/>
     </row>
     <row r="826" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A826" s="49"/>
+      <c r="A826" s="47"/>
       <c r="F826" s="11"/>
       <c r="G826" s="12"/>
       <c r="H826" s="13"/>
     </row>
     <row r="827" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A827" s="49"/>
+      <c r="A827" s="47"/>
       <c r="F827" s="11"/>
       <c r="G827" s="12"/>
       <c r="H827" s="13"/>
     </row>
     <row r="828" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A828" s="49"/>
+      <c r="A828" s="47"/>
       <c r="F828" s="11"/>
       <c r="G828" s="12"/>
       <c r="H828" s="13"/>
     </row>
     <row r="829" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A829" s="49"/>
+      <c r="A829" s="47"/>
       <c r="F829" s="11"/>
       <c r="G829" s="12"/>
       <c r="H829" s="13"/>
     </row>
     <row r="830" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A830" s="49"/>
+      <c r="A830" s="47"/>
       <c r="F830" s="11"/>
       <c r="G830" s="12"/>
       <c r="H830" s="13"/>
     </row>
     <row r="831" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A831" s="49"/>
+      <c r="A831" s="47"/>
       <c r="F831" s="11"/>
       <c r="G831" s="12"/>
       <c r="H831" s="13"/>
     </row>
     <row r="832" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A832" s="49"/>
+      <c r="A832" s="47"/>
       <c r="F832" s="11"/>
       <c r="G832" s="12"/>
       <c r="H832" s="13"/>
     </row>
     <row r="833" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A833" s="49"/>
+      <c r="A833" s="47"/>
       <c r="F833" s="11"/>
       <c r="G833" s="12"/>
       <c r="H833" s="13"/>
     </row>
     <row r="834" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A834" s="49"/>
+      <c r="A834" s="47"/>
       <c r="F834" s="11"/>
       <c r="G834" s="12"/>
       <c r="H834" s="13"/>
     </row>
     <row r="835" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A835" s="49"/>
+      <c r="A835" s="47"/>
       <c r="F835" s="11"/>
       <c r="G835" s="12"/>
       <c r="H835" s="13"/>
     </row>
     <row r="836" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A836" s="49"/>
+      <c r="A836" s="47"/>
       <c r="F836" s="11"/>
       <c r="G836" s="12"/>
       <c r="H836" s="13"/>
     </row>
     <row r="837" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A837" s="49"/>
+      <c r="A837" s="47"/>
       <c r="F837" s="11"/>
       <c r="G837" s="12"/>
       <c r="H837" s="13"/>
     </row>
     <row r="838" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A838" s="49"/>
+      <c r="A838" s="47"/>
       <c r="F838" s="11"/>
       <c r="G838" s="12"/>
       <c r="H838" s="13"/>
     </row>
     <row r="839" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A839" s="49"/>
+      <c r="A839" s="47"/>
       <c r="F839" s="11"/>
       <c r="G839" s="12"/>
       <c r="H839" s="13"/>
     </row>
     <row r="840" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A840" s="49"/>
+      <c r="A840" s="47"/>
       <c r="F840" s="11"/>
       <c r="G840" s="12"/>
       <c r="H840" s="13"/>
     </row>
     <row r="841" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A841" s="49"/>
+      <c r="A841" s="47"/>
       <c r="F841" s="11"/>
       <c r="G841" s="12"/>
       <c r="H841" s="13"/>
     </row>
     <row r="842" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A842" s="49"/>
+      <c r="A842" s="47"/>
       <c r="F842" s="11"/>
       <c r="G842" s="12"/>
       <c r="H842" s="13"/>
     </row>
     <row r="843" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A843" s="49"/>
+      <c r="A843" s="47"/>
       <c r="F843" s="11"/>
       <c r="G843" s="12"/>
       <c r="H843" s="13"/>
     </row>
     <row r="844" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A844" s="49"/>
+      <c r="A844" s="47"/>
       <c r="F844" s="11"/>
       <c r="G844" s="12"/>
       <c r="H844" s="13"/>
     </row>
     <row r="845" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A845" s="49"/>
+      <c r="A845" s="47"/>
       <c r="F845" s="11"/>
       <c r="G845" s="12"/>
       <c r="H845" s="13"/>
     </row>
     <row r="846" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A846" s="49"/>
+      <c r="A846" s="47"/>
       <c r="F846" s="11"/>
       <c r="G846" s="12"/>
       <c r="H846" s="13"/>
     </row>
     <row r="847" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A847" s="49"/>
+      <c r="A847" s="47"/>
       <c r="F847" s="11"/>
       <c r="G847" s="12"/>
       <c r="H847" s="13"/>
     </row>
     <row r="848" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A848" s="49"/>
+      <c r="A848" s="47"/>
       <c r="F848" s="11"/>
       <c r="G848" s="12"/>
       <c r="H848" s="13"/>
     </row>
     <row r="849" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A849" s="49"/>
+      <c r="A849" s="47"/>
       <c r="F849" s="11"/>
       <c r="G849" s="12"/>
       <c r="H849" s="13"/>
     </row>
     <row r="850" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A850" s="49"/>
+      <c r="A850" s="47"/>
       <c r="F850" s="11"/>
       <c r="G850" s="12"/>
       <c r="H850" s="13"/>
     </row>
     <row r="851" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A851" s="49"/>
+      <c r="A851" s="47"/>
       <c r="F851" s="11"/>
       <c r="G851" s="12"/>
       <c r="H851" s="13"/>
     </row>
     <row r="852" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A852" s="49"/>
+      <c r="A852" s="47"/>
       <c r="F852" s="11"/>
       <c r="G852" s="12"/>
       <c r="H852" s="13"/>
     </row>
     <row r="853" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A853" s="49"/>
+      <c r="A853" s="47"/>
       <c r="F853" s="11"/>
       <c r="G853" s="12"/>
       <c r="H853" s="13"/>
     </row>
     <row r="854" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A854" s="49"/>
+      <c r="A854" s="47"/>
       <c r="F854" s="11"/>
       <c r="G854" s="12"/>
       <c r="H854" s="13"/>
     </row>
     <row r="855" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A855" s="49"/>
+      <c r="A855" s="47"/>
       <c r="F855" s="11"/>
       <c r="G855" s="12"/>
       <c r="H855" s="13"/>
     </row>
     <row r="856" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A856" s="49"/>
+      <c r="A856" s="47"/>
       <c r="F856" s="11"/>
       <c r="G856" s="12"/>
       <c r="H856" s="13"/>
     </row>
     <row r="857" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A857" s="49"/>
+      <c r="A857" s="47"/>
       <c r="F857" s="11"/>
       <c r="G857" s="12"/>
       <c r="H857" s="13"/>
     </row>
     <row r="858" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A858" s="49"/>
+      <c r="A858" s="47"/>
       <c r="F858" s="11"/>
       <c r="G858" s="12"/>
       <c r="H858" s="13"/>
     </row>
     <row r="859" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A859" s="49"/>
+      <c r="A859" s="47"/>
       <c r="F859" s="11"/>
       <c r="G859" s="12"/>
       <c r="H859" s="13"/>
     </row>
     <row r="860" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A860" s="49"/>
+      <c r="A860" s="47"/>
       <c r="F860" s="11"/>
       <c r="G860" s="12"/>
       <c r="H860" s="13"/>
     </row>
     <row r="861" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A861" s="49"/>
+      <c r="A861" s="47"/>
       <c r="F861" s="11"/>
       <c r="G861" s="12"/>
       <c r="H861" s="13"/>
     </row>
     <row r="862" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A862" s="49"/>
+      <c r="A862" s="47"/>
       <c r="F862" s="11"/>
       <c r="G862" s="12"/>
       <c r="H862" s="13"/>
     </row>
     <row r="863" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A863" s="49"/>
+      <c r="A863" s="47"/>
       <c r="F863" s="11"/>
       <c r="G863" s="12"/>
       <c r="H863" s="13"/>
     </row>
     <row r="864" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A864" s="49"/>
+      <c r="A864" s="47"/>
       <c r="F864" s="11"/>
       <c r="G864" s="12"/>
       <c r="H864" s="13"/>
     </row>
     <row r="865" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A865" s="49"/>
+      <c r="A865" s="47"/>
       <c r="F865" s="11"/>
       <c r="G865" s="12"/>
       <c r="H865" s="13"/>
     </row>
     <row r="866" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A866" s="49"/>
+      <c r="A866" s="47"/>
       <c r="F866" s="11"/>
       <c r="G866" s="12"/>
       <c r="H866" s="13"/>
     </row>
     <row r="867" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A867" s="49"/>
+      <c r="A867" s="47"/>
       <c r="F867" s="11"/>
       <c r="G867" s="12"/>
       <c r="H867" s="13"/>
     </row>
     <row r="868" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A868" s="49"/>
+      <c r="A868" s="47"/>
       <c r="F868" s="11"/>
       <c r="G868" s="12"/>
       <c r="H868" s="13"/>
     </row>
     <row r="869" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A869" s="49"/>
+      <c r="A869" s="47"/>
       <c r="F869" s="11"/>
       <c r="G869" s="12"/>
       <c r="H869" s="13"/>
     </row>
     <row r="870" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A870" s="49"/>
+      <c r="A870" s="47"/>
       <c r="F870" s="11"/>
       <c r="G870" s="12"/>
       <c r="H870" s="13"/>
     </row>
     <row r="871" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A871" s="49"/>
+      <c r="A871" s="47"/>
       <c r="F871" s="11"/>
       <c r="G871" s="12"/>
       <c r="H871" s="13"/>
     </row>
     <row r="872" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A872" s="49"/>
+      <c r="A872" s="47"/>
       <c r="F872" s="11"/>
       <c r="G872" s="12"/>
       <c r="H872" s="13"/>
     </row>
     <row r="873" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A873" s="49"/>
+      <c r="A873" s="47"/>
       <c r="F873" s="11"/>
       <c r="G873" s="12"/>
       <c r="H873" s="13"/>
     </row>
     <row r="874" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A874" s="49"/>
+      <c r="A874" s="47"/>
       <c r="F874" s="11"/>
       <c r="G874" s="12"/>
       <c r="H874" s="13"/>
     </row>
     <row r="875" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A875" s="49"/>
+      <c r="A875" s="47"/>
       <c r="F875" s="11"/>
       <c r="G875" s="12"/>
       <c r="H875" s="13"/>
     </row>
     <row r="876" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A876" s="49"/>
+      <c r="A876" s="47"/>
       <c r="F876" s="11"/>
       <c r="G876" s="12"/>
       <c r="H876" s="13"/>
     </row>
     <row r="877" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A877" s="49"/>
+      <c r="A877" s="47"/>
       <c r="F877" s="11"/>
       <c r="G877" s="12"/>
       <c r="H877" s="13"/>
     </row>
     <row r="878" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A878" s="49"/>
+      <c r="A878" s="47"/>
       <c r="F878" s="11"/>
       <c r="G878" s="12"/>
       <c r="H878" s="13"/>
     </row>
     <row r="879" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A879" s="49"/>
+      <c r="A879" s="47"/>
       <c r="F879" s="11"/>
       <c r="G879" s="12"/>
       <c r="H879" s="13"/>
     </row>
     <row r="880" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A880" s="49"/>
+      <c r="A880" s="47"/>
       <c r="F880" s="11"/>
       <c r="G880" s="12"/>
       <c r="H880" s="13"/>
     </row>
     <row r="881" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A881" s="49"/>
+      <c r="A881" s="47"/>
       <c r="F881" s="11"/>
       <c r="G881" s="12"/>
       <c r="H881" s="13"/>
     </row>
     <row r="882" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A882" s="49"/>
+      <c r="A882" s="47"/>
       <c r="F882" s="11"/>
       <c r="G882" s="12"/>
       <c r="H882" s="13"/>
     </row>
     <row r="883" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A883" s="49"/>
+      <c r="A883" s="47"/>
       <c r="F883" s="11"/>
       <c r="G883" s="12"/>
       <c r="H883" s="13"/>
     </row>
     <row r="884" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A884" s="49"/>
+      <c r="A884" s="47"/>
       <c r="F884" s="11"/>
       <c r="G884" s="12"/>
       <c r="H884" s="13"/>
     </row>
     <row r="885" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A885" s="49"/>
+      <c r="A885" s="47"/>
       <c r="F885" s="11"/>
       <c r="G885" s="12"/>
       <c r="H885" s="13"/>
     </row>
     <row r="886" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A886" s="49"/>
+      <c r="A886" s="47"/>
       <c r="F886" s="11"/>
       <c r="G886" s="12"/>
       <c r="H886" s="13"/>
     </row>
     <row r="887" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A887" s="49"/>
+      <c r="A887" s="47"/>
       <c r="F887" s="11"/>
       <c r="G887" s="12"/>
       <c r="H887" s="13"/>
     </row>
     <row r="888" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A888" s="49"/>
+      <c r="A888" s="47"/>
       <c r="F888" s="11"/>
       <c r="G888" s="12"/>
       <c r="H888" s="13"/>
     </row>
     <row r="889" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A889" s="49"/>
+      <c r="A889" s="47"/>
       <c r="F889" s="11"/>
       <c r="G889" s="12"/>
       <c r="H889" s="13"/>
     </row>
     <row r="890" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A890" s="49"/>
+      <c r="A890" s="47"/>
       <c r="F890" s="11"/>
       <c r="G890" s="12"/>
       <c r="H890" s="13"/>
     </row>
     <row r="891" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A891" s="49"/>
+      <c r="A891" s="47"/>
       <c r="F891" s="11"/>
       <c r="G891" s="12"/>
       <c r="H891" s="13"/>
     </row>
     <row r="892" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A892" s="49"/>
+      <c r="A892" s="47"/>
       <c r="F892" s="11"/>
       <c r="G892" s="12"/>
       <c r="H892" s="13"/>
     </row>
     <row r="893" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A893" s="49"/>
+      <c r="A893" s="47"/>
       <c r="F893" s="11"/>
       <c r="G893" s="12"/>
       <c r="H893" s="13"/>
     </row>
     <row r="894" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A894" s="49"/>
+      <c r="A894" s="47"/>
       <c r="F894" s="11"/>
       <c r="G894" s="12"/>
       <c r="H894" s="13"/>
     </row>
     <row r="895" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A895" s="49"/>
+      <c r="A895" s="47"/>
       <c r="F895" s="11"/>
       <c r="G895" s="12"/>
       <c r="H895" s="13"/>
     </row>
     <row r="896" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A896" s="49"/>
+      <c r="A896" s="47"/>
       <c r="F896" s="11"/>
       <c r="G896" s="12"/>
       <c r="H896" s="13"/>
     </row>
     <row r="897" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A897" s="49"/>
+      <c r="A897" s="47"/>
       <c r="F897" s="11"/>
       <c r="G897" s="12"/>
       <c r="H897" s="13"/>
     </row>
     <row r="898" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A898" s="49"/>
+      <c r="A898" s="47"/>
       <c r="F898" s="11"/>
       <c r="G898" s="12"/>
       <c r="H898" s="13"/>
     </row>
     <row r="899" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A899" s="49"/>
+      <c r="A899" s="47"/>
       <c r="F899" s="11"/>
       <c r="G899" s="12"/>
       <c r="H899" s="13"/>
     </row>
     <row r="900" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A900" s="49"/>
+      <c r="A900" s="47"/>
       <c r="F900" s="11"/>
       <c r="G900" s="12"/>
       <c r="H900" s="13"/>
     </row>
     <row r="901" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A901" s="49"/>
+      <c r="A901" s="47"/>
       <c r="F901" s="11"/>
       <c r="G901" s="12"/>
       <c r="H901" s="13"/>
     </row>
     <row r="902" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A902" s="49"/>
+      <c r="A902" s="47"/>
       <c r="F902" s="11"/>
       <c r="G902" s="12"/>
       <c r="H902" s="13"/>
     </row>
     <row r="903" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A903" s="49"/>
+      <c r="A903" s="47"/>
       <c r="F903" s="11"/>
       <c r="G903" s="12"/>
       <c r="H903" s="13"/>
     </row>
     <row r="904" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A904" s="49"/>
+      <c r="A904" s="47"/>
       <c r="F904" s="11"/>
       <c r="G904" s="12"/>
       <c r="H904" s="13"/>
     </row>
     <row r="905" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A905" s="49"/>
+      <c r="A905" s="47"/>
       <c r="F905" s="11"/>
       <c r="G905" s="12"/>
       <c r="H905" s="13"/>
     </row>
     <row r="906" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A906" s="49"/>
+      <c r="A906" s="47"/>
       <c r="F906" s="11"/>
       <c r="G906" s="12"/>
       <c r="H906" s="13"/>
     </row>
     <row r="907" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A907" s="49"/>
+      <c r="A907" s="47"/>
       <c r="F907" s="11"/>
       <c r="G907" s="12"/>
       <c r="H907" s="13"/>
     </row>
     <row r="908" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A908" s="49"/>
+      <c r="A908" s="47"/>
       <c r="F908" s="11"/>
       <c r="G908" s="12"/>
       <c r="H908" s="13"/>
     </row>
     <row r="909" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A909" s="49"/>
+      <c r="A909" s="47"/>
       <c r="F909" s="11"/>
       <c r="G909" s="12"/>
       <c r="H909" s="13"/>
     </row>
     <row r="910" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A910" s="49"/>
+      <c r="A910" s="47"/>
       <c r="F910" s="11"/>
       <c r="G910" s="12"/>
       <c r="H910" s="13"/>
     </row>
     <row r="911" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A911" s="49"/>
+      <c r="A911" s="47"/>
       <c r="F911" s="11"/>
       <c r="G911" s="12"/>
       <c r="H911" s="13"/>
     </row>
     <row r="912" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A912" s="49"/>
+      <c r="A912" s="47"/>
       <c r="F912" s="11"/>
       <c r="G912" s="12"/>
       <c r="H912" s="13"/>
     </row>
     <row r="913" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A913" s="49"/>
+      <c r="A913" s="47"/>
       <c r="F913" s="11"/>
       <c r="G913" s="12"/>
       <c r="H913" s="13"/>
     </row>
     <row r="914" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A914" s="49"/>
+      <c r="A914" s="47"/>
       <c r="F914" s="11"/>
       <c r="G914" s="12"/>
       <c r="H914" s="13"/>
     </row>
     <row r="915" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A915" s="49"/>
+      <c r="A915" s="47"/>
       <c r="F915" s="11"/>
       <c r="G915" s="12"/>
       <c r="H915" s="13"/>
     </row>
     <row r="916" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A916" s="49"/>
+      <c r="A916" s="47"/>
       <c r="F916" s="11"/>
       <c r="G916" s="12"/>
       <c r="H916" s="13"/>
     </row>
     <row r="917" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A917" s="49"/>
+      <c r="A917" s="47"/>
       <c r="F917" s="11"/>
       <c r="G917" s="12"/>
       <c r="H917" s="13"/>
     </row>
     <row r="918" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A918" s="49"/>
+      <c r="A918" s="47"/>
       <c r="F918" s="11"/>
       <c r="G918" s="12"/>
       <c r="H918" s="13"/>
     </row>
     <row r="919" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A919" s="49"/>
+      <c r="A919" s="47"/>
       <c r="F919" s="11"/>
       <c r="G919" s="12"/>
       <c r="H919" s="13"/>
     </row>
     <row r="920" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A920" s="49"/>
+      <c r="A920" s="47"/>
       <c r="F920" s="11"/>
       <c r="G920" s="12"/>
       <c r="H920" s="13"/>
     </row>
     <row r="921" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A921" s="49"/>
+      <c r="A921" s="47"/>
       <c r="F921" s="11"/>
       <c r="G921" s="12"/>
       <c r="H921" s="13"/>
     </row>
     <row r="922" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A922" s="49"/>
+      <c r="A922" s="47"/>
       <c r="F922" s="11"/>
       <c r="G922" s="12"/>
       <c r="H922" s="13"/>
     </row>
     <row r="923" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A923" s="49"/>
+      <c r="A923" s="47"/>
       <c r="F923" s="11"/>
       <c r="G923" s="12"/>
       <c r="H923" s="13"/>
     </row>
     <row r="924" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A924" s="49"/>
+      <c r="A924" s="47"/>
       <c r="F924" s="11"/>
       <c r="G924" s="12"/>
       <c r="H924" s="13"/>
     </row>
     <row r="925" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A925" s="49"/>
+      <c r="A925" s="47"/>
       <c r="F925" s="11"/>
       <c r="G925" s="12"/>
       <c r="H925" s="13"/>
     </row>
     <row r="926" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A926" s="49"/>
+      <c r="A926" s="47"/>
       <c r="F926" s="11"/>
       <c r="G926" s="12"/>
       <c r="H926" s="13"/>
     </row>
     <row r="927" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A927" s="49"/>
+      <c r="A927" s="47"/>
       <c r="F927" s="11"/>
       <c r="G927" s="12"/>
       <c r="H927" s="13"/>
     </row>
     <row r="928" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A928" s="49"/>
+      <c r="A928" s="47"/>
       <c r="F928" s="11"/>
       <c r="G928" s="12"/>
       <c r="H928" s="13"/>
     </row>
     <row r="929" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A929" s="49"/>
+      <c r="A929" s="47"/>
       <c r="F929" s="11"/>
       <c r="G929" s="12"/>
       <c r="H929" s="13"/>
     </row>
     <row r="930" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A930" s="49"/>
+      <c r="A930" s="47"/>
       <c r="F930" s="11"/>
       <c r="G930" s="12"/>
       <c r="H930" s="13"/>
     </row>
     <row r="931" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A931" s="49"/>
+      <c r="A931" s="47"/>
       <c r="F931" s="11"/>
       <c r="G931" s="12"/>
       <c r="H931" s="13"/>
     </row>
     <row r="932" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A932" s="49"/>
+      <c r="A932" s="47"/>
       <c r="F932" s="11"/>
       <c r="G932" s="12"/>
       <c r="H932" s="13"/>
     </row>
     <row r="933" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A933" s="49"/>
+      <c r="A933" s="47"/>
       <c r="F933" s="11"/>
       <c r="G933" s="12"/>
       <c r="H933" s="13"/>
     </row>
     <row r="934" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A934" s="49"/>
+      <c r="A934" s="47"/>
       <c r="F934" s="11"/>
       <c r="G934" s="12"/>
       <c r="H934" s="13"/>
     </row>
     <row r="935" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A935" s="49"/>
+      <c r="A935" s="47"/>
       <c r="F935" s="11"/>
       <c r="G935" s="12"/>
       <c r="H935" s="13"/>
     </row>
     <row r="936" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A936" s="49"/>
+      <c r="A936" s="47"/>
       <c r="F936" s="11"/>
       <c r="G936" s="12"/>
       <c r="H936" s="13"/>
     </row>
     <row r="937" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A937" s="49"/>
+      <c r="A937" s="47"/>
       <c r="F937" s="11"/>
       <c r="G937" s="12"/>
       <c r="H937" s="13"/>
     </row>
     <row r="938" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A938" s="49"/>
+      <c r="A938" s="47"/>
       <c r="F938" s="11"/>
       <c r="G938" s="12"/>
       <c r="H938" s="13"/>
     </row>
     <row r="939" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A939" s="49"/>
+      <c r="A939" s="47"/>
       <c r="F939" s="11"/>
       <c r="G939" s="12"/>
       <c r="H939" s="13"/>
     </row>
     <row r="940" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A940" s="49"/>
+      <c r="A940" s="47"/>
       <c r="F940" s="11"/>
       <c r="G940" s="12"/>
       <c r="H940" s="13"/>
     </row>
     <row r="941" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A941" s="49"/>
+      <c r="A941" s="47"/>
       <c r="F941" s="11"/>
       <c r="G941" s="12"/>
       <c r="H941" s="13"/>
     </row>
     <row r="942" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A942" s="49"/>
+      <c r="A942" s="47"/>
       <c r="F942" s="11"/>
       <c r="G942" s="12"/>
       <c r="H942" s="13"/>
     </row>
     <row r="943" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A943" s="49"/>
+      <c r="A943" s="47"/>
       <c r="F943" s="11"/>
       <c r="G943" s="12"/>
       <c r="H943" s="13"/>
     </row>
     <row r="944" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A944" s="49"/>
+      <c r="A944" s="47"/>
       <c r="F944" s="11"/>
       <c r="G944" s="12"/>
       <c r="H944" s="13"/>
     </row>
     <row r="945" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A945" s="49"/>
+      <c r="A945" s="47"/>
       <c r="F945" s="11"/>
       <c r="G945" s="12"/>
       <c r="H945" s="13"/>
     </row>
     <row r="946" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A946" s="49"/>
+      <c r="A946" s="47"/>
       <c r="F946" s="11"/>
       <c r="G946" s="12"/>
       <c r="H946" s="13"/>
     </row>
     <row r="947" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A947" s="49"/>
+      <c r="A947" s="47"/>
       <c r="F947" s="11"/>
       <c r="G947" s="12"/>
       <c r="H947" s="13"/>
     </row>
     <row r="948" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A948" s="49"/>
+      <c r="A948" s="47"/>
       <c r="F948" s="11"/>
       <c r="G948" s="12"/>
       <c r="H948" s="13"/>
     </row>
     <row r="949" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A949" s="49"/>
+      <c r="A949" s="47"/>
       <c r="F949" s="11"/>
       <c r="G949" s="12"/>
       <c r="H949" s="13"/>
     </row>
     <row r="950" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A950" s="49"/>
+      <c r="A950" s="47"/>
       <c r="F950" s="11"/>
       <c r="G950" s="12"/>
       <c r="H950" s="13"/>
     </row>
     <row r="951" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A951" s="49"/>
+      <c r="A951" s="47"/>
       <c r="F951" s="11"/>
       <c r="G951" s="12"/>
       <c r="H951" s="13"/>
     </row>
     <row r="952" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A952" s="49"/>
+      <c r="A952" s="47"/>
       <c r="F952" s="11"/>
       <c r="G952" s="12"/>
       <c r="H952" s="13"/>
     </row>
     <row r="953" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A953" s="49"/>
+      <c r="A953" s="47"/>
       <c r="F953" s="11"/>
       <c r="G953" s="12"/>
       <c r="H953" s="13"/>
     </row>
     <row r="954" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A954" s="49"/>
+      <c r="A954" s="47"/>
       <c r="F954" s="11"/>
       <c r="G954" s="12"/>
       <c r="H954" s="13"/>
     </row>
     <row r="955" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A955" s="49"/>
+      <c r="A955" s="47"/>
       <c r="F955" s="11"/>
       <c r="G955" s="12"/>
       <c r="H955" s="13"/>
     </row>
     <row r="956" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A956" s="49"/>
+      <c r="A956" s="47"/>
       <c r="F956" s="11"/>
       <c r="G956" s="12"/>
       <c r="H956" s="13"/>
     </row>
     <row r="957" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A957" s="49"/>
+      <c r="A957" s="47"/>
       <c r="F957" s="11"/>
       <c r="G957" s="12"/>
       <c r="H957" s="13"/>
     </row>
     <row r="958" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A958" s="49"/>
+      <c r="A958" s="47"/>
       <c r="F958" s="11"/>
       <c r="G958" s="12"/>
       <c r="H958" s="13"/>
     </row>
     <row r="959" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A959" s="49"/>
+      <c r="A959" s="47"/>
       <c r="F959" s="11"/>
       <c r="G959" s="12"/>
       <c r="H959" s="13"/>
     </row>
     <row r="960" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A960" s="49"/>
+      <c r="A960" s="47"/>
       <c r="F960" s="11"/>
       <c r="G960" s="12"/>
       <c r="H960" s="13"/>
     </row>
     <row r="961" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A961" s="49"/>
+      <c r="A961" s="47"/>
       <c r="F961" s="11"/>
       <c r="G961" s="12"/>
       <c r="H961" s="13"/>
     </row>
     <row r="962" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A962" s="49"/>
+      <c r="A962" s="47"/>
       <c r="F962" s="11"/>
       <c r="G962" s="12"/>
       <c r="H962" s="13"/>
     </row>
     <row r="963" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A963" s="49"/>
+      <c r="A963" s="47"/>
       <c r="F963" s="11"/>
       <c r="G963" s="12"/>
       <c r="H963" s="13"/>
     </row>
     <row r="964" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A964" s="49"/>
+      <c r="A964" s="47"/>
       <c r="F964" s="11"/>
       <c r="G964" s="12"/>
       <c r="H964" s="13"/>
     </row>
     <row r="965" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A965" s="49"/>
+      <c r="A965" s="47"/>
       <c r="F965" s="11"/>
       <c r="G965" s="12"/>
       <c r="H965" s="13"/>
     </row>
     <row r="966" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A966" s="49"/>
+      <c r="A966" s="47"/>
       <c r="F966" s="11"/>
       <c r="G966" s="12"/>
       <c r="H966" s="13"/>
     </row>
     <row r="967" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A967" s="49"/>
+      <c r="A967" s="47"/>
       <c r="F967" s="11"/>
       <c r="G967" s="12"/>
       <c r="H967" s="13"/>
     </row>
     <row r="968" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A968" s="49"/>
+      <c r="A968" s="47"/>
       <c r="F968" s="11"/>
       <c r="G968" s="12"/>
       <c r="H968" s="13"/>
     </row>
     <row r="969" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A969" s="49"/>
+      <c r="A969" s="47"/>
       <c r="F969" s="11"/>
       <c r="G969" s="12"/>
       <c r="H969" s="13"/>
     </row>
     <row r="970" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A970" s="49"/>
+      <c r="A970" s="47"/>
       <c r="F970" s="11"/>
       <c r="G970" s="12"/>
       <c r="H970" s="13"/>
     </row>
     <row r="971" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A971" s="49"/>
+      <c r="A971" s="47"/>
       <c r="F971" s="11"/>
       <c r="G971" s="12"/>
       <c r="H971" s="13"/>
     </row>
     <row r="972" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A972" s="49"/>
+      <c r="A972" s="47"/>
       <c r="F972" s="11"/>
       <c r="G972" s="12"/>
       <c r="H972" s="13"/>
     </row>
     <row r="973" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A973" s="49"/>
+      <c r="A973" s="47"/>
       <c r="F973" s="11"/>
       <c r="G973" s="12"/>
       <c r="H973" s="13"/>
     </row>
     <row r="974" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A974" s="49"/>
+      <c r="A974" s="47"/>
       <c r="F974" s="11"/>
       <c r="G974" s="12"/>
       <c r="H974" s="13"/>
     </row>
     <row r="975" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A975" s="49"/>
+      <c r="A975" s="47"/>
       <c r="F975" s="11"/>
       <c r="G975" s="12"/>
       <c r="H975" s="13"/>
     </row>
     <row r="976" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A976" s="49"/>
+      <c r="A976" s="47"/>
       <c r="F976" s="11"/>
       <c r="G976" s="12"/>
       <c r="H976" s="13"/>
     </row>
     <row r="977" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A977" s="49"/>
+      <c r="A977" s="47"/>
       <c r="F977" s="11"/>
       <c r="G977" s="12"/>
       <c r="H977" s="13"/>
     </row>
     <row r="978" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A978" s="49"/>
+      <c r="A978" s="47"/>
       <c r="F978" s="11"/>
       <c r="G978" s="12"/>
       <c r="H978" s="13"/>
     </row>
     <row r="979" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A979" s="49"/>
+      <c r="A979" s="47"/>
       <c r="F979" s="11"/>
       <c r="G979" s="12"/>
       <c r="H979" s="13"/>
     </row>
     <row r="980" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A980" s="49"/>
+      <c r="A980" s="47"/>
       <c r="F980" s="11"/>
       <c r="G980" s="12"/>
       <c r="H980" s="13"/>
     </row>
     <row r="981" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A981" s="49"/>
+      <c r="A981" s="47"/>
       <c r="F981" s="11"/>
       <c r="G981" s="12"/>
       <c r="H981" s="13"/>
     </row>
     <row r="982" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A982" s="49"/>
+      <c r="A982" s="47"/>
       <c r="F982" s="11"/>
       <c r="G982" s="12"/>
       <c r="H982" s="13"/>
     </row>
     <row r="983" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A983" s="49"/>
+      <c r="A983" s="47"/>
       <c r="F983" s="11"/>
       <c r="G983" s="12"/>
       <c r="H983" s="13"/>
     </row>
     <row r="984" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A984" s="49"/>
+      <c r="A984" s="47"/>
       <c r="F984" s="11"/>
       <c r="G984" s="12"/>
       <c r="H984" s="13"/>
     </row>
     <row r="985" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A985" s="49"/>
+      <c r="A985" s="47"/>
       <c r="F985" s="11"/>
       <c r="G985" s="12"/>
       <c r="H985" s="13"/>
     </row>
     <row r="986" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A986" s="49"/>
+      <c r="A986" s="47"/>
       <c r="F986" s="11"/>
       <c r="G986" s="12"/>
       <c r="H986" s="13"/>
     </row>
     <row r="987" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A987" s="49"/>
+      <c r="A987" s="47"/>
       <c r="F987" s="11"/>
       <c r="G987" s="12"/>
       <c r="H987" s="13"/>
     </row>
     <row r="988" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A988" s="49"/>
+      <c r="A988" s="47"/>
       <c r="F988" s="11"/>
       <c r="G988" s="12"/>
       <c r="H988" s="13"/>
     </row>
     <row r="989" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A989" s="49"/>
+      <c r="A989" s="47"/>
       <c r="F989" s="11"/>
       <c r="G989" s="12"/>
       <c r="H989" s="13"/>
     </row>
     <row r="990" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A990" s="49"/>
+      <c r="A990" s="47"/>
       <c r="F990" s="11"/>
       <c r="G990" s="12"/>
       <c r="H990" s="13"/>
     </row>
     <row r="991" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A991" s="49"/>
+      <c r="A991" s="47"/>
       <c r="F991" s="11"/>
       <c r="G991" s="12"/>
       <c r="H991" s="13"/>
     </row>
     <row r="992" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A992" s="49"/>
+      <c r="A992" s="47"/>
       <c r="F992" s="11"/>
       <c r="G992" s="12"/>
       <c r="H992" s="13"/>
     </row>
     <row r="993" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A993" s="49"/>
+      <c r="A993" s="47"/>
       <c r="F993" s="11"/>
       <c r="G993" s="12"/>
       <c r="H993" s="13"/>
     </row>
     <row r="994" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A994" s="49"/>
+      <c r="A994" s="47"/>
       <c r="F994" s="11"/>
       <c r="G994" s="12"/>
       <c r="H994" s="13"/>
     </row>
     <row r="995" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A995" s="49"/>
+      <c r="A995" s="47"/>
       <c r="F995" s="11"/>
       <c r="G995" s="12"/>
       <c r="H995" s="13"/>
     </row>
     <row r="996" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A996" s="49"/>
+      <c r="A996" s="47"/>
       <c r="F996" s="11"/>
       <c r="G996" s="12"/>
       <c r="H996" s="13"/>
     </row>
     <row r="997" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A997" s="49"/>
+      <c r="A997" s="47"/>
       <c r="F997" s="11"/>
       <c r="G997" s="12"/>
       <c r="H997" s="13"/>
     </row>
     <row r="998" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A998" s="49"/>
+      <c r="A998" s="47"/>
       <c r="F998" s="11"/>
       <c r="G998" s="12"/>
       <c r="H998" s="13"/>
     </row>
     <row r="999" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A999" s="49"/>
+      <c r="A999" s="47"/>
       <c r="F999" s="11"/>
       <c r="G999" s="12"/>
       <c r="H999" s="13"/>
     </row>
     <row r="1000" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A1000" s="49"/>
+      <c r="A1000" s="47"/>
       <c r="F1000" s="11"/>
       <c r="G1000" s="12"/>
       <c r="H1000" s="13"/>
     </row>
     <row r="1001" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A1001" s="49"/>
+      <c r="A1001" s="47"/>
       <c r="F1001" s="11"/>
       <c r="G1001" s="12"/>
       <c r="H1001" s="13"/>
     </row>
     <row r="1002" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A1002" s="49"/>
+      <c r="A1002" s="47"/>
       <c r="F1002" s="11"/>
       <c r="G1002" s="12"/>
       <c r="H1002" s="13"/>
     </row>
     <row r="1003" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A1003" s="49"/>
+      <c r="A1003" s="47"/>
       <c r="F1003" s="11"/>
       <c r="G1003" s="12"/>
       <c r="H1003" s="13"/>
     </row>
     <row r="1004" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A1004" s="49"/>
+      <c r="A1004" s="47"/>
       <c r="F1004" s="11"/>
       <c r="G1004" s="12"/>
       <c r="H1004" s="13"/>
     </row>
     <row r="1005" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A1005" s="49"/>
+      <c r="A1005" s="47"/>
       <c r="F1005" s="11"/>
       <c r="G1005" s="12"/>
       <c r="H1005" s="13"/>
     </row>
     <row r="1006" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A1006" s="49"/>
+      <c r="A1006" s="47"/>
       <c r="F1006" s="11"/>
       <c r="G1006" s="12"/>
       <c r="H1006" s="13"/>
     </row>
     <row r="1007" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A1007" s="49"/>
+      <c r="A1007" s="47"/>
       <c r="F1007" s="11"/>
       <c r="G1007" s="12"/>
       <c r="H1007" s="13"/>
     </row>
     <row r="1008" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A1008" s="49"/>
+      <c r="A1008" s="47"/>
       <c r="F1008" s="11"/>
       <c r="G1008" s="12"/>
       <c r="H1008" s="13"/>
     </row>
     <row r="1009" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A1009" s="49"/>
+      <c r="A1009" s="47"/>
       <c r="F1009" s="11"/>
       <c r="G1009" s="12"/>
       <c r="H1009" s="13"/>
     </row>
-    <row r="1010" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A1010" s="49"/>
-      <c r="F1010" s="11"/>
-      <c r="G1010" s="12"/>
-      <c r="H1010" s="13"/>
-    </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="B17:B20"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="I12:I13"/>
@@ -9762,6 +9773,11 @@
     <mergeCell ref="F17:F20"/>
     <mergeCell ref="E17:E20"/>
     <mergeCell ref="D17:D20"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="B17:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/key-value.xlsx
+++ b/key-value.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28810"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rupali/Documents/GitHub/glygen-frontend/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/glygen-frontend/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD641398-B1E9-EC49-A67F-BC0F96D05E44}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="279">
   <si>
     <t>Property in JSON</t>
   </si>
@@ -604,6 +605,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Click to select an Organism that makes your glycan(s) </t>
     </r>
@@ -622,6 +624,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: Click to select an Organism that makes your protein(s)</t>
     </r>
@@ -657,6 +660,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Enter the UniProt Accession of your protein (see https://www.uniprot.org/)</t>
     </r>
@@ -917,8 +921,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -929,20 +933,24 @@
       <sz val="10"/>
       <color rgb="FF980000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -958,10 +966,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1211,15 +1221,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1233,7 +1243,18 @@
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1542,17 +1563,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD1009"/>
+  <dimension ref="A1:AD1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="165" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="165" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="25.33203125" style="29" customWidth="1"/>
     <col min="2" max="2" width="20.1640625" customWidth="1"/>
@@ -1565,7 +1586,7 @@
     <col min="11" max="11" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>181</v>
       </c>
@@ -1594,7 +1615,7 @@
       <c r="J1" s="24"/>
       <c r="K1" s="15"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="41"/>
@@ -1606,7 +1627,7 @@
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="A3" s="29" t="s">
         <v>49</v>
       </c>
@@ -1633,7 +1654,7 @@
       </c>
       <c r="I3"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="A4" s="29" t="s">
         <v>183</v>
       </c>
@@ -1658,7 +1679,7 @@
       </c>
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="29" t="s">
         <v>142</v>
       </c>
@@ -1676,7 +1697,7 @@
       </c>
       <c r="I5"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="A6" s="29" t="s">
         <v>69</v>
       </c>
@@ -1701,7 +1722,7 @@
       </c>
       <c r="I6"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="29" t="s">
         <v>45</v>
       </c>
@@ -1724,7 +1745,7 @@
       </c>
       <c r="I7"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="29" t="s">
         <v>42</v>
       </c>
@@ -1749,7 +1770,7 @@
       </c>
       <c r="I8"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="29" t="s">
         <v>127</v>
       </c>
@@ -1776,7 +1797,7 @@
       </c>
       <c r="I9"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="29" t="s">
         <v>39</v>
       </c>
@@ -1801,7 +1822,7 @@
       </c>
       <c r="I10"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="A11" s="29" t="s">
         <v>10</v>
       </c>
@@ -1826,7 +1847,7 @@
       </c>
       <c r="I11"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="A12" s="29" t="s">
         <v>198</v>
       </c>
@@ -1834,31 +1855,31 @@
       <c r="C12" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="51" t="s">
         <v>170</v>
       </c>
       <c r="E12" s="49"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="A13" s="29" t="s">
         <v>199</v>
       </c>
       <c r="B13" s="49"/>
       <c r="C13" s="49"/>
-      <c r="D13" s="52"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="49"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1">
       <c r="A14" s="46" t="s">
         <v>201</v>
       </c>
@@ -1872,7 +1893,7 @@
       <c r="E14" s="29"/>
       <c r="I14"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
       <c r="A15" s="29" t="s">
         <v>57</v>
       </c>
@@ -1887,13 +1908,13 @@
       <c r="F15" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="50" t="s">
+      <c r="G15" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="50"/>
+      <c r="H15" s="53"/>
       <c r="I15"/>
     </row>
-    <row r="16" spans="1:11" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A16" s="29" t="s">
         <v>131</v>
       </c>
@@ -1913,7 +1934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="A17" s="49" t="s">
         <v>172</v>
       </c>
@@ -1921,11 +1942,11 @@
       <c r="C17" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="51" t="s">
         <v>47</v>
       </c>
       <c r="E17" s="49"/>
-      <c r="F17" s="53" t="s">
+      <c r="F17" s="52" t="s">
         <v>204</v>
       </c>
       <c r="G17" s="9" t="s">
@@ -1934,52 +1955,52 @@
       <c r="H17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="A18" s="49"/>
       <c r="B18" s="49"/>
       <c r="C18" s="49"/>
-      <c r="D18" s="52"/>
+      <c r="D18" s="51"/>
       <c r="E18" s="49"/>
-      <c r="F18" s="53"/>
+      <c r="F18" s="52"/>
       <c r="G18" s="9" t="s">
         <v>206</v>
       </c>
       <c r="H18" s="9"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1">
       <c r="A19" s="49"/>
       <c r="B19" s="49"/>
       <c r="C19" s="49"/>
-      <c r="D19" s="52"/>
+      <c r="D19" s="51"/>
       <c r="E19" s="49"/>
-      <c r="F19" s="53"/>
+      <c r="F19" s="52"/>
       <c r="G19" s="9" t="s">
         <v>207</v>
       </c>
       <c r="H19" s="9"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1">
       <c r="A20" s="49"/>
       <c r="B20" s="49"/>
       <c r="C20" s="49"/>
-      <c r="D20" s="52"/>
+      <c r="D20" s="51"/>
       <c r="E20" s="49"/>
-      <c r="F20" s="53"/>
+      <c r="F20" s="52"/>
       <c r="G20" s="9" t="s">
         <v>273</v>
       </c>
       <c r="H20" s="9"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1">
       <c r="A21" s="29" t="s">
         <v>105</v>
       </c>
@@ -2000,7 +2021,7 @@
       </c>
       <c r="I21"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1">
       <c r="A22" s="29" t="s">
         <v>173</v>
       </c>
@@ -2014,7 +2035,7 @@
       <c r="E22" s="29"/>
       <c r="I22"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1">
       <c r="A23" s="29" t="s">
         <v>211</v>
       </c>
@@ -2026,7 +2047,7 @@
       <c r="E23" s="29"/>
       <c r="I23"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="A24" s="29" t="s">
         <v>23</v>
       </c>
@@ -2049,7 +2070,7 @@
       </c>
       <c r="I24"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1">
       <c r="A25" s="29" t="s">
         <v>26</v>
       </c>
@@ -2068,7 +2089,7 @@
       </c>
       <c r="I25"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="A26" s="29" t="s">
         <v>174</v>
       </c>
@@ -2082,7 +2103,7 @@
       <c r="E26" s="29"/>
       <c r="I26"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="A27" s="29" t="s">
         <v>218</v>
       </c>
@@ -2105,448 +2126,452 @@
       </c>
       <c r="I27"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="A28" s="29" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B28" s="29"/>
       <c r="C28" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="29"/>
+        <v>221</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>155</v>
+      </c>
       <c r="F28" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" s="12"/>
+        <v>38</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="H28" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I28"/>
     </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="A29" s="29" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="B29" s="29"/>
       <c r="C29" s="29" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I29"/>
     </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="A30" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="29"/>
+        <v>165</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>223</v>
+      </c>
       <c r="C30" s="29" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>153</v>
+        <v>225</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I30"/>
     </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="A31" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>223</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B31" s="29"/>
       <c r="C31" s="29" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I31"/>
     </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="A32" s="29" t="s">
-        <v>85</v>
+        <v>228</v>
       </c>
       <c r="B32" s="29"/>
       <c r="C32" s="29" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>7</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="E32" s="29"/>
       <c r="I32"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1">
       <c r="A33" s="29" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B33" s="29"/>
       <c r="C33" s="29" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E33" s="29"/>
       <c r="I33"/>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="A34" s="29" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B34" s="29"/>
       <c r="C34" s="29" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E34" s="29"/>
       <c r="I34"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="A35" s="29" t="s">
-        <v>234</v>
+        <v>15</v>
       </c>
       <c r="B35" s="29"/>
       <c r="C35" s="29" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="E35" s="29"/>
+        <v>16</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="7">
+        <v>42498.2</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="I35"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1">
       <c r="A36" s="29" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
       <c r="B36" s="29"/>
       <c r="C36" s="29" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="7">
-        <v>42498.2</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>18</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="E36" s="29"/>
       <c r="I36"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1">
       <c r="A37" s="29" t="s">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="B37" s="29"/>
       <c r="C37" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="E37" s="29"/>
+        <v>175</v>
+      </c>
+      <c r="D37" s="34"/>
+      <c r="E37" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="I37"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1">
       <c r="A38" s="29" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="B38" s="29"/>
       <c r="C38" s="29" t="s">
-        <v>175</v>
+        <v>241</v>
       </c>
       <c r="D38" s="34"/>
-      <c r="E38" s="29" t="s">
-        <v>158</v>
-      </c>
+      <c r="E38" s="29"/>
       <c r="F38" s="11" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I38"/>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" ht="13">
       <c r="A39" s="29" t="s">
-        <v>53</v>
+        <v>242</v>
       </c>
       <c r="B39" s="29"/>
       <c r="C39" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="D39" s="34"/>
+        <v>243</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>54</v>
+      </c>
       <c r="E39" s="29"/>
-      <c r="F39" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>7</v>
-      </c>
       <c r="I39"/>
     </row>
-    <row r="40" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" ht="26">
       <c r="A40" s="29" t="s">
-        <v>242</v>
+        <v>19</v>
       </c>
       <c r="B40" s="29"/>
       <c r="C40" s="29" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="E40" s="29"/>
+      <c r="F40" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="I40"/>
     </row>
-    <row r="41" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" ht="13">
       <c r="A41" s="29" t="s">
-        <v>19</v>
+        <v>176</v>
       </c>
       <c r="B41" s="29"/>
       <c r="C41" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="D41" s="34" t="s">
-        <v>19</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="D41" s="34"/>
       <c r="E41" s="29"/>
-      <c r="F41" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="I41"/>
     </row>
-    <row r="42" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" ht="13">
       <c r="A42" s="29" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="B42" s="29"/>
       <c r="C42" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="D42" s="34"/>
+        <v>246</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="E42" s="29"/>
       <c r="I42"/>
     </row>
-    <row r="43" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" ht="13">
       <c r="A43" s="29" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B43" s="29"/>
       <c r="C43" s="29" t="s">
-        <v>246</v>
+        <v>30</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E43" s="29"/>
       <c r="I43"/>
     </row>
-    <row r="44" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" ht="13">
       <c r="A44" s="29" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="B44" s="29"/>
       <c r="C44" s="29" t="s">
-        <v>30</v>
+        <v>247</v>
       </c>
       <c r="D44" s="34" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="E44" s="29"/>
       <c r="I44"/>
     </row>
-    <row r="45" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" ht="13">
       <c r="A45" s="29" t="s">
-        <v>63</v>
+        <v>167</v>
       </c>
       <c r="B45" s="29"/>
       <c r="C45" s="29" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D45" s="34" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="E45" s="29"/>
       <c r="I45"/>
     </row>
-    <row r="46" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" ht="13">
       <c r="A46" s="29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B46" s="29"/>
       <c r="C46" s="29" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D46" s="34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E46" s="29"/>
       <c r="I46"/>
     </row>
-    <row r="47" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" ht="13">
       <c r="A47" s="29" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="B47" s="29"/>
       <c r="C47" s="29" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D47" s="34" t="s">
-        <v>136</v>
+        <v>251</v>
       </c>
       <c r="E47" s="29"/>
       <c r="I47"/>
     </row>
-    <row r="48" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" ht="13">
       <c r="A48" s="29" t="s">
-        <v>88</v>
+        <v>177</v>
       </c>
       <c r="B48" s="29"/>
       <c r="C48" s="29" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D48" s="34" t="s">
-        <v>251</v>
+        <v>61</v>
       </c>
       <c r="E48" s="29"/>
       <c r="I48"/>
     </row>
-    <row r="49" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:30" ht="13">
       <c r="A49" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="D49" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E49" s="29"/>
-      <c r="I49"/>
-    </row>
-    <row r="50" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A50" s="29" t="s">
         <v>79</v>
       </c>
+      <c r="C49" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="E49"/>
+      <c r="F49" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G49" s="12"/>
+      <c r="H49" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49" s="31"/>
+    </row>
+    <row r="50" spans="1:30" s="36" customFormat="1" ht="13">
+      <c r="A50" s="37" t="s">
+        <v>277</v>
+      </c>
       <c r="C50" s="37" t="s">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="D50" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="E50"/>
-      <c r="F50" s="11" t="s">
-        <v>96</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="F50" s="45"/>
       <c r="G50" s="12"/>
-      <c r="H50" s="9" t="s">
+      <c r="H50" s="9"/>
+      <c r="I50" s="31"/>
+    </row>
+    <row r="51" spans="1:30" ht="13">
+      <c r="A51" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="29"/>
+      <c r="C51" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="D51" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="29"/>
+      <c r="F51" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H51" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I50" s="31"/>
-    </row>
-    <row r="51" spans="1:30" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A51" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="C51" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="D51" s="39" t="s">
-        <v>277</v>
-      </c>
-      <c r="F51" s="45"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="9"/>
       <c r="I51" s="31"/>
     </row>
-    <row r="52" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:30" ht="39">
       <c r="A52" s="29" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="B52" s="29"/>
       <c r="C52" s="37" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D52" s="34" t="s">
         <v>4</v>
       </c>
       <c r="E52" s="29"/>
       <c r="F52" s="11" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="G52" s="12" t="s">
         <v>4</v>
@@ -2556,193 +2581,213 @@
       </c>
       <c r="I52" s="31"/>
     </row>
-    <row r="53" spans="1:30" ht="26" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:30" ht="26">
       <c r="A53" s="29" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B53" s="29"/>
       <c r="C53" s="37" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="D53" s="34" t="s">
         <v>4</v>
       </c>
       <c r="E53" s="29"/>
       <c r="F53" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>4</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G53" s="12"/>
       <c r="H53" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I53" s="31"/>
     </row>
-    <row r="54" spans="1:30" ht="26" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:30" ht="13">
       <c r="A54" s="29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B54" s="29"/>
-      <c r="C54" s="37" t="s">
-        <v>253</v>
+      <c r="C54" s="29" t="s">
+        <v>254</v>
       </c>
       <c r="D54" s="34" t="s">
         <v>4</v>
       </c>
       <c r="E54" s="29"/>
       <c r="F54" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G54" s="12"/>
+        <v>74</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="H54" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I54" s="31"/>
     </row>
-    <row r="55" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:30" ht="26">
       <c r="A55" s="29" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B55" s="29"/>
-      <c r="C55" s="29" t="s">
-        <v>254</v>
+      <c r="C55" s="37" t="s">
+        <v>255</v>
       </c>
       <c r="D55" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" s="29"/>
-      <c r="F55" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H55" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="F55" s="11"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="13"/>
+      <c r="I55"/>
+    </row>
+    <row r="56" spans="1:30" ht="26">
+      <c r="A56" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="D56" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="E56" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I55" s="31"/>
-    </row>
-    <row r="56" spans="1:30" ht="26" x14ac:dyDescent="0.15">
-      <c r="A56" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B56" s="29"/>
-      <c r="C56" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="D56" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="E56" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="F56" s="11"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="13"/>
       <c r="I56"/>
     </row>
-    <row r="57" spans="1:30" ht="26" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:30" ht="13">
       <c r="A57" s="29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B57" s="29"/>
       <c r="C57" s="29" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D57" s="34" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E57" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>7</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="F57" s="11"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="13"/>
       <c r="I57"/>
     </row>
-    <row r="58" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:30" ht="13">
       <c r="A58" s="29" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B58" s="29"/>
       <c r="C58" s="29" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D58" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="E58" s="33" t="s">
-        <v>164</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="E58" s="33"/>
       <c r="F58" s="11"/>
       <c r="G58" s="12"/>
       <c r="H58" s="13"/>
       <c r="I58"/>
     </row>
-    <row r="59" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:30" ht="13">
       <c r="A59" s="29" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B59" s="29"/>
       <c r="C59" s="29" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D59" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="E59" s="33"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="13"/>
-      <c r="I59"/>
-    </row>
-    <row r="60" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+      <c r="E59" s="34"/>
+      <c r="F59" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I59" s="31"/>
+    </row>
+    <row r="60" spans="1:30" ht="13">
       <c r="A60" s="29" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="B60" s="29"/>
       <c r="C60" s="29" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D60" s="34" t="s">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="E60" s="34"/>
-      <c r="F60" s="12" t="s">
-        <v>113</v>
+      <c r="F60" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H60" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I60" s="31"/>
-    </row>
-    <row r="61" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+      <c r="I60"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
+      <c r="V60" s="10"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="10"/>
+      <c r="Y60" s="10"/>
+      <c r="Z60" s="10"/>
+      <c r="AA60" s="10"/>
+      <c r="AB60" s="10"/>
+      <c r="AC60" s="10"/>
+      <c r="AD60" s="10"/>
+    </row>
+    <row r="61" spans="1:30" ht="13">
       <c r="A61" s="29" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B61" s="29"/>
       <c r="C61" s="29" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D61" s="34" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E61" s="34"/>
       <c r="F61" s="11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H61" s="9" t="s">
         <v>7</v>
@@ -2769,28 +2814,28 @@
       <c r="AC61" s="10"/>
       <c r="AD61" s="10"/>
     </row>
-    <row r="62" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:30" ht="13">
       <c r="A62" s="29" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B62" s="29"/>
       <c r="C62" s="29" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D62" s="34" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E62" s="34"/>
       <c r="F62" s="11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H62" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I62"/>
+      <c r="I62" s="31"/>
       <c r="K62" s="10"/>
       <c r="L62" s="10"/>
       <c r="M62" s="10"/>
@@ -2812,28 +2857,17 @@
       <c r="AC62" s="10"/>
       <c r="AD62" s="10"/>
     </row>
-    <row r="63" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:30" ht="13">
       <c r="A63" s="29" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B63" s="29"/>
       <c r="C63" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="D63" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="E63" s="34"/>
-      <c r="F63" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="G63" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="H63" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I63" s="31"/>
+        <v>123</v>
+      </c>
+      <c r="D63" s="34"/>
+      <c r="E63" s="29"/>
+      <c r="I63"/>
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
       <c r="M63" s="10"/>
@@ -2855,226 +2889,204 @@
       <c r="AC63" s="10"/>
       <c r="AD63" s="10"/>
     </row>
-    <row r="64" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:30" ht="26">
       <c r="A64" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="B64" s="29"/>
-      <c r="C64" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="D64" s="34"/>
-      <c r="E64" s="29"/>
-      <c r="I64"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="10"/>
-      <c r="P64" s="10"/>
-      <c r="Q64" s="10"/>
-      <c r="R64" s="10"/>
-      <c r="S64" s="10"/>
-      <c r="T64" s="10"/>
-      <c r="U64" s="10"/>
-      <c r="V64" s="10"/>
-      <c r="W64" s="10"/>
-      <c r="X64" s="10"/>
-      <c r="Y64" s="10"/>
-      <c r="Z64" s="10"/>
-      <c r="AA64" s="10"/>
-      <c r="AB64" s="10"/>
-      <c r="AC64" s="10"/>
-      <c r="AD64" s="10"/>
-    </row>
-    <row r="65" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D64" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="E64"/>
+      <c r="F64" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I64" s="31"/>
+    </row>
+    <row r="65" spans="1:9" ht="13">
       <c r="A65" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>265</v>
+        <v>97</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>266</v>
       </c>
       <c r="D65" s="34" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E65"/>
       <c r="F65" s="11" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H65" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I65" s="31"/>
-    </row>
-    <row r="66" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="I65"/>
+    </row>
+    <row r="66" spans="1:9" ht="26">
       <c r="A66" s="29" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D66" s="34" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E66"/>
       <c r="F66" s="11" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H66" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I66"/>
-    </row>
-    <row r="67" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+      <c r="I66" s="31"/>
+    </row>
+    <row r="67" spans="1:9" ht="13">
       <c r="A67" s="29" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D67" s="34" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="E67"/>
       <c r="F67" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="G67" s="12" t="s">
-        <v>104</v>
+        <v>81</v>
+      </c>
+      <c r="G67" s="12">
+        <v>212</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="I67" s="31"/>
     </row>
-    <row r="68" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="26">
       <c r="A68" s="29" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D68" s="34" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="E68"/>
       <c r="F68" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G68" s="12">
-        <v>212</v>
+        <v>78</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I68" s="31"/>
     </row>
-    <row r="69" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9" ht="13">
       <c r="A69" s="29" t="s">
-        <v>77</v>
+        <v>179</v>
+      </c>
+      <c r="B69" t="s">
+        <v>108</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D69" s="34" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="E69"/>
       <c r="F69" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G69" s="12" t="s">
-        <v>4</v>
+        <v>110</v>
+      </c>
+      <c r="G69" s="12">
+        <v>700</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I69" s="31"/>
-    </row>
-    <row r="70" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+      <c r="I69"/>
+    </row>
+    <row r="70" spans="1:9" ht="13">
       <c r="A70" s="29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B70" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D70" s="34" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="E70"/>
       <c r="F70" s="11" t="s">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="G70" s="12">
-        <v>700</v>
+        <v>54</v>
       </c>
       <c r="H70" s="9" t="s">
         <v>22</v>
       </c>
       <c r="I70"/>
     </row>
-    <row r="71" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9" ht="13">
       <c r="A71" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="B71" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D71" s="34" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E71"/>
-      <c r="F71" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G71" s="12">
-        <v>54</v>
-      </c>
+      <c r="F71" s="4"/>
+      <c r="G71" s="35"/>
       <c r="H71" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I71"/>
-    </row>
-    <row r="72" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A72" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="29" t="s">
-        <v>272</v>
-      </c>
-      <c r="D72" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" ht="13">
+      <c r="A72" s="47"/>
+      <c r="D72" s="40" t="str">
+        <f t="shared" ref="D72:D127" si="0">UPPER(C72)</f>
+        <v/>
+      </c>
+      <c r="F72" s="11"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="13"/>
+    </row>
+    <row r="73" spans="1:9" ht="13">
       <c r="A73" s="47"/>
       <c r="D73" s="40" t="str">
-        <f t="shared" ref="D73:D128" si="0">UPPER(C73)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F73" s="11"/>
       <c r="G73" s="12"/>
       <c r="H73" s="13"/>
     </row>
-    <row r="74" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" ht="13">
       <c r="A74" s="47"/>
       <c r="D74" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3084,7 +3096,7 @@
       <c r="G74" s="12"/>
       <c r="H74" s="13"/>
     </row>
-    <row r="75" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" ht="13">
       <c r="A75" s="47"/>
       <c r="D75" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3094,7 +3106,7 @@
       <c r="G75" s="12"/>
       <c r="H75" s="13"/>
     </row>
-    <row r="76" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="13">
       <c r="A76" s="47"/>
       <c r="D76" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3104,7 +3116,7 @@
       <c r="G76" s="12"/>
       <c r="H76" s="13"/>
     </row>
-    <row r="77" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="13">
       <c r="A77" s="47"/>
       <c r="D77" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3114,7 +3126,7 @@
       <c r="G77" s="12"/>
       <c r="H77" s="13"/>
     </row>
-    <row r="78" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="13">
       <c r="A78" s="47"/>
       <c r="D78" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3124,7 +3136,7 @@
       <c r="G78" s="12"/>
       <c r="H78" s="13"/>
     </row>
-    <row r="79" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="13">
       <c r="A79" s="47"/>
       <c r="D79" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3134,7 +3146,7 @@
       <c r="G79" s="12"/>
       <c r="H79" s="13"/>
     </row>
-    <row r="80" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="13">
       <c r="A80" s="47"/>
       <c r="D80" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3144,7 +3156,7 @@
       <c r="G80" s="12"/>
       <c r="H80" s="13"/>
     </row>
-    <row r="81" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10" ht="13">
       <c r="A81" s="47"/>
       <c r="D81" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3154,7 +3166,7 @@
       <c r="G81" s="12"/>
       <c r="H81" s="13"/>
     </row>
-    <row r="82" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:10" ht="13">
       <c r="A82" s="47"/>
       <c r="D82" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3164,7 +3176,7 @@
       <c r="G82" s="12"/>
       <c r="H82" s="13"/>
     </row>
-    <row r="83" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:10" ht="13">
       <c r="A83" s="47"/>
       <c r="D83" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3174,7 +3186,7 @@
       <c r="G83" s="12"/>
       <c r="H83" s="13"/>
     </row>
-    <row r="84" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:10" ht="13">
       <c r="A84" s="47"/>
       <c r="D84" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3184,7 +3196,7 @@
       <c r="G84" s="12"/>
       <c r="H84" s="13"/>
     </row>
-    <row r="85" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10" ht="13">
       <c r="A85" s="47"/>
       <c r="D85" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3194,7 +3206,7 @@
       <c r="G85" s="12"/>
       <c r="H85" s="13"/>
     </row>
-    <row r="86" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:10" ht="13">
       <c r="A86" s="47"/>
       <c r="D86" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3204,7 +3216,7 @@
       <c r="G86" s="12"/>
       <c r="H86" s="13"/>
     </row>
-    <row r="87" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:10" ht="13">
       <c r="A87" s="47"/>
       <c r="D87" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3214,7 +3226,7 @@
       <c r="G87" s="12"/>
       <c r="H87" s="13"/>
     </row>
-    <row r="88" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:10" ht="13">
       <c r="A88" s="47"/>
       <c r="D88" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3224,7 +3236,7 @@
       <c r="G88" s="12"/>
       <c r="H88" s="13"/>
     </row>
-    <row r="89" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:10" ht="13">
       <c r="A89" s="47"/>
       <c r="D89" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3234,7 +3246,7 @@
       <c r="G89" s="12"/>
       <c r="H89" s="13"/>
     </row>
-    <row r="90" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:10" ht="13">
       <c r="A90" s="47"/>
       <c r="D90" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3244,7 +3256,7 @@
       <c r="G90" s="12"/>
       <c r="H90" s="13"/>
     </row>
-    <row r="91" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:10" ht="13">
       <c r="A91" s="47"/>
       <c r="D91" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3253,8 +3265,9 @@
       <c r="F91" s="11"/>
       <c r="G91" s="12"/>
       <c r="H91" s="13"/>
-    </row>
-    <row r="92" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="I91" s="22"/>
+    </row>
+    <row r="92" spans="1:10" ht="16">
       <c r="A92" s="47"/>
       <c r="D92" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3263,9 +3276,9 @@
       <c r="F92" s="11"/>
       <c r="G92" s="12"/>
       <c r="H92" s="13"/>
-      <c r="I92" s="22"/>
-    </row>
-    <row r="93" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+      <c r="I92" s="23"/>
+    </row>
+    <row r="93" spans="1:10" ht="13">
       <c r="A93" s="47"/>
       <c r="D93" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3274,9 +3287,8 @@
       <c r="F93" s="11"/>
       <c r="G93" s="12"/>
       <c r="H93" s="13"/>
-      <c r="I93" s="23"/>
-    </row>
-    <row r="94" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="94" spans="1:10" ht="13">
       <c r="A94" s="47"/>
       <c r="D94" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3286,7 +3298,7 @@
       <c r="G94" s="12"/>
       <c r="H94" s="13"/>
     </row>
-    <row r="95" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:10" ht="13">
       <c r="A95" s="47"/>
       <c r="D95" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3296,40 +3308,40 @@
       <c r="G95" s="12"/>
       <c r="H95" s="13"/>
     </row>
-    <row r="96" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A96" s="47"/>
+    <row r="96" spans="1:10" ht="15.75" customHeight="1">
       <c r="D96" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F96" s="11"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="13"/>
-    </row>
-    <row r="97" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J96" s="16"/>
+    </row>
+    <row r="97" spans="1:10" s="16" customFormat="1" ht="13">
+      <c r="A97" s="48"/>
+      <c r="C97" s="43"/>
       <c r="D97" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J97" s="16"/>
-    </row>
-    <row r="98" spans="1:10" s="16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A98" s="48"/>
-      <c r="C98" s="43"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="21"/>
+      <c r="J97"/>
+    </row>
+    <row r="98" spans="1:10" ht="16">
+      <c r="A98" s="47"/>
+      <c r="C98" s="44"/>
       <c r="D98" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E98" s="17"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="19"/>
-      <c r="H98" s="20"/>
-      <c r="I98" s="21"/>
-      <c r="J98"/>
-    </row>
-    <row r="99" spans="1:10" ht="16" x14ac:dyDescent="0.25">
+      <c r="F98" s="11"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="13"/>
+    </row>
+    <row r="99" spans="1:10" ht="13">
       <c r="A99" s="47"/>
-      <c r="C99" s="44"/>
       <c r="D99" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3338,7 +3350,7 @@
       <c r="G99" s="12"/>
       <c r="H99" s="13"/>
     </row>
-    <row r="100" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:10" ht="13">
       <c r="A100" s="47"/>
       <c r="D100" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3348,7 +3360,7 @@
       <c r="G100" s="12"/>
       <c r="H100" s="13"/>
     </row>
-    <row r="101" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:10" ht="13">
       <c r="A101" s="47"/>
       <c r="D101" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3358,7 +3370,7 @@
       <c r="G101" s="12"/>
       <c r="H101" s="13"/>
     </row>
-    <row r="102" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:10" ht="13">
       <c r="A102" s="47"/>
       <c r="D102" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3368,7 +3380,7 @@
       <c r="G102" s="12"/>
       <c r="H102" s="13"/>
     </row>
-    <row r="103" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:10" ht="13">
       <c r="A103" s="47"/>
       <c r="D103" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3378,7 +3390,7 @@
       <c r="G103" s="12"/>
       <c r="H103" s="13"/>
     </row>
-    <row r="104" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:10" ht="13">
       <c r="A104" s="47"/>
       <c r="D104" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3388,7 +3400,7 @@
       <c r="G104" s="12"/>
       <c r="H104" s="13"/>
     </row>
-    <row r="105" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:10" ht="13">
       <c r="A105" s="47"/>
       <c r="D105" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3398,7 +3410,7 @@
       <c r="G105" s="12"/>
       <c r="H105" s="13"/>
     </row>
-    <row r="106" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:10" ht="13">
       <c r="A106" s="47"/>
       <c r="D106" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3408,7 +3420,7 @@
       <c r="G106" s="12"/>
       <c r="H106" s="13"/>
     </row>
-    <row r="107" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:10" ht="13">
       <c r="A107" s="47"/>
       <c r="D107" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3418,7 +3430,7 @@
       <c r="G107" s="12"/>
       <c r="H107" s="13"/>
     </row>
-    <row r="108" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:10" ht="13">
       <c r="A108" s="47"/>
       <c r="D108" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3428,7 +3440,7 @@
       <c r="G108" s="12"/>
       <c r="H108" s="13"/>
     </row>
-    <row r="109" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:10" ht="13">
       <c r="A109" s="47"/>
       <c r="D109" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3438,7 +3450,7 @@
       <c r="G109" s="12"/>
       <c r="H109" s="13"/>
     </row>
-    <row r="110" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:10" ht="13">
       <c r="A110" s="47"/>
       <c r="D110" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3448,7 +3460,7 @@
       <c r="G110" s="12"/>
       <c r="H110" s="13"/>
     </row>
-    <row r="111" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:10" ht="13">
       <c r="A111" s="47"/>
       <c r="D111" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3458,7 +3470,7 @@
       <c r="G111" s="12"/>
       <c r="H111" s="13"/>
     </row>
-    <row r="112" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:10" ht="13">
       <c r="A112" s="47"/>
       <c r="D112" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3468,7 +3480,7 @@
       <c r="G112" s="12"/>
       <c r="H112" s="13"/>
     </row>
-    <row r="113" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:8" ht="13">
       <c r="A113" s="47"/>
       <c r="D113" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3478,7 +3490,7 @@
       <c r="G113" s="12"/>
       <c r="H113" s="13"/>
     </row>
-    <row r="114" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:8" ht="13">
       <c r="A114" s="47"/>
       <c r="D114" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3488,7 +3500,7 @@
       <c r="G114" s="12"/>
       <c r="H114" s="13"/>
     </row>
-    <row r="115" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:8" ht="13">
       <c r="A115" s="47"/>
       <c r="D115" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3498,7 +3510,7 @@
       <c r="G115" s="12"/>
       <c r="H115" s="13"/>
     </row>
-    <row r="116" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:8" ht="13">
       <c r="A116" s="47"/>
       <c r="D116" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3508,7 +3520,7 @@
       <c r="G116" s="12"/>
       <c r="H116" s="13"/>
     </row>
-    <row r="117" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:8" ht="13">
       <c r="A117" s="47"/>
       <c r="D117" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3518,7 +3530,7 @@
       <c r="G117" s="12"/>
       <c r="H117" s="13"/>
     </row>
-    <row r="118" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:8" ht="13">
       <c r="A118" s="47"/>
       <c r="D118" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3528,7 +3540,7 @@
       <c r="G118" s="12"/>
       <c r="H118" s="13"/>
     </row>
-    <row r="119" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:8" ht="13">
       <c r="A119" s="47"/>
       <c r="D119" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3538,7 +3550,7 @@
       <c r="G119" s="12"/>
       <c r="H119" s="13"/>
     </row>
-    <row r="120" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:8" ht="13">
       <c r="A120" s="47"/>
       <c r="D120" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3548,7 +3560,7 @@
       <c r="G120" s="12"/>
       <c r="H120" s="13"/>
     </row>
-    <row r="121" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:8" ht="13">
       <c r="A121" s="47"/>
       <c r="D121" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3558,7 +3570,7 @@
       <c r="G121" s="12"/>
       <c r="H121" s="13"/>
     </row>
-    <row r="122" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:8" ht="13">
       <c r="A122" s="47"/>
       <c r="D122" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3568,7 +3580,7 @@
       <c r="G122" s="12"/>
       <c r="H122" s="13"/>
     </row>
-    <row r="123" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:8" ht="13">
       <c r="A123" s="47"/>
       <c r="D123" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3578,7 +3590,7 @@
       <c r="G123" s="12"/>
       <c r="H123" s="13"/>
     </row>
-    <row r="124" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:8" ht="13">
       <c r="A124" s="47"/>
       <c r="D124" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3588,7 +3600,7 @@
       <c r="G124" s="12"/>
       <c r="H124" s="13"/>
     </row>
-    <row r="125" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:8" ht="13">
       <c r="A125" s="47"/>
       <c r="D125" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3598,7 +3610,7 @@
       <c r="G125" s="12"/>
       <c r="H125" s="13"/>
     </row>
-    <row r="126" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:8" ht="13">
       <c r="A126" s="47"/>
       <c r="D126" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3608,7 +3620,7 @@
       <c r="G126" s="12"/>
       <c r="H126" s="13"/>
     </row>
-    <row r="127" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:8" ht="13">
       <c r="A127" s="47"/>
       <c r="D127" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3618,27 +3630,27 @@
       <c r="G127" s="12"/>
       <c r="H127" s="13"/>
     </row>
-    <row r="128" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:8" ht="13">
       <c r="A128" s="47"/>
       <c r="D128" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D128:D191" si="1">UPPER(C128)</f>
         <v/>
       </c>
       <c r="F128" s="11"/>
       <c r="G128" s="12"/>
       <c r="H128" s="13"/>
     </row>
-    <row r="129" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:8" ht="13">
       <c r="A129" s="47"/>
       <c r="D129" s="40" t="str">
-        <f t="shared" ref="D129:D192" si="1">UPPER(C129)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F129" s="11"/>
       <c r="G129" s="12"/>
       <c r="H129" s="13"/>
     </row>
-    <row r="130" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:8" ht="13">
       <c r="A130" s="47"/>
       <c r="D130" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3648,7 +3660,7 @@
       <c r="G130" s="12"/>
       <c r="H130" s="13"/>
     </row>
-    <row r="131" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:8" ht="13">
       <c r="A131" s="47"/>
       <c r="D131" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3658,7 +3670,7 @@
       <c r="G131" s="12"/>
       <c r="H131" s="13"/>
     </row>
-    <row r="132" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:8" ht="13">
       <c r="A132" s="47"/>
       <c r="D132" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3668,7 +3680,7 @@
       <c r="G132" s="12"/>
       <c r="H132" s="13"/>
     </row>
-    <row r="133" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:8" ht="13">
       <c r="A133" s="47"/>
       <c r="D133" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3678,7 +3690,7 @@
       <c r="G133" s="12"/>
       <c r="H133" s="13"/>
     </row>
-    <row r="134" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:8" ht="13">
       <c r="A134" s="47"/>
       <c r="D134" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3688,7 +3700,7 @@
       <c r="G134" s="12"/>
       <c r="H134" s="13"/>
     </row>
-    <row r="135" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:8" ht="13">
       <c r="A135" s="47"/>
       <c r="D135" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3698,7 +3710,7 @@
       <c r="G135" s="12"/>
       <c r="H135" s="13"/>
     </row>
-    <row r="136" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:8" ht="13">
       <c r="A136" s="47"/>
       <c r="D136" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3708,7 +3720,7 @@
       <c r="G136" s="12"/>
       <c r="H136" s="13"/>
     </row>
-    <row r="137" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:8" ht="13">
       <c r="A137" s="47"/>
       <c r="D137" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3718,7 +3730,7 @@
       <c r="G137" s="12"/>
       <c r="H137" s="13"/>
     </row>
-    <row r="138" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:8" ht="13">
       <c r="A138" s="47"/>
       <c r="D138" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3728,7 +3740,7 @@
       <c r="G138" s="12"/>
       <c r="H138" s="13"/>
     </row>
-    <row r="139" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:8" ht="13">
       <c r="A139" s="47"/>
       <c r="D139" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3738,7 +3750,7 @@
       <c r="G139" s="12"/>
       <c r="H139" s="13"/>
     </row>
-    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:8" ht="13">
       <c r="A140" s="47"/>
       <c r="D140" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3748,7 +3760,7 @@
       <c r="G140" s="12"/>
       <c r="H140" s="13"/>
     </row>
-    <row r="141" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:8" ht="13">
       <c r="A141" s="47"/>
       <c r="D141" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3758,7 +3770,7 @@
       <c r="G141" s="12"/>
       <c r="H141" s="13"/>
     </row>
-    <row r="142" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:8" ht="13">
       <c r="A142" s="47"/>
       <c r="D142" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3768,7 +3780,7 @@
       <c r="G142" s="12"/>
       <c r="H142" s="13"/>
     </row>
-    <row r="143" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:8" ht="13">
       <c r="A143" s="47"/>
       <c r="D143" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3778,7 +3790,7 @@
       <c r="G143" s="12"/>
       <c r="H143" s="13"/>
     </row>
-    <row r="144" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:8" ht="13">
       <c r="A144" s="47"/>
       <c r="D144" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3788,7 +3800,7 @@
       <c r="G144" s="12"/>
       <c r="H144" s="13"/>
     </row>
-    <row r="145" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:8" ht="13">
       <c r="A145" s="47"/>
       <c r="D145" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3798,7 +3810,7 @@
       <c r="G145" s="12"/>
       <c r="H145" s="13"/>
     </row>
-    <row r="146" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:8" ht="13">
       <c r="A146" s="47"/>
       <c r="D146" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3808,7 +3820,7 @@
       <c r="G146" s="12"/>
       <c r="H146" s="13"/>
     </row>
-    <row r="147" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:8" ht="13">
       <c r="A147" s="47"/>
       <c r="D147" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3818,7 +3830,7 @@
       <c r="G147" s="12"/>
       <c r="H147" s="13"/>
     </row>
-    <row r="148" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:8" ht="13">
       <c r="A148" s="47"/>
       <c r="D148" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3828,7 +3840,7 @@
       <c r="G148" s="12"/>
       <c r="H148" s="13"/>
     </row>
-    <row r="149" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:8" ht="13">
       <c r="A149" s="47"/>
       <c r="D149" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3838,7 +3850,7 @@
       <c r="G149" s="12"/>
       <c r="H149" s="13"/>
     </row>
-    <row r="150" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:8" ht="13">
       <c r="A150" s="47"/>
       <c r="D150" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3848,7 +3860,7 @@
       <c r="G150" s="12"/>
       <c r="H150" s="13"/>
     </row>
-    <row r="151" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:8" ht="13">
       <c r="A151" s="47"/>
       <c r="D151" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3858,7 +3870,7 @@
       <c r="G151" s="12"/>
       <c r="H151" s="13"/>
     </row>
-    <row r="152" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:8" ht="13">
       <c r="A152" s="47"/>
       <c r="D152" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3868,7 +3880,7 @@
       <c r="G152" s="12"/>
       <c r="H152" s="13"/>
     </row>
-    <row r="153" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:8" ht="13">
       <c r="A153" s="47"/>
       <c r="D153" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3878,7 +3890,7 @@
       <c r="G153" s="12"/>
       <c r="H153" s="13"/>
     </row>
-    <row r="154" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:8" ht="13">
       <c r="A154" s="47"/>
       <c r="D154" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3888,7 +3900,7 @@
       <c r="G154" s="12"/>
       <c r="H154" s="13"/>
     </row>
-    <row r="155" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:8" ht="13">
       <c r="A155" s="47"/>
       <c r="D155" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3898,7 +3910,7 @@
       <c r="G155" s="12"/>
       <c r="H155" s="13"/>
     </row>
-    <row r="156" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:8" ht="13">
       <c r="A156" s="47"/>
       <c r="D156" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3908,7 +3920,7 @@
       <c r="G156" s="12"/>
       <c r="H156" s="13"/>
     </row>
-    <row r="157" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:8" ht="13">
       <c r="A157" s="47"/>
       <c r="D157" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3918,7 +3930,7 @@
       <c r="G157" s="12"/>
       <c r="H157" s="13"/>
     </row>
-    <row r="158" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:8" ht="13">
       <c r="A158" s="47"/>
       <c r="D158" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3928,7 +3940,7 @@
       <c r="G158" s="12"/>
       <c r="H158" s="13"/>
     </row>
-    <row r="159" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:8" ht="13">
       <c r="A159" s="47"/>
       <c r="D159" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3938,7 +3950,7 @@
       <c r="G159" s="12"/>
       <c r="H159" s="13"/>
     </row>
-    <row r="160" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:8" ht="13">
       <c r="A160" s="47"/>
       <c r="D160" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3948,7 +3960,7 @@
       <c r="G160" s="12"/>
       <c r="H160" s="13"/>
     </row>
-    <row r="161" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:8" ht="13">
       <c r="A161" s="47"/>
       <c r="D161" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3958,7 +3970,7 @@
       <c r="G161" s="12"/>
       <c r="H161" s="13"/>
     </row>
-    <row r="162" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:8" ht="13">
       <c r="A162" s="47"/>
       <c r="D162" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3968,7 +3980,7 @@
       <c r="G162" s="12"/>
       <c r="H162" s="13"/>
     </row>
-    <row r="163" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:8" ht="13">
       <c r="A163" s="47"/>
       <c r="D163" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3978,7 +3990,7 @@
       <c r="G163" s="12"/>
       <c r="H163" s="13"/>
     </row>
-    <row r="164" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:8" ht="13">
       <c r="A164" s="47"/>
       <c r="D164" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3988,7 +4000,7 @@
       <c r="G164" s="12"/>
       <c r="H164" s="13"/>
     </row>
-    <row r="165" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:8" ht="13">
       <c r="A165" s="47"/>
       <c r="D165" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3998,7 +4010,7 @@
       <c r="G165" s="12"/>
       <c r="H165" s="13"/>
     </row>
-    <row r="166" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:8" ht="13">
       <c r="A166" s="47"/>
       <c r="D166" s="40" t="str">
         <f t="shared" si="1"/>
@@ -4008,7 +4020,7 @@
       <c r="G166" s="12"/>
       <c r="H166" s="13"/>
     </row>
-    <row r="167" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:8" ht="13">
       <c r="A167" s="47"/>
       <c r="D167" s="40" t="str">
         <f t="shared" si="1"/>
@@ -4018,7 +4030,7 @@
       <c r="G167" s="12"/>
       <c r="H167" s="13"/>
     </row>
-    <row r="168" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:8" ht="13">
       <c r="A168" s="47"/>
       <c r="D168" s="40" t="str">
         <f t="shared" si="1"/>
@@ -4028,7 +4040,7 @@
       <c r="G168" s="12"/>
       <c r="H168" s="13"/>
     </row>
-    <row r="169" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:8" ht="13">
       <c r="A169" s="47"/>
       <c r="D169" s="40" t="str">
         <f t="shared" si="1"/>
@@ -4038,7 +4050,7 @@
       <c r="G169" s="12"/>
       <c r="H169" s="13"/>
     </row>
-    <row r="170" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:8" ht="13">
       <c r="A170" s="47"/>
       <c r="D170" s="40" t="str">
         <f t="shared" si="1"/>
@@ -4048,7 +4060,7 @@
       <c r="G170" s="12"/>
       <c r="H170" s="13"/>
     </row>
-    <row r="171" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:8" ht="13">
       <c r="A171" s="47"/>
       <c r="D171" s="40" t="str">
         <f t="shared" si="1"/>
@@ -4058,7 +4070,7 @@
       <c r="G171" s="12"/>
       <c r="H171" s="13"/>
     </row>
-    <row r="172" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:8" ht="13">
       <c r="A172" s="47"/>
       <c r="D172" s="40" t="str">
         <f t="shared" si="1"/>
@@ -4068,7 +4080,7 @@
       <c r="G172" s="12"/>
       <c r="H172" s="13"/>
     </row>
-    <row r="173" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:8" ht="13">
       <c r="A173" s="47"/>
       <c r="D173" s="40" t="str">
         <f t="shared" si="1"/>
@@ -4078,7 +4090,7 @@
       <c r="G173" s="12"/>
       <c r="H173" s="13"/>
     </row>
-    <row r="174" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:8" ht="13">
       <c r="A174" s="47"/>
       <c r="D174" s="40" t="str">
         <f t="shared" si="1"/>
@@ -4088,7 +4100,7 @@
       <c r="G174" s="12"/>
       <c r="H174" s="13"/>
     </row>
-    <row r="175" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:8" ht="13">
       <c r="A175" s="47"/>
       <c r="D175" s="40" t="str">
         <f t="shared" si="1"/>
@@ -4098,7 +4110,7 @@
       <c r="G175" s="12"/>
       <c r="H175" s="13"/>
     </row>
-    <row r="176" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:8" ht="13">
       <c r="A176" s="47"/>
       <c r="D176" s="40" t="str">
         <f t="shared" si="1"/>
@@ -4108,7 +4120,7 @@
       <c r="G176" s="12"/>
       <c r="H176" s="13"/>
     </row>
-    <row r="177" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:8" ht="13">
       <c r="A177" s="47"/>
       <c r="D177" s="40" t="str">
         <f t="shared" si="1"/>
@@ -4118,7 +4130,7 @@
       <c r="G177" s="12"/>
       <c r="H177" s="13"/>
     </row>
-    <row r="178" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:8" ht="13">
       <c r="A178" s="47"/>
       <c r="D178" s="40" t="str">
         <f t="shared" si="1"/>
@@ -4128,7 +4140,7 @@
       <c r="G178" s="12"/>
       <c r="H178" s="13"/>
     </row>
-    <row r="179" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:8" ht="13">
       <c r="A179" s="47"/>
       <c r="D179" s="40" t="str">
         <f t="shared" si="1"/>
@@ -4138,7 +4150,7 @@
       <c r="G179" s="12"/>
       <c r="H179" s="13"/>
     </row>
-    <row r="180" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:8" ht="13">
       <c r="A180" s="47"/>
       <c r="D180" s="40" t="str">
         <f t="shared" si="1"/>
@@ -4148,7 +4160,7 @@
       <c r="G180" s="12"/>
       <c r="H180" s="13"/>
     </row>
-    <row r="181" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:8" ht="13">
       <c r="A181" s="47"/>
       <c r="D181" s="40" t="str">
         <f t="shared" si="1"/>
@@ -4158,7 +4170,7 @@
       <c r="G181" s="12"/>
       <c r="H181" s="13"/>
     </row>
-    <row r="182" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:8" ht="13">
       <c r="A182" s="47"/>
       <c r="D182" s="40" t="str">
         <f t="shared" si="1"/>
@@ -4168,7 +4180,7 @@
       <c r="G182" s="12"/>
       <c r="H182" s="13"/>
     </row>
-    <row r="183" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:8" ht="13">
       <c r="A183" s="47"/>
       <c r="D183" s="40" t="str">
         <f t="shared" si="1"/>
@@ -4178,7 +4190,7 @@
       <c r="G183" s="12"/>
       <c r="H183" s="13"/>
     </row>
-    <row r="184" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:8" ht="13">
       <c r="A184" s="47"/>
       <c r="D184" s="40" t="str">
         <f t="shared" si="1"/>
@@ -4188,7 +4200,7 @@
       <c r="G184" s="12"/>
       <c r="H184" s="13"/>
     </row>
-    <row r="185" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:8" ht="13">
       <c r="A185" s="47"/>
       <c r="D185" s="40" t="str">
         <f t="shared" si="1"/>
@@ -4198,7 +4210,7 @@
       <c r="G185" s="12"/>
       <c r="H185" s="13"/>
     </row>
-    <row r="186" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:8" ht="13">
       <c r="A186" s="47"/>
       <c r="D186" s="40" t="str">
         <f t="shared" si="1"/>
@@ -4208,7 +4220,7 @@
       <c r="G186" s="12"/>
       <c r="H186" s="13"/>
     </row>
-    <row r="187" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:8" ht="13">
       <c r="A187" s="47"/>
       <c r="D187" s="40" t="str">
         <f t="shared" si="1"/>
@@ -4218,7 +4230,7 @@
       <c r="G187" s="12"/>
       <c r="H187" s="13"/>
     </row>
-    <row r="188" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:8" ht="13">
       <c r="A188" s="47"/>
       <c r="D188" s="40" t="str">
         <f t="shared" si="1"/>
@@ -4228,7 +4240,7 @@
       <c r="G188" s="12"/>
       <c r="H188" s="13"/>
     </row>
-    <row r="189" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:8" ht="13">
       <c r="A189" s="47"/>
       <c r="D189" s="40" t="str">
         <f t="shared" si="1"/>
@@ -4238,7 +4250,7 @@
       <c r="G189" s="12"/>
       <c r="H189" s="13"/>
     </row>
-    <row r="190" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:8" ht="13">
       <c r="A190" s="47"/>
       <c r="D190" s="40" t="str">
         <f t="shared" si="1"/>
@@ -4248,7 +4260,7 @@
       <c r="G190" s="12"/>
       <c r="H190" s="13"/>
     </row>
-    <row r="191" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:8" ht="13">
       <c r="A191" s="47"/>
       <c r="D191" s="40" t="str">
         <f t="shared" si="1"/>
@@ -4258,27 +4270,27 @@
       <c r="G191" s="12"/>
       <c r="H191" s="13"/>
     </row>
-    <row r="192" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:8" ht="13">
       <c r="A192" s="47"/>
       <c r="D192" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D192:D255" si="2">UPPER(C192)</f>
         <v/>
       </c>
       <c r="F192" s="11"/>
       <c r="G192" s="12"/>
       <c r="H192" s="13"/>
     </row>
-    <row r="193" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:8" ht="13">
       <c r="A193" s="47"/>
       <c r="D193" s="40" t="str">
-        <f t="shared" ref="D193:D256" si="2">UPPER(C193)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F193" s="11"/>
       <c r="G193" s="12"/>
       <c r="H193" s="13"/>
     </row>
-    <row r="194" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:8" ht="13">
       <c r="A194" s="47"/>
       <c r="D194" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4288,7 +4300,7 @@
       <c r="G194" s="12"/>
       <c r="H194" s="13"/>
     </row>
-    <row r="195" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:8" ht="13">
       <c r="A195" s="47"/>
       <c r="D195" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4298,7 +4310,7 @@
       <c r="G195" s="12"/>
       <c r="H195" s="13"/>
     </row>
-    <row r="196" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:8" ht="13">
       <c r="A196" s="47"/>
       <c r="D196" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4308,7 +4320,7 @@
       <c r="G196" s="12"/>
       <c r="H196" s="13"/>
     </row>
-    <row r="197" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:8" ht="13">
       <c r="A197" s="47"/>
       <c r="D197" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4318,7 +4330,7 @@
       <c r="G197" s="12"/>
       <c r="H197" s="13"/>
     </row>
-    <row r="198" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:8" ht="13">
       <c r="A198" s="47"/>
       <c r="D198" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4328,7 +4340,7 @@
       <c r="G198" s="12"/>
       <c r="H198" s="13"/>
     </row>
-    <row r="199" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:8" ht="13">
       <c r="A199" s="47"/>
       <c r="D199" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4338,7 +4350,7 @@
       <c r="G199" s="12"/>
       <c r="H199" s="13"/>
     </row>
-    <row r="200" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:8" ht="13">
       <c r="A200" s="47"/>
       <c r="D200" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4348,7 +4360,7 @@
       <c r="G200" s="12"/>
       <c r="H200" s="13"/>
     </row>
-    <row r="201" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:8" ht="13">
       <c r="A201" s="47"/>
       <c r="D201" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4358,7 +4370,7 @@
       <c r="G201" s="12"/>
       <c r="H201" s="13"/>
     </row>
-    <row r="202" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:8" ht="13">
       <c r="A202" s="47"/>
       <c r="D202" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4368,7 +4380,7 @@
       <c r="G202" s="12"/>
       <c r="H202" s="13"/>
     </row>
-    <row r="203" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:8" ht="13">
       <c r="A203" s="47"/>
       <c r="D203" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4378,7 +4390,7 @@
       <c r="G203" s="12"/>
       <c r="H203" s="13"/>
     </row>
-    <row r="204" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:8" ht="13">
       <c r="A204" s="47"/>
       <c r="D204" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4388,7 +4400,7 @@
       <c r="G204" s="12"/>
       <c r="H204" s="13"/>
     </row>
-    <row r="205" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:8" ht="13">
       <c r="A205" s="47"/>
       <c r="D205" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4398,7 +4410,7 @@
       <c r="G205" s="12"/>
       <c r="H205" s="13"/>
     </row>
-    <row r="206" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:8" ht="13">
       <c r="A206" s="47"/>
       <c r="D206" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4408,7 +4420,7 @@
       <c r="G206" s="12"/>
       <c r="H206" s="13"/>
     </row>
-    <row r="207" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:8" ht="13">
       <c r="A207" s="47"/>
       <c r="D207" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4418,7 +4430,7 @@
       <c r="G207" s="12"/>
       <c r="H207" s="13"/>
     </row>
-    <row r="208" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:8" ht="13">
       <c r="A208" s="47"/>
       <c r="D208" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4428,7 +4440,7 @@
       <c r="G208" s="12"/>
       <c r="H208" s="13"/>
     </row>
-    <row r="209" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:8" ht="13">
       <c r="A209" s="47"/>
       <c r="D209" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4438,7 +4450,7 @@
       <c r="G209" s="12"/>
       <c r="H209" s="13"/>
     </row>
-    <row r="210" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:8" ht="13">
       <c r="A210" s="47"/>
       <c r="D210" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4448,7 +4460,7 @@
       <c r="G210" s="12"/>
       <c r="H210" s="13"/>
     </row>
-    <row r="211" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:8" ht="13">
       <c r="A211" s="47"/>
       <c r="D211" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4458,7 +4470,7 @@
       <c r="G211" s="12"/>
       <c r="H211" s="13"/>
     </row>
-    <row r="212" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:8" ht="13">
       <c r="A212" s="47"/>
       <c r="D212" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4468,7 +4480,7 @@
       <c r="G212" s="12"/>
       <c r="H212" s="13"/>
     </row>
-    <row r="213" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:8" ht="13">
       <c r="A213" s="47"/>
       <c r="D213" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4478,7 +4490,7 @@
       <c r="G213" s="12"/>
       <c r="H213" s="13"/>
     </row>
-    <row r="214" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:8" ht="13">
       <c r="A214" s="47"/>
       <c r="D214" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4488,7 +4500,7 @@
       <c r="G214" s="12"/>
       <c r="H214" s="13"/>
     </row>
-    <row r="215" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:8" ht="13">
       <c r="A215" s="47"/>
       <c r="D215" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4498,7 +4510,7 @@
       <c r="G215" s="12"/>
       <c r="H215" s="13"/>
     </row>
-    <row r="216" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:8" ht="13">
       <c r="A216" s="47"/>
       <c r="D216" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4508,7 +4520,7 @@
       <c r="G216" s="12"/>
       <c r="H216" s="13"/>
     </row>
-    <row r="217" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:8" ht="13">
       <c r="A217" s="47"/>
       <c r="D217" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4518,7 +4530,7 @@
       <c r="G217" s="12"/>
       <c r="H217" s="13"/>
     </row>
-    <row r="218" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:8" ht="13">
       <c r="A218" s="47"/>
       <c r="D218" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4528,7 +4540,7 @@
       <c r="G218" s="12"/>
       <c r="H218" s="13"/>
     </row>
-    <row r="219" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:8" ht="13">
       <c r="A219" s="47"/>
       <c r="D219" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4538,7 +4550,7 @@
       <c r="G219" s="12"/>
       <c r="H219" s="13"/>
     </row>
-    <row r="220" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:8" ht="13">
       <c r="A220" s="47"/>
       <c r="D220" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4548,7 +4560,7 @@
       <c r="G220" s="12"/>
       <c r="H220" s="13"/>
     </row>
-    <row r="221" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:8" ht="13">
       <c r="A221" s="47"/>
       <c r="D221" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4558,7 +4570,7 @@
       <c r="G221" s="12"/>
       <c r="H221" s="13"/>
     </row>
-    <row r="222" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:8" ht="13">
       <c r="A222" s="47"/>
       <c r="D222" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4568,7 +4580,7 @@
       <c r="G222" s="12"/>
       <c r="H222" s="13"/>
     </row>
-    <row r="223" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:8" ht="13">
       <c r="A223" s="47"/>
       <c r="D223" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4578,7 +4590,7 @@
       <c r="G223" s="12"/>
       <c r="H223" s="13"/>
     </row>
-    <row r="224" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:8" ht="13">
       <c r="A224" s="47"/>
       <c r="D224" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4588,7 +4600,7 @@
       <c r="G224" s="12"/>
       <c r="H224" s="13"/>
     </row>
-    <row r="225" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:8" ht="13">
       <c r="A225" s="47"/>
       <c r="D225" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4598,7 +4610,7 @@
       <c r="G225" s="12"/>
       <c r="H225" s="13"/>
     </row>
-    <row r="226" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:8" ht="13">
       <c r="A226" s="47"/>
       <c r="D226" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4608,7 +4620,7 @@
       <c r="G226" s="12"/>
       <c r="H226" s="13"/>
     </row>
-    <row r="227" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:8" ht="13">
       <c r="A227" s="47"/>
       <c r="D227" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4618,7 +4630,7 @@
       <c r="G227" s="12"/>
       <c r="H227" s="13"/>
     </row>
-    <row r="228" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:8" ht="13">
       <c r="A228" s="47"/>
       <c r="D228" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4628,7 +4640,7 @@
       <c r="G228" s="12"/>
       <c r="H228" s="13"/>
     </row>
-    <row r="229" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:8" ht="13">
       <c r="A229" s="47"/>
       <c r="D229" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4638,7 +4650,7 @@
       <c r="G229" s="12"/>
       <c r="H229" s="13"/>
     </row>
-    <row r="230" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:8" ht="13">
       <c r="A230" s="47"/>
       <c r="D230" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4648,7 +4660,7 @@
       <c r="G230" s="12"/>
       <c r="H230" s="13"/>
     </row>
-    <row r="231" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:8" ht="13">
       <c r="A231" s="47"/>
       <c r="D231" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4658,7 +4670,7 @@
       <c r="G231" s="12"/>
       <c r="H231" s="13"/>
     </row>
-    <row r="232" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:8" ht="13">
       <c r="A232" s="47"/>
       <c r="D232" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4668,7 +4680,7 @@
       <c r="G232" s="12"/>
       <c r="H232" s="13"/>
     </row>
-    <row r="233" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:8" ht="13">
       <c r="A233" s="47"/>
       <c r="D233" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4678,7 +4690,7 @@
       <c r="G233" s="12"/>
       <c r="H233" s="13"/>
     </row>
-    <row r="234" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:8" ht="13">
       <c r="A234" s="47"/>
       <c r="D234" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4688,7 +4700,7 @@
       <c r="G234" s="12"/>
       <c r="H234" s="13"/>
     </row>
-    <row r="235" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:8" ht="13">
       <c r="A235" s="47"/>
       <c r="D235" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4698,7 +4710,7 @@
       <c r="G235" s="12"/>
       <c r="H235" s="13"/>
     </row>
-    <row r="236" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:8" ht="13">
       <c r="A236" s="47"/>
       <c r="D236" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4708,7 +4720,7 @@
       <c r="G236" s="12"/>
       <c r="H236" s="13"/>
     </row>
-    <row r="237" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:8" ht="13">
       <c r="A237" s="47"/>
       <c r="D237" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4718,7 +4730,7 @@
       <c r="G237" s="12"/>
       <c r="H237" s="13"/>
     </row>
-    <row r="238" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:8" ht="13">
       <c r="A238" s="47"/>
       <c r="D238" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4728,7 +4740,7 @@
       <c r="G238" s="12"/>
       <c r="H238" s="13"/>
     </row>
-    <row r="239" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:8" ht="13">
       <c r="A239" s="47"/>
       <c r="D239" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4738,7 +4750,7 @@
       <c r="G239" s="12"/>
       <c r="H239" s="13"/>
     </row>
-    <row r="240" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:8" ht="13">
       <c r="A240" s="47"/>
       <c r="D240" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4748,7 +4760,7 @@
       <c r="G240" s="12"/>
       <c r="H240" s="13"/>
     </row>
-    <row r="241" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:8" ht="13">
       <c r="A241" s="47"/>
       <c r="D241" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4758,7 +4770,7 @@
       <c r="G241" s="12"/>
       <c r="H241" s="13"/>
     </row>
-    <row r="242" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:8" ht="13">
       <c r="A242" s="47"/>
       <c r="D242" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4768,7 +4780,7 @@
       <c r="G242" s="12"/>
       <c r="H242" s="13"/>
     </row>
-    <row r="243" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:8" ht="13">
       <c r="A243" s="47"/>
       <c r="D243" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4778,7 +4790,7 @@
       <c r="G243" s="12"/>
       <c r="H243" s="13"/>
     </row>
-    <row r="244" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:8" ht="13">
       <c r="A244" s="47"/>
       <c r="D244" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4788,7 +4800,7 @@
       <c r="G244" s="12"/>
       <c r="H244" s="13"/>
     </row>
-    <row r="245" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:8" ht="13">
       <c r="A245" s="47"/>
       <c r="D245" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4798,7 +4810,7 @@
       <c r="G245" s="12"/>
       <c r="H245" s="13"/>
     </row>
-    <row r="246" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:8" ht="13">
       <c r="A246" s="47"/>
       <c r="D246" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4808,7 +4820,7 @@
       <c r="G246" s="12"/>
       <c r="H246" s="13"/>
     </row>
-    <row r="247" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:8" ht="13">
       <c r="A247" s="47"/>
       <c r="D247" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4818,7 +4830,7 @@
       <c r="G247" s="12"/>
       <c r="H247" s="13"/>
     </row>
-    <row r="248" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:8" ht="13">
       <c r="A248" s="47"/>
       <c r="D248" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4828,7 +4840,7 @@
       <c r="G248" s="12"/>
       <c r="H248" s="13"/>
     </row>
-    <row r="249" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:8" ht="13">
       <c r="A249" s="47"/>
       <c r="D249" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4838,7 +4850,7 @@
       <c r="G249" s="12"/>
       <c r="H249" s="13"/>
     </row>
-    <row r="250" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:8" ht="13">
       <c r="A250" s="47"/>
       <c r="D250" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4848,7 +4860,7 @@
       <c r="G250" s="12"/>
       <c r="H250" s="13"/>
     </row>
-    <row r="251" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:8" ht="13">
       <c r="A251" s="47"/>
       <c r="D251" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4858,7 +4870,7 @@
       <c r="G251" s="12"/>
       <c r="H251" s="13"/>
     </row>
-    <row r="252" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:8" ht="13">
       <c r="A252" s="47"/>
       <c r="D252" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4868,7 +4880,7 @@
       <c r="G252" s="12"/>
       <c r="H252" s="13"/>
     </row>
-    <row r="253" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:8" ht="13">
       <c r="A253" s="47"/>
       <c r="D253" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4878,7 +4890,7 @@
       <c r="G253" s="12"/>
       <c r="H253" s="13"/>
     </row>
-    <row r="254" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:8" ht="13">
       <c r="A254" s="47"/>
       <c r="D254" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4888,7 +4900,7 @@
       <c r="G254" s="12"/>
       <c r="H254" s="13"/>
     </row>
-    <row r="255" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:8" ht="13">
       <c r="A255" s="47"/>
       <c r="D255" s="40" t="str">
         <f t="shared" si="2"/>
@@ -4898,27 +4910,27 @@
       <c r="G255" s="12"/>
       <c r="H255" s="13"/>
     </row>
-    <row r="256" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:8" ht="13">
       <c r="A256" s="47"/>
       <c r="D256" s="40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D256:D319" si="3">UPPER(C256)</f>
         <v/>
       </c>
       <c r="F256" s="11"/>
       <c r="G256" s="12"/>
       <c r="H256" s="13"/>
     </row>
-    <row r="257" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:8" ht="13">
       <c r="A257" s="47"/>
       <c r="D257" s="40" t="str">
-        <f t="shared" ref="D257:D320" si="3">UPPER(C257)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F257" s="11"/>
       <c r="G257" s="12"/>
       <c r="H257" s="13"/>
     </row>
-    <row r="258" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:8" ht="13">
       <c r="A258" s="47"/>
       <c r="D258" s="40" t="str">
         <f t="shared" si="3"/>
@@ -4928,7 +4940,7 @@
       <c r="G258" s="12"/>
       <c r="H258" s="13"/>
     </row>
-    <row r="259" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:8" ht="13">
       <c r="A259" s="47"/>
       <c r="D259" s="40" t="str">
         <f t="shared" si="3"/>
@@ -4938,7 +4950,7 @@
       <c r="G259" s="12"/>
       <c r="H259" s="13"/>
     </row>
-    <row r="260" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:8" ht="13">
       <c r="A260" s="47"/>
       <c r="D260" s="40" t="str">
         <f t="shared" si="3"/>
@@ -4948,7 +4960,7 @@
       <c r="G260" s="12"/>
       <c r="H260" s="13"/>
     </row>
-    <row r="261" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:8" ht="13">
       <c r="A261" s="47"/>
       <c r="D261" s="40" t="str">
         <f t="shared" si="3"/>
@@ -4958,7 +4970,7 @@
       <c r="G261" s="12"/>
       <c r="H261" s="13"/>
     </row>
-    <row r="262" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:8" ht="13">
       <c r="A262" s="47"/>
       <c r="D262" s="40" t="str">
         <f t="shared" si="3"/>
@@ -4968,7 +4980,7 @@
       <c r="G262" s="12"/>
       <c r="H262" s="13"/>
     </row>
-    <row r="263" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:8" ht="13">
       <c r="A263" s="47"/>
       <c r="D263" s="40" t="str">
         <f t="shared" si="3"/>
@@ -4978,7 +4990,7 @@
       <c r="G263" s="12"/>
       <c r="H263" s="13"/>
     </row>
-    <row r="264" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:8" ht="13">
       <c r="A264" s="47"/>
       <c r="D264" s="40" t="str">
         <f t="shared" si="3"/>
@@ -4988,7 +5000,7 @@
       <c r="G264" s="12"/>
       <c r="H264" s="13"/>
     </row>
-    <row r="265" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:8" ht="13">
       <c r="A265" s="47"/>
       <c r="D265" s="40" t="str">
         <f t="shared" si="3"/>
@@ -4998,7 +5010,7 @@
       <c r="G265" s="12"/>
       <c r="H265" s="13"/>
     </row>
-    <row r="266" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:8" ht="13">
       <c r="A266" s="47"/>
       <c r="D266" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5008,7 +5020,7 @@
       <c r="G266" s="12"/>
       <c r="H266" s="13"/>
     </row>
-    <row r="267" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:8" ht="13">
       <c r="A267" s="47"/>
       <c r="D267" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5018,7 +5030,7 @@
       <c r="G267" s="12"/>
       <c r="H267" s="13"/>
     </row>
-    <row r="268" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:8" ht="13">
       <c r="A268" s="47"/>
       <c r="D268" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5028,7 +5040,7 @@
       <c r="G268" s="12"/>
       <c r="H268" s="13"/>
     </row>
-    <row r="269" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:8" ht="13">
       <c r="A269" s="47"/>
       <c r="D269" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5038,7 +5050,7 @@
       <c r="G269" s="12"/>
       <c r="H269" s="13"/>
     </row>
-    <row r="270" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:8" ht="13">
       <c r="A270" s="47"/>
       <c r="D270" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5048,7 +5060,7 @@
       <c r="G270" s="12"/>
       <c r="H270" s="13"/>
     </row>
-    <row r="271" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:8" ht="13">
       <c r="A271" s="47"/>
       <c r="D271" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5058,7 +5070,7 @@
       <c r="G271" s="12"/>
       <c r="H271" s="13"/>
     </row>
-    <row r="272" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:8" ht="13">
       <c r="A272" s="47"/>
       <c r="D272" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5068,7 +5080,7 @@
       <c r="G272" s="12"/>
       <c r="H272" s="13"/>
     </row>
-    <row r="273" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:8" ht="13">
       <c r="A273" s="47"/>
       <c r="D273" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5078,7 +5090,7 @@
       <c r="G273" s="12"/>
       <c r="H273" s="13"/>
     </row>
-    <row r="274" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:8" ht="13">
       <c r="A274" s="47"/>
       <c r="D274" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5088,7 +5100,7 @@
       <c r="G274" s="12"/>
       <c r="H274" s="13"/>
     </row>
-    <row r="275" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:8" ht="13">
       <c r="A275" s="47"/>
       <c r="D275" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5098,7 +5110,7 @@
       <c r="G275" s="12"/>
       <c r="H275" s="13"/>
     </row>
-    <row r="276" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:8" ht="13">
       <c r="A276" s="47"/>
       <c r="D276" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5108,7 +5120,7 @@
       <c r="G276" s="12"/>
       <c r="H276" s="13"/>
     </row>
-    <row r="277" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:8" ht="13">
       <c r="A277" s="47"/>
       <c r="D277" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5118,7 +5130,7 @@
       <c r="G277" s="12"/>
       <c r="H277" s="13"/>
     </row>
-    <row r="278" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:8" ht="13">
       <c r="A278" s="47"/>
       <c r="D278" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5128,7 +5140,7 @@
       <c r="G278" s="12"/>
       <c r="H278" s="13"/>
     </row>
-    <row r="279" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:8" ht="13">
       <c r="A279" s="47"/>
       <c r="D279" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5138,7 +5150,7 @@
       <c r="G279" s="12"/>
       <c r="H279" s="13"/>
     </row>
-    <row r="280" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:8" ht="13">
       <c r="A280" s="47"/>
       <c r="D280" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5148,7 +5160,7 @@
       <c r="G280" s="12"/>
       <c r="H280" s="13"/>
     </row>
-    <row r="281" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:8" ht="13">
       <c r="A281" s="47"/>
       <c r="D281" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5158,7 +5170,7 @@
       <c r="G281" s="12"/>
       <c r="H281" s="13"/>
     </row>
-    <row r="282" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:8" ht="13">
       <c r="A282" s="47"/>
       <c r="D282" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5168,7 +5180,7 @@
       <c r="G282" s="12"/>
       <c r="H282" s="13"/>
     </row>
-    <row r="283" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:8" ht="13">
       <c r="A283" s="47"/>
       <c r="D283" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5178,7 +5190,7 @@
       <c r="G283" s="12"/>
       <c r="H283" s="13"/>
     </row>
-    <row r="284" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:8" ht="13">
       <c r="A284" s="47"/>
       <c r="D284" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5188,7 +5200,7 @@
       <c r="G284" s="12"/>
       <c r="H284" s="13"/>
     </row>
-    <row r="285" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:8" ht="13">
       <c r="A285" s="47"/>
       <c r="D285" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5198,7 +5210,7 @@
       <c r="G285" s="12"/>
       <c r="H285" s="13"/>
     </row>
-    <row r="286" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:8" ht="13">
       <c r="A286" s="47"/>
       <c r="D286" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5208,7 +5220,7 @@
       <c r="G286" s="12"/>
       <c r="H286" s="13"/>
     </row>
-    <row r="287" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:8" ht="13">
       <c r="A287" s="47"/>
       <c r="D287" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5218,7 +5230,7 @@
       <c r="G287" s="12"/>
       <c r="H287" s="13"/>
     </row>
-    <row r="288" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:8" ht="13">
       <c r="A288" s="47"/>
       <c r="D288" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5228,7 +5240,7 @@
       <c r="G288" s="12"/>
       <c r="H288" s="13"/>
     </row>
-    <row r="289" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:8" ht="13">
       <c r="A289" s="47"/>
       <c r="D289" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5238,7 +5250,7 @@
       <c r="G289" s="12"/>
       <c r="H289" s="13"/>
     </row>
-    <row r="290" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:8" ht="13">
       <c r="A290" s="47"/>
       <c r="D290" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5248,7 +5260,7 @@
       <c r="G290" s="12"/>
       <c r="H290" s="13"/>
     </row>
-    <row r="291" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:8" ht="13">
       <c r="A291" s="47"/>
       <c r="D291" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5258,7 +5270,7 @@
       <c r="G291" s="12"/>
       <c r="H291" s="13"/>
     </row>
-    <row r="292" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:8" ht="13">
       <c r="A292" s="47"/>
       <c r="D292" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5268,7 +5280,7 @@
       <c r="G292" s="12"/>
       <c r="H292" s="13"/>
     </row>
-    <row r="293" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:8" ht="13">
       <c r="A293" s="47"/>
       <c r="D293" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5278,7 +5290,7 @@
       <c r="G293" s="12"/>
       <c r="H293" s="13"/>
     </row>
-    <row r="294" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:8" ht="13">
       <c r="A294" s="47"/>
       <c r="D294" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5288,7 +5300,7 @@
       <c r="G294" s="12"/>
       <c r="H294" s="13"/>
     </row>
-    <row r="295" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:8" ht="13">
       <c r="A295" s="47"/>
       <c r="D295" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5298,7 +5310,7 @@
       <c r="G295" s="12"/>
       <c r="H295" s="13"/>
     </row>
-    <row r="296" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:8" ht="13">
       <c r="A296" s="47"/>
       <c r="D296" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5308,7 +5320,7 @@
       <c r="G296" s="12"/>
       <c r="H296" s="13"/>
     </row>
-    <row r="297" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:8" ht="13">
       <c r="A297" s="47"/>
       <c r="D297" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5318,7 +5330,7 @@
       <c r="G297" s="12"/>
       <c r="H297" s="13"/>
     </row>
-    <row r="298" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:8" ht="13">
       <c r="A298" s="47"/>
       <c r="D298" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5328,7 +5340,7 @@
       <c r="G298" s="12"/>
       <c r="H298" s="13"/>
     </row>
-    <row r="299" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:8" ht="13">
       <c r="A299" s="47"/>
       <c r="D299" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5338,7 +5350,7 @@
       <c r="G299" s="12"/>
       <c r="H299" s="13"/>
     </row>
-    <row r="300" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:8" ht="13">
       <c r="A300" s="47"/>
       <c r="D300" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5348,7 +5360,7 @@
       <c r="G300" s="12"/>
       <c r="H300" s="13"/>
     </row>
-    <row r="301" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:8" ht="13">
       <c r="A301" s="47"/>
       <c r="D301" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5358,7 +5370,7 @@
       <c r="G301" s="12"/>
       <c r="H301" s="13"/>
     </row>
-    <row r="302" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:8" ht="13">
       <c r="A302" s="47"/>
       <c r="D302" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5368,7 +5380,7 @@
       <c r="G302" s="12"/>
       <c r="H302" s="13"/>
     </row>
-    <row r="303" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:8" ht="13">
       <c r="A303" s="47"/>
       <c r="D303" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5378,7 +5390,7 @@
       <c r="G303" s="12"/>
       <c r="H303" s="13"/>
     </row>
-    <row r="304" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:8" ht="13">
       <c r="A304" s="47"/>
       <c r="D304" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5388,7 +5400,7 @@
       <c r="G304" s="12"/>
       <c r="H304" s="13"/>
     </row>
-    <row r="305" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:8" ht="13">
       <c r="A305" s="47"/>
       <c r="D305" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5398,7 +5410,7 @@
       <c r="G305" s="12"/>
       <c r="H305" s="13"/>
     </row>
-    <row r="306" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:8" ht="13">
       <c r="A306" s="47"/>
       <c r="D306" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5408,7 +5420,7 @@
       <c r="G306" s="12"/>
       <c r="H306" s="13"/>
     </row>
-    <row r="307" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:8" ht="13">
       <c r="A307" s="47"/>
       <c r="D307" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5418,7 +5430,7 @@
       <c r="G307" s="12"/>
       <c r="H307" s="13"/>
     </row>
-    <row r="308" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:8" ht="13">
       <c r="A308" s="47"/>
       <c r="D308" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5428,7 +5440,7 @@
       <c r="G308" s="12"/>
       <c r="H308" s="13"/>
     </row>
-    <row r="309" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:8" ht="13">
       <c r="A309" s="47"/>
       <c r="D309" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5438,7 +5450,7 @@
       <c r="G309" s="12"/>
       <c r="H309" s="13"/>
     </row>
-    <row r="310" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:8" ht="13">
       <c r="A310" s="47"/>
       <c r="D310" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5448,7 +5460,7 @@
       <c r="G310" s="12"/>
       <c r="H310" s="13"/>
     </row>
-    <row r="311" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:8" ht="13">
       <c r="A311" s="47"/>
       <c r="D311" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5458,7 +5470,7 @@
       <c r="G311" s="12"/>
       <c r="H311" s="13"/>
     </row>
-    <row r="312" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:8" ht="13">
       <c r="A312" s="47"/>
       <c r="D312" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5468,7 +5480,7 @@
       <c r="G312" s="12"/>
       <c r="H312" s="13"/>
     </row>
-    <row r="313" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:8" ht="13">
       <c r="A313" s="47"/>
       <c r="D313" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5478,7 +5490,7 @@
       <c r="G313" s="12"/>
       <c r="H313" s="13"/>
     </row>
-    <row r="314" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:8" ht="13">
       <c r="A314" s="47"/>
       <c r="D314" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5488,7 +5500,7 @@
       <c r="G314" s="12"/>
       <c r="H314" s="13"/>
     </row>
-    <row r="315" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:8" ht="13">
       <c r="A315" s="47"/>
       <c r="D315" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5498,7 +5510,7 @@
       <c r="G315" s="12"/>
       <c r="H315" s="13"/>
     </row>
-    <row r="316" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:8" ht="13">
       <c r="A316" s="47"/>
       <c r="D316" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5508,7 +5520,7 @@
       <c r="G316" s="12"/>
       <c r="H316" s="13"/>
     </row>
-    <row r="317" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:8" ht="13">
       <c r="A317" s="47"/>
       <c r="D317" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5518,7 +5530,7 @@
       <c r="G317" s="12"/>
       <c r="H317" s="13"/>
     </row>
-    <row r="318" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:8" ht="13">
       <c r="A318" s="47"/>
       <c r="D318" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5528,7 +5540,7 @@
       <c r="G318" s="12"/>
       <c r="H318" s="13"/>
     </row>
-    <row r="319" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:8" ht="13">
       <c r="A319" s="47"/>
       <c r="D319" s="40" t="str">
         <f t="shared" si="3"/>
@@ -5538,27 +5550,27 @@
       <c r="G319" s="12"/>
       <c r="H319" s="13"/>
     </row>
-    <row r="320" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:8" ht="13">
       <c r="A320" s="47"/>
       <c r="D320" s="40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D320:D338" si="4">UPPER(C320)</f>
         <v/>
       </c>
       <c r="F320" s="11"/>
       <c r="G320" s="12"/>
       <c r="H320" s="13"/>
     </row>
-    <row r="321" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:8" ht="13">
       <c r="A321" s="47"/>
       <c r="D321" s="40" t="str">
-        <f t="shared" ref="D321:D339" si="4">UPPER(C321)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F321" s="11"/>
       <c r="G321" s="12"/>
       <c r="H321" s="13"/>
     </row>
-    <row r="322" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:8" ht="13">
       <c r="A322" s="47"/>
       <c r="D322" s="40" t="str">
         <f t="shared" si="4"/>
@@ -5568,7 +5580,7 @@
       <c r="G322" s="12"/>
       <c r="H322" s="13"/>
     </row>
-    <row r="323" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:8" ht="13">
       <c r="A323" s="47"/>
       <c r="D323" s="40" t="str">
         <f t="shared" si="4"/>
@@ -5578,7 +5590,7 @@
       <c r="G323" s="12"/>
       <c r="H323" s="13"/>
     </row>
-    <row r="324" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:8" ht="13">
       <c r="A324" s="47"/>
       <c r="D324" s="40" t="str">
         <f t="shared" si="4"/>
@@ -5588,7 +5600,7 @@
       <c r="G324" s="12"/>
       <c r="H324" s="13"/>
     </row>
-    <row r="325" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:8" ht="13">
       <c r="A325" s="47"/>
       <c r="D325" s="40" t="str">
         <f t="shared" si="4"/>
@@ -5598,7 +5610,7 @@
       <c r="G325" s="12"/>
       <c r="H325" s="13"/>
     </row>
-    <row r="326" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:8" ht="13">
       <c r="A326" s="47"/>
       <c r="D326" s="40" t="str">
         <f t="shared" si="4"/>
@@ -5608,7 +5620,7 @@
       <c r="G326" s="12"/>
       <c r="H326" s="13"/>
     </row>
-    <row r="327" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:8" ht="13">
       <c r="A327" s="47"/>
       <c r="D327" s="40" t="str">
         <f t="shared" si="4"/>
@@ -5618,7 +5630,7 @@
       <c r="G327" s="12"/>
       <c r="H327" s="13"/>
     </row>
-    <row r="328" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:8" ht="13">
       <c r="A328" s="47"/>
       <c r="D328" s="40" t="str">
         <f t="shared" si="4"/>
@@ -5628,7 +5640,7 @@
       <c r="G328" s="12"/>
       <c r="H328" s="13"/>
     </row>
-    <row r="329" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:8" ht="13">
       <c r="A329" s="47"/>
       <c r="D329" s="40" t="str">
         <f t="shared" si="4"/>
@@ -5638,7 +5650,7 @@
       <c r="G329" s="12"/>
       <c r="H329" s="13"/>
     </row>
-    <row r="330" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:8" ht="13">
       <c r="A330" s="47"/>
       <c r="D330" s="40" t="str">
         <f t="shared" si="4"/>
@@ -5648,7 +5660,7 @@
       <c r="G330" s="12"/>
       <c r="H330" s="13"/>
     </row>
-    <row r="331" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:8" ht="13">
       <c r="A331" s="47"/>
       <c r="D331" s="40" t="str">
         <f t="shared" si="4"/>
@@ -5658,7 +5670,7 @@
       <c r="G331" s="12"/>
       <c r="H331" s="13"/>
     </row>
-    <row r="332" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:8" ht="13">
       <c r="A332" s="47"/>
       <c r="D332" s="40" t="str">
         <f t="shared" si="4"/>
@@ -5668,7 +5680,7 @@
       <c r="G332" s="12"/>
       <c r="H332" s="13"/>
     </row>
-    <row r="333" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:8" ht="13">
       <c r="A333" s="47"/>
       <c r="D333" s="40" t="str">
         <f t="shared" si="4"/>
@@ -5678,7 +5690,7 @@
       <c r="G333" s="12"/>
       <c r="H333" s="13"/>
     </row>
-    <row r="334" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:8" ht="13">
       <c r="A334" s="47"/>
       <c r="D334" s="40" t="str">
         <f t="shared" si="4"/>
@@ -5688,7 +5700,7 @@
       <c r="G334" s="12"/>
       <c r="H334" s="13"/>
     </row>
-    <row r="335" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:8" ht="13">
       <c r="A335" s="47"/>
       <c r="D335" s="40" t="str">
         <f t="shared" si="4"/>
@@ -5698,7 +5710,7 @@
       <c r="G335" s="12"/>
       <c r="H335" s="13"/>
     </row>
-    <row r="336" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:8" ht="13">
       <c r="A336" s="47"/>
       <c r="D336" s="40" t="str">
         <f t="shared" si="4"/>
@@ -5708,7 +5720,7 @@
       <c r="G336" s="12"/>
       <c r="H336" s="13"/>
     </row>
-    <row r="337" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:8" ht="13">
       <c r="A337" s="47"/>
       <c r="D337" s="40" t="str">
         <f t="shared" si="4"/>
@@ -5718,7 +5730,7 @@
       <c r="G337" s="12"/>
       <c r="H337" s="13"/>
     </row>
-    <row r="338" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:8" ht="13">
       <c r="A338" s="47"/>
       <c r="D338" s="40" t="str">
         <f t="shared" si="4"/>
@@ -5728,4038 +5740,4030 @@
       <c r="G338" s="12"/>
       <c r="H338" s="13"/>
     </row>
-    <row r="339" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:8" ht="13">
       <c r="A339" s="47"/>
-      <c r="D339" s="40" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="F339" s="11"/>
       <c r="G339" s="12"/>
       <c r="H339" s="13"/>
     </row>
-    <row r="340" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:8" ht="13">
       <c r="A340" s="47"/>
       <c r="F340" s="11"/>
       <c r="G340" s="12"/>
       <c r="H340" s="13"/>
     </row>
-    <row r="341" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:8" ht="13">
       <c r="A341" s="47"/>
       <c r="F341" s="11"/>
       <c r="G341" s="12"/>
       <c r="H341" s="13"/>
     </row>
-    <row r="342" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:8" ht="13">
       <c r="A342" s="47"/>
       <c r="F342" s="11"/>
       <c r="G342" s="12"/>
       <c r="H342" s="13"/>
     </row>
-    <row r="343" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:8" ht="13">
       <c r="A343" s="47"/>
       <c r="F343" s="11"/>
       <c r="G343" s="12"/>
       <c r="H343" s="13"/>
     </row>
-    <row r="344" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:8" ht="13">
       <c r="A344" s="47"/>
       <c r="F344" s="11"/>
       <c r="G344" s="12"/>
       <c r="H344" s="13"/>
     </row>
-    <row r="345" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:8" ht="13">
       <c r="A345" s="47"/>
       <c r="F345" s="11"/>
       <c r="G345" s="12"/>
       <c r="H345" s="13"/>
     </row>
-    <row r="346" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:8" ht="13">
       <c r="A346" s="47"/>
       <c r="F346" s="11"/>
       <c r="G346" s="12"/>
       <c r="H346" s="13"/>
     </row>
-    <row r="347" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:8" ht="13">
       <c r="A347" s="47"/>
       <c r="F347" s="11"/>
       <c r="G347" s="12"/>
       <c r="H347" s="13"/>
     </row>
-    <row r="348" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:8" ht="13">
       <c r="A348" s="47"/>
       <c r="F348" s="11"/>
       <c r="G348" s="12"/>
       <c r="H348" s="13"/>
     </row>
-    <row r="349" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:8" ht="13">
       <c r="A349" s="47"/>
       <c r="F349" s="11"/>
       <c r="G349" s="12"/>
       <c r="H349" s="13"/>
     </row>
-    <row r="350" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:8" ht="13">
       <c r="A350" s="47"/>
       <c r="F350" s="11"/>
       <c r="G350" s="12"/>
       <c r="H350" s="13"/>
     </row>
-    <row r="351" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:8" ht="13">
       <c r="A351" s="47"/>
       <c r="F351" s="11"/>
       <c r="G351" s="12"/>
       <c r="H351" s="13"/>
     </row>
-    <row r="352" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:8" ht="13">
       <c r="A352" s="47"/>
       <c r="F352" s="11"/>
       <c r="G352" s="12"/>
       <c r="H352" s="13"/>
     </row>
-    <row r="353" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:8" ht="13">
       <c r="A353" s="47"/>
       <c r="F353" s="11"/>
       <c r="G353" s="12"/>
       <c r="H353" s="13"/>
     </row>
-    <row r="354" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:8" ht="13">
       <c r="A354" s="47"/>
       <c r="F354" s="11"/>
       <c r="G354" s="12"/>
       <c r="H354" s="13"/>
     </row>
-    <row r="355" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:8" ht="13">
       <c r="A355" s="47"/>
       <c r="F355" s="11"/>
       <c r="G355" s="12"/>
       <c r="H355" s="13"/>
     </row>
-    <row r="356" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:8" ht="13">
       <c r="A356" s="47"/>
       <c r="F356" s="11"/>
       <c r="G356" s="12"/>
       <c r="H356" s="13"/>
     </row>
-    <row r="357" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:8" ht="13">
       <c r="A357" s="47"/>
       <c r="F357" s="11"/>
       <c r="G357" s="12"/>
       <c r="H357" s="13"/>
     </row>
-    <row r="358" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:8" ht="13">
       <c r="A358" s="47"/>
       <c r="F358" s="11"/>
       <c r="G358" s="12"/>
       <c r="H358" s="13"/>
     </row>
-    <row r="359" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:8" ht="13">
       <c r="A359" s="47"/>
       <c r="F359" s="11"/>
       <c r="G359" s="12"/>
       <c r="H359" s="13"/>
     </row>
-    <row r="360" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:8" ht="13">
       <c r="A360" s="47"/>
       <c r="F360" s="11"/>
       <c r="G360" s="12"/>
       <c r="H360" s="13"/>
     </row>
-    <row r="361" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:8" ht="13">
       <c r="A361" s="47"/>
       <c r="F361" s="11"/>
       <c r="G361" s="12"/>
       <c r="H361" s="13"/>
     </row>
-    <row r="362" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:8" ht="13">
       <c r="A362" s="47"/>
       <c r="F362" s="11"/>
       <c r="G362" s="12"/>
       <c r="H362" s="13"/>
     </row>
-    <row r="363" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:8" ht="13">
       <c r="A363" s="47"/>
       <c r="F363" s="11"/>
       <c r="G363" s="12"/>
       <c r="H363" s="13"/>
     </row>
-    <row r="364" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:8" ht="13">
       <c r="A364" s="47"/>
       <c r="F364" s="11"/>
       <c r="G364" s="12"/>
       <c r="H364" s="13"/>
     </row>
-    <row r="365" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:8" ht="13">
       <c r="A365" s="47"/>
       <c r="F365" s="11"/>
       <c r="G365" s="12"/>
       <c r="H365" s="13"/>
     </row>
-    <row r="366" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:8" ht="13">
       <c r="A366" s="47"/>
       <c r="F366" s="11"/>
       <c r="G366" s="12"/>
       <c r="H366" s="13"/>
     </row>
-    <row r="367" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:8" ht="13">
       <c r="A367" s="47"/>
       <c r="F367" s="11"/>
       <c r="G367" s="12"/>
       <c r="H367" s="13"/>
     </row>
-    <row r="368" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:8" ht="13">
       <c r="A368" s="47"/>
       <c r="F368" s="11"/>
       <c r="G368" s="12"/>
       <c r="H368" s="13"/>
     </row>
-    <row r="369" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:8" ht="13">
       <c r="A369" s="47"/>
       <c r="F369" s="11"/>
       <c r="G369" s="12"/>
       <c r="H369" s="13"/>
     </row>
-    <row r="370" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:8" ht="13">
       <c r="A370" s="47"/>
       <c r="F370" s="11"/>
       <c r="G370" s="12"/>
       <c r="H370" s="13"/>
     </row>
-    <row r="371" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:8" ht="13">
       <c r="A371" s="47"/>
       <c r="F371" s="11"/>
       <c r="G371" s="12"/>
       <c r="H371" s="13"/>
     </row>
-    <row r="372" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:8" ht="13">
       <c r="A372" s="47"/>
       <c r="F372" s="11"/>
       <c r="G372" s="12"/>
       <c r="H372" s="13"/>
     </row>
-    <row r="373" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:8" ht="13">
       <c r="A373" s="47"/>
       <c r="F373" s="11"/>
       <c r="G373" s="12"/>
       <c r="H373" s="13"/>
     </row>
-    <row r="374" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:8" ht="13">
       <c r="A374" s="47"/>
       <c r="F374" s="11"/>
       <c r="G374" s="12"/>
       <c r="H374" s="13"/>
     </row>
-    <row r="375" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:8" ht="13">
       <c r="A375" s="47"/>
       <c r="F375" s="11"/>
       <c r="G375" s="12"/>
       <c r="H375" s="13"/>
     </row>
-    <row r="376" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:8" ht="13">
       <c r="A376" s="47"/>
       <c r="F376" s="11"/>
       <c r="G376" s="12"/>
       <c r="H376" s="13"/>
     </row>
-    <row r="377" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:8" ht="13">
       <c r="A377" s="47"/>
       <c r="F377" s="11"/>
       <c r="G377" s="12"/>
       <c r="H377" s="13"/>
     </row>
-    <row r="378" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:8" ht="13">
       <c r="A378" s="47"/>
       <c r="F378" s="11"/>
       <c r="G378" s="12"/>
       <c r="H378" s="13"/>
     </row>
-    <row r="379" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:8" ht="13">
       <c r="A379" s="47"/>
       <c r="F379" s="11"/>
       <c r="G379" s="12"/>
       <c r="H379" s="13"/>
     </row>
-    <row r="380" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:8" ht="13">
       <c r="A380" s="47"/>
       <c r="F380" s="11"/>
       <c r="G380" s="12"/>
       <c r="H380" s="13"/>
     </row>
-    <row r="381" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:8" ht="13">
       <c r="A381" s="47"/>
       <c r="F381" s="11"/>
       <c r="G381" s="12"/>
       <c r="H381" s="13"/>
     </row>
-    <row r="382" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:8" ht="13">
       <c r="A382" s="47"/>
       <c r="F382" s="11"/>
       <c r="G382" s="12"/>
       <c r="H382" s="13"/>
     </row>
-    <row r="383" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:8" ht="13">
       <c r="A383" s="47"/>
       <c r="F383" s="11"/>
       <c r="G383" s="12"/>
       <c r="H383" s="13"/>
     </row>
-    <row r="384" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:8" ht="13">
       <c r="A384" s="47"/>
       <c r="F384" s="11"/>
       <c r="G384" s="12"/>
       <c r="H384" s="13"/>
     </row>
-    <row r="385" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:8" ht="13">
       <c r="A385" s="47"/>
       <c r="F385" s="11"/>
       <c r="G385" s="12"/>
       <c r="H385" s="13"/>
     </row>
-    <row r="386" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:8" ht="13">
       <c r="A386" s="47"/>
       <c r="F386" s="11"/>
       <c r="G386" s="12"/>
       <c r="H386" s="13"/>
     </row>
-    <row r="387" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:8" ht="13">
       <c r="A387" s="47"/>
       <c r="F387" s="11"/>
       <c r="G387" s="12"/>
       <c r="H387" s="13"/>
     </row>
-    <row r="388" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:8" ht="13">
       <c r="A388" s="47"/>
       <c r="F388" s="11"/>
       <c r="G388" s="12"/>
       <c r="H388" s="13"/>
     </row>
-    <row r="389" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:8" ht="13">
       <c r="A389" s="47"/>
       <c r="F389" s="11"/>
       <c r="G389" s="12"/>
       <c r="H389" s="13"/>
     </row>
-    <row r="390" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:8" ht="13">
       <c r="A390" s="47"/>
       <c r="F390" s="11"/>
       <c r="G390" s="12"/>
       <c r="H390" s="13"/>
     </row>
-    <row r="391" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:8" ht="13">
       <c r="A391" s="47"/>
       <c r="F391" s="11"/>
       <c r="G391" s="12"/>
       <c r="H391" s="13"/>
     </row>
-    <row r="392" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:8" ht="13">
       <c r="A392" s="47"/>
       <c r="F392" s="11"/>
       <c r="G392" s="12"/>
       <c r="H392" s="13"/>
     </row>
-    <row r="393" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:8" ht="13">
       <c r="A393" s="47"/>
       <c r="F393" s="11"/>
       <c r="G393" s="12"/>
       <c r="H393" s="13"/>
     </row>
-    <row r="394" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:8" ht="13">
       <c r="A394" s="47"/>
       <c r="F394" s="11"/>
       <c r="G394" s="12"/>
       <c r="H394" s="13"/>
     </row>
-    <row r="395" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:8" ht="13">
       <c r="A395" s="47"/>
       <c r="F395" s="11"/>
       <c r="G395" s="12"/>
       <c r="H395" s="13"/>
     </row>
-    <row r="396" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:8" ht="13">
       <c r="A396" s="47"/>
       <c r="F396" s="11"/>
       <c r="G396" s="12"/>
       <c r="H396" s="13"/>
     </row>
-    <row r="397" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:8" ht="13">
       <c r="A397" s="47"/>
       <c r="F397" s="11"/>
       <c r="G397" s="12"/>
       <c r="H397" s="13"/>
     </row>
-    <row r="398" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:8" ht="13">
       <c r="A398" s="47"/>
       <c r="F398" s="11"/>
       <c r="G398" s="12"/>
       <c r="H398" s="13"/>
     </row>
-    <row r="399" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:8" ht="13">
       <c r="A399" s="47"/>
       <c r="F399" s="11"/>
       <c r="G399" s="12"/>
       <c r="H399" s="13"/>
     </row>
-    <row r="400" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:8" ht="13">
       <c r="A400" s="47"/>
       <c r="F400" s="11"/>
       <c r="G400" s="12"/>
       <c r="H400" s="13"/>
     </row>
-    <row r="401" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:8" ht="13">
       <c r="A401" s="47"/>
       <c r="F401" s="11"/>
       <c r="G401" s="12"/>
       <c r="H401" s="13"/>
     </row>
-    <row r="402" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:8" ht="13">
       <c r="A402" s="47"/>
       <c r="F402" s="11"/>
       <c r="G402" s="12"/>
       <c r="H402" s="13"/>
     </row>
-    <row r="403" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:8" ht="13">
       <c r="A403" s="47"/>
       <c r="F403" s="11"/>
       <c r="G403" s="12"/>
       <c r="H403" s="13"/>
     </row>
-    <row r="404" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:8" ht="13">
       <c r="A404" s="47"/>
       <c r="F404" s="11"/>
       <c r="G404" s="12"/>
       <c r="H404" s="13"/>
     </row>
-    <row r="405" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:8" ht="13">
       <c r="A405" s="47"/>
       <c r="F405" s="11"/>
       <c r="G405" s="12"/>
       <c r="H405" s="13"/>
     </row>
-    <row r="406" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:8" ht="13">
       <c r="A406" s="47"/>
       <c r="F406" s="11"/>
       <c r="G406" s="12"/>
       <c r="H406" s="13"/>
     </row>
-    <row r="407" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:8" ht="13">
       <c r="A407" s="47"/>
       <c r="F407" s="11"/>
       <c r="G407" s="12"/>
       <c r="H407" s="13"/>
     </row>
-    <row r="408" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:8" ht="13">
       <c r="A408" s="47"/>
       <c r="F408" s="11"/>
       <c r="G408" s="12"/>
       <c r="H408" s="13"/>
     </row>
-    <row r="409" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:8" ht="13">
       <c r="A409" s="47"/>
       <c r="F409" s="11"/>
       <c r="G409" s="12"/>
       <c r="H409" s="13"/>
     </row>
-    <row r="410" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:8" ht="13">
       <c r="A410" s="47"/>
       <c r="F410" s="11"/>
       <c r="G410" s="12"/>
       <c r="H410" s="13"/>
     </row>
-    <row r="411" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:8" ht="13">
       <c r="A411" s="47"/>
       <c r="F411" s="11"/>
       <c r="G411" s="12"/>
       <c r="H411" s="13"/>
     </row>
-    <row r="412" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:8" ht="13">
       <c r="A412" s="47"/>
       <c r="F412" s="11"/>
       <c r="G412" s="12"/>
       <c r="H412" s="13"/>
     </row>
-    <row r="413" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:8" ht="13">
       <c r="A413" s="47"/>
       <c r="F413" s="11"/>
       <c r="G413" s="12"/>
       <c r="H413" s="13"/>
     </row>
-    <row r="414" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:8" ht="13">
       <c r="A414" s="47"/>
       <c r="F414" s="11"/>
       <c r="G414" s="12"/>
       <c r="H414" s="13"/>
     </row>
-    <row r="415" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:8" ht="13">
       <c r="A415" s="47"/>
       <c r="F415" s="11"/>
       <c r="G415" s="12"/>
       <c r="H415" s="13"/>
     </row>
-    <row r="416" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:8" ht="13">
       <c r="A416" s="47"/>
       <c r="F416" s="11"/>
       <c r="G416" s="12"/>
       <c r="H416" s="13"/>
     </row>
-    <row r="417" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:8" ht="13">
       <c r="A417" s="47"/>
       <c r="F417" s="11"/>
       <c r="G417" s="12"/>
       <c r="H417" s="13"/>
     </row>
-    <row r="418" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:8" ht="13">
       <c r="A418" s="47"/>
       <c r="F418" s="11"/>
       <c r="G418" s="12"/>
       <c r="H418" s="13"/>
     </row>
-    <row r="419" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:8" ht="13">
       <c r="A419" s="47"/>
       <c r="F419" s="11"/>
       <c r="G419" s="12"/>
       <c r="H419" s="13"/>
     </row>
-    <row r="420" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:8" ht="13">
       <c r="A420" s="47"/>
       <c r="F420" s="11"/>
       <c r="G420" s="12"/>
       <c r="H420" s="13"/>
     </row>
-    <row r="421" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:8" ht="13">
       <c r="A421" s="47"/>
       <c r="F421" s="11"/>
       <c r="G421" s="12"/>
       <c r="H421" s="13"/>
     </row>
-    <row r="422" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:8" ht="13">
       <c r="A422" s="47"/>
       <c r="F422" s="11"/>
       <c r="G422" s="12"/>
       <c r="H422" s="13"/>
     </row>
-    <row r="423" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:8" ht="13">
       <c r="A423" s="47"/>
       <c r="F423" s="11"/>
       <c r="G423" s="12"/>
       <c r="H423" s="13"/>
     </row>
-    <row r="424" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:8" ht="13">
       <c r="A424" s="47"/>
       <c r="F424" s="11"/>
       <c r="G424" s="12"/>
       <c r="H424" s="13"/>
     </row>
-    <row r="425" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:8" ht="13">
       <c r="A425" s="47"/>
       <c r="F425" s="11"/>
       <c r="G425" s="12"/>
       <c r="H425" s="13"/>
     </row>
-    <row r="426" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:8" ht="13">
       <c r="A426" s="47"/>
       <c r="F426" s="11"/>
       <c r="G426" s="12"/>
       <c r="H426" s="13"/>
     </row>
-    <row r="427" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:8" ht="13">
       <c r="A427" s="47"/>
       <c r="F427" s="11"/>
       <c r="G427" s="12"/>
       <c r="H427" s="13"/>
     </row>
-    <row r="428" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:8" ht="13">
       <c r="A428" s="47"/>
       <c r="F428" s="11"/>
       <c r="G428" s="12"/>
       <c r="H428" s="13"/>
     </row>
-    <row r="429" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:8" ht="13">
       <c r="A429" s="47"/>
       <c r="F429" s="11"/>
       <c r="G429" s="12"/>
       <c r="H429" s="13"/>
     </row>
-    <row r="430" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:8" ht="13">
       <c r="A430" s="47"/>
       <c r="F430" s="11"/>
       <c r="G430" s="12"/>
       <c r="H430" s="13"/>
     </row>
-    <row r="431" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:8" ht="13">
       <c r="A431" s="47"/>
       <c r="F431" s="11"/>
       <c r="G431" s="12"/>
       <c r="H431" s="13"/>
     </row>
-    <row r="432" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:8" ht="13">
       <c r="A432" s="47"/>
       <c r="F432" s="11"/>
       <c r="G432" s="12"/>
       <c r="H432" s="13"/>
     </row>
-    <row r="433" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:8" ht="13">
       <c r="A433" s="47"/>
       <c r="F433" s="11"/>
       <c r="G433" s="12"/>
       <c r="H433" s="13"/>
     </row>
-    <row r="434" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:8" ht="13">
       <c r="A434" s="47"/>
       <c r="F434" s="11"/>
       <c r="G434" s="12"/>
       <c r="H434" s="13"/>
     </row>
-    <row r="435" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:8" ht="13">
       <c r="A435" s="47"/>
       <c r="F435" s="11"/>
       <c r="G435" s="12"/>
       <c r="H435" s="13"/>
     </row>
-    <row r="436" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:8" ht="13">
       <c r="A436" s="47"/>
       <c r="F436" s="11"/>
       <c r="G436" s="12"/>
       <c r="H436" s="13"/>
     </row>
-    <row r="437" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:8" ht="13">
       <c r="A437" s="47"/>
       <c r="F437" s="11"/>
       <c r="G437" s="12"/>
       <c r="H437" s="13"/>
     </row>
-    <row r="438" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:8" ht="13">
       <c r="A438" s="47"/>
       <c r="F438" s="11"/>
       <c r="G438" s="12"/>
       <c r="H438" s="13"/>
     </row>
-    <row r="439" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:8" ht="13">
       <c r="A439" s="47"/>
       <c r="F439" s="11"/>
       <c r="G439" s="12"/>
       <c r="H439" s="13"/>
     </row>
-    <row r="440" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:8" ht="13">
       <c r="A440" s="47"/>
       <c r="F440" s="11"/>
       <c r="G440" s="12"/>
       <c r="H440" s="13"/>
     </row>
-    <row r="441" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:8" ht="13">
       <c r="A441" s="47"/>
       <c r="F441" s="11"/>
       <c r="G441" s="12"/>
       <c r="H441" s="13"/>
     </row>
-    <row r="442" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:8" ht="13">
       <c r="A442" s="47"/>
       <c r="F442" s="11"/>
       <c r="G442" s="12"/>
       <c r="H442" s="13"/>
     </row>
-    <row r="443" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:8" ht="13">
       <c r="A443" s="47"/>
       <c r="F443" s="11"/>
       <c r="G443" s="12"/>
       <c r="H443" s="13"/>
     </row>
-    <row r="444" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:8" ht="13">
       <c r="A444" s="47"/>
       <c r="F444" s="11"/>
       <c r="G444" s="12"/>
       <c r="H444" s="13"/>
     </row>
-    <row r="445" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:8" ht="13">
       <c r="A445" s="47"/>
       <c r="F445" s="11"/>
       <c r="G445" s="12"/>
       <c r="H445" s="13"/>
     </row>
-    <row r="446" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:8" ht="13">
       <c r="A446" s="47"/>
       <c r="F446" s="11"/>
       <c r="G446" s="12"/>
       <c r="H446" s="13"/>
     </row>
-    <row r="447" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:8" ht="13">
       <c r="A447" s="47"/>
       <c r="F447" s="11"/>
       <c r="G447" s="12"/>
       <c r="H447" s="13"/>
     </row>
-    <row r="448" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:8" ht="13">
       <c r="A448" s="47"/>
       <c r="F448" s="11"/>
       <c r="G448" s="12"/>
       <c r="H448" s="13"/>
     </row>
-    <row r="449" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:8" ht="13">
       <c r="A449" s="47"/>
       <c r="F449" s="11"/>
       <c r="G449" s="12"/>
       <c r="H449" s="13"/>
     </row>
-    <row r="450" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:8" ht="13">
       <c r="A450" s="47"/>
       <c r="F450" s="11"/>
       <c r="G450" s="12"/>
       <c r="H450" s="13"/>
     </row>
-    <row r="451" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:8" ht="13">
       <c r="A451" s="47"/>
       <c r="F451" s="11"/>
       <c r="G451" s="12"/>
       <c r="H451" s="13"/>
     </row>
-    <row r="452" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:8" ht="13">
       <c r="A452" s="47"/>
       <c r="F452" s="11"/>
       <c r="G452" s="12"/>
       <c r="H452" s="13"/>
     </row>
-    <row r="453" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:8" ht="13">
       <c r="A453" s="47"/>
       <c r="F453" s="11"/>
       <c r="G453" s="12"/>
       <c r="H453" s="13"/>
     </row>
-    <row r="454" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:8" ht="13">
       <c r="A454" s="47"/>
       <c r="F454" s="11"/>
       <c r="G454" s="12"/>
       <c r="H454" s="13"/>
     </row>
-    <row r="455" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:8" ht="13">
       <c r="A455" s="47"/>
       <c r="F455" s="11"/>
       <c r="G455" s="12"/>
       <c r="H455" s="13"/>
     </row>
-    <row r="456" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:8" ht="13">
       <c r="A456" s="47"/>
       <c r="F456" s="11"/>
       <c r="G456" s="12"/>
       <c r="H456" s="13"/>
     </row>
-    <row r="457" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:8" ht="13">
       <c r="A457" s="47"/>
       <c r="F457" s="11"/>
       <c r="G457" s="12"/>
       <c r="H457" s="13"/>
     </row>
-    <row r="458" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:8" ht="13">
       <c r="A458" s="47"/>
       <c r="F458" s="11"/>
       <c r="G458" s="12"/>
       <c r="H458" s="13"/>
     </row>
-    <row r="459" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:8" ht="13">
       <c r="A459" s="47"/>
       <c r="F459" s="11"/>
       <c r="G459" s="12"/>
       <c r="H459" s="13"/>
     </row>
-    <row r="460" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:8" ht="13">
       <c r="A460" s="47"/>
       <c r="F460" s="11"/>
       <c r="G460" s="12"/>
       <c r="H460" s="13"/>
     </row>
-    <row r="461" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:8" ht="13">
       <c r="A461" s="47"/>
       <c r="F461" s="11"/>
       <c r="G461" s="12"/>
       <c r="H461" s="13"/>
     </row>
-    <row r="462" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:8" ht="13">
       <c r="A462" s="47"/>
       <c r="F462" s="11"/>
       <c r="G462" s="12"/>
       <c r="H462" s="13"/>
     </row>
-    <row r="463" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:8" ht="13">
       <c r="A463" s="47"/>
       <c r="F463" s="11"/>
       <c r="G463" s="12"/>
       <c r="H463" s="13"/>
     </row>
-    <row r="464" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:8" ht="13">
       <c r="A464" s="47"/>
       <c r="F464" s="11"/>
       <c r="G464" s="12"/>
       <c r="H464" s="13"/>
     </row>
-    <row r="465" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:8" ht="13">
       <c r="A465" s="47"/>
       <c r="F465" s="11"/>
       <c r="G465" s="12"/>
       <c r="H465" s="13"/>
     </row>
-    <row r="466" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:8" ht="13">
       <c r="A466" s="47"/>
       <c r="F466" s="11"/>
       <c r="G466" s="12"/>
       <c r="H466" s="13"/>
     </row>
-    <row r="467" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:8" ht="13">
       <c r="A467" s="47"/>
       <c r="F467" s="11"/>
       <c r="G467" s="12"/>
       <c r="H467" s="13"/>
     </row>
-    <row r="468" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:8" ht="13">
       <c r="A468" s="47"/>
       <c r="F468" s="11"/>
       <c r="G468" s="12"/>
       <c r="H468" s="13"/>
     </row>
-    <row r="469" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:8" ht="13">
       <c r="A469" s="47"/>
       <c r="F469" s="11"/>
       <c r="G469" s="12"/>
       <c r="H469" s="13"/>
     </row>
-    <row r="470" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:8" ht="13">
       <c r="A470" s="47"/>
       <c r="F470" s="11"/>
       <c r="G470" s="12"/>
       <c r="H470" s="13"/>
     </row>
-    <row r="471" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:8" ht="13">
       <c r="A471" s="47"/>
       <c r="F471" s="11"/>
       <c r="G471" s="12"/>
       <c r="H471" s="13"/>
     </row>
-    <row r="472" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:8" ht="13">
       <c r="A472" s="47"/>
       <c r="F472" s="11"/>
       <c r="G472" s="12"/>
       <c r="H472" s="13"/>
     </row>
-    <row r="473" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:8" ht="13">
       <c r="A473" s="47"/>
       <c r="F473" s="11"/>
       <c r="G473" s="12"/>
       <c r="H473" s="13"/>
     </row>
-    <row r="474" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:8" ht="13">
       <c r="A474" s="47"/>
       <c r="F474" s="11"/>
       <c r="G474" s="12"/>
       <c r="H474" s="13"/>
     </row>
-    <row r="475" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:8" ht="13">
       <c r="A475" s="47"/>
       <c r="F475" s="11"/>
       <c r="G475" s="12"/>
       <c r="H475" s="13"/>
     </row>
-    <row r="476" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:8" ht="13">
       <c r="A476" s="47"/>
       <c r="F476" s="11"/>
       <c r="G476" s="12"/>
       <c r="H476" s="13"/>
     </row>
-    <row r="477" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:8" ht="13">
       <c r="A477" s="47"/>
       <c r="F477" s="11"/>
       <c r="G477" s="12"/>
       <c r="H477" s="13"/>
     </row>
-    <row r="478" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:8" ht="13">
       <c r="A478" s="47"/>
       <c r="F478" s="11"/>
       <c r="G478" s="12"/>
       <c r="H478" s="13"/>
     </row>
-    <row r="479" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:8" ht="13">
       <c r="A479" s="47"/>
       <c r="F479" s="11"/>
       <c r="G479" s="12"/>
       <c r="H479" s="13"/>
     </row>
-    <row r="480" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:8" ht="13">
       <c r="A480" s="47"/>
       <c r="F480" s="11"/>
       <c r="G480" s="12"/>
       <c r="H480" s="13"/>
     </row>
-    <row r="481" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:8" ht="13">
       <c r="A481" s="47"/>
       <c r="F481" s="11"/>
       <c r="G481" s="12"/>
       <c r="H481" s="13"/>
     </row>
-    <row r="482" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:8" ht="13">
       <c r="A482" s="47"/>
       <c r="F482" s="11"/>
       <c r="G482" s="12"/>
       <c r="H482" s="13"/>
     </row>
-    <row r="483" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:8" ht="13">
       <c r="A483" s="47"/>
       <c r="F483" s="11"/>
       <c r="G483" s="12"/>
       <c r="H483" s="13"/>
     </row>
-    <row r="484" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:8" ht="13">
       <c r="A484" s="47"/>
       <c r="F484" s="11"/>
       <c r="G484" s="12"/>
       <c r="H484" s="13"/>
     </row>
-    <row r="485" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:8" ht="13">
       <c r="A485" s="47"/>
       <c r="F485" s="11"/>
       <c r="G485" s="12"/>
       <c r="H485" s="13"/>
     </row>
-    <row r="486" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:8" ht="13">
       <c r="A486" s="47"/>
       <c r="F486" s="11"/>
       <c r="G486" s="12"/>
       <c r="H486" s="13"/>
     </row>
-    <row r="487" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:8" ht="13">
       <c r="A487" s="47"/>
       <c r="F487" s="11"/>
       <c r="G487" s="12"/>
       <c r="H487" s="13"/>
     </row>
-    <row r="488" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:8" ht="13">
       <c r="A488" s="47"/>
       <c r="F488" s="11"/>
       <c r="G488" s="12"/>
       <c r="H488" s="13"/>
     </row>
-    <row r="489" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:8" ht="13">
       <c r="A489" s="47"/>
       <c r="F489" s="11"/>
       <c r="G489" s="12"/>
       <c r="H489" s="13"/>
     </row>
-    <row r="490" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:8" ht="13">
       <c r="A490" s="47"/>
       <c r="F490" s="11"/>
       <c r="G490" s="12"/>
       <c r="H490" s="13"/>
     </row>
-    <row r="491" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:8" ht="13">
       <c r="A491" s="47"/>
       <c r="F491" s="11"/>
       <c r="G491" s="12"/>
       <c r="H491" s="13"/>
     </row>
-    <row r="492" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:8" ht="13">
       <c r="A492" s="47"/>
       <c r="F492" s="11"/>
       <c r="G492" s="12"/>
       <c r="H492" s="13"/>
     </row>
-    <row r="493" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:8" ht="13">
       <c r="A493" s="47"/>
       <c r="F493" s="11"/>
       <c r="G493" s="12"/>
       <c r="H493" s="13"/>
     </row>
-    <row r="494" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:8" ht="13">
       <c r="A494" s="47"/>
       <c r="F494" s="11"/>
       <c r="G494" s="12"/>
       <c r="H494" s="13"/>
     </row>
-    <row r="495" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:8" ht="13">
       <c r="A495" s="47"/>
       <c r="F495" s="11"/>
       <c r="G495" s="12"/>
       <c r="H495" s="13"/>
     </row>
-    <row r="496" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:8" ht="13">
       <c r="A496" s="47"/>
       <c r="F496" s="11"/>
       <c r="G496" s="12"/>
       <c r="H496" s="13"/>
     </row>
-    <row r="497" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:8" ht="13">
       <c r="A497" s="47"/>
       <c r="F497" s="11"/>
       <c r="G497" s="12"/>
       <c r="H497" s="13"/>
     </row>
-    <row r="498" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:8" ht="13">
       <c r="A498" s="47"/>
       <c r="F498" s="11"/>
       <c r="G498" s="12"/>
       <c r="H498" s="13"/>
     </row>
-    <row r="499" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:8" ht="13">
       <c r="A499" s="47"/>
       <c r="F499" s="11"/>
       <c r="G499" s="12"/>
       <c r="H499" s="13"/>
     </row>
-    <row r="500" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:8" ht="13">
       <c r="A500" s="47"/>
       <c r="F500" s="11"/>
       <c r="G500" s="12"/>
       <c r="H500" s="13"/>
     </row>
-    <row r="501" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:8" ht="13">
       <c r="A501" s="47"/>
       <c r="F501" s="11"/>
       <c r="G501" s="12"/>
       <c r="H501" s="13"/>
     </row>
-    <row r="502" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:8" ht="13">
       <c r="A502" s="47"/>
       <c r="F502" s="11"/>
       <c r="G502" s="12"/>
       <c r="H502" s="13"/>
     </row>
-    <row r="503" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:8" ht="13">
       <c r="A503" s="47"/>
       <c r="F503" s="11"/>
       <c r="G503" s="12"/>
       <c r="H503" s="13"/>
     </row>
-    <row r="504" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:8" ht="13">
       <c r="A504" s="47"/>
       <c r="F504" s="11"/>
       <c r="G504" s="12"/>
       <c r="H504" s="13"/>
     </row>
-    <row r="505" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:8" ht="13">
       <c r="A505" s="47"/>
       <c r="F505" s="11"/>
       <c r="G505" s="12"/>
       <c r="H505" s="13"/>
     </row>
-    <row r="506" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:8" ht="13">
       <c r="A506" s="47"/>
       <c r="F506" s="11"/>
       <c r="G506" s="12"/>
       <c r="H506" s="13"/>
     </row>
-    <row r="507" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:8" ht="13">
       <c r="A507" s="47"/>
       <c r="F507" s="11"/>
       <c r="G507" s="12"/>
       <c r="H507" s="13"/>
     </row>
-    <row r="508" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:8" ht="13">
       <c r="A508" s="47"/>
       <c r="F508" s="11"/>
       <c r="G508" s="12"/>
       <c r="H508" s="13"/>
     </row>
-    <row r="509" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:8" ht="13">
       <c r="A509" s="47"/>
       <c r="F509" s="11"/>
       <c r="G509" s="12"/>
       <c r="H509" s="13"/>
     </row>
-    <row r="510" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:8" ht="13">
       <c r="A510" s="47"/>
       <c r="F510" s="11"/>
       <c r="G510" s="12"/>
       <c r="H510" s="13"/>
     </row>
-    <row r="511" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:8" ht="13">
       <c r="A511" s="47"/>
       <c r="F511" s="11"/>
       <c r="G511" s="12"/>
       <c r="H511" s="13"/>
     </row>
-    <row r="512" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:8" ht="13">
       <c r="A512" s="47"/>
       <c r="F512" s="11"/>
       <c r="G512" s="12"/>
       <c r="H512" s="13"/>
     </row>
-    <row r="513" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:8" ht="13">
       <c r="A513" s="47"/>
       <c r="F513" s="11"/>
       <c r="G513" s="12"/>
       <c r="H513" s="13"/>
     </row>
-    <row r="514" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:8" ht="13">
       <c r="A514" s="47"/>
       <c r="F514" s="11"/>
       <c r="G514" s="12"/>
       <c r="H514" s="13"/>
     </row>
-    <row r="515" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:8" ht="13">
       <c r="A515" s="47"/>
       <c r="F515" s="11"/>
       <c r="G515" s="12"/>
       <c r="H515" s="13"/>
     </row>
-    <row r="516" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:8" ht="13">
       <c r="A516" s="47"/>
       <c r="F516" s="11"/>
       <c r="G516" s="12"/>
       <c r="H516" s="13"/>
     </row>
-    <row r="517" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:8" ht="13">
       <c r="A517" s="47"/>
       <c r="F517" s="11"/>
       <c r="G517" s="12"/>
       <c r="H517" s="13"/>
     </row>
-    <row r="518" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:8" ht="13">
       <c r="A518" s="47"/>
       <c r="F518" s="11"/>
       <c r="G518" s="12"/>
       <c r="H518" s="13"/>
     </row>
-    <row r="519" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:8" ht="13">
       <c r="A519" s="47"/>
       <c r="F519" s="11"/>
       <c r="G519" s="12"/>
       <c r="H519" s="13"/>
     </row>
-    <row r="520" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:8" ht="13">
       <c r="A520" s="47"/>
       <c r="F520" s="11"/>
       <c r="G520" s="12"/>
       <c r="H520" s="13"/>
     </row>
-    <row r="521" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:8" ht="13">
       <c r="A521" s="47"/>
       <c r="F521" s="11"/>
       <c r="G521" s="12"/>
       <c r="H521" s="13"/>
     </row>
-    <row r="522" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:8" ht="13">
       <c r="A522" s="47"/>
       <c r="F522" s="11"/>
       <c r="G522" s="12"/>
       <c r="H522" s="13"/>
     </row>
-    <row r="523" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:8" ht="13">
       <c r="A523" s="47"/>
       <c r="F523" s="11"/>
       <c r="G523" s="12"/>
       <c r="H523" s="13"/>
     </row>
-    <row r="524" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:8" ht="13">
       <c r="A524" s="47"/>
       <c r="F524" s="11"/>
       <c r="G524" s="12"/>
       <c r="H524" s="13"/>
     </row>
-    <row r="525" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:8" ht="13">
       <c r="A525" s="47"/>
       <c r="F525" s="11"/>
       <c r="G525" s="12"/>
       <c r="H525" s="13"/>
     </row>
-    <row r="526" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:8" ht="13">
       <c r="A526" s="47"/>
       <c r="F526" s="11"/>
       <c r="G526" s="12"/>
       <c r="H526" s="13"/>
     </row>
-    <row r="527" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:8" ht="13">
       <c r="A527" s="47"/>
       <c r="F527" s="11"/>
       <c r="G527" s="12"/>
       <c r="H527" s="13"/>
     </row>
-    <row r="528" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:8" ht="13">
       <c r="A528" s="47"/>
       <c r="F528" s="11"/>
       <c r="G528" s="12"/>
       <c r="H528" s="13"/>
     </row>
-    <row r="529" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:8" ht="13">
       <c r="A529" s="47"/>
       <c r="F529" s="11"/>
       <c r="G529" s="12"/>
       <c r="H529" s="13"/>
     </row>
-    <row r="530" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:8" ht="13">
       <c r="A530" s="47"/>
       <c r="F530" s="11"/>
       <c r="G530" s="12"/>
       <c r="H530" s="13"/>
     </row>
-    <row r="531" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:8" ht="13">
       <c r="A531" s="47"/>
       <c r="F531" s="11"/>
       <c r="G531" s="12"/>
       <c r="H531" s="13"/>
     </row>
-    <row r="532" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:8" ht="13">
       <c r="A532" s="47"/>
       <c r="F532" s="11"/>
       <c r="G532" s="12"/>
       <c r="H532" s="13"/>
     </row>
-    <row r="533" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:8" ht="13">
       <c r="A533" s="47"/>
       <c r="F533" s="11"/>
       <c r="G533" s="12"/>
       <c r="H533" s="13"/>
     </row>
-    <row r="534" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:8" ht="13">
       <c r="A534" s="47"/>
       <c r="F534" s="11"/>
       <c r="G534" s="12"/>
       <c r="H534" s="13"/>
     </row>
-    <row r="535" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:8" ht="13">
       <c r="A535" s="47"/>
       <c r="F535" s="11"/>
       <c r="G535" s="12"/>
       <c r="H535" s="13"/>
     </row>
-    <row r="536" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:8" ht="13">
       <c r="A536" s="47"/>
       <c r="F536" s="11"/>
       <c r="G536" s="12"/>
       <c r="H536" s="13"/>
     </row>
-    <row r="537" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:8" ht="13">
       <c r="A537" s="47"/>
       <c r="F537" s="11"/>
       <c r="G537" s="12"/>
       <c r="H537" s="13"/>
     </row>
-    <row r="538" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:8" ht="13">
       <c r="A538" s="47"/>
       <c r="F538" s="11"/>
       <c r="G538" s="12"/>
       <c r="H538" s="13"/>
     </row>
-    <row r="539" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:8" ht="13">
       <c r="A539" s="47"/>
       <c r="F539" s="11"/>
       <c r="G539" s="12"/>
       <c r="H539" s="13"/>
     </row>
-    <row r="540" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:8" ht="13">
       <c r="A540" s="47"/>
       <c r="F540" s="11"/>
       <c r="G540" s="12"/>
       <c r="H540" s="13"/>
     </row>
-    <row r="541" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:8" ht="13">
       <c r="A541" s="47"/>
       <c r="F541" s="11"/>
       <c r="G541" s="12"/>
       <c r="H541" s="13"/>
     </row>
-    <row r="542" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:8" ht="13">
       <c r="A542" s="47"/>
       <c r="F542" s="11"/>
       <c r="G542" s="12"/>
       <c r="H542" s="13"/>
     </row>
-    <row r="543" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:8" ht="13">
       <c r="A543" s="47"/>
       <c r="F543" s="11"/>
       <c r="G543" s="12"/>
       <c r="H543" s="13"/>
     </row>
-    <row r="544" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:8" ht="13">
       <c r="A544" s="47"/>
       <c r="F544" s="11"/>
       <c r="G544" s="12"/>
       <c r="H544" s="13"/>
     </row>
-    <row r="545" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:8" ht="13">
       <c r="A545" s="47"/>
       <c r="F545" s="11"/>
       <c r="G545" s="12"/>
       <c r="H545" s="13"/>
     </row>
-    <row r="546" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:8" ht="13">
       <c r="A546" s="47"/>
       <c r="F546" s="11"/>
       <c r="G546" s="12"/>
       <c r="H546" s="13"/>
     </row>
-    <row r="547" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:8" ht="13">
       <c r="A547" s="47"/>
       <c r="F547" s="11"/>
       <c r="G547" s="12"/>
       <c r="H547" s="13"/>
     </row>
-    <row r="548" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:8" ht="13">
       <c r="A548" s="47"/>
       <c r="F548" s="11"/>
       <c r="G548" s="12"/>
       <c r="H548" s="13"/>
     </row>
-    <row r="549" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:8" ht="13">
       <c r="A549" s="47"/>
       <c r="F549" s="11"/>
       <c r="G549" s="12"/>
       <c r="H549" s="13"/>
     </row>
-    <row r="550" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:8" ht="13">
       <c r="A550" s="47"/>
       <c r="F550" s="11"/>
       <c r="G550" s="12"/>
       <c r="H550" s="13"/>
     </row>
-    <row r="551" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:8" ht="13">
       <c r="A551" s="47"/>
       <c r="F551" s="11"/>
       <c r="G551" s="12"/>
       <c r="H551" s="13"/>
     </row>
-    <row r="552" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:8" ht="13">
       <c r="A552" s="47"/>
       <c r="F552" s="11"/>
       <c r="G552" s="12"/>
       <c r="H552" s="13"/>
     </row>
-    <row r="553" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:8" ht="13">
       <c r="A553" s="47"/>
       <c r="F553" s="11"/>
       <c r="G553" s="12"/>
       <c r="H553" s="13"/>
     </row>
-    <row r="554" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:8" ht="13">
       <c r="A554" s="47"/>
       <c r="F554" s="11"/>
       <c r="G554" s="12"/>
       <c r="H554" s="13"/>
     </row>
-    <row r="555" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:8" ht="13">
       <c r="A555" s="47"/>
       <c r="F555" s="11"/>
       <c r="G555" s="12"/>
       <c r="H555" s="13"/>
     </row>
-    <row r="556" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:8" ht="13">
       <c r="A556" s="47"/>
       <c r="F556" s="11"/>
       <c r="G556" s="12"/>
       <c r="H556" s="13"/>
     </row>
-    <row r="557" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:8" ht="13">
       <c r="A557" s="47"/>
       <c r="F557" s="11"/>
       <c r="G557" s="12"/>
       <c r="H557" s="13"/>
     </row>
-    <row r="558" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:8" ht="13">
       <c r="A558" s="47"/>
       <c r="F558" s="11"/>
       <c r="G558" s="12"/>
       <c r="H558" s="13"/>
     </row>
-    <row r="559" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:8" ht="13">
       <c r="A559" s="47"/>
       <c r="F559" s="11"/>
       <c r="G559" s="12"/>
       <c r="H559" s="13"/>
     </row>
-    <row r="560" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:8" ht="13">
       <c r="A560" s="47"/>
       <c r="F560" s="11"/>
       <c r="G560" s="12"/>
       <c r="H560" s="13"/>
     </row>
-    <row r="561" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:8" ht="13">
       <c r="A561" s="47"/>
       <c r="F561" s="11"/>
       <c r="G561" s="12"/>
       <c r="H561" s="13"/>
     </row>
-    <row r="562" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:8" ht="13">
       <c r="A562" s="47"/>
       <c r="F562" s="11"/>
       <c r="G562" s="12"/>
       <c r="H562" s="13"/>
     </row>
-    <row r="563" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:8" ht="13">
       <c r="A563" s="47"/>
       <c r="F563" s="11"/>
       <c r="G563" s="12"/>
       <c r="H563" s="13"/>
     </row>
-    <row r="564" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:8" ht="13">
       <c r="A564" s="47"/>
       <c r="F564" s="11"/>
       <c r="G564" s="12"/>
       <c r="H564" s="13"/>
     </row>
-    <row r="565" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:8" ht="13">
       <c r="A565" s="47"/>
       <c r="F565" s="11"/>
       <c r="G565" s="12"/>
       <c r="H565" s="13"/>
     </row>
-    <row r="566" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:8" ht="13">
       <c r="A566" s="47"/>
       <c r="F566" s="11"/>
       <c r="G566" s="12"/>
       <c r="H566" s="13"/>
     </row>
-    <row r="567" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:8" ht="13">
       <c r="A567" s="47"/>
       <c r="F567" s="11"/>
       <c r="G567" s="12"/>
       <c r="H567" s="13"/>
     </row>
-    <row r="568" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:8" ht="13">
       <c r="A568" s="47"/>
       <c r="F568" s="11"/>
       <c r="G568" s="12"/>
       <c r="H568" s="13"/>
     </row>
-    <row r="569" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:8" ht="13">
       <c r="A569" s="47"/>
       <c r="F569" s="11"/>
       <c r="G569" s="12"/>
       <c r="H569" s="13"/>
     </row>
-    <row r="570" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:8" ht="13">
       <c r="A570" s="47"/>
       <c r="F570" s="11"/>
       <c r="G570" s="12"/>
       <c r="H570" s="13"/>
     </row>
-    <row r="571" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:8" ht="13">
       <c r="A571" s="47"/>
       <c r="F571" s="11"/>
       <c r="G571" s="12"/>
       <c r="H571" s="13"/>
     </row>
-    <row r="572" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:8" ht="13">
       <c r="A572" s="47"/>
       <c r="F572" s="11"/>
       <c r="G572" s="12"/>
       <c r="H572" s="13"/>
     </row>
-    <row r="573" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:8" ht="13">
       <c r="A573" s="47"/>
       <c r="F573" s="11"/>
       <c r="G573" s="12"/>
       <c r="H573" s="13"/>
     </row>
-    <row r="574" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:8" ht="13">
       <c r="A574" s="47"/>
       <c r="F574" s="11"/>
       <c r="G574" s="12"/>
       <c r="H574" s="13"/>
     </row>
-    <row r="575" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:8" ht="13">
       <c r="A575" s="47"/>
       <c r="F575" s="11"/>
       <c r="G575" s="12"/>
       <c r="H575" s="13"/>
     </row>
-    <row r="576" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:8" ht="13">
       <c r="A576" s="47"/>
       <c r="F576" s="11"/>
       <c r="G576" s="12"/>
       <c r="H576" s="13"/>
     </row>
-    <row r="577" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:8" ht="13">
       <c r="A577" s="47"/>
       <c r="F577" s="11"/>
       <c r="G577" s="12"/>
       <c r="H577" s="13"/>
     </row>
-    <row r="578" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:8" ht="13">
       <c r="A578" s="47"/>
       <c r="F578" s="11"/>
       <c r="G578" s="12"/>
       <c r="H578" s="13"/>
     </row>
-    <row r="579" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:8" ht="13">
       <c r="A579" s="47"/>
       <c r="F579" s="11"/>
       <c r="G579" s="12"/>
       <c r="H579" s="13"/>
     </row>
-    <row r="580" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:8" ht="13">
       <c r="A580" s="47"/>
       <c r="F580" s="11"/>
       <c r="G580" s="12"/>
       <c r="H580" s="13"/>
     </row>
-    <row r="581" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:8" ht="13">
       <c r="A581" s="47"/>
       <c r="F581" s="11"/>
       <c r="G581" s="12"/>
       <c r="H581" s="13"/>
     </row>
-    <row r="582" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:8" ht="13">
       <c r="A582" s="47"/>
       <c r="F582" s="11"/>
       <c r="G582" s="12"/>
       <c r="H582" s="13"/>
     </row>
-    <row r="583" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:8" ht="13">
       <c r="A583" s="47"/>
       <c r="F583" s="11"/>
       <c r="G583" s="12"/>
       <c r="H583" s="13"/>
     </row>
-    <row r="584" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:8" ht="13">
       <c r="A584" s="47"/>
       <c r="F584" s="11"/>
       <c r="G584" s="12"/>
       <c r="H584" s="13"/>
     </row>
-    <row r="585" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:8" ht="13">
       <c r="A585" s="47"/>
       <c r="F585" s="11"/>
       <c r="G585" s="12"/>
       <c r="H585" s="13"/>
     </row>
-    <row r="586" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:8" ht="13">
       <c r="A586" s="47"/>
       <c r="F586" s="11"/>
       <c r="G586" s="12"/>
       <c r="H586" s="13"/>
     </row>
-    <row r="587" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:8" ht="13">
       <c r="A587" s="47"/>
       <c r="F587" s="11"/>
       <c r="G587" s="12"/>
       <c r="H587" s="13"/>
     </row>
-    <row r="588" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:8" ht="13">
       <c r="A588" s="47"/>
       <c r="F588" s="11"/>
       <c r="G588" s="12"/>
       <c r="H588" s="13"/>
     </row>
-    <row r="589" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:8" ht="13">
       <c r="A589" s="47"/>
       <c r="F589" s="11"/>
       <c r="G589" s="12"/>
       <c r="H589" s="13"/>
     </row>
-    <row r="590" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:8" ht="13">
       <c r="A590" s="47"/>
       <c r="F590" s="11"/>
       <c r="G590" s="12"/>
       <c r="H590" s="13"/>
     </row>
-    <row r="591" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:8" ht="13">
       <c r="A591" s="47"/>
       <c r="F591" s="11"/>
       <c r="G591" s="12"/>
       <c r="H591" s="13"/>
     </row>
-    <row r="592" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:8" ht="13">
       <c r="A592" s="47"/>
       <c r="F592" s="11"/>
       <c r="G592" s="12"/>
       <c r="H592" s="13"/>
     </row>
-    <row r="593" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:8" ht="13">
       <c r="A593" s="47"/>
       <c r="F593" s="11"/>
       <c r="G593" s="12"/>
       <c r="H593" s="13"/>
     </row>
-    <row r="594" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:8" ht="13">
       <c r="A594" s="47"/>
       <c r="F594" s="11"/>
       <c r="G594" s="12"/>
       <c r="H594" s="13"/>
     </row>
-    <row r="595" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:8" ht="13">
       <c r="A595" s="47"/>
       <c r="F595" s="11"/>
       <c r="G595" s="12"/>
       <c r="H595" s="13"/>
     </row>
-    <row r="596" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:8" ht="13">
       <c r="A596" s="47"/>
       <c r="F596" s="11"/>
       <c r="G596" s="12"/>
       <c r="H596" s="13"/>
     </row>
-    <row r="597" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:8" ht="13">
       <c r="A597" s="47"/>
       <c r="F597" s="11"/>
       <c r="G597" s="12"/>
       <c r="H597" s="13"/>
     </row>
-    <row r="598" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:8" ht="13">
       <c r="A598" s="47"/>
       <c r="F598" s="11"/>
       <c r="G598" s="12"/>
       <c r="H598" s="13"/>
     </row>
-    <row r="599" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:8" ht="13">
       <c r="A599" s="47"/>
       <c r="F599" s="11"/>
       <c r="G599" s="12"/>
       <c r="H599" s="13"/>
     </row>
-    <row r="600" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:8" ht="13">
       <c r="A600" s="47"/>
       <c r="F600" s="11"/>
       <c r="G600" s="12"/>
       <c r="H600" s="13"/>
     </row>
-    <row r="601" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:8" ht="13">
       <c r="A601" s="47"/>
       <c r="F601" s="11"/>
       <c r="G601" s="12"/>
       <c r="H601" s="13"/>
     </row>
-    <row r="602" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:8" ht="13">
       <c r="A602" s="47"/>
       <c r="F602" s="11"/>
       <c r="G602" s="12"/>
       <c r="H602" s="13"/>
     </row>
-    <row r="603" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:8" ht="13">
       <c r="A603" s="47"/>
       <c r="F603" s="11"/>
       <c r="G603" s="12"/>
       <c r="H603" s="13"/>
     </row>
-    <row r="604" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:8" ht="13">
       <c r="A604" s="47"/>
       <c r="F604" s="11"/>
       <c r="G604" s="12"/>
       <c r="H604" s="13"/>
     </row>
-    <row r="605" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:8" ht="13">
       <c r="A605" s="47"/>
       <c r="F605" s="11"/>
       <c r="G605" s="12"/>
       <c r="H605" s="13"/>
     </row>
-    <row r="606" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:8" ht="13">
       <c r="A606" s="47"/>
       <c r="F606" s="11"/>
       <c r="G606" s="12"/>
       <c r="H606" s="13"/>
     </row>
-    <row r="607" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:8" ht="13">
       <c r="A607" s="47"/>
       <c r="F607" s="11"/>
       <c r="G607" s="12"/>
       <c r="H607" s="13"/>
     </row>
-    <row r="608" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:8" ht="13">
       <c r="A608" s="47"/>
       <c r="F608" s="11"/>
       <c r="G608" s="12"/>
       <c r="H608" s="13"/>
     </row>
-    <row r="609" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:8" ht="13">
       <c r="A609" s="47"/>
       <c r="F609" s="11"/>
       <c r="G609" s="12"/>
       <c r="H609" s="13"/>
     </row>
-    <row r="610" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:8" ht="13">
       <c r="A610" s="47"/>
       <c r="F610" s="11"/>
       <c r="G610" s="12"/>
       <c r="H610" s="13"/>
     </row>
-    <row r="611" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:8" ht="13">
       <c r="A611" s="47"/>
       <c r="F611" s="11"/>
       <c r="G611" s="12"/>
       <c r="H611" s="13"/>
     </row>
-    <row r="612" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:8" ht="13">
       <c r="A612" s="47"/>
       <c r="F612" s="11"/>
       <c r="G612" s="12"/>
       <c r="H612" s="13"/>
     </row>
-    <row r="613" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:8" ht="13">
       <c r="A613" s="47"/>
       <c r="F613" s="11"/>
       <c r="G613" s="12"/>
       <c r="H613" s="13"/>
     </row>
-    <row r="614" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:8" ht="13">
       <c r="A614" s="47"/>
       <c r="F614" s="11"/>
       <c r="G614" s="12"/>
       <c r="H614" s="13"/>
     </row>
-    <row r="615" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:8" ht="13">
       <c r="A615" s="47"/>
       <c r="F615" s="11"/>
       <c r="G615" s="12"/>
       <c r="H615" s="13"/>
     </row>
-    <row r="616" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:8" ht="13">
       <c r="A616" s="47"/>
       <c r="F616" s="11"/>
       <c r="G616" s="12"/>
       <c r="H616" s="13"/>
     </row>
-    <row r="617" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:8" ht="13">
       <c r="A617" s="47"/>
       <c r="F617" s="11"/>
       <c r="G617" s="12"/>
       <c r="H617" s="13"/>
     </row>
-    <row r="618" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:8" ht="13">
       <c r="A618" s="47"/>
       <c r="F618" s="11"/>
       <c r="G618" s="12"/>
       <c r="H618" s="13"/>
     </row>
-    <row r="619" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:8" ht="13">
       <c r="A619" s="47"/>
       <c r="F619" s="11"/>
       <c r="G619" s="12"/>
       <c r="H619" s="13"/>
     </row>
-    <row r="620" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:8" ht="13">
       <c r="A620" s="47"/>
       <c r="F620" s="11"/>
       <c r="G620" s="12"/>
       <c r="H620" s="13"/>
     </row>
-    <row r="621" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:8" ht="13">
       <c r="A621" s="47"/>
       <c r="F621" s="11"/>
       <c r="G621" s="12"/>
       <c r="H621" s="13"/>
     </row>
-    <row r="622" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:8" ht="13">
       <c r="A622" s="47"/>
       <c r="F622" s="11"/>
       <c r="G622" s="12"/>
       <c r="H622" s="13"/>
     </row>
-    <row r="623" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:8" ht="13">
       <c r="A623" s="47"/>
       <c r="F623" s="11"/>
       <c r="G623" s="12"/>
       <c r="H623" s="13"/>
     </row>
-    <row r="624" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:8" ht="13">
       <c r="A624" s="47"/>
       <c r="F624" s="11"/>
       <c r="G624" s="12"/>
       <c r="H624" s="13"/>
     </row>
-    <row r="625" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:8" ht="13">
       <c r="A625" s="47"/>
       <c r="F625" s="11"/>
       <c r="G625" s="12"/>
       <c r="H625" s="13"/>
     </row>
-    <row r="626" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:8" ht="13">
       <c r="A626" s="47"/>
       <c r="F626" s="11"/>
       <c r="G626" s="12"/>
       <c r="H626" s="13"/>
     </row>
-    <row r="627" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:8" ht="13">
       <c r="A627" s="47"/>
       <c r="F627" s="11"/>
       <c r="G627" s="12"/>
       <c r="H627" s="13"/>
     </row>
-    <row r="628" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:8" ht="13">
       <c r="A628" s="47"/>
       <c r="F628" s="11"/>
       <c r="G628" s="12"/>
       <c r="H628" s="13"/>
     </row>
-    <row r="629" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:8" ht="13">
       <c r="A629" s="47"/>
       <c r="F629" s="11"/>
       <c r="G629" s="12"/>
       <c r="H629" s="13"/>
     </row>
-    <row r="630" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:8" ht="13">
       <c r="A630" s="47"/>
       <c r="F630" s="11"/>
       <c r="G630" s="12"/>
       <c r="H630" s="13"/>
     </row>
-    <row r="631" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:8" ht="13">
       <c r="A631" s="47"/>
       <c r="F631" s="11"/>
       <c r="G631" s="12"/>
       <c r="H631" s="13"/>
     </row>
-    <row r="632" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:8" ht="13">
       <c r="A632" s="47"/>
       <c r="F632" s="11"/>
       <c r="G632" s="12"/>
       <c r="H632" s="13"/>
     </row>
-    <row r="633" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:8" ht="13">
       <c r="A633" s="47"/>
       <c r="F633" s="11"/>
       <c r="G633" s="12"/>
       <c r="H633" s="13"/>
     </row>
-    <row r="634" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:8" ht="13">
       <c r="A634" s="47"/>
       <c r="F634" s="11"/>
       <c r="G634" s="12"/>
       <c r="H634" s="13"/>
     </row>
-    <row r="635" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:8" ht="13">
       <c r="A635" s="47"/>
       <c r="F635" s="11"/>
       <c r="G635" s="12"/>
       <c r="H635" s="13"/>
     </row>
-    <row r="636" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:8" ht="13">
       <c r="A636" s="47"/>
       <c r="F636" s="11"/>
       <c r="G636" s="12"/>
       <c r="H636" s="13"/>
     </row>
-    <row r="637" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:8" ht="13">
       <c r="A637" s="47"/>
       <c r="F637" s="11"/>
       <c r="G637" s="12"/>
       <c r="H637" s="13"/>
     </row>
-    <row r="638" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:8" ht="13">
       <c r="A638" s="47"/>
       <c r="F638" s="11"/>
       <c r="G638" s="12"/>
       <c r="H638" s="13"/>
     </row>
-    <row r="639" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:8" ht="13">
       <c r="A639" s="47"/>
       <c r="F639" s="11"/>
       <c r="G639" s="12"/>
       <c r="H639" s="13"/>
     </row>
-    <row r="640" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:8" ht="13">
       <c r="A640" s="47"/>
       <c r="F640" s="11"/>
       <c r="G640" s="12"/>
       <c r="H640" s="13"/>
     </row>
-    <row r="641" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:8" ht="13">
       <c r="A641" s="47"/>
       <c r="F641" s="11"/>
       <c r="G641" s="12"/>
       <c r="H641" s="13"/>
     </row>
-    <row r="642" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:8" ht="13">
       <c r="A642" s="47"/>
       <c r="F642" s="11"/>
       <c r="G642" s="12"/>
       <c r="H642" s="13"/>
     </row>
-    <row r="643" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:8" ht="13">
       <c r="A643" s="47"/>
       <c r="F643" s="11"/>
       <c r="G643" s="12"/>
       <c r="H643" s="13"/>
     </row>
-    <row r="644" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:8" ht="13">
       <c r="A644" s="47"/>
       <c r="F644" s="11"/>
       <c r="G644" s="12"/>
       <c r="H644" s="13"/>
     </row>
-    <row r="645" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:8" ht="13">
       <c r="A645" s="47"/>
       <c r="F645" s="11"/>
       <c r="G645" s="12"/>
       <c r="H645" s="13"/>
     </row>
-    <row r="646" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:8" ht="13">
       <c r="A646" s="47"/>
       <c r="F646" s="11"/>
       <c r="G646" s="12"/>
       <c r="H646" s="13"/>
     </row>
-    <row r="647" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:8" ht="13">
       <c r="A647" s="47"/>
       <c r="F647" s="11"/>
       <c r="G647" s="12"/>
       <c r="H647" s="13"/>
     </row>
-    <row r="648" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:8" ht="13">
       <c r="A648" s="47"/>
       <c r="F648" s="11"/>
       <c r="G648" s="12"/>
       <c r="H648" s="13"/>
     </row>
-    <row r="649" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:8" ht="13">
       <c r="A649" s="47"/>
       <c r="F649" s="11"/>
       <c r="G649" s="12"/>
       <c r="H649" s="13"/>
     </row>
-    <row r="650" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:8" ht="13">
       <c r="A650" s="47"/>
       <c r="F650" s="11"/>
       <c r="G650" s="12"/>
       <c r="H650" s="13"/>
     </row>
-    <row r="651" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:8" ht="13">
       <c r="A651" s="47"/>
       <c r="F651" s="11"/>
       <c r="G651" s="12"/>
       <c r="H651" s="13"/>
     </row>
-    <row r="652" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:8" ht="13">
       <c r="A652" s="47"/>
       <c r="F652" s="11"/>
       <c r="G652" s="12"/>
       <c r="H652" s="13"/>
     </row>
-    <row r="653" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:8" ht="13">
       <c r="A653" s="47"/>
       <c r="F653" s="11"/>
       <c r="G653" s="12"/>
       <c r="H653" s="13"/>
     </row>
-    <row r="654" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:8" ht="13">
       <c r="A654" s="47"/>
       <c r="F654" s="11"/>
       <c r="G654" s="12"/>
       <c r="H654" s="13"/>
     </row>
-    <row r="655" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:8" ht="13">
       <c r="A655" s="47"/>
       <c r="F655" s="11"/>
       <c r="G655" s="12"/>
       <c r="H655" s="13"/>
     </row>
-    <row r="656" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:8" ht="13">
       <c r="A656" s="47"/>
       <c r="F656" s="11"/>
       <c r="G656" s="12"/>
       <c r="H656" s="13"/>
     </row>
-    <row r="657" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:8" ht="13">
       <c r="A657" s="47"/>
       <c r="F657" s="11"/>
       <c r="G657" s="12"/>
       <c r="H657" s="13"/>
     </row>
-    <row r="658" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:8" ht="13">
       <c r="A658" s="47"/>
       <c r="F658" s="11"/>
       <c r="G658" s="12"/>
       <c r="H658" s="13"/>
     </row>
-    <row r="659" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:8" ht="13">
       <c r="A659" s="47"/>
       <c r="F659" s="11"/>
       <c r="G659" s="12"/>
       <c r="H659" s="13"/>
     </row>
-    <row r="660" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:8" ht="13">
       <c r="A660" s="47"/>
       <c r="F660" s="11"/>
       <c r="G660" s="12"/>
       <c r="H660" s="13"/>
     </row>
-    <row r="661" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:8" ht="13">
       <c r="A661" s="47"/>
       <c r="F661" s="11"/>
       <c r="G661" s="12"/>
       <c r="H661" s="13"/>
     </row>
-    <row r="662" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:8" ht="13">
       <c r="A662" s="47"/>
       <c r="F662" s="11"/>
       <c r="G662" s="12"/>
       <c r="H662" s="13"/>
     </row>
-    <row r="663" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:8" ht="13">
       <c r="A663" s="47"/>
       <c r="F663" s="11"/>
       <c r="G663" s="12"/>
       <c r="H663" s="13"/>
     </row>
-    <row r="664" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:8" ht="13">
       <c r="A664" s="47"/>
       <c r="F664" s="11"/>
       <c r="G664" s="12"/>
       <c r="H664" s="13"/>
     </row>
-    <row r="665" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:8" ht="13">
       <c r="A665" s="47"/>
       <c r="F665" s="11"/>
       <c r="G665" s="12"/>
       <c r="H665" s="13"/>
     </row>
-    <row r="666" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:8" ht="13">
       <c r="A666" s="47"/>
       <c r="F666" s="11"/>
       <c r="G666" s="12"/>
       <c r="H666" s="13"/>
     </row>
-    <row r="667" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:8" ht="13">
       <c r="A667" s="47"/>
       <c r="F667" s="11"/>
       <c r="G667" s="12"/>
       <c r="H667" s="13"/>
     </row>
-    <row r="668" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:8" ht="13">
       <c r="A668" s="47"/>
       <c r="F668" s="11"/>
       <c r="G668" s="12"/>
       <c r="H668" s="13"/>
     </row>
-    <row r="669" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:8" ht="13">
       <c r="A669" s="47"/>
       <c r="F669" s="11"/>
       <c r="G669" s="12"/>
       <c r="H669" s="13"/>
     </row>
-    <row r="670" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:8" ht="13">
       <c r="A670" s="47"/>
       <c r="F670" s="11"/>
       <c r="G670" s="12"/>
       <c r="H670" s="13"/>
     </row>
-    <row r="671" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:8" ht="13">
       <c r="A671" s="47"/>
       <c r="F671" s="11"/>
       <c r="G671" s="12"/>
       <c r="H671" s="13"/>
     </row>
-    <row r="672" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:8" ht="13">
       <c r="A672" s="47"/>
       <c r="F672" s="11"/>
       <c r="G672" s="12"/>
       <c r="H672" s="13"/>
     </row>
-    <row r="673" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:8" ht="13">
       <c r="A673" s="47"/>
       <c r="F673" s="11"/>
       <c r="G673" s="12"/>
       <c r="H673" s="13"/>
     </row>
-    <row r="674" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:8" ht="13">
       <c r="A674" s="47"/>
       <c r="F674" s="11"/>
       <c r="G674" s="12"/>
       <c r="H674" s="13"/>
     </row>
-    <row r="675" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:8" ht="13">
       <c r="A675" s="47"/>
       <c r="F675" s="11"/>
       <c r="G675" s="12"/>
       <c r="H675" s="13"/>
     </row>
-    <row r="676" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:8" ht="13">
       <c r="A676" s="47"/>
       <c r="F676" s="11"/>
       <c r="G676" s="12"/>
       <c r="H676" s="13"/>
     </row>
-    <row r="677" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:8" ht="13">
       <c r="A677" s="47"/>
       <c r="F677" s="11"/>
       <c r="G677" s="12"/>
       <c r="H677" s="13"/>
     </row>
-    <row r="678" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:8" ht="13">
       <c r="A678" s="47"/>
       <c r="F678" s="11"/>
       <c r="G678" s="12"/>
       <c r="H678" s="13"/>
     </row>
-    <row r="679" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:8" ht="13">
       <c r="A679" s="47"/>
       <c r="F679" s="11"/>
       <c r="G679" s="12"/>
       <c r="H679" s="13"/>
     </row>
-    <row r="680" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:8" ht="13">
       <c r="A680" s="47"/>
       <c r="F680" s="11"/>
       <c r="G680" s="12"/>
       <c r="H680" s="13"/>
     </row>
-    <row r="681" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:8" ht="13">
       <c r="A681" s="47"/>
       <c r="F681" s="11"/>
       <c r="G681" s="12"/>
       <c r="H681" s="13"/>
     </row>
-    <row r="682" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:8" ht="13">
       <c r="A682" s="47"/>
       <c r="F682" s="11"/>
       <c r="G682" s="12"/>
       <c r="H682" s="13"/>
     </row>
-    <row r="683" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:8" ht="13">
       <c r="A683" s="47"/>
       <c r="F683" s="11"/>
       <c r="G683" s="12"/>
       <c r="H683" s="13"/>
     </row>
-    <row r="684" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:8" ht="13">
       <c r="A684" s="47"/>
       <c r="F684" s="11"/>
       <c r="G684" s="12"/>
       <c r="H684" s="13"/>
     </row>
-    <row r="685" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:8" ht="13">
       <c r="A685" s="47"/>
       <c r="F685" s="11"/>
       <c r="G685" s="12"/>
       <c r="H685" s="13"/>
     </row>
-    <row r="686" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:8" ht="13">
       <c r="A686" s="47"/>
       <c r="F686" s="11"/>
       <c r="G686" s="12"/>
       <c r="H686" s="13"/>
     </row>
-    <row r="687" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:8" ht="13">
       <c r="A687" s="47"/>
       <c r="F687" s="11"/>
       <c r="G687" s="12"/>
       <c r="H687" s="13"/>
     </row>
-    <row r="688" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:8" ht="13">
       <c r="A688" s="47"/>
       <c r="F688" s="11"/>
       <c r="G688" s="12"/>
       <c r="H688" s="13"/>
     </row>
-    <row r="689" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:8" ht="13">
       <c r="A689" s="47"/>
       <c r="F689" s="11"/>
       <c r="G689" s="12"/>
       <c r="H689" s="13"/>
     </row>
-    <row r="690" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:8" ht="13">
       <c r="A690" s="47"/>
       <c r="F690" s="11"/>
       <c r="G690" s="12"/>
       <c r="H690" s="13"/>
     </row>
-    <row r="691" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:8" ht="13">
       <c r="A691" s="47"/>
       <c r="F691" s="11"/>
       <c r="G691" s="12"/>
       <c r="H691" s="13"/>
     </row>
-    <row r="692" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:8" ht="13">
       <c r="A692" s="47"/>
       <c r="F692" s="11"/>
       <c r="G692" s="12"/>
       <c r="H692" s="13"/>
     </row>
-    <row r="693" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:8" ht="13">
       <c r="A693" s="47"/>
       <c r="F693" s="11"/>
       <c r="G693" s="12"/>
       <c r="H693" s="13"/>
     </row>
-    <row r="694" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:8" ht="13">
       <c r="A694" s="47"/>
       <c r="F694" s="11"/>
       <c r="G694" s="12"/>
       <c r="H694" s="13"/>
     </row>
-    <row r="695" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:8" ht="13">
       <c r="A695" s="47"/>
       <c r="F695" s="11"/>
       <c r="G695" s="12"/>
       <c r="H695" s="13"/>
     </row>
-    <row r="696" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:8" ht="13">
       <c r="A696" s="47"/>
       <c r="F696" s="11"/>
       <c r="G696" s="12"/>
       <c r="H696" s="13"/>
     </row>
-    <row r="697" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:8" ht="13">
       <c r="A697" s="47"/>
       <c r="F697" s="11"/>
       <c r="G697" s="12"/>
       <c r="H697" s="13"/>
     </row>
-    <row r="698" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:8" ht="13">
       <c r="A698" s="47"/>
       <c r="F698" s="11"/>
       <c r="G698" s="12"/>
       <c r="H698" s="13"/>
     </row>
-    <row r="699" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:8" ht="13">
       <c r="A699" s="47"/>
       <c r="F699" s="11"/>
       <c r="G699" s="12"/>
       <c r="H699" s="13"/>
     </row>
-    <row r="700" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:8" ht="13">
       <c r="A700" s="47"/>
       <c r="F700" s="11"/>
       <c r="G700" s="12"/>
       <c r="H700" s="13"/>
     </row>
-    <row r="701" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:8" ht="13">
       <c r="A701" s="47"/>
       <c r="F701" s="11"/>
       <c r="G701" s="12"/>
       <c r="H701" s="13"/>
     </row>
-    <row r="702" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:8" ht="13">
       <c r="A702" s="47"/>
       <c r="F702" s="11"/>
       <c r="G702" s="12"/>
       <c r="H702" s="13"/>
     </row>
-    <row r="703" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:8" ht="13">
       <c r="A703" s="47"/>
       <c r="F703" s="11"/>
       <c r="G703" s="12"/>
       <c r="H703" s="13"/>
     </row>
-    <row r="704" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:8" ht="13">
       <c r="A704" s="47"/>
       <c r="F704" s="11"/>
       <c r="G704" s="12"/>
       <c r="H704" s="13"/>
     </row>
-    <row r="705" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:8" ht="13">
       <c r="A705" s="47"/>
       <c r="F705" s="11"/>
       <c r="G705" s="12"/>
       <c r="H705" s="13"/>
     </row>
-    <row r="706" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:8" ht="13">
       <c r="A706" s="47"/>
       <c r="F706" s="11"/>
       <c r="G706" s="12"/>
       <c r="H706" s="13"/>
     </row>
-    <row r="707" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:8" ht="13">
       <c r="A707" s="47"/>
       <c r="F707" s="11"/>
       <c r="G707" s="12"/>
       <c r="H707" s="13"/>
     </row>
-    <row r="708" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:8" ht="13">
       <c r="A708" s="47"/>
       <c r="F708" s="11"/>
       <c r="G708" s="12"/>
       <c r="H708" s="13"/>
     </row>
-    <row r="709" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:8" ht="13">
       <c r="A709" s="47"/>
       <c r="F709" s="11"/>
       <c r="G709" s="12"/>
       <c r="H709" s="13"/>
     </row>
-    <row r="710" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="710" spans="1:8" ht="13">
       <c r="A710" s="47"/>
       <c r="F710" s="11"/>
       <c r="G710" s="12"/>
       <c r="H710" s="13"/>
     </row>
-    <row r="711" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="711" spans="1:8" ht="13">
       <c r="A711" s="47"/>
       <c r="F711" s="11"/>
       <c r="G711" s="12"/>
       <c r="H711" s="13"/>
     </row>
-    <row r="712" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="712" spans="1:8" ht="13">
       <c r="A712" s="47"/>
       <c r="F712" s="11"/>
       <c r="G712" s="12"/>
       <c r="H712" s="13"/>
     </row>
-    <row r="713" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="713" spans="1:8" ht="13">
       <c r="A713" s="47"/>
       <c r="F713" s="11"/>
       <c r="G713" s="12"/>
       <c r="H713" s="13"/>
     </row>
-    <row r="714" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="714" spans="1:8" ht="13">
       <c r="A714" s="47"/>
       <c r="F714" s="11"/>
       <c r="G714" s="12"/>
       <c r="H714" s="13"/>
     </row>
-    <row r="715" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="715" spans="1:8" ht="13">
       <c r="A715" s="47"/>
       <c r="F715" s="11"/>
       <c r="G715" s="12"/>
       <c r="H715" s="13"/>
     </row>
-    <row r="716" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="716" spans="1:8" ht="13">
       <c r="A716" s="47"/>
       <c r="F716" s="11"/>
       <c r="G716" s="12"/>
       <c r="H716" s="13"/>
     </row>
-    <row r="717" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="717" spans="1:8" ht="13">
       <c r="A717" s="47"/>
       <c r="F717" s="11"/>
       <c r="G717" s="12"/>
       <c r="H717" s="13"/>
     </row>
-    <row r="718" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="718" spans="1:8" ht="13">
       <c r="A718" s="47"/>
       <c r="F718" s="11"/>
       <c r="G718" s="12"/>
       <c r="H718" s="13"/>
     </row>
-    <row r="719" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="719" spans="1:8" ht="13">
       <c r="A719" s="47"/>
       <c r="F719" s="11"/>
       <c r="G719" s="12"/>
       <c r="H719" s="13"/>
     </row>
-    <row r="720" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="720" spans="1:8" ht="13">
       <c r="A720" s="47"/>
       <c r="F720" s="11"/>
       <c r="G720" s="12"/>
       <c r="H720" s="13"/>
     </row>
-    <row r="721" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="721" spans="1:8" ht="13">
       <c r="A721" s="47"/>
       <c r="F721" s="11"/>
       <c r="G721" s="12"/>
       <c r="H721" s="13"/>
     </row>
-    <row r="722" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="722" spans="1:8" ht="13">
       <c r="A722" s="47"/>
       <c r="F722" s="11"/>
       <c r="G722" s="12"/>
       <c r="H722" s="13"/>
     </row>
-    <row r="723" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="723" spans="1:8" ht="13">
       <c r="A723" s="47"/>
       <c r="F723" s="11"/>
       <c r="G723" s="12"/>
       <c r="H723" s="13"/>
     </row>
-    <row r="724" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="724" spans="1:8" ht="13">
       <c r="A724" s="47"/>
       <c r="F724" s="11"/>
       <c r="G724" s="12"/>
       <c r="H724" s="13"/>
     </row>
-    <row r="725" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="725" spans="1:8" ht="13">
       <c r="A725" s="47"/>
       <c r="F725" s="11"/>
       <c r="G725" s="12"/>
       <c r="H725" s="13"/>
     </row>
-    <row r="726" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="726" spans="1:8" ht="13">
       <c r="A726" s="47"/>
       <c r="F726" s="11"/>
       <c r="G726" s="12"/>
       <c r="H726" s="13"/>
     </row>
-    <row r="727" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="727" spans="1:8" ht="13">
       <c r="A727" s="47"/>
       <c r="F727" s="11"/>
       <c r="G727" s="12"/>
       <c r="H727" s="13"/>
     </row>
-    <row r="728" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="728" spans="1:8" ht="13">
       <c r="A728" s="47"/>
       <c r="F728" s="11"/>
       <c r="G728" s="12"/>
       <c r="H728" s="13"/>
     </row>
-    <row r="729" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="729" spans="1:8" ht="13">
       <c r="A729" s="47"/>
       <c r="F729" s="11"/>
       <c r="G729" s="12"/>
       <c r="H729" s="13"/>
     </row>
-    <row r="730" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="730" spans="1:8" ht="13">
       <c r="A730" s="47"/>
       <c r="F730" s="11"/>
       <c r="G730" s="12"/>
       <c r="H730" s="13"/>
     </row>
-    <row r="731" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="731" spans="1:8" ht="13">
       <c r="A731" s="47"/>
       <c r="F731" s="11"/>
       <c r="G731" s="12"/>
       <c r="H731" s="13"/>
     </row>
-    <row r="732" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="732" spans="1:8" ht="13">
       <c r="A732" s="47"/>
       <c r="F732" s="11"/>
       <c r="G732" s="12"/>
       <c r="H732" s="13"/>
     </row>
-    <row r="733" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="733" spans="1:8" ht="13">
       <c r="A733" s="47"/>
       <c r="F733" s="11"/>
       <c r="G733" s="12"/>
       <c r="H733" s="13"/>
     </row>
-    <row r="734" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="734" spans="1:8" ht="13">
       <c r="A734" s="47"/>
       <c r="F734" s="11"/>
       <c r="G734" s="12"/>
       <c r="H734" s="13"/>
     </row>
-    <row r="735" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="735" spans="1:8" ht="13">
       <c r="A735" s="47"/>
       <c r="F735" s="11"/>
       <c r="G735" s="12"/>
       <c r="H735" s="13"/>
     </row>
-    <row r="736" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="736" spans="1:8" ht="13">
       <c r="A736" s="47"/>
       <c r="F736" s="11"/>
       <c r="G736" s="12"/>
       <c r="H736" s="13"/>
     </row>
-    <row r="737" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="737" spans="1:8" ht="13">
       <c r="A737" s="47"/>
       <c r="F737" s="11"/>
       <c r="G737" s="12"/>
       <c r="H737" s="13"/>
     </row>
-    <row r="738" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="738" spans="1:8" ht="13">
       <c r="A738" s="47"/>
       <c r="F738" s="11"/>
       <c r="G738" s="12"/>
       <c r="H738" s="13"/>
     </row>
-    <row r="739" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="739" spans="1:8" ht="13">
       <c r="A739" s="47"/>
       <c r="F739" s="11"/>
       <c r="G739" s="12"/>
       <c r="H739" s="13"/>
     </row>
-    <row r="740" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="740" spans="1:8" ht="13">
       <c r="A740" s="47"/>
       <c r="F740" s="11"/>
       <c r="G740" s="12"/>
       <c r="H740" s="13"/>
     </row>
-    <row r="741" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="741" spans="1:8" ht="13">
       <c r="A741" s="47"/>
       <c r="F741" s="11"/>
       <c r="G741" s="12"/>
       <c r="H741" s="13"/>
     </row>
-    <row r="742" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="742" spans="1:8" ht="13">
       <c r="A742" s="47"/>
       <c r="F742" s="11"/>
       <c r="G742" s="12"/>
       <c r="H742" s="13"/>
     </row>
-    <row r="743" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="743" spans="1:8" ht="13">
       <c r="A743" s="47"/>
       <c r="F743" s="11"/>
       <c r="G743" s="12"/>
       <c r="H743" s="13"/>
     </row>
-    <row r="744" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="744" spans="1:8" ht="13">
       <c r="A744" s="47"/>
       <c r="F744" s="11"/>
       <c r="G744" s="12"/>
       <c r="H744" s="13"/>
     </row>
-    <row r="745" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="745" spans="1:8" ht="13">
       <c r="A745" s="47"/>
       <c r="F745" s="11"/>
       <c r="G745" s="12"/>
       <c r="H745" s="13"/>
     </row>
-    <row r="746" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="746" spans="1:8" ht="13">
       <c r="A746" s="47"/>
       <c r="F746" s="11"/>
       <c r="G746" s="12"/>
       <c r="H746" s="13"/>
     </row>
-    <row r="747" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="747" spans="1:8" ht="13">
       <c r="A747" s="47"/>
       <c r="F747" s="11"/>
       <c r="G747" s="12"/>
       <c r="H747" s="13"/>
     </row>
-    <row r="748" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="748" spans="1:8" ht="13">
       <c r="A748" s="47"/>
       <c r="F748" s="11"/>
       <c r="G748" s="12"/>
       <c r="H748" s="13"/>
     </row>
-    <row r="749" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="749" spans="1:8" ht="13">
       <c r="A749" s="47"/>
       <c r="F749" s="11"/>
       <c r="G749" s="12"/>
       <c r="H749" s="13"/>
     </row>
-    <row r="750" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="750" spans="1:8" ht="13">
       <c r="A750" s="47"/>
       <c r="F750" s="11"/>
       <c r="G750" s="12"/>
       <c r="H750" s="13"/>
     </row>
-    <row r="751" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="751" spans="1:8" ht="13">
       <c r="A751" s="47"/>
       <c r="F751" s="11"/>
       <c r="G751" s="12"/>
       <c r="H751" s="13"/>
     </row>
-    <row r="752" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="752" spans="1:8" ht="13">
       <c r="A752" s="47"/>
       <c r="F752" s="11"/>
       <c r="G752" s="12"/>
       <c r="H752" s="13"/>
     </row>
-    <row r="753" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="753" spans="1:8" ht="13">
       <c r="A753" s="47"/>
       <c r="F753" s="11"/>
       <c r="G753" s="12"/>
       <c r="H753" s="13"/>
     </row>
-    <row r="754" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="754" spans="1:8" ht="13">
       <c r="A754" s="47"/>
       <c r="F754" s="11"/>
       <c r="G754" s="12"/>
       <c r="H754" s="13"/>
     </row>
-    <row r="755" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="755" spans="1:8" ht="13">
       <c r="A755" s="47"/>
       <c r="F755" s="11"/>
       <c r="G755" s="12"/>
       <c r="H755" s="13"/>
     </row>
-    <row r="756" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="756" spans="1:8" ht="13">
       <c r="A756" s="47"/>
       <c r="F756" s="11"/>
       <c r="G756" s="12"/>
       <c r="H756" s="13"/>
     </row>
-    <row r="757" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="757" spans="1:8" ht="13">
       <c r="A757" s="47"/>
       <c r="F757" s="11"/>
       <c r="G757" s="12"/>
       <c r="H757" s="13"/>
     </row>
-    <row r="758" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="758" spans="1:8" ht="13">
       <c r="A758" s="47"/>
       <c r="F758" s="11"/>
       <c r="G758" s="12"/>
       <c r="H758" s="13"/>
     </row>
-    <row r="759" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="759" spans="1:8" ht="13">
       <c r="A759" s="47"/>
       <c r="F759" s="11"/>
       <c r="G759" s="12"/>
       <c r="H759" s="13"/>
     </row>
-    <row r="760" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="760" spans="1:8" ht="13">
       <c r="A760" s="47"/>
       <c r="F760" s="11"/>
       <c r="G760" s="12"/>
       <c r="H760" s="13"/>
     </row>
-    <row r="761" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="761" spans="1:8" ht="13">
       <c r="A761" s="47"/>
       <c r="F761" s="11"/>
       <c r="G761" s="12"/>
       <c r="H761" s="13"/>
     </row>
-    <row r="762" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="762" spans="1:8" ht="13">
       <c r="A762" s="47"/>
       <c r="F762" s="11"/>
       <c r="G762" s="12"/>
       <c r="H762" s="13"/>
     </row>
-    <row r="763" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="763" spans="1:8" ht="13">
       <c r="A763" s="47"/>
       <c r="F763" s="11"/>
       <c r="G763" s="12"/>
       <c r="H763" s="13"/>
     </row>
-    <row r="764" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="764" spans="1:8" ht="13">
       <c r="A764" s="47"/>
       <c r="F764" s="11"/>
       <c r="G764" s="12"/>
       <c r="H764" s="13"/>
     </row>
-    <row r="765" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="765" spans="1:8" ht="13">
       <c r="A765" s="47"/>
       <c r="F765" s="11"/>
       <c r="G765" s="12"/>
       <c r="H765" s="13"/>
     </row>
-    <row r="766" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="766" spans="1:8" ht="13">
       <c r="A766" s="47"/>
       <c r="F766" s="11"/>
       <c r="G766" s="12"/>
       <c r="H766" s="13"/>
     </row>
-    <row r="767" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="767" spans="1:8" ht="13">
       <c r="A767" s="47"/>
       <c r="F767" s="11"/>
       <c r="G767" s="12"/>
       <c r="H767" s="13"/>
     </row>
-    <row r="768" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="768" spans="1:8" ht="13">
       <c r="A768" s="47"/>
       <c r="F768" s="11"/>
       <c r="G768" s="12"/>
       <c r="H768" s="13"/>
     </row>
-    <row r="769" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="769" spans="1:8" ht="13">
       <c r="A769" s="47"/>
       <c r="F769" s="11"/>
       <c r="G769" s="12"/>
       <c r="H769" s="13"/>
     </row>
-    <row r="770" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="770" spans="1:8" ht="13">
       <c r="A770" s="47"/>
       <c r="F770" s="11"/>
       <c r="G770" s="12"/>
       <c r="H770" s="13"/>
     </row>
-    <row r="771" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="771" spans="1:8" ht="13">
       <c r="A771" s="47"/>
       <c r="F771" s="11"/>
       <c r="G771" s="12"/>
       <c r="H771" s="13"/>
     </row>
-    <row r="772" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="772" spans="1:8" ht="13">
       <c r="A772" s="47"/>
       <c r="F772" s="11"/>
       <c r="G772" s="12"/>
       <c r="H772" s="13"/>
     </row>
-    <row r="773" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="773" spans="1:8" ht="13">
       <c r="A773" s="47"/>
       <c r="F773" s="11"/>
       <c r="G773" s="12"/>
       <c r="H773" s="13"/>
     </row>
-    <row r="774" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="774" spans="1:8" ht="13">
       <c r="A774" s="47"/>
       <c r="F774" s="11"/>
       <c r="G774" s="12"/>
       <c r="H774" s="13"/>
     </row>
-    <row r="775" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="775" spans="1:8" ht="13">
       <c r="A775" s="47"/>
       <c r="F775" s="11"/>
       <c r="G775" s="12"/>
       <c r="H775" s="13"/>
     </row>
-    <row r="776" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="776" spans="1:8" ht="13">
       <c r="A776" s="47"/>
       <c r="F776" s="11"/>
       <c r="G776" s="12"/>
       <c r="H776" s="13"/>
     </row>
-    <row r="777" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="777" spans="1:8" ht="13">
       <c r="A777" s="47"/>
       <c r="F777" s="11"/>
       <c r="G777" s="12"/>
       <c r="H777" s="13"/>
     </row>
-    <row r="778" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="778" spans="1:8" ht="13">
       <c r="A778" s="47"/>
       <c r="F778" s="11"/>
       <c r="G778" s="12"/>
       <c r="H778" s="13"/>
     </row>
-    <row r="779" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="779" spans="1:8" ht="13">
       <c r="A779" s="47"/>
       <c r="F779" s="11"/>
       <c r="G779" s="12"/>
       <c r="H779" s="13"/>
     </row>
-    <row r="780" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="780" spans="1:8" ht="13">
       <c r="A780" s="47"/>
       <c r="F780" s="11"/>
       <c r="G780" s="12"/>
       <c r="H780" s="13"/>
     </row>
-    <row r="781" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="781" spans="1:8" ht="13">
       <c r="A781" s="47"/>
       <c r="F781" s="11"/>
       <c r="G781" s="12"/>
       <c r="H781" s="13"/>
     </row>
-    <row r="782" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="782" spans="1:8" ht="13">
       <c r="A782" s="47"/>
       <c r="F782" s="11"/>
       <c r="G782" s="12"/>
       <c r="H782" s="13"/>
     </row>
-    <row r="783" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="783" spans="1:8" ht="13">
       <c r="A783" s="47"/>
       <c r="F783" s="11"/>
       <c r="G783" s="12"/>
       <c r="H783" s="13"/>
     </row>
-    <row r="784" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="784" spans="1:8" ht="13">
       <c r="A784" s="47"/>
       <c r="F784" s="11"/>
       <c r="G784" s="12"/>
       <c r="H784" s="13"/>
     </row>
-    <row r="785" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="785" spans="1:8" ht="13">
       <c r="A785" s="47"/>
       <c r="F785" s="11"/>
       <c r="G785" s="12"/>
       <c r="H785" s="13"/>
     </row>
-    <row r="786" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="786" spans="1:8" ht="13">
       <c r="A786" s="47"/>
       <c r="F786" s="11"/>
       <c r="G786" s="12"/>
       <c r="H786" s="13"/>
     </row>
-    <row r="787" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="787" spans="1:8" ht="13">
       <c r="A787" s="47"/>
       <c r="F787" s="11"/>
       <c r="G787" s="12"/>
       <c r="H787" s="13"/>
     </row>
-    <row r="788" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="788" spans="1:8" ht="13">
       <c r="A788" s="47"/>
       <c r="F788" s="11"/>
       <c r="G788" s="12"/>
       <c r="H788" s="13"/>
     </row>
-    <row r="789" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="789" spans="1:8" ht="13">
       <c r="A789" s="47"/>
       <c r="F789" s="11"/>
       <c r="G789" s="12"/>
       <c r="H789" s="13"/>
     </row>
-    <row r="790" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="790" spans="1:8" ht="13">
       <c r="A790" s="47"/>
       <c r="F790" s="11"/>
       <c r="G790" s="12"/>
       <c r="H790" s="13"/>
     </row>
-    <row r="791" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="791" spans="1:8" ht="13">
       <c r="A791" s="47"/>
       <c r="F791" s="11"/>
       <c r="G791" s="12"/>
       <c r="H791" s="13"/>
     </row>
-    <row r="792" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="792" spans="1:8" ht="13">
       <c r="A792" s="47"/>
       <c r="F792" s="11"/>
       <c r="G792" s="12"/>
       <c r="H792" s="13"/>
     </row>
-    <row r="793" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="793" spans="1:8" ht="13">
       <c r="A793" s="47"/>
       <c r="F793" s="11"/>
       <c r="G793" s="12"/>
       <c r="H793" s="13"/>
     </row>
-    <row r="794" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="794" spans="1:8" ht="13">
       <c r="A794" s="47"/>
       <c r="F794" s="11"/>
       <c r="G794" s="12"/>
       <c r="H794" s="13"/>
     </row>
-    <row r="795" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="795" spans="1:8" ht="13">
       <c r="A795" s="47"/>
       <c r="F795" s="11"/>
       <c r="G795" s="12"/>
       <c r="H795" s="13"/>
     </row>
-    <row r="796" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="796" spans="1:8" ht="13">
       <c r="A796" s="47"/>
       <c r="F796" s="11"/>
       <c r="G796" s="12"/>
       <c r="H796" s="13"/>
     </row>
-    <row r="797" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="797" spans="1:8" ht="13">
       <c r="A797" s="47"/>
       <c r="F797" s="11"/>
       <c r="G797" s="12"/>
       <c r="H797" s="13"/>
     </row>
-    <row r="798" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="798" spans="1:8" ht="13">
       <c r="A798" s="47"/>
       <c r="F798" s="11"/>
       <c r="G798" s="12"/>
       <c r="H798" s="13"/>
     </row>
-    <row r="799" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="799" spans="1:8" ht="13">
       <c r="A799" s="47"/>
       <c r="F799" s="11"/>
       <c r="G799" s="12"/>
       <c r="H799" s="13"/>
     </row>
-    <row r="800" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="800" spans="1:8" ht="13">
       <c r="A800" s="47"/>
       <c r="F800" s="11"/>
       <c r="G800" s="12"/>
       <c r="H800" s="13"/>
     </row>
-    <row r="801" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="801" spans="1:8" ht="13">
       <c r="A801" s="47"/>
       <c r="F801" s="11"/>
       <c r="G801" s="12"/>
       <c r="H801" s="13"/>
     </row>
-    <row r="802" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="802" spans="1:8" ht="13">
       <c r="A802" s="47"/>
       <c r="F802" s="11"/>
       <c r="G802" s="12"/>
       <c r="H802" s="13"/>
     </row>
-    <row r="803" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="803" spans="1:8" ht="13">
       <c r="A803" s="47"/>
       <c r="F803" s="11"/>
       <c r="G803" s="12"/>
       <c r="H803" s="13"/>
     </row>
-    <row r="804" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="804" spans="1:8" ht="13">
       <c r="A804" s="47"/>
       <c r="F804" s="11"/>
       <c r="G804" s="12"/>
       <c r="H804" s="13"/>
     </row>
-    <row r="805" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="805" spans="1:8" ht="13">
       <c r="A805" s="47"/>
       <c r="F805" s="11"/>
       <c r="G805" s="12"/>
       <c r="H805" s="13"/>
     </row>
-    <row r="806" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="806" spans="1:8" ht="13">
       <c r="A806" s="47"/>
       <c r="F806" s="11"/>
       <c r="G806" s="12"/>
       <c r="H806" s="13"/>
     </row>
-    <row r="807" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="807" spans="1:8" ht="13">
       <c r="A807" s="47"/>
       <c r="F807" s="11"/>
       <c r="G807" s="12"/>
       <c r="H807" s="13"/>
     </row>
-    <row r="808" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="808" spans="1:8" ht="13">
       <c r="A808" s="47"/>
       <c r="F808" s="11"/>
       <c r="G808" s="12"/>
       <c r="H808" s="13"/>
     </row>
-    <row r="809" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="809" spans="1:8" ht="13">
       <c r="A809" s="47"/>
       <c r="F809" s="11"/>
       <c r="G809" s="12"/>
       <c r="H809" s="13"/>
     </row>
-    <row r="810" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="810" spans="1:8" ht="13">
       <c r="A810" s="47"/>
       <c r="F810" s="11"/>
       <c r="G810" s="12"/>
       <c r="H810" s="13"/>
     </row>
-    <row r="811" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="811" spans="1:8" ht="13">
       <c r="A811" s="47"/>
       <c r="F811" s="11"/>
       <c r="G811" s="12"/>
       <c r="H811" s="13"/>
     </row>
-    <row r="812" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="812" spans="1:8" ht="13">
       <c r="A812" s="47"/>
       <c r="F812" s="11"/>
       <c r="G812" s="12"/>
       <c r="H812" s="13"/>
     </row>
-    <row r="813" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="813" spans="1:8" ht="13">
       <c r="A813" s="47"/>
       <c r="F813" s="11"/>
       <c r="G813" s="12"/>
       <c r="H813" s="13"/>
     </row>
-    <row r="814" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="814" spans="1:8" ht="13">
       <c r="A814" s="47"/>
       <c r="F814" s="11"/>
       <c r="G814" s="12"/>
       <c r="H814" s="13"/>
     </row>
-    <row r="815" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="815" spans="1:8" ht="13">
       <c r="A815" s="47"/>
       <c r="F815" s="11"/>
       <c r="G815" s="12"/>
       <c r="H815" s="13"/>
     </row>
-    <row r="816" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="816" spans="1:8" ht="13">
       <c r="A816" s="47"/>
       <c r="F816" s="11"/>
       <c r="G816" s="12"/>
       <c r="H816" s="13"/>
     </row>
-    <row r="817" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="817" spans="1:8" ht="13">
       <c r="A817" s="47"/>
       <c r="F817" s="11"/>
       <c r="G817" s="12"/>
       <c r="H817" s="13"/>
     </row>
-    <row r="818" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="818" spans="1:8" ht="13">
       <c r="A818" s="47"/>
       <c r="F818" s="11"/>
       <c r="G818" s="12"/>
       <c r="H818" s="13"/>
     </row>
-    <row r="819" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="819" spans="1:8" ht="13">
       <c r="A819" s="47"/>
       <c r="F819" s="11"/>
       <c r="G819" s="12"/>
       <c r="H819" s="13"/>
     </row>
-    <row r="820" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="820" spans="1:8" ht="13">
       <c r="A820" s="47"/>
       <c r="F820" s="11"/>
       <c r="G820" s="12"/>
       <c r="H820" s="13"/>
     </row>
-    <row r="821" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="821" spans="1:8" ht="13">
       <c r="A821" s="47"/>
       <c r="F821" s="11"/>
       <c r="G821" s="12"/>
       <c r="H821" s="13"/>
     </row>
-    <row r="822" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="822" spans="1:8" ht="13">
       <c r="A822" s="47"/>
       <c r="F822" s="11"/>
       <c r="G822" s="12"/>
       <c r="H822" s="13"/>
     </row>
-    <row r="823" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="823" spans="1:8" ht="13">
       <c r="A823" s="47"/>
       <c r="F823" s="11"/>
       <c r="G823" s="12"/>
       <c r="H823" s="13"/>
     </row>
-    <row r="824" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="824" spans="1:8" ht="13">
       <c r="A824" s="47"/>
       <c r="F824" s="11"/>
       <c r="G824" s="12"/>
       <c r="H824" s="13"/>
     </row>
-    <row r="825" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="825" spans="1:8" ht="13">
       <c r="A825" s="47"/>
       <c r="F825" s="11"/>
       <c r="G825" s="12"/>
       <c r="H825" s="13"/>
     </row>
-    <row r="826" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="826" spans="1:8" ht="13">
       <c r="A826" s="47"/>
       <c r="F826" s="11"/>
       <c r="G826" s="12"/>
       <c r="H826" s="13"/>
     </row>
-    <row r="827" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="827" spans="1:8" ht="13">
       <c r="A827" s="47"/>
       <c r="F827" s="11"/>
       <c r="G827" s="12"/>
       <c r="H827" s="13"/>
     </row>
-    <row r="828" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="828" spans="1:8" ht="13">
       <c r="A828" s="47"/>
       <c r="F828" s="11"/>
       <c r="G828" s="12"/>
       <c r="H828" s="13"/>
     </row>
-    <row r="829" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="829" spans="1:8" ht="13">
       <c r="A829" s="47"/>
       <c r="F829" s="11"/>
       <c r="G829" s="12"/>
       <c r="H829" s="13"/>
     </row>
-    <row r="830" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="830" spans="1:8" ht="13">
       <c r="A830" s="47"/>
       <c r="F830" s="11"/>
       <c r="G830" s="12"/>
       <c r="H830" s="13"/>
     </row>
-    <row r="831" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="831" spans="1:8" ht="13">
       <c r="A831" s="47"/>
       <c r="F831" s="11"/>
       <c r="G831" s="12"/>
       <c r="H831" s="13"/>
     </row>
-    <row r="832" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="832" spans="1:8" ht="13">
       <c r="A832" s="47"/>
       <c r="F832" s="11"/>
       <c r="G832" s="12"/>
       <c r="H832" s="13"/>
     </row>
-    <row r="833" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="833" spans="1:8" ht="13">
       <c r="A833" s="47"/>
       <c r="F833" s="11"/>
       <c r="G833" s="12"/>
       <c r="H833" s="13"/>
     </row>
-    <row r="834" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="834" spans="1:8" ht="13">
       <c r="A834" s="47"/>
       <c r="F834" s="11"/>
       <c r="G834" s="12"/>
       <c r="H834" s="13"/>
     </row>
-    <row r="835" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="835" spans="1:8" ht="13">
       <c r="A835" s="47"/>
       <c r="F835" s="11"/>
       <c r="G835" s="12"/>
       <c r="H835" s="13"/>
     </row>
-    <row r="836" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="836" spans="1:8" ht="13">
       <c r="A836" s="47"/>
       <c r="F836" s="11"/>
       <c r="G836" s="12"/>
       <c r="H836" s="13"/>
     </row>
-    <row r="837" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="837" spans="1:8" ht="13">
       <c r="A837" s="47"/>
       <c r="F837" s="11"/>
       <c r="G837" s="12"/>
       <c r="H837" s="13"/>
     </row>
-    <row r="838" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="838" spans="1:8" ht="13">
       <c r="A838" s="47"/>
       <c r="F838" s="11"/>
       <c r="G838" s="12"/>
       <c r="H838" s="13"/>
     </row>
-    <row r="839" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="839" spans="1:8" ht="13">
       <c r="A839" s="47"/>
       <c r="F839" s="11"/>
       <c r="G839" s="12"/>
       <c r="H839" s="13"/>
     </row>
-    <row r="840" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="840" spans="1:8" ht="13">
       <c r="A840" s="47"/>
       <c r="F840" s="11"/>
       <c r="G840" s="12"/>
       <c r="H840" s="13"/>
     </row>
-    <row r="841" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="841" spans="1:8" ht="13">
       <c r="A841" s="47"/>
       <c r="F841" s="11"/>
       <c r="G841" s="12"/>
       <c r="H841" s="13"/>
     </row>
-    <row r="842" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="842" spans="1:8" ht="13">
       <c r="A842" s="47"/>
       <c r="F842" s="11"/>
       <c r="G842" s="12"/>
       <c r="H842" s="13"/>
     </row>
-    <row r="843" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="843" spans="1:8" ht="13">
       <c r="A843" s="47"/>
       <c r="F843" s="11"/>
       <c r="G843" s="12"/>
       <c r="H843" s="13"/>
     </row>
-    <row r="844" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="844" spans="1:8" ht="13">
       <c r="A844" s="47"/>
       <c r="F844" s="11"/>
       <c r="G844" s="12"/>
       <c r="H844" s="13"/>
     </row>
-    <row r="845" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="845" spans="1:8" ht="13">
       <c r="A845" s="47"/>
       <c r="F845" s="11"/>
       <c r="G845" s="12"/>
       <c r="H845" s="13"/>
     </row>
-    <row r="846" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="846" spans="1:8" ht="13">
       <c r="A846" s="47"/>
       <c r="F846" s="11"/>
       <c r="G846" s="12"/>
       <c r="H846" s="13"/>
     </row>
-    <row r="847" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="847" spans="1:8" ht="13">
       <c r="A847" s="47"/>
       <c r="F847" s="11"/>
       <c r="G847" s="12"/>
       <c r="H847" s="13"/>
     </row>
-    <row r="848" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="848" spans="1:8" ht="13">
       <c r="A848" s="47"/>
       <c r="F848" s="11"/>
       <c r="G848" s="12"/>
       <c r="H848" s="13"/>
     </row>
-    <row r="849" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="849" spans="1:8" ht="13">
       <c r="A849" s="47"/>
       <c r="F849" s="11"/>
       <c r="G849" s="12"/>
       <c r="H849" s="13"/>
     </row>
-    <row r="850" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="850" spans="1:8" ht="13">
       <c r="A850" s="47"/>
       <c r="F850" s="11"/>
       <c r="G850" s="12"/>
       <c r="H850" s="13"/>
     </row>
-    <row r="851" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="851" spans="1:8" ht="13">
       <c r="A851" s="47"/>
       <c r="F851" s="11"/>
       <c r="G851" s="12"/>
       <c r="H851" s="13"/>
     </row>
-    <row r="852" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="852" spans="1:8" ht="13">
       <c r="A852" s="47"/>
       <c r="F852" s="11"/>
       <c r="G852" s="12"/>
       <c r="H852" s="13"/>
     </row>
-    <row r="853" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="853" spans="1:8" ht="13">
       <c r="A853" s="47"/>
       <c r="F853" s="11"/>
       <c r="G853" s="12"/>
       <c r="H853" s="13"/>
     </row>
-    <row r="854" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="854" spans="1:8" ht="13">
       <c r="A854" s="47"/>
       <c r="F854" s="11"/>
       <c r="G854" s="12"/>
       <c r="H854" s="13"/>
     </row>
-    <row r="855" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="855" spans="1:8" ht="13">
       <c r="A855" s="47"/>
       <c r="F855" s="11"/>
       <c r="G855" s="12"/>
       <c r="H855" s="13"/>
     </row>
-    <row r="856" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="856" spans="1:8" ht="13">
       <c r="A856" s="47"/>
       <c r="F856" s="11"/>
       <c r="G856" s="12"/>
       <c r="H856" s="13"/>
     </row>
-    <row r="857" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="857" spans="1:8" ht="13">
       <c r="A857" s="47"/>
       <c r="F857" s="11"/>
       <c r="G857" s="12"/>
       <c r="H857" s="13"/>
     </row>
-    <row r="858" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="858" spans="1:8" ht="13">
       <c r="A858" s="47"/>
       <c r="F858" s="11"/>
       <c r="G858" s="12"/>
       <c r="H858" s="13"/>
     </row>
-    <row r="859" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="859" spans="1:8" ht="13">
       <c r="A859" s="47"/>
       <c r="F859" s="11"/>
       <c r="G859" s="12"/>
       <c r="H859" s="13"/>
     </row>
-    <row r="860" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="860" spans="1:8" ht="13">
       <c r="A860" s="47"/>
       <c r="F860" s="11"/>
       <c r="G860" s="12"/>
       <c r="H860" s="13"/>
     </row>
-    <row r="861" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="861" spans="1:8" ht="13">
       <c r="A861" s="47"/>
       <c r="F861" s="11"/>
       <c r="G861" s="12"/>
       <c r="H861" s="13"/>
     </row>
-    <row r="862" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="862" spans="1:8" ht="13">
       <c r="A862" s="47"/>
       <c r="F862" s="11"/>
       <c r="G862" s="12"/>
       <c r="H862" s="13"/>
     </row>
-    <row r="863" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="863" spans="1:8" ht="13">
       <c r="A863" s="47"/>
       <c r="F863" s="11"/>
       <c r="G863" s="12"/>
       <c r="H863" s="13"/>
     </row>
-    <row r="864" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="864" spans="1:8" ht="13">
       <c r="A864" s="47"/>
       <c r="F864" s="11"/>
       <c r="G864" s="12"/>
       <c r="H864" s="13"/>
     </row>
-    <row r="865" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="865" spans="1:8" ht="13">
       <c r="A865" s="47"/>
       <c r="F865" s="11"/>
       <c r="G865" s="12"/>
       <c r="H865" s="13"/>
     </row>
-    <row r="866" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="866" spans="1:8" ht="13">
       <c r="A866" s="47"/>
       <c r="F866" s="11"/>
       <c r="G866" s="12"/>
       <c r="H866" s="13"/>
     </row>
-    <row r="867" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="867" spans="1:8" ht="13">
       <c r="A867" s="47"/>
       <c r="F867" s="11"/>
       <c r="G867" s="12"/>
       <c r="H867" s="13"/>
     </row>
-    <row r="868" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="868" spans="1:8" ht="13">
       <c r="A868" s="47"/>
       <c r="F868" s="11"/>
       <c r="G868" s="12"/>
       <c r="H868" s="13"/>
     </row>
-    <row r="869" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="869" spans="1:8" ht="13">
       <c r="A869" s="47"/>
       <c r="F869" s="11"/>
       <c r="G869" s="12"/>
       <c r="H869" s="13"/>
     </row>
-    <row r="870" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="870" spans="1:8" ht="13">
       <c r="A870" s="47"/>
       <c r="F870" s="11"/>
       <c r="G870" s="12"/>
       <c r="H870" s="13"/>
     </row>
-    <row r="871" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="871" spans="1:8" ht="13">
       <c r="A871" s="47"/>
       <c r="F871" s="11"/>
       <c r="G871" s="12"/>
       <c r="H871" s="13"/>
     </row>
-    <row r="872" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="872" spans="1:8" ht="13">
       <c r="A872" s="47"/>
       <c r="F872" s="11"/>
       <c r="G872" s="12"/>
       <c r="H872" s="13"/>
     </row>
-    <row r="873" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="873" spans="1:8" ht="13">
       <c r="A873" s="47"/>
       <c r="F873" s="11"/>
       <c r="G873" s="12"/>
       <c r="H873" s="13"/>
     </row>
-    <row r="874" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="874" spans="1:8" ht="13">
       <c r="A874" s="47"/>
       <c r="F874" s="11"/>
       <c r="G874" s="12"/>
       <c r="H874" s="13"/>
     </row>
-    <row r="875" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="875" spans="1:8" ht="13">
       <c r="A875" s="47"/>
       <c r="F875" s="11"/>
       <c r="G875" s="12"/>
       <c r="H875" s="13"/>
     </row>
-    <row r="876" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="876" spans="1:8" ht="13">
       <c r="A876" s="47"/>
       <c r="F876" s="11"/>
       <c r="G876" s="12"/>
       <c r="H876" s="13"/>
     </row>
-    <row r="877" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="877" spans="1:8" ht="13">
       <c r="A877" s="47"/>
       <c r="F877" s="11"/>
       <c r="G877" s="12"/>
       <c r="H877" s="13"/>
     </row>
-    <row r="878" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="878" spans="1:8" ht="13">
       <c r="A878" s="47"/>
       <c r="F878" s="11"/>
       <c r="G878" s="12"/>
       <c r="H878" s="13"/>
     </row>
-    <row r="879" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="879" spans="1:8" ht="13">
       <c r="A879" s="47"/>
       <c r="F879" s="11"/>
       <c r="G879" s="12"/>
       <c r="H879" s="13"/>
     </row>
-    <row r="880" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="880" spans="1:8" ht="13">
       <c r="A880" s="47"/>
       <c r="F880" s="11"/>
       <c r="G880" s="12"/>
       <c r="H880" s="13"/>
     </row>
-    <row r="881" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="881" spans="1:8" ht="13">
       <c r="A881" s="47"/>
       <c r="F881" s="11"/>
       <c r="G881" s="12"/>
       <c r="H881" s="13"/>
     </row>
-    <row r="882" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="882" spans="1:8" ht="13">
       <c r="A882" s="47"/>
       <c r="F882" s="11"/>
       <c r="G882" s="12"/>
       <c r="H882" s="13"/>
     </row>
-    <row r="883" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="883" spans="1:8" ht="13">
       <c r="A883" s="47"/>
       <c r="F883" s="11"/>
       <c r="G883" s="12"/>
       <c r="H883" s="13"/>
     </row>
-    <row r="884" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="884" spans="1:8" ht="13">
       <c r="A884" s="47"/>
       <c r="F884" s="11"/>
       <c r="G884" s="12"/>
       <c r="H884" s="13"/>
     </row>
-    <row r="885" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="885" spans="1:8" ht="13">
       <c r="A885" s="47"/>
       <c r="F885" s="11"/>
       <c r="G885" s="12"/>
       <c r="H885" s="13"/>
     </row>
-    <row r="886" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="886" spans="1:8" ht="13">
       <c r="A886" s="47"/>
       <c r="F886" s="11"/>
       <c r="G886" s="12"/>
       <c r="H886" s="13"/>
     </row>
-    <row r="887" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="887" spans="1:8" ht="13">
       <c r="A887" s="47"/>
       <c r="F887" s="11"/>
       <c r="G887" s="12"/>
       <c r="H887" s="13"/>
     </row>
-    <row r="888" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="888" spans="1:8" ht="13">
       <c r="A888" s="47"/>
       <c r="F888" s="11"/>
       <c r="G888" s="12"/>
       <c r="H888" s="13"/>
     </row>
-    <row r="889" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="889" spans="1:8" ht="13">
       <c r="A889" s="47"/>
       <c r="F889" s="11"/>
       <c r="G889" s="12"/>
       <c r="H889" s="13"/>
     </row>
-    <row r="890" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="890" spans="1:8" ht="13">
       <c r="A890" s="47"/>
       <c r="F890" s="11"/>
       <c r="G890" s="12"/>
       <c r="H890" s="13"/>
     </row>
-    <row r="891" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="891" spans="1:8" ht="13">
       <c r="A891" s="47"/>
       <c r="F891" s="11"/>
       <c r="G891" s="12"/>
       <c r="H891" s="13"/>
     </row>
-    <row r="892" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="892" spans="1:8" ht="13">
       <c r="A892" s="47"/>
       <c r="F892" s="11"/>
       <c r="G892" s="12"/>
       <c r="H892" s="13"/>
     </row>
-    <row r="893" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="893" spans="1:8" ht="13">
       <c r="A893" s="47"/>
       <c r="F893" s="11"/>
       <c r="G893" s="12"/>
       <c r="H893" s="13"/>
     </row>
-    <row r="894" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="894" spans="1:8" ht="13">
       <c r="A894" s="47"/>
       <c r="F894" s="11"/>
       <c r="G894" s="12"/>
       <c r="H894" s="13"/>
     </row>
-    <row r="895" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="895" spans="1:8" ht="13">
       <c r="A895" s="47"/>
       <c r="F895" s="11"/>
       <c r="G895" s="12"/>
       <c r="H895" s="13"/>
     </row>
-    <row r="896" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="896" spans="1:8" ht="13">
       <c r="A896" s="47"/>
       <c r="F896" s="11"/>
       <c r="G896" s="12"/>
       <c r="H896" s="13"/>
     </row>
-    <row r="897" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="897" spans="1:8" ht="13">
       <c r="A897" s="47"/>
       <c r="F897" s="11"/>
       <c r="G897" s="12"/>
       <c r="H897" s="13"/>
     </row>
-    <row r="898" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="898" spans="1:8" ht="13">
       <c r="A898" s="47"/>
       <c r="F898" s="11"/>
       <c r="G898" s="12"/>
       <c r="H898" s="13"/>
     </row>
-    <row r="899" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="899" spans="1:8" ht="13">
       <c r="A899" s="47"/>
       <c r="F899" s="11"/>
       <c r="G899" s="12"/>
       <c r="H899" s="13"/>
     </row>
-    <row r="900" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="900" spans="1:8" ht="13">
       <c r="A900" s="47"/>
       <c r="F900" s="11"/>
       <c r="G900" s="12"/>
       <c r="H900" s="13"/>
     </row>
-    <row r="901" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="901" spans="1:8" ht="13">
       <c r="A901" s="47"/>
       <c r="F901" s="11"/>
       <c r="G901" s="12"/>
       <c r="H901" s="13"/>
     </row>
-    <row r="902" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="902" spans="1:8" ht="13">
       <c r="A902" s="47"/>
       <c r="F902" s="11"/>
       <c r="G902" s="12"/>
       <c r="H902" s="13"/>
     </row>
-    <row r="903" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="903" spans="1:8" ht="13">
       <c r="A903" s="47"/>
       <c r="F903" s="11"/>
       <c r="G903" s="12"/>
       <c r="H903" s="13"/>
     </row>
-    <row r="904" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="904" spans="1:8" ht="13">
       <c r="A904" s="47"/>
       <c r="F904" s="11"/>
       <c r="G904" s="12"/>
       <c r="H904" s="13"/>
     </row>
-    <row r="905" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="905" spans="1:8" ht="13">
       <c r="A905" s="47"/>
       <c r="F905" s="11"/>
       <c r="G905" s="12"/>
       <c r="H905" s="13"/>
     </row>
-    <row r="906" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="906" spans="1:8" ht="13">
       <c r="A906" s="47"/>
       <c r="F906" s="11"/>
       <c r="G906" s="12"/>
       <c r="H906" s="13"/>
     </row>
-    <row r="907" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="907" spans="1:8" ht="13">
       <c r="A907" s="47"/>
       <c r="F907" s="11"/>
       <c r="G907" s="12"/>
       <c r="H907" s="13"/>
     </row>
-    <row r="908" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="908" spans="1:8" ht="13">
       <c r="A908" s="47"/>
       <c r="F908" s="11"/>
       <c r="G908" s="12"/>
       <c r="H908" s="13"/>
     </row>
-    <row r="909" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="909" spans="1:8" ht="13">
       <c r="A909" s="47"/>
       <c r="F909" s="11"/>
       <c r="G909" s="12"/>
       <c r="H909" s="13"/>
     </row>
-    <row r="910" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="910" spans="1:8" ht="13">
       <c r="A910" s="47"/>
       <c r="F910" s="11"/>
       <c r="G910" s="12"/>
       <c r="H910" s="13"/>
     </row>
-    <row r="911" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="911" spans="1:8" ht="13">
       <c r="A911" s="47"/>
       <c r="F911" s="11"/>
       <c r="G911" s="12"/>
       <c r="H911" s="13"/>
     </row>
-    <row r="912" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="912" spans="1:8" ht="13">
       <c r="A912" s="47"/>
       <c r="F912" s="11"/>
       <c r="G912" s="12"/>
       <c r="H912" s="13"/>
     </row>
-    <row r="913" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="913" spans="1:8" ht="13">
       <c r="A913" s="47"/>
       <c r="F913" s="11"/>
       <c r="G913" s="12"/>
       <c r="H913" s="13"/>
     </row>
-    <row r="914" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="914" spans="1:8" ht="13">
       <c r="A914" s="47"/>
       <c r="F914" s="11"/>
       <c r="G914" s="12"/>
       <c r="H914" s="13"/>
     </row>
-    <row r="915" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="915" spans="1:8" ht="13">
       <c r="A915" s="47"/>
       <c r="F915" s="11"/>
       <c r="G915" s="12"/>
       <c r="H915" s="13"/>
     </row>
-    <row r="916" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="916" spans="1:8" ht="13">
       <c r="A916" s="47"/>
       <c r="F916" s="11"/>
       <c r="G916" s="12"/>
       <c r="H916" s="13"/>
     </row>
-    <row r="917" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="917" spans="1:8" ht="13">
       <c r="A917" s="47"/>
       <c r="F917" s="11"/>
       <c r="G917" s="12"/>
       <c r="H917" s="13"/>
     </row>
-    <row r="918" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="918" spans="1:8" ht="13">
       <c r="A918" s="47"/>
       <c r="F918" s="11"/>
       <c r="G918" s="12"/>
       <c r="H918" s="13"/>
     </row>
-    <row r="919" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="919" spans="1:8" ht="13">
       <c r="A919" s="47"/>
       <c r="F919" s="11"/>
       <c r="G919" s="12"/>
       <c r="H919" s="13"/>
     </row>
-    <row r="920" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="920" spans="1:8" ht="13">
       <c r="A920" s="47"/>
       <c r="F920" s="11"/>
       <c r="G920" s="12"/>
       <c r="H920" s="13"/>
     </row>
-    <row r="921" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="921" spans="1:8" ht="13">
       <c r="A921" s="47"/>
       <c r="F921" s="11"/>
       <c r="G921" s="12"/>
       <c r="H921" s="13"/>
     </row>
-    <row r="922" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="922" spans="1:8" ht="13">
       <c r="A922" s="47"/>
       <c r="F922" s="11"/>
       <c r="G922" s="12"/>
       <c r="H922" s="13"/>
     </row>
-    <row r="923" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="923" spans="1:8" ht="13">
       <c r="A923" s="47"/>
       <c r="F923" s="11"/>
       <c r="G923" s="12"/>
       <c r="H923" s="13"/>
     </row>
-    <row r="924" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="924" spans="1:8" ht="13">
       <c r="A924" s="47"/>
       <c r="F924" s="11"/>
       <c r="G924" s="12"/>
       <c r="H924" s="13"/>
     </row>
-    <row r="925" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="925" spans="1:8" ht="13">
       <c r="A925" s="47"/>
       <c r="F925" s="11"/>
       <c r="G925" s="12"/>
       <c r="H925" s="13"/>
     </row>
-    <row r="926" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="926" spans="1:8" ht="13">
       <c r="A926" s="47"/>
       <c r="F926" s="11"/>
       <c r="G926" s="12"/>
       <c r="H926" s="13"/>
     </row>
-    <row r="927" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="927" spans="1:8" ht="13">
       <c r="A927" s="47"/>
       <c r="F927" s="11"/>
       <c r="G927" s="12"/>
       <c r="H927" s="13"/>
     </row>
-    <row r="928" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="928" spans="1:8" ht="13">
       <c r="A928" s="47"/>
       <c r="F928" s="11"/>
       <c r="G928" s="12"/>
       <c r="H928" s="13"/>
     </row>
-    <row r="929" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="929" spans="1:8" ht="13">
       <c r="A929" s="47"/>
       <c r="F929" s="11"/>
       <c r="G929" s="12"/>
       <c r="H929" s="13"/>
     </row>
-    <row r="930" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="930" spans="1:8" ht="13">
       <c r="A930" s="47"/>
       <c r="F930" s="11"/>
       <c r="G930" s="12"/>
       <c r="H930" s="13"/>
     </row>
-    <row r="931" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="931" spans="1:8" ht="13">
       <c r="A931" s="47"/>
       <c r="F931" s="11"/>
       <c r="G931" s="12"/>
       <c r="H931" s="13"/>
     </row>
-    <row r="932" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="932" spans="1:8" ht="13">
       <c r="A932" s="47"/>
       <c r="F932" s="11"/>
       <c r="G932" s="12"/>
       <c r="H932" s="13"/>
     </row>
-    <row r="933" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="933" spans="1:8" ht="13">
       <c r="A933" s="47"/>
       <c r="F933" s="11"/>
       <c r="G933" s="12"/>
       <c r="H933" s="13"/>
     </row>
-    <row r="934" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="934" spans="1:8" ht="13">
       <c r="A934" s="47"/>
       <c r="F934" s="11"/>
       <c r="G934" s="12"/>
       <c r="H934" s="13"/>
     </row>
-    <row r="935" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="935" spans="1:8" ht="13">
       <c r="A935" s="47"/>
       <c r="F935" s="11"/>
       <c r="G935" s="12"/>
       <c r="H935" s="13"/>
     </row>
-    <row r="936" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="936" spans="1:8" ht="13">
       <c r="A936" s="47"/>
       <c r="F936" s="11"/>
       <c r="G936" s="12"/>
       <c r="H936" s="13"/>
     </row>
-    <row r="937" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="937" spans="1:8" ht="13">
       <c r="A937" s="47"/>
       <c r="F937" s="11"/>
       <c r="G937" s="12"/>
       <c r="H937" s="13"/>
     </row>
-    <row r="938" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="938" spans="1:8" ht="13">
       <c r="A938" s="47"/>
       <c r="F938" s="11"/>
       <c r="G938" s="12"/>
       <c r="H938" s="13"/>
     </row>
-    <row r="939" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="939" spans="1:8" ht="13">
       <c r="A939" s="47"/>
       <c r="F939" s="11"/>
       <c r="G939" s="12"/>
       <c r="H939" s="13"/>
     </row>
-    <row r="940" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="940" spans="1:8" ht="13">
       <c r="A940" s="47"/>
       <c r="F940" s="11"/>
       <c r="G940" s="12"/>
       <c r="H940" s="13"/>
     </row>
-    <row r="941" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="941" spans="1:8" ht="13">
       <c r="A941" s="47"/>
       <c r="F941" s="11"/>
       <c r="G941" s="12"/>
       <c r="H941" s="13"/>
     </row>
-    <row r="942" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="942" spans="1:8" ht="13">
       <c r="A942" s="47"/>
       <c r="F942" s="11"/>
       <c r="G942" s="12"/>
       <c r="H942" s="13"/>
     </row>
-    <row r="943" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="943" spans="1:8" ht="13">
       <c r="A943" s="47"/>
       <c r="F943" s="11"/>
       <c r="G943" s="12"/>
       <c r="H943" s="13"/>
     </row>
-    <row r="944" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="944" spans="1:8" ht="13">
       <c r="A944" s="47"/>
       <c r="F944" s="11"/>
       <c r="G944" s="12"/>
       <c r="H944" s="13"/>
     </row>
-    <row r="945" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="945" spans="1:8" ht="13">
       <c r="A945" s="47"/>
       <c r="F945" s="11"/>
       <c r="G945" s="12"/>
       <c r="H945" s="13"/>
     </row>
-    <row r="946" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="946" spans="1:8" ht="13">
       <c r="A946" s="47"/>
       <c r="F946" s="11"/>
       <c r="G946" s="12"/>
       <c r="H946" s="13"/>
     </row>
-    <row r="947" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="947" spans="1:8" ht="13">
       <c r="A947" s="47"/>
       <c r="F947" s="11"/>
       <c r="G947" s="12"/>
       <c r="H947" s="13"/>
     </row>
-    <row r="948" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="948" spans="1:8" ht="13">
       <c r="A948" s="47"/>
       <c r="F948" s="11"/>
       <c r="G948" s="12"/>
       <c r="H948" s="13"/>
     </row>
-    <row r="949" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="949" spans="1:8" ht="13">
       <c r="A949" s="47"/>
       <c r="F949" s="11"/>
       <c r="G949" s="12"/>
       <c r="H949" s="13"/>
     </row>
-    <row r="950" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="950" spans="1:8" ht="13">
       <c r="A950" s="47"/>
       <c r="F950" s="11"/>
       <c r="G950" s="12"/>
       <c r="H950" s="13"/>
     </row>
-    <row r="951" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="951" spans="1:8" ht="13">
       <c r="A951" s="47"/>
       <c r="F951" s="11"/>
       <c r="G951" s="12"/>
       <c r="H951" s="13"/>
     </row>
-    <row r="952" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="952" spans="1:8" ht="13">
       <c r="A952" s="47"/>
       <c r="F952" s="11"/>
       <c r="G952" s="12"/>
       <c r="H952" s="13"/>
     </row>
-    <row r="953" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="953" spans="1:8" ht="13">
       <c r="A953" s="47"/>
       <c r="F953" s="11"/>
       <c r="G953" s="12"/>
       <c r="H953" s="13"/>
     </row>
-    <row r="954" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="954" spans="1:8" ht="13">
       <c r="A954" s="47"/>
       <c r="F954" s="11"/>
       <c r="G954" s="12"/>
       <c r="H954" s="13"/>
     </row>
-    <row r="955" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="955" spans="1:8" ht="13">
       <c r="A955" s="47"/>
       <c r="F955" s="11"/>
       <c r="G955" s="12"/>
       <c r="H955" s="13"/>
     </row>
-    <row r="956" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="956" spans="1:8" ht="13">
       <c r="A956" s="47"/>
       <c r="F956" s="11"/>
       <c r="G956" s="12"/>
       <c r="H956" s="13"/>
     </row>
-    <row r="957" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="957" spans="1:8" ht="13">
       <c r="A957" s="47"/>
       <c r="F957" s="11"/>
       <c r="G957" s="12"/>
       <c r="H957" s="13"/>
     </row>
-    <row r="958" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="958" spans="1:8" ht="13">
       <c r="A958" s="47"/>
       <c r="F958" s="11"/>
       <c r="G958" s="12"/>
       <c r="H958" s="13"/>
     </row>
-    <row r="959" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="959" spans="1:8" ht="13">
       <c r="A959" s="47"/>
       <c r="F959" s="11"/>
       <c r="G959" s="12"/>
       <c r="H959" s="13"/>
     </row>
-    <row r="960" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="960" spans="1:8" ht="13">
       <c r="A960" s="47"/>
       <c r="F960" s="11"/>
       <c r="G960" s="12"/>
       <c r="H960" s="13"/>
     </row>
-    <row r="961" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="961" spans="1:8" ht="13">
       <c r="A961" s="47"/>
       <c r="F961" s="11"/>
       <c r="G961" s="12"/>
       <c r="H961" s="13"/>
     </row>
-    <row r="962" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="962" spans="1:8" ht="13">
       <c r="A962" s="47"/>
       <c r="F962" s="11"/>
       <c r="G962" s="12"/>
       <c r="H962" s="13"/>
     </row>
-    <row r="963" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="963" spans="1:8" ht="13">
       <c r="A963" s="47"/>
       <c r="F963" s="11"/>
       <c r="G963" s="12"/>
       <c r="H963" s="13"/>
     </row>
-    <row r="964" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="964" spans="1:8" ht="13">
       <c r="A964" s="47"/>
       <c r="F964" s="11"/>
       <c r="G964" s="12"/>
       <c r="H964" s="13"/>
     </row>
-    <row r="965" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="965" spans="1:8" ht="13">
       <c r="A965" s="47"/>
       <c r="F965" s="11"/>
       <c r="G965" s="12"/>
       <c r="H965" s="13"/>
     </row>
-    <row r="966" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="966" spans="1:8" ht="13">
       <c r="A966" s="47"/>
       <c r="F966" s="11"/>
       <c r="G966" s="12"/>
       <c r="H966" s="13"/>
     </row>
-    <row r="967" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="967" spans="1:8" ht="13">
       <c r="A967" s="47"/>
       <c r="F967" s="11"/>
       <c r="G967" s="12"/>
       <c r="H967" s="13"/>
     </row>
-    <row r="968" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="968" spans="1:8" ht="13">
       <c r="A968" s="47"/>
       <c r="F968" s="11"/>
       <c r="G968" s="12"/>
       <c r="H968" s="13"/>
     </row>
-    <row r="969" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="969" spans="1:8" ht="13">
       <c r="A969" s="47"/>
       <c r="F969" s="11"/>
       <c r="G969" s="12"/>
       <c r="H969" s="13"/>
     </row>
-    <row r="970" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="970" spans="1:8" ht="13">
       <c r="A970" s="47"/>
       <c r="F970" s="11"/>
       <c r="G970" s="12"/>
       <c r="H970" s="13"/>
     </row>
-    <row r="971" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="971" spans="1:8" ht="13">
       <c r="A971" s="47"/>
       <c r="F971" s="11"/>
       <c r="G971" s="12"/>
       <c r="H971" s="13"/>
     </row>
-    <row r="972" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="972" spans="1:8" ht="13">
       <c r="A972" s="47"/>
       <c r="F972" s="11"/>
       <c r="G972" s="12"/>
       <c r="H972" s="13"/>
     </row>
-    <row r="973" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="973" spans="1:8" ht="13">
       <c r="A973" s="47"/>
       <c r="F973" s="11"/>
       <c r="G973" s="12"/>
       <c r="H973" s="13"/>
     </row>
-    <row r="974" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="974" spans="1:8" ht="13">
       <c r="A974" s="47"/>
       <c r="F974" s="11"/>
       <c r="G974" s="12"/>
       <c r="H974" s="13"/>
     </row>
-    <row r="975" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="975" spans="1:8" ht="13">
       <c r="A975" s="47"/>
       <c r="F975" s="11"/>
       <c r="G975" s="12"/>
       <c r="H975" s="13"/>
     </row>
-    <row r="976" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="976" spans="1:8" ht="13">
       <c r="A976" s="47"/>
       <c r="F976" s="11"/>
       <c r="G976" s="12"/>
       <c r="H976" s="13"/>
     </row>
-    <row r="977" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="977" spans="1:8" ht="13">
       <c r="A977" s="47"/>
       <c r="F977" s="11"/>
       <c r="G977" s="12"/>
       <c r="H977" s="13"/>
     </row>
-    <row r="978" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="978" spans="1:8" ht="13">
       <c r="A978" s="47"/>
       <c r="F978" s="11"/>
       <c r="G978" s="12"/>
       <c r="H978" s="13"/>
     </row>
-    <row r="979" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="979" spans="1:8" ht="13">
       <c r="A979" s="47"/>
       <c r="F979" s="11"/>
       <c r="G979" s="12"/>
       <c r="H979" s="13"/>
     </row>
-    <row r="980" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="980" spans="1:8" ht="13">
       <c r="A980" s="47"/>
       <c r="F980" s="11"/>
       <c r="G980" s="12"/>
       <c r="H980" s="13"/>
     </row>
-    <row r="981" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="981" spans="1:8" ht="13">
       <c r="A981" s="47"/>
       <c r="F981" s="11"/>
       <c r="G981" s="12"/>
       <c r="H981" s="13"/>
     </row>
-    <row r="982" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="982" spans="1:8" ht="13">
       <c r="A982" s="47"/>
       <c r="F982" s="11"/>
       <c r="G982" s="12"/>
       <c r="H982" s="13"/>
     </row>
-    <row r="983" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="983" spans="1:8" ht="13">
       <c r="A983" s="47"/>
       <c r="F983" s="11"/>
       <c r="G983" s="12"/>
       <c r="H983" s="13"/>
     </row>
-    <row r="984" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="984" spans="1:8" ht="13">
       <c r="A984" s="47"/>
       <c r="F984" s="11"/>
       <c r="G984" s="12"/>
       <c r="H984" s="13"/>
     </row>
-    <row r="985" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="985" spans="1:8" ht="13">
       <c r="A985" s="47"/>
       <c r="F985" s="11"/>
       <c r="G985" s="12"/>
       <c r="H985" s="13"/>
     </row>
-    <row r="986" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="986" spans="1:8" ht="13">
       <c r="A986" s="47"/>
       <c r="F986" s="11"/>
       <c r="G986" s="12"/>
       <c r="H986" s="13"/>
     </row>
-    <row r="987" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="987" spans="1:8" ht="13">
       <c r="A987" s="47"/>
       <c r="F987" s="11"/>
       <c r="G987" s="12"/>
       <c r="H987" s="13"/>
     </row>
-    <row r="988" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="988" spans="1:8" ht="13">
       <c r="A988" s="47"/>
       <c r="F988" s="11"/>
       <c r="G988" s="12"/>
       <c r="H988" s="13"/>
     </row>
-    <row r="989" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="989" spans="1:8" ht="13">
       <c r="A989" s="47"/>
       <c r="F989" s="11"/>
       <c r="G989" s="12"/>
       <c r="H989" s="13"/>
     </row>
-    <row r="990" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="990" spans="1:8" ht="13">
       <c r="A990" s="47"/>
       <c r="F990" s="11"/>
       <c r="G990" s="12"/>
       <c r="H990" s="13"/>
     </row>
-    <row r="991" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="991" spans="1:8" ht="13">
       <c r="A991" s="47"/>
       <c r="F991" s="11"/>
       <c r="G991" s="12"/>
       <c r="H991" s="13"/>
     </row>
-    <row r="992" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="992" spans="1:8" ht="13">
       <c r="A992" s="47"/>
       <c r="F992" s="11"/>
       <c r="G992" s="12"/>
       <c r="H992" s="13"/>
     </row>
-    <row r="993" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="993" spans="1:8" ht="13">
       <c r="A993" s="47"/>
       <c r="F993" s="11"/>
       <c r="G993" s="12"/>
       <c r="H993" s="13"/>
     </row>
-    <row r="994" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="994" spans="1:8" ht="13">
       <c r="A994" s="47"/>
       <c r="F994" s="11"/>
       <c r="G994" s="12"/>
       <c r="H994" s="13"/>
     </row>
-    <row r="995" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="995" spans="1:8" ht="13">
       <c r="A995" s="47"/>
       <c r="F995" s="11"/>
       <c r="G995" s="12"/>
       <c r="H995" s="13"/>
     </row>
-    <row r="996" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="996" spans="1:8" ht="13">
       <c r="A996" s="47"/>
       <c r="F996" s="11"/>
       <c r="G996" s="12"/>
       <c r="H996" s="13"/>
     </row>
-    <row r="997" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="997" spans="1:8" ht="13">
       <c r="A997" s="47"/>
       <c r="F997" s="11"/>
       <c r="G997" s="12"/>
       <c r="H997" s="13"/>
     </row>
-    <row r="998" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="998" spans="1:8" ht="13">
       <c r="A998" s="47"/>
       <c r="F998" s="11"/>
       <c r="G998" s="12"/>
       <c r="H998" s="13"/>
     </row>
-    <row r="999" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="999" spans="1:8" ht="13">
       <c r="A999" s="47"/>
       <c r="F999" s="11"/>
       <c r="G999" s="12"/>
       <c r="H999" s="13"/>
     </row>
-    <row r="1000" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="1000" spans="1:8" ht="13">
       <c r="A1000" s="47"/>
       <c r="F1000" s="11"/>
       <c r="G1000" s="12"/>
       <c r="H1000" s="13"/>
     </row>
-    <row r="1001" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="1001" spans="1:8" ht="13">
       <c r="A1001" s="47"/>
       <c r="F1001" s="11"/>
       <c r="G1001" s="12"/>
       <c r="H1001" s="13"/>
     </row>
-    <row r="1002" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="1002" spans="1:8" ht="13">
       <c r="A1002" s="47"/>
       <c r="F1002" s="11"/>
       <c r="G1002" s="12"/>
       <c r="H1002" s="13"/>
     </row>
-    <row r="1003" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="1003" spans="1:8" ht="13">
       <c r="A1003" s="47"/>
       <c r="F1003" s="11"/>
       <c r="G1003" s="12"/>
       <c r="H1003" s="13"/>
     </row>
-    <row r="1004" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="1004" spans="1:8" ht="13">
       <c r="A1004" s="47"/>
       <c r="F1004" s="11"/>
       <c r="G1004" s="12"/>
       <c r="H1004" s="13"/>
     </row>
-    <row r="1005" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="1005" spans="1:8" ht="13">
       <c r="A1005" s="47"/>
       <c r="F1005" s="11"/>
       <c r="G1005" s="12"/>
       <c r="H1005" s="13"/>
     </row>
-    <row r="1006" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="1006" spans="1:8" ht="13">
       <c r="A1006" s="47"/>
       <c r="F1006" s="11"/>
       <c r="G1006" s="12"/>
       <c r="H1006" s="13"/>
     </row>
-    <row r="1007" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="1007" spans="1:8" ht="13">
       <c r="A1007" s="47"/>
       <c r="F1007" s="11"/>
       <c r="G1007" s="12"/>
       <c r="H1007" s="13"/>
     </row>
-    <row r="1008" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="1008" spans="1:8" ht="13">
       <c r="A1008" s="47"/>
       <c r="F1008" s="11"/>
       <c r="G1008" s="12"/>
       <c r="H1008" s="13"/>
     </row>
-    <row r="1009" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A1009" s="47"/>
-      <c r="F1009" s="11"/>
-      <c r="G1009" s="12"/>
-      <c r="H1009" s="13"/>
-    </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="B17:B20"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="I12:I13"/>
@@ -9776,9 +9780,10 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="B17:B20"/>
   </mergeCells>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/key-value.xlsx
+++ b/key-value.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28810"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/glygen-frontend/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rupali/Documents/GitHub/glygen-frontend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD641398-B1E9-EC49-A67F-BC0F96D05E44}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -605,7 +604,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Click to select an Organism that makes your glycan(s) </t>
     </r>
@@ -624,7 +622,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>: Click to select an Organism that makes your protein(s)</t>
     </r>
@@ -660,7 +657,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Enter the UniProt Accession of your protein (see https://www.uniprot.org/)</t>
     </r>
@@ -921,8 +917,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1206,9 +1202,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1217,6 +1210,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1563,17 +1559,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AD1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="165" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E13"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="165" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57:H57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.33203125" style="29" customWidth="1"/>
     <col min="2" max="2" width="20.1640625" customWidth="1"/>
@@ -1586,7 +1582,7 @@
     <col min="11" max="11" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>181</v>
       </c>
@@ -1615,7 +1611,7 @@
       <c r="J1" s="24"/>
       <c r="K1" s="15"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="41"/>
@@ -1627,7 +1623,7 @@
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="29" t="s">
         <v>49</v>
       </c>
@@ -1654,7 +1650,7 @@
       </c>
       <c r="I3"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="29" t="s">
         <v>183</v>
       </c>
@@ -1679,7 +1675,7 @@
       </c>
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="29" t="s">
         <v>142</v>
       </c>
@@ -1697,7 +1693,7 @@
       </c>
       <c r="I5"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="29" t="s">
         <v>69</v>
       </c>
@@ -1722,7 +1718,7 @@
       </c>
       <c r="I6"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="29" t="s">
         <v>45</v>
       </c>
@@ -1745,7 +1741,7 @@
       </c>
       <c r="I7"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="29" t="s">
         <v>42</v>
       </c>
@@ -1770,7 +1766,7 @@
       </c>
       <c r="I8"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="29" t="s">
         <v>127</v>
       </c>
@@ -1797,7 +1793,7 @@
       </c>
       <c r="I9"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="29" t="s">
         <v>39</v>
       </c>
@@ -1822,7 +1818,7 @@
       </c>
       <c r="I10"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="29" t="s">
         <v>10</v>
       </c>
@@ -1847,7 +1843,7 @@
       </c>
       <c r="I11"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="29" t="s">
         <v>198</v>
       </c>
@@ -1865,7 +1861,7 @@
       <c r="I12" s="50"/>
       <c r="J12" s="50"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="29" t="s">
         <v>199</v>
       </c>
@@ -1879,8 +1875,8 @@
       <c r="I13" s="50"/>
       <c r="J13" s="50"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A14" s="46" t="s">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="45" t="s">
         <v>201</v>
       </c>
       <c r="B14" s="29"/>
@@ -1893,7 +1889,7 @@
       <c r="E14" s="29"/>
       <c r="I14"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="29" t="s">
         <v>57</v>
       </c>
@@ -1914,7 +1910,7 @@
       <c r="H15" s="53"/>
       <c r="I15"/>
     </row>
-    <row r="16" spans="1:11" s="37" customFormat="1" ht="15.75" customHeight="1">
+    <row r="16" spans="1:11" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="29" t="s">
         <v>131</v>
       </c>
@@ -1934,7 +1930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="49" t="s">
         <v>172</v>
       </c>
@@ -1958,7 +1954,7 @@
       <c r="I17" s="50"/>
       <c r="J17" s="50"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="49"/>
       <c r="B18" s="49"/>
       <c r="C18" s="49"/>
@@ -1972,7 +1968,7 @@
       <c r="I18" s="50"/>
       <c r="J18" s="50"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="49"/>
       <c r="B19" s="49"/>
       <c r="C19" s="49"/>
@@ -1986,7 +1982,7 @@
       <c r="I19" s="50"/>
       <c r="J19" s="50"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="49"/>
       <c r="B20" s="49"/>
       <c r="C20" s="49"/>
@@ -2000,7 +1996,7 @@
       <c r="I20" s="50"/>
       <c r="J20" s="50"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="29" t="s">
         <v>105</v>
       </c>
@@ -2021,7 +2017,7 @@
       </c>
       <c r="I21"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="29" t="s">
         <v>173</v>
       </c>
@@ -2035,7 +2031,7 @@
       <c r="E22" s="29"/>
       <c r="I22"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="29" t="s">
         <v>211</v>
       </c>
@@ -2047,7 +2043,7 @@
       <c r="E23" s="29"/>
       <c r="I23"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="29" t="s">
         <v>23</v>
       </c>
@@ -2070,7 +2066,7 @@
       </c>
       <c r="I24"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="29" t="s">
         <v>26</v>
       </c>
@@ -2089,7 +2085,7 @@
       </c>
       <c r="I25"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="29" t="s">
         <v>174</v>
       </c>
@@ -2103,7 +2099,7 @@
       <c r="E26" s="29"/>
       <c r="I26"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="29" t="s">
         <v>218</v>
       </c>
@@ -2126,7 +2122,7 @@
       </c>
       <c r="I27"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="29" t="s">
         <v>37</v>
       </c>
@@ -2151,7 +2147,7 @@
       </c>
       <c r="I28"/>
     </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="29" t="s">
         <v>82</v>
       </c>
@@ -2176,7 +2172,7 @@
       </c>
       <c r="I29"/>
     </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="29" t="s">
         <v>165</v>
       </c>
@@ -2203,7 +2199,7 @@
       </c>
       <c r="I30"/>
     </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1">
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="29" t="s">
         <v>85</v>
       </c>
@@ -2228,7 +2224,7 @@
       </c>
       <c r="I31"/>
     </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1">
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="29" t="s">
         <v>228</v>
       </c>
@@ -2242,7 +2238,7 @@
       <c r="E32" s="29"/>
       <c r="I32"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="29" t="s">
         <v>231</v>
       </c>
@@ -2256,7 +2252,7 @@
       <c r="E33" s="29"/>
       <c r="I33"/>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="29" t="s">
         <v>234</v>
       </c>
@@ -2270,7 +2266,7 @@
       <c r="E34" s="29"/>
       <c r="I34"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="29" t="s">
         <v>15</v>
       </c>
@@ -2295,7 +2291,7 @@
       </c>
       <c r="I35"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="29" t="s">
         <v>238</v>
       </c>
@@ -2309,7 +2305,7 @@
       <c r="E36" s="29"/>
       <c r="I36"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="29" t="s">
         <v>175</v>
       </c>
@@ -2332,7 +2328,7 @@
       </c>
       <c r="I37"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="29" t="s">
         <v>53</v>
       </c>
@@ -2353,7 +2349,7 @@
       </c>
       <c r="I38"/>
     </row>
-    <row r="39" spans="1:9" ht="13">
+    <row r="39" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="29" t="s">
         <v>242</v>
       </c>
@@ -2367,7 +2363,7 @@
       <c r="E39" s="29"/>
       <c r="I39"/>
     </row>
-    <row r="40" spans="1:9" ht="26">
+    <row r="40" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A40" s="29" t="s">
         <v>19</v>
       </c>
@@ -2390,7 +2386,7 @@
       </c>
       <c r="I40"/>
     </row>
-    <row r="41" spans="1:9" ht="13">
+    <row r="41" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A41" s="29" t="s">
         <v>176</v>
       </c>
@@ -2402,7 +2398,7 @@
       <c r="E41" s="29"/>
       <c r="I41"/>
     </row>
-    <row r="42" spans="1:9" ht="13">
+    <row r="42" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A42" s="29" t="s">
         <v>28</v>
       </c>
@@ -2416,7 +2412,7 @@
       <c r="E42" s="29"/>
       <c r="I42"/>
     </row>
-    <row r="43" spans="1:9" ht="13">
+    <row r="43" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A43" s="29" t="s">
         <v>31</v>
       </c>
@@ -2430,7 +2426,7 @@
       <c r="E43" s="29"/>
       <c r="I43"/>
     </row>
-    <row r="44" spans="1:9" ht="13">
+    <row r="44" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A44" s="29" t="s">
         <v>63</v>
       </c>
@@ -2444,7 +2440,7 @@
       <c r="E44" s="29"/>
       <c r="I44"/>
     </row>
-    <row r="45" spans="1:9" ht="13">
+    <row r="45" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A45" s="29" t="s">
         <v>167</v>
       </c>
@@ -2458,7 +2454,7 @@
       <c r="E45" s="29"/>
       <c r="I45"/>
     </row>
-    <row r="46" spans="1:9" ht="13">
+    <row r="46" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" s="29" t="s">
         <v>168</v>
       </c>
@@ -2472,7 +2468,7 @@
       <c r="E46" s="29"/>
       <c r="I46"/>
     </row>
-    <row r="47" spans="1:9" ht="13">
+    <row r="47" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="29" t="s">
         <v>88</v>
       </c>
@@ -2486,7 +2482,7 @@
       <c r="E47" s="29"/>
       <c r="I47"/>
     </row>
-    <row r="48" spans="1:9" ht="13">
+    <row r="48" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="29" t="s">
         <v>177</v>
       </c>
@@ -2500,7 +2496,7 @@
       <c r="E48" s="29"/>
       <c r="I48"/>
     </row>
-    <row r="49" spans="1:30" ht="13">
+    <row r="49" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="29" t="s">
         <v>79</v>
       </c>
@@ -2511,16 +2507,9 @@
         <v>276</v>
       </c>
       <c r="E49"/>
-      <c r="F49" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="G49" s="12"/>
-      <c r="H49" s="9" t="s">
-        <v>7</v>
-      </c>
       <c r="I49" s="31"/>
     </row>
-    <row r="50" spans="1:30" s="36" customFormat="1" ht="13">
+    <row r="50" spans="1:30" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="37" t="s">
         <v>277</v>
       </c>
@@ -2530,12 +2519,14 @@
       <c r="D50" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="F50" s="45"/>
+      <c r="F50" s="11"/>
       <c r="G50" s="12"/>
-      <c r="H50" s="9"/>
+      <c r="H50" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="I50" s="31"/>
     </row>
-    <row r="51" spans="1:30" ht="13">
+    <row r="51" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="29" t="s">
         <v>95</v>
       </c>
@@ -2547,8 +2538,8 @@
         <v>4</v>
       </c>
       <c r="E51" s="29"/>
-      <c r="F51" s="11" t="s">
-        <v>14</v>
+      <c r="F51" s="48" t="s">
+        <v>96</v>
       </c>
       <c r="G51" s="12" t="s">
         <v>4</v>
@@ -2558,7 +2549,7 @@
       </c>
       <c r="I51" s="31"/>
     </row>
-    <row r="52" spans="1:30" ht="39">
+    <row r="52" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="29" t="s">
         <v>13</v>
       </c>
@@ -2570,8 +2561,8 @@
         <v>4</v>
       </c>
       <c r="E52" s="29"/>
-      <c r="F52" s="11" t="s">
-        <v>66</v>
+      <c r="F52" s="48" t="s">
+        <v>14</v>
       </c>
       <c r="G52" s="12" t="s">
         <v>4</v>
@@ -2581,7 +2572,7 @@
       </c>
       <c r="I52" s="31"/>
     </row>
-    <row r="53" spans="1:30" ht="26">
+    <row r="53" spans="1:30" ht="26" x14ac:dyDescent="0.15">
       <c r="A53" s="29" t="s">
         <v>65</v>
       </c>
@@ -2593,8 +2584,8 @@
         <v>4</v>
       </c>
       <c r="E53" s="29"/>
-      <c r="F53" s="11" t="s">
-        <v>68</v>
+      <c r="F53" s="48" t="s">
+        <v>66</v>
       </c>
       <c r="G53" s="12"/>
       <c r="H53" s="9" t="s">
@@ -2602,7 +2593,7 @@
       </c>
       <c r="I53" s="31"/>
     </row>
-    <row r="54" spans="1:30" ht="13">
+    <row r="54" spans="1:30" ht="26" x14ac:dyDescent="0.15">
       <c r="A54" s="29" t="s">
         <v>67</v>
       </c>
@@ -2614,8 +2605,8 @@
         <v>4</v>
       </c>
       <c r="E54" s="29"/>
-      <c r="F54" s="11" t="s">
-        <v>74</v>
+      <c r="F54" s="48" t="s">
+        <v>68</v>
       </c>
       <c r="G54" s="12" t="s">
         <v>4</v>
@@ -2625,7 +2616,7 @@
       </c>
       <c r="I54" s="31"/>
     </row>
-    <row r="55" spans="1:30" ht="26">
+    <row r="55" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="29" t="s">
         <v>73</v>
       </c>
@@ -2633,18 +2624,15 @@
       <c r="C55" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="D55" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="E55" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="F55" s="11"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="48" t="s">
+        <v>74</v>
+      </c>
       <c r="G55" s="12"/>
       <c r="H55" s="13"/>
       <c r="I55"/>
     </row>
-    <row r="56" spans="1:30" ht="26">
+    <row r="56" spans="1:30" ht="26" x14ac:dyDescent="0.15">
       <c r="A56" s="29" t="s">
         <v>160</v>
       </c>
@@ -2653,23 +2641,14 @@
         <v>256</v>
       </c>
       <c r="D56" s="34" t="s">
-        <v>258</v>
+        <v>50</v>
       </c>
       <c r="E56" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>7</v>
+        <v>159</v>
       </c>
       <c r="I56"/>
     </row>
-    <row r="57" spans="1:30" ht="13">
+    <row r="57" spans="1:30" ht="26" x14ac:dyDescent="0.15">
       <c r="A57" s="29" t="s">
         <v>161</v>
       </c>
@@ -2678,17 +2657,23 @@
         <v>257</v>
       </c>
       <c r="D57" s="34" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E57" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="F57" s="11"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="13"/>
+        <v>162</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="I57"/>
     </row>
-    <row r="58" spans="1:30" ht="13">
+    <row r="58" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="29" t="s">
         <v>163</v>
       </c>
@@ -2697,15 +2682,17 @@
         <v>259</v>
       </c>
       <c r="D58" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="E58" s="33"/>
+        <v>260</v>
+      </c>
+      <c r="E58" s="33" t="s">
+        <v>164</v>
+      </c>
       <c r="F58" s="11"/>
       <c r="G58" s="12"/>
       <c r="H58" s="13"/>
       <c r="I58"/>
     </row>
-    <row r="59" spans="1:30" ht="13">
+    <row r="59" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="29" t="s">
         <v>169</v>
       </c>
@@ -2714,7 +2701,7 @@
         <v>261</v>
       </c>
       <c r="D59" s="34" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E59" s="34"/>
       <c r="F59" s="12" t="s">
@@ -2728,7 +2715,7 @@
       </c>
       <c r="I59" s="31"/>
     </row>
-    <row r="60" spans="1:30" ht="13">
+    <row r="60" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="29" t="s">
         <v>112</v>
       </c>
@@ -2737,7 +2724,7 @@
         <v>262</v>
       </c>
       <c r="D60" s="34" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="E60" s="34"/>
       <c r="F60" s="11" t="s">
@@ -2771,7 +2758,7 @@
       <c r="AC60" s="10"/>
       <c r="AD60" s="10"/>
     </row>
-    <row r="61" spans="1:30" ht="13">
+    <row r="61" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="29" t="s">
         <v>115</v>
       </c>
@@ -2780,7 +2767,7 @@
         <v>263</v>
       </c>
       <c r="D61" s="34" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E61" s="34"/>
       <c r="F61" s="11" t="s">
@@ -2814,7 +2801,7 @@
       <c r="AC61" s="10"/>
       <c r="AD61" s="10"/>
     </row>
-    <row r="62" spans="1:30" ht="13">
+    <row r="62" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="29" t="s">
         <v>119</v>
       </c>
@@ -2823,7 +2810,7 @@
         <v>264</v>
       </c>
       <c r="D62" s="34" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E62" s="34"/>
       <c r="F62" s="11" t="s">
@@ -2857,7 +2844,7 @@
       <c r="AC62" s="10"/>
       <c r="AD62" s="10"/>
     </row>
-    <row r="63" spans="1:30" ht="13">
+    <row r="63" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="29" t="s">
         <v>123</v>
       </c>
@@ -2865,7 +2852,9 @@
       <c r="C63" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="D63" s="34"/>
+      <c r="D63" s="34" t="s">
+        <v>124</v>
+      </c>
       <c r="E63" s="29"/>
       <c r="I63"/>
       <c r="K63" s="10"/>
@@ -2889,7 +2878,7 @@
       <c r="AC63" s="10"/>
       <c r="AD63" s="10"/>
     </row>
-    <row r="64" spans="1:30" ht="26">
+    <row r="64" spans="1:30" ht="26" x14ac:dyDescent="0.15">
       <c r="A64" s="29" t="s">
         <v>91</v>
       </c>
@@ -2911,7 +2900,7 @@
       </c>
       <c r="I64" s="31"/>
     </row>
-    <row r="65" spans="1:9" ht="13">
+    <row r="65" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="29" t="s">
         <v>97</v>
       </c>
@@ -2933,7 +2922,7 @@
       </c>
       <c r="I65"/>
     </row>
-    <row r="66" spans="1:9" ht="26">
+    <row r="66" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A66" s="29" t="s">
         <v>101</v>
       </c>
@@ -2955,7 +2944,7 @@
       </c>
       <c r="I66" s="31"/>
     </row>
-    <row r="67" spans="1:9" ht="13">
+    <row r="67" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="29" t="s">
         <v>80</v>
       </c>
@@ -2977,7 +2966,7 @@
       </c>
       <c r="I67" s="31"/>
     </row>
-    <row r="68" spans="1:9" ht="26">
+    <row r="68" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A68" s="29" t="s">
         <v>77</v>
       </c>
@@ -2999,7 +2988,7 @@
       </c>
       <c r="I68" s="31"/>
     </row>
-    <row r="69" spans="1:9" ht="13">
+    <row r="69" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="29" t="s">
         <v>179</v>
       </c>
@@ -3024,7 +3013,7 @@
       </c>
       <c r="I69"/>
     </row>
-    <row r="70" spans="1:9" ht="13">
+    <row r="70" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="29" t="s">
         <v>180</v>
       </c>
@@ -3049,7 +3038,7 @@
       </c>
       <c r="I70"/>
     </row>
-    <row r="71" spans="1:9" ht="13">
+    <row r="71" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="29" t="s">
         <v>8</v>
       </c>
@@ -3066,8 +3055,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="13">
-      <c r="A72" s="47"/>
+    <row r="72" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A72" s="46"/>
       <c r="D72" s="40" t="str">
         <f t="shared" ref="D72:D127" si="0">UPPER(C72)</f>
         <v/>
@@ -3076,8 +3065,8 @@
       <c r="G72" s="12"/>
       <c r="H72" s="13"/>
     </row>
-    <row r="73" spans="1:9" ht="13">
-      <c r="A73" s="47"/>
+    <row r="73" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A73" s="46"/>
       <c r="D73" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3086,8 +3075,8 @@
       <c r="G73" s="12"/>
       <c r="H73" s="13"/>
     </row>
-    <row r="74" spans="1:9" ht="13">
-      <c r="A74" s="47"/>
+    <row r="74" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A74" s="46"/>
       <c r="D74" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3096,8 +3085,8 @@
       <c r="G74" s="12"/>
       <c r="H74" s="13"/>
     </row>
-    <row r="75" spans="1:9" ht="13">
-      <c r="A75" s="47"/>
+    <row r="75" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A75" s="46"/>
       <c r="D75" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3106,8 +3095,8 @@
       <c r="G75" s="12"/>
       <c r="H75" s="13"/>
     </row>
-    <row r="76" spans="1:9" ht="13">
-      <c r="A76" s="47"/>
+    <row r="76" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A76" s="46"/>
       <c r="D76" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3116,8 +3105,8 @@
       <c r="G76" s="12"/>
       <c r="H76" s="13"/>
     </row>
-    <row r="77" spans="1:9" ht="13">
-      <c r="A77" s="47"/>
+    <row r="77" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A77" s="46"/>
       <c r="D77" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3126,8 +3115,8 @@
       <c r="G77" s="12"/>
       <c r="H77" s="13"/>
     </row>
-    <row r="78" spans="1:9" ht="13">
-      <c r="A78" s="47"/>
+    <row r="78" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A78" s="46"/>
       <c r="D78" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3136,8 +3125,8 @@
       <c r="G78" s="12"/>
       <c r="H78" s="13"/>
     </row>
-    <row r="79" spans="1:9" ht="13">
-      <c r="A79" s="47"/>
+    <row r="79" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A79" s="46"/>
       <c r="D79" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3146,8 +3135,8 @@
       <c r="G79" s="12"/>
       <c r="H79" s="13"/>
     </row>
-    <row r="80" spans="1:9" ht="13">
-      <c r="A80" s="47"/>
+    <row r="80" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A80" s="46"/>
       <c r="D80" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3156,8 +3145,8 @@
       <c r="G80" s="12"/>
       <c r="H80" s="13"/>
     </row>
-    <row r="81" spans="1:10" ht="13">
-      <c r="A81" s="47"/>
+    <row r="81" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A81" s="46"/>
       <c r="D81" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3166,8 +3155,8 @@
       <c r="G81" s="12"/>
       <c r="H81" s="13"/>
     </row>
-    <row r="82" spans="1:10" ht="13">
-      <c r="A82" s="47"/>
+    <row r="82" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A82" s="46"/>
       <c r="D82" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3176,8 +3165,8 @@
       <c r="G82" s="12"/>
       <c r="H82" s="13"/>
     </row>
-    <row r="83" spans="1:10" ht="13">
-      <c r="A83" s="47"/>
+    <row r="83" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A83" s="46"/>
       <c r="D83" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3186,8 +3175,8 @@
       <c r="G83" s="12"/>
       <c r="H83" s="13"/>
     </row>
-    <row r="84" spans="1:10" ht="13">
-      <c r="A84" s="47"/>
+    <row r="84" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A84" s="46"/>
       <c r="D84" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3196,8 +3185,8 @@
       <c r="G84" s="12"/>
       <c r="H84" s="13"/>
     </row>
-    <row r="85" spans="1:10" ht="13">
-      <c r="A85" s="47"/>
+    <row r="85" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A85" s="46"/>
       <c r="D85" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3206,8 +3195,8 @@
       <c r="G85" s="12"/>
       <c r="H85" s="13"/>
     </row>
-    <row r="86" spans="1:10" ht="13">
-      <c r="A86" s="47"/>
+    <row r="86" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A86" s="46"/>
       <c r="D86" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3216,8 +3205,8 @@
       <c r="G86" s="12"/>
       <c r="H86" s="13"/>
     </row>
-    <row r="87" spans="1:10" ht="13">
-      <c r="A87" s="47"/>
+    <row r="87" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A87" s="46"/>
       <c r="D87" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3226,8 +3215,8 @@
       <c r="G87" s="12"/>
       <c r="H87" s="13"/>
     </row>
-    <row r="88" spans="1:10" ht="13">
-      <c r="A88" s="47"/>
+    <row r="88" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A88" s="46"/>
       <c r="D88" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3236,8 +3225,8 @@
       <c r="G88" s="12"/>
       <c r="H88" s="13"/>
     </row>
-    <row r="89" spans="1:10" ht="13">
-      <c r="A89" s="47"/>
+    <row r="89" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A89" s="46"/>
       <c r="D89" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3246,8 +3235,8 @@
       <c r="G89" s="12"/>
       <c r="H89" s="13"/>
     </row>
-    <row r="90" spans="1:10" ht="13">
-      <c r="A90" s="47"/>
+    <row r="90" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A90" s="46"/>
       <c r="D90" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3256,8 +3245,8 @@
       <c r="G90" s="12"/>
       <c r="H90" s="13"/>
     </row>
-    <row r="91" spans="1:10" ht="13">
-      <c r="A91" s="47"/>
+    <row r="91" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A91" s="46"/>
       <c r="D91" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3267,8 +3256,8 @@
       <c r="H91" s="13"/>
       <c r="I91" s="22"/>
     </row>
-    <row r="92" spans="1:10" ht="16">
-      <c r="A92" s="47"/>
+    <row r="92" spans="1:10" ht="16" x14ac:dyDescent="0.25">
+      <c r="A92" s="46"/>
       <c r="D92" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3278,8 +3267,8 @@
       <c r="H92" s="13"/>
       <c r="I92" s="23"/>
     </row>
-    <row r="93" spans="1:10" ht="13">
-      <c r="A93" s="47"/>
+    <row r="93" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A93" s="46"/>
       <c r="D93" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3288,8 +3277,8 @@
       <c r="G93" s="12"/>
       <c r="H93" s="13"/>
     </row>
-    <row r="94" spans="1:10" ht="13">
-      <c r="A94" s="47"/>
+    <row r="94" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A94" s="46"/>
       <c r="D94" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3298,8 +3287,8 @@
       <c r="G94" s="12"/>
       <c r="H94" s="13"/>
     </row>
-    <row r="95" spans="1:10" ht="13">
-      <c r="A95" s="47"/>
+    <row r="95" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A95" s="46"/>
       <c r="D95" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3308,15 +3297,15 @@
       <c r="G95" s="12"/>
       <c r="H95" s="13"/>
     </row>
-    <row r="96" spans="1:10" ht="15.75" customHeight="1">
+    <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D96" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J96" s="16"/>
     </row>
-    <row r="97" spans="1:10" s="16" customFormat="1" ht="13">
-      <c r="A97" s="48"/>
+    <row r="97" spans="1:10" s="16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A97" s="47"/>
       <c r="C97" s="43"/>
       <c r="D97" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3329,8 +3318,8 @@
       <c r="I97" s="21"/>
       <c r="J97"/>
     </row>
-    <row r="98" spans="1:10" ht="16">
-      <c r="A98" s="47"/>
+    <row r="98" spans="1:10" ht="16" x14ac:dyDescent="0.25">
+      <c r="A98" s="46"/>
       <c r="C98" s="44"/>
       <c r="D98" s="40" t="str">
         <f t="shared" si="0"/>
@@ -3340,8 +3329,8 @@
       <c r="G98" s="12"/>
       <c r="H98" s="13"/>
     </row>
-    <row r="99" spans="1:10" ht="13">
-      <c r="A99" s="47"/>
+    <row r="99" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A99" s="46"/>
       <c r="D99" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3350,8 +3339,8 @@
       <c r="G99" s="12"/>
       <c r="H99" s="13"/>
     </row>
-    <row r="100" spans="1:10" ht="13">
-      <c r="A100" s="47"/>
+    <row r="100" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A100" s="46"/>
       <c r="D100" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3360,8 +3349,8 @@
       <c r="G100" s="12"/>
       <c r="H100" s="13"/>
     </row>
-    <row r="101" spans="1:10" ht="13">
-      <c r="A101" s="47"/>
+    <row r="101" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A101" s="46"/>
       <c r="D101" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3370,8 +3359,8 @@
       <c r="G101" s="12"/>
       <c r="H101" s="13"/>
     </row>
-    <row r="102" spans="1:10" ht="13">
-      <c r="A102" s="47"/>
+    <row r="102" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A102" s="46"/>
       <c r="D102" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3380,8 +3369,8 @@
       <c r="G102" s="12"/>
       <c r="H102" s="13"/>
     </row>
-    <row r="103" spans="1:10" ht="13">
-      <c r="A103" s="47"/>
+    <row r="103" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A103" s="46"/>
       <c r="D103" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3390,8 +3379,8 @@
       <c r="G103" s="12"/>
       <c r="H103" s="13"/>
     </row>
-    <row r="104" spans="1:10" ht="13">
-      <c r="A104" s="47"/>
+    <row r="104" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A104" s="46"/>
       <c r="D104" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3400,8 +3389,8 @@
       <c r="G104" s="12"/>
       <c r="H104" s="13"/>
     </row>
-    <row r="105" spans="1:10" ht="13">
-      <c r="A105" s="47"/>
+    <row r="105" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A105" s="46"/>
       <c r="D105" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3410,8 +3399,8 @@
       <c r="G105" s="12"/>
       <c r="H105" s="13"/>
     </row>
-    <row r="106" spans="1:10" ht="13">
-      <c r="A106" s="47"/>
+    <row r="106" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A106" s="46"/>
       <c r="D106" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3420,8 +3409,8 @@
       <c r="G106" s="12"/>
       <c r="H106" s="13"/>
     </row>
-    <row r="107" spans="1:10" ht="13">
-      <c r="A107" s="47"/>
+    <row r="107" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A107" s="46"/>
       <c r="D107" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3430,8 +3419,8 @@
       <c r="G107" s="12"/>
       <c r="H107" s="13"/>
     </row>
-    <row r="108" spans="1:10" ht="13">
-      <c r="A108" s="47"/>
+    <row r="108" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A108" s="46"/>
       <c r="D108" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3440,8 +3429,8 @@
       <c r="G108" s="12"/>
       <c r="H108" s="13"/>
     </row>
-    <row r="109" spans="1:10" ht="13">
-      <c r="A109" s="47"/>
+    <row r="109" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A109" s="46"/>
       <c r="D109" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3450,8 +3439,8 @@
       <c r="G109" s="12"/>
       <c r="H109" s="13"/>
     </row>
-    <row r="110" spans="1:10" ht="13">
-      <c r="A110" s="47"/>
+    <row r="110" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A110" s="46"/>
       <c r="D110" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3460,8 +3449,8 @@
       <c r="G110" s="12"/>
       <c r="H110" s="13"/>
     </row>
-    <row r="111" spans="1:10" ht="13">
-      <c r="A111" s="47"/>
+    <row r="111" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A111" s="46"/>
       <c r="D111" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3470,8 +3459,8 @@
       <c r="G111" s="12"/>
       <c r="H111" s="13"/>
     </row>
-    <row r="112" spans="1:10" ht="13">
-      <c r="A112" s="47"/>
+    <row r="112" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A112" s="46"/>
       <c r="D112" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3480,8 +3469,8 @@
       <c r="G112" s="12"/>
       <c r="H112" s="13"/>
     </row>
-    <row r="113" spans="1:8" ht="13">
-      <c r="A113" s="47"/>
+    <row r="113" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A113" s="46"/>
       <c r="D113" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3490,8 +3479,8 @@
       <c r="G113" s="12"/>
       <c r="H113" s="13"/>
     </row>
-    <row r="114" spans="1:8" ht="13">
-      <c r="A114" s="47"/>
+    <row r="114" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A114" s="46"/>
       <c r="D114" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3500,8 +3489,8 @@
       <c r="G114" s="12"/>
       <c r="H114" s="13"/>
     </row>
-    <row r="115" spans="1:8" ht="13">
-      <c r="A115" s="47"/>
+    <row r="115" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A115" s="46"/>
       <c r="D115" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3510,8 +3499,8 @@
       <c r="G115" s="12"/>
       <c r="H115" s="13"/>
     </row>
-    <row r="116" spans="1:8" ht="13">
-      <c r="A116" s="47"/>
+    <row r="116" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A116" s="46"/>
       <c r="D116" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3520,8 +3509,8 @@
       <c r="G116" s="12"/>
       <c r="H116" s="13"/>
     </row>
-    <row r="117" spans="1:8" ht="13">
-      <c r="A117" s="47"/>
+    <row r="117" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A117" s="46"/>
       <c r="D117" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3530,8 +3519,8 @@
       <c r="G117" s="12"/>
       <c r="H117" s="13"/>
     </row>
-    <row r="118" spans="1:8" ht="13">
-      <c r="A118" s="47"/>
+    <row r="118" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A118" s="46"/>
       <c r="D118" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3540,8 +3529,8 @@
       <c r="G118" s="12"/>
       <c r="H118" s="13"/>
     </row>
-    <row r="119" spans="1:8" ht="13">
-      <c r="A119" s="47"/>
+    <row r="119" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A119" s="46"/>
       <c r="D119" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3550,8 +3539,8 @@
       <c r="G119" s="12"/>
       <c r="H119" s="13"/>
     </row>
-    <row r="120" spans="1:8" ht="13">
-      <c r="A120" s="47"/>
+    <row r="120" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A120" s="46"/>
       <c r="D120" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3560,8 +3549,8 @@
       <c r="G120" s="12"/>
       <c r="H120" s="13"/>
     </row>
-    <row r="121" spans="1:8" ht="13">
-      <c r="A121" s="47"/>
+    <row r="121" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A121" s="46"/>
       <c r="D121" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3570,8 +3559,8 @@
       <c r="G121" s="12"/>
       <c r="H121" s="13"/>
     </row>
-    <row r="122" spans="1:8" ht="13">
-      <c r="A122" s="47"/>
+    <row r="122" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A122" s="46"/>
       <c r="D122" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3580,8 +3569,8 @@
       <c r="G122" s="12"/>
       <c r="H122" s="13"/>
     </row>
-    <row r="123" spans="1:8" ht="13">
-      <c r="A123" s="47"/>
+    <row r="123" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A123" s="46"/>
       <c r="D123" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3590,8 +3579,8 @@
       <c r="G123" s="12"/>
       <c r="H123" s="13"/>
     </row>
-    <row r="124" spans="1:8" ht="13">
-      <c r="A124" s="47"/>
+    <row r="124" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A124" s="46"/>
       <c r="D124" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3600,8 +3589,8 @@
       <c r="G124" s="12"/>
       <c r="H124" s="13"/>
     </row>
-    <row r="125" spans="1:8" ht="13">
-      <c r="A125" s="47"/>
+    <row r="125" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A125" s="46"/>
       <c r="D125" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3610,8 +3599,8 @@
       <c r="G125" s="12"/>
       <c r="H125" s="13"/>
     </row>
-    <row r="126" spans="1:8" ht="13">
-      <c r="A126" s="47"/>
+    <row r="126" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A126" s="46"/>
       <c r="D126" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3620,8 +3609,8 @@
       <c r="G126" s="12"/>
       <c r="H126" s="13"/>
     </row>
-    <row r="127" spans="1:8" ht="13">
-      <c r="A127" s="47"/>
+    <row r="127" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A127" s="46"/>
       <c r="D127" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3630,8 +3619,8 @@
       <c r="G127" s="12"/>
       <c r="H127" s="13"/>
     </row>
-    <row r="128" spans="1:8" ht="13">
-      <c r="A128" s="47"/>
+    <row r="128" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A128" s="46"/>
       <c r="D128" s="40" t="str">
         <f t="shared" ref="D128:D191" si="1">UPPER(C128)</f>
         <v/>
@@ -3640,8 +3629,8 @@
       <c r="G128" s="12"/>
       <c r="H128" s="13"/>
     </row>
-    <row r="129" spans="1:8" ht="13">
-      <c r="A129" s="47"/>
+    <row r="129" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A129" s="46"/>
       <c r="D129" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3650,8 +3639,8 @@
       <c r="G129" s="12"/>
       <c r="H129" s="13"/>
     </row>
-    <row r="130" spans="1:8" ht="13">
-      <c r="A130" s="47"/>
+    <row r="130" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A130" s="46"/>
       <c r="D130" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3660,8 +3649,8 @@
       <c r="G130" s="12"/>
       <c r="H130" s="13"/>
     </row>
-    <row r="131" spans="1:8" ht="13">
-      <c r="A131" s="47"/>
+    <row r="131" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A131" s="46"/>
       <c r="D131" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3670,8 +3659,8 @@
       <c r="G131" s="12"/>
       <c r="H131" s="13"/>
     </row>
-    <row r="132" spans="1:8" ht="13">
-      <c r="A132" s="47"/>
+    <row r="132" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A132" s="46"/>
       <c r="D132" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3680,8 +3669,8 @@
       <c r="G132" s="12"/>
       <c r="H132" s="13"/>
     </row>
-    <row r="133" spans="1:8" ht="13">
-      <c r="A133" s="47"/>
+    <row r="133" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A133" s="46"/>
       <c r="D133" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3690,8 +3679,8 @@
       <c r="G133" s="12"/>
       <c r="H133" s="13"/>
     </row>
-    <row r="134" spans="1:8" ht="13">
-      <c r="A134" s="47"/>
+    <row r="134" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A134" s="46"/>
       <c r="D134" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3700,8 +3689,8 @@
       <c r="G134" s="12"/>
       <c r="H134" s="13"/>
     </row>
-    <row r="135" spans="1:8" ht="13">
-      <c r="A135" s="47"/>
+    <row r="135" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A135" s="46"/>
       <c r="D135" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3710,8 +3699,8 @@
       <c r="G135" s="12"/>
       <c r="H135" s="13"/>
     </row>
-    <row r="136" spans="1:8" ht="13">
-      <c r="A136" s="47"/>
+    <row r="136" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A136" s="46"/>
       <c r="D136" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3720,8 +3709,8 @@
       <c r="G136" s="12"/>
       <c r="H136" s="13"/>
     </row>
-    <row r="137" spans="1:8" ht="13">
-      <c r="A137" s="47"/>
+    <row r="137" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A137" s="46"/>
       <c r="D137" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3730,8 +3719,8 @@
       <c r="G137" s="12"/>
       <c r="H137" s="13"/>
     </row>
-    <row r="138" spans="1:8" ht="13">
-      <c r="A138" s="47"/>
+    <row r="138" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A138" s="46"/>
       <c r="D138" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3740,8 +3729,8 @@
       <c r="G138" s="12"/>
       <c r="H138" s="13"/>
     </row>
-    <row r="139" spans="1:8" ht="13">
-      <c r="A139" s="47"/>
+    <row r="139" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A139" s="46"/>
       <c r="D139" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3750,8 +3739,8 @@
       <c r="G139" s="12"/>
       <c r="H139" s="13"/>
     </row>
-    <row r="140" spans="1:8" ht="13">
-      <c r="A140" s="47"/>
+    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A140" s="46"/>
       <c r="D140" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3760,8 +3749,8 @@
       <c r="G140" s="12"/>
       <c r="H140" s="13"/>
     </row>
-    <row r="141" spans="1:8" ht="13">
-      <c r="A141" s="47"/>
+    <row r="141" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A141" s="46"/>
       <c r="D141" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3770,8 +3759,8 @@
       <c r="G141" s="12"/>
       <c r="H141" s="13"/>
     </row>
-    <row r="142" spans="1:8" ht="13">
-      <c r="A142" s="47"/>
+    <row r="142" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A142" s="46"/>
       <c r="D142" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3780,8 +3769,8 @@
       <c r="G142" s="12"/>
       <c r="H142" s="13"/>
     </row>
-    <row r="143" spans="1:8" ht="13">
-      <c r="A143" s="47"/>
+    <row r="143" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A143" s="46"/>
       <c r="D143" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3790,8 +3779,8 @@
       <c r="G143" s="12"/>
       <c r="H143" s="13"/>
     </row>
-    <row r="144" spans="1:8" ht="13">
-      <c r="A144" s="47"/>
+    <row r="144" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A144" s="46"/>
       <c r="D144" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3800,8 +3789,8 @@
       <c r="G144" s="12"/>
       <c r="H144" s="13"/>
     </row>
-    <row r="145" spans="1:8" ht="13">
-      <c r="A145" s="47"/>
+    <row r="145" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A145" s="46"/>
       <c r="D145" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3810,8 +3799,8 @@
       <c r="G145" s="12"/>
       <c r="H145" s="13"/>
     </row>
-    <row r="146" spans="1:8" ht="13">
-      <c r="A146" s="47"/>
+    <row r="146" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A146" s="46"/>
       <c r="D146" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3820,8 +3809,8 @@
       <c r="G146" s="12"/>
       <c r="H146" s="13"/>
     </row>
-    <row r="147" spans="1:8" ht="13">
-      <c r="A147" s="47"/>
+    <row r="147" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A147" s="46"/>
       <c r="D147" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3830,8 +3819,8 @@
       <c r="G147" s="12"/>
       <c r="H147" s="13"/>
     </row>
-    <row r="148" spans="1:8" ht="13">
-      <c r="A148" s="47"/>
+    <row r="148" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A148" s="46"/>
       <c r="D148" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3840,8 +3829,8 @@
       <c r="G148" s="12"/>
       <c r="H148" s="13"/>
     </row>
-    <row r="149" spans="1:8" ht="13">
-      <c r="A149" s="47"/>
+    <row r="149" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A149" s="46"/>
       <c r="D149" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3850,8 +3839,8 @@
       <c r="G149" s="12"/>
       <c r="H149" s="13"/>
     </row>
-    <row r="150" spans="1:8" ht="13">
-      <c r="A150" s="47"/>
+    <row r="150" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A150" s="46"/>
       <c r="D150" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3860,8 +3849,8 @@
       <c r="G150" s="12"/>
       <c r="H150" s="13"/>
     </row>
-    <row r="151" spans="1:8" ht="13">
-      <c r="A151" s="47"/>
+    <row r="151" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A151" s="46"/>
       <c r="D151" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3870,8 +3859,8 @@
       <c r="G151" s="12"/>
       <c r="H151" s="13"/>
     </row>
-    <row r="152" spans="1:8" ht="13">
-      <c r="A152" s="47"/>
+    <row r="152" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A152" s="46"/>
       <c r="D152" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3880,8 +3869,8 @@
       <c r="G152" s="12"/>
       <c r="H152" s="13"/>
     </row>
-    <row r="153" spans="1:8" ht="13">
-      <c r="A153" s="47"/>
+    <row r="153" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A153" s="46"/>
       <c r="D153" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3890,8 +3879,8 @@
       <c r="G153" s="12"/>
       <c r="H153" s="13"/>
     </row>
-    <row r="154" spans="1:8" ht="13">
-      <c r="A154" s="47"/>
+    <row r="154" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A154" s="46"/>
       <c r="D154" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3900,8 +3889,8 @@
       <c r="G154" s="12"/>
       <c r="H154" s="13"/>
     </row>
-    <row r="155" spans="1:8" ht="13">
-      <c r="A155" s="47"/>
+    <row r="155" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A155" s="46"/>
       <c r="D155" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3910,8 +3899,8 @@
       <c r="G155" s="12"/>
       <c r="H155" s="13"/>
     </row>
-    <row r="156" spans="1:8" ht="13">
-      <c r="A156" s="47"/>
+    <row r="156" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A156" s="46"/>
       <c r="D156" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3920,8 +3909,8 @@
       <c r="G156" s="12"/>
       <c r="H156" s="13"/>
     </row>
-    <row r="157" spans="1:8" ht="13">
-      <c r="A157" s="47"/>
+    <row r="157" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A157" s="46"/>
       <c r="D157" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3930,8 +3919,8 @@
       <c r="G157" s="12"/>
       <c r="H157" s="13"/>
     </row>
-    <row r="158" spans="1:8" ht="13">
-      <c r="A158" s="47"/>
+    <row r="158" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A158" s="46"/>
       <c r="D158" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3940,8 +3929,8 @@
       <c r="G158" s="12"/>
       <c r="H158" s="13"/>
     </row>
-    <row r="159" spans="1:8" ht="13">
-      <c r="A159" s="47"/>
+    <row r="159" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A159" s="46"/>
       <c r="D159" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3950,8 +3939,8 @@
       <c r="G159" s="12"/>
       <c r="H159" s="13"/>
     </row>
-    <row r="160" spans="1:8" ht="13">
-      <c r="A160" s="47"/>
+    <row r="160" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A160" s="46"/>
       <c r="D160" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3960,8 +3949,8 @@
       <c r="G160" s="12"/>
       <c r="H160" s="13"/>
     </row>
-    <row r="161" spans="1:8" ht="13">
-      <c r="A161" s="47"/>
+    <row r="161" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A161" s="46"/>
       <c r="D161" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3970,8 +3959,8 @@
       <c r="G161" s="12"/>
       <c r="H161" s="13"/>
     </row>
-    <row r="162" spans="1:8" ht="13">
-      <c r="A162" s="47"/>
+    <row r="162" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A162" s="46"/>
       <c r="D162" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3980,8 +3969,8 @@
       <c r="G162" s="12"/>
       <c r="H162" s="13"/>
     </row>
-    <row r="163" spans="1:8" ht="13">
-      <c r="A163" s="47"/>
+    <row r="163" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A163" s="46"/>
       <c r="D163" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3990,8 +3979,8 @@
       <c r="G163" s="12"/>
       <c r="H163" s="13"/>
     </row>
-    <row r="164" spans="1:8" ht="13">
-      <c r="A164" s="47"/>
+    <row r="164" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A164" s="46"/>
       <c r="D164" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4000,8 +3989,8 @@
       <c r="G164" s="12"/>
       <c r="H164" s="13"/>
     </row>
-    <row r="165" spans="1:8" ht="13">
-      <c r="A165" s="47"/>
+    <row r="165" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A165" s="46"/>
       <c r="D165" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4010,8 +3999,8 @@
       <c r="G165" s="12"/>
       <c r="H165" s="13"/>
     </row>
-    <row r="166" spans="1:8" ht="13">
-      <c r="A166" s="47"/>
+    <row r="166" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A166" s="46"/>
       <c r="D166" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4020,8 +4009,8 @@
       <c r="G166" s="12"/>
       <c r="H166" s="13"/>
     </row>
-    <row r="167" spans="1:8" ht="13">
-      <c r="A167" s="47"/>
+    <row r="167" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A167" s="46"/>
       <c r="D167" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4030,8 +4019,8 @@
       <c r="G167" s="12"/>
       <c r="H167" s="13"/>
     </row>
-    <row r="168" spans="1:8" ht="13">
-      <c r="A168" s="47"/>
+    <row r="168" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A168" s="46"/>
       <c r="D168" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4040,8 +4029,8 @@
       <c r="G168" s="12"/>
       <c r="H168" s="13"/>
     </row>
-    <row r="169" spans="1:8" ht="13">
-      <c r="A169" s="47"/>
+    <row r="169" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A169" s="46"/>
       <c r="D169" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4050,8 +4039,8 @@
       <c r="G169" s="12"/>
       <c r="H169" s="13"/>
     </row>
-    <row r="170" spans="1:8" ht="13">
-      <c r="A170" s="47"/>
+    <row r="170" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A170" s="46"/>
       <c r="D170" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4060,8 +4049,8 @@
       <c r="G170" s="12"/>
       <c r="H170" s="13"/>
     </row>
-    <row r="171" spans="1:8" ht="13">
-      <c r="A171" s="47"/>
+    <row r="171" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A171" s="46"/>
       <c r="D171" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4070,8 +4059,8 @@
       <c r="G171" s="12"/>
       <c r="H171" s="13"/>
     </row>
-    <row r="172" spans="1:8" ht="13">
-      <c r="A172" s="47"/>
+    <row r="172" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A172" s="46"/>
       <c r="D172" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4080,8 +4069,8 @@
       <c r="G172" s="12"/>
       <c r="H172" s="13"/>
     </row>
-    <row r="173" spans="1:8" ht="13">
-      <c r="A173" s="47"/>
+    <row r="173" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A173" s="46"/>
       <c r="D173" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4090,8 +4079,8 @@
       <c r="G173" s="12"/>
       <c r="H173" s="13"/>
     </row>
-    <row r="174" spans="1:8" ht="13">
-      <c r="A174" s="47"/>
+    <row r="174" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A174" s="46"/>
       <c r="D174" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4100,8 +4089,8 @@
       <c r="G174" s="12"/>
       <c r="H174" s="13"/>
     </row>
-    <row r="175" spans="1:8" ht="13">
-      <c r="A175" s="47"/>
+    <row r="175" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A175" s="46"/>
       <c r="D175" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4110,8 +4099,8 @@
       <c r="G175" s="12"/>
       <c r="H175" s="13"/>
     </row>
-    <row r="176" spans="1:8" ht="13">
-      <c r="A176" s="47"/>
+    <row r="176" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A176" s="46"/>
       <c r="D176" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4120,8 +4109,8 @@
       <c r="G176" s="12"/>
       <c r="H176" s="13"/>
     </row>
-    <row r="177" spans="1:8" ht="13">
-      <c r="A177" s="47"/>
+    <row r="177" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A177" s="46"/>
       <c r="D177" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4130,8 +4119,8 @@
       <c r="G177" s="12"/>
       <c r="H177" s="13"/>
     </row>
-    <row r="178" spans="1:8" ht="13">
-      <c r="A178" s="47"/>
+    <row r="178" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A178" s="46"/>
       <c r="D178" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4140,8 +4129,8 @@
       <c r="G178" s="12"/>
       <c r="H178" s="13"/>
     </row>
-    <row r="179" spans="1:8" ht="13">
-      <c r="A179" s="47"/>
+    <row r="179" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A179" s="46"/>
       <c r="D179" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4150,8 +4139,8 @@
       <c r="G179" s="12"/>
       <c r="H179" s="13"/>
     </row>
-    <row r="180" spans="1:8" ht="13">
-      <c r="A180" s="47"/>
+    <row r="180" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A180" s="46"/>
       <c r="D180" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4160,8 +4149,8 @@
       <c r="G180" s="12"/>
       <c r="H180" s="13"/>
     </row>
-    <row r="181" spans="1:8" ht="13">
-      <c r="A181" s="47"/>
+    <row r="181" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A181" s="46"/>
       <c r="D181" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4170,8 +4159,8 @@
       <c r="G181" s="12"/>
       <c r="H181" s="13"/>
     </row>
-    <row r="182" spans="1:8" ht="13">
-      <c r="A182" s="47"/>
+    <row r="182" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A182" s="46"/>
       <c r="D182" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4180,8 +4169,8 @@
       <c r="G182" s="12"/>
       <c r="H182" s="13"/>
     </row>
-    <row r="183" spans="1:8" ht="13">
-      <c r="A183" s="47"/>
+    <row r="183" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A183" s="46"/>
       <c r="D183" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4190,8 +4179,8 @@
       <c r="G183" s="12"/>
       <c r="H183" s="13"/>
     </row>
-    <row r="184" spans="1:8" ht="13">
-      <c r="A184" s="47"/>
+    <row r="184" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A184" s="46"/>
       <c r="D184" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4200,8 +4189,8 @@
       <c r="G184" s="12"/>
       <c r="H184" s="13"/>
     </row>
-    <row r="185" spans="1:8" ht="13">
-      <c r="A185" s="47"/>
+    <row r="185" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A185" s="46"/>
       <c r="D185" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4210,8 +4199,8 @@
       <c r="G185" s="12"/>
       <c r="H185" s="13"/>
     </row>
-    <row r="186" spans="1:8" ht="13">
-      <c r="A186" s="47"/>
+    <row r="186" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A186" s="46"/>
       <c r="D186" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4220,8 +4209,8 @@
       <c r="G186" s="12"/>
       <c r="H186" s="13"/>
     </row>
-    <row r="187" spans="1:8" ht="13">
-      <c r="A187" s="47"/>
+    <row r="187" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A187" s="46"/>
       <c r="D187" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4230,8 +4219,8 @@
       <c r="G187" s="12"/>
       <c r="H187" s="13"/>
     </row>
-    <row r="188" spans="1:8" ht="13">
-      <c r="A188" s="47"/>
+    <row r="188" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A188" s="46"/>
       <c r="D188" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4240,8 +4229,8 @@
       <c r="G188" s="12"/>
       <c r="H188" s="13"/>
     </row>
-    <row r="189" spans="1:8" ht="13">
-      <c r="A189" s="47"/>
+    <row r="189" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A189" s="46"/>
       <c r="D189" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4250,8 +4239,8 @@
       <c r="G189" s="12"/>
       <c r="H189" s="13"/>
     </row>
-    <row r="190" spans="1:8" ht="13">
-      <c r="A190" s="47"/>
+    <row r="190" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A190" s="46"/>
       <c r="D190" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4260,8 +4249,8 @@
       <c r="G190" s="12"/>
       <c r="H190" s="13"/>
     </row>
-    <row r="191" spans="1:8" ht="13">
-      <c r="A191" s="47"/>
+    <row r="191" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A191" s="46"/>
       <c r="D191" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4270,8 +4259,8 @@
       <c r="G191" s="12"/>
       <c r="H191" s="13"/>
     </row>
-    <row r="192" spans="1:8" ht="13">
-      <c r="A192" s="47"/>
+    <row r="192" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A192" s="46"/>
       <c r="D192" s="40" t="str">
         <f t="shared" ref="D192:D255" si="2">UPPER(C192)</f>
         <v/>
@@ -4280,8 +4269,8 @@
       <c r="G192" s="12"/>
       <c r="H192" s="13"/>
     </row>
-    <row r="193" spans="1:8" ht="13">
-      <c r="A193" s="47"/>
+    <row r="193" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A193" s="46"/>
       <c r="D193" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4290,8 +4279,8 @@
       <c r="G193" s="12"/>
       <c r="H193" s="13"/>
     </row>
-    <row r="194" spans="1:8" ht="13">
-      <c r="A194" s="47"/>
+    <row r="194" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A194" s="46"/>
       <c r="D194" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4300,8 +4289,8 @@
       <c r="G194" s="12"/>
       <c r="H194" s="13"/>
     </row>
-    <row r="195" spans="1:8" ht="13">
-      <c r="A195" s="47"/>
+    <row r="195" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A195" s="46"/>
       <c r="D195" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4310,8 +4299,8 @@
       <c r="G195" s="12"/>
       <c r="H195" s="13"/>
     </row>
-    <row r="196" spans="1:8" ht="13">
-      <c r="A196" s="47"/>
+    <row r="196" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A196" s="46"/>
       <c r="D196" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4320,8 +4309,8 @@
       <c r="G196" s="12"/>
       <c r="H196" s="13"/>
     </row>
-    <row r="197" spans="1:8" ht="13">
-      <c r="A197" s="47"/>
+    <row r="197" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A197" s="46"/>
       <c r="D197" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4330,8 +4319,8 @@
       <c r="G197" s="12"/>
       <c r="H197" s="13"/>
     </row>
-    <row r="198" spans="1:8" ht="13">
-      <c r="A198" s="47"/>
+    <row r="198" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A198" s="46"/>
       <c r="D198" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4340,8 +4329,8 @@
       <c r="G198" s="12"/>
       <c r="H198" s="13"/>
     </row>
-    <row r="199" spans="1:8" ht="13">
-      <c r="A199" s="47"/>
+    <row r="199" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A199" s="46"/>
       <c r="D199" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4350,8 +4339,8 @@
       <c r="G199" s="12"/>
       <c r="H199" s="13"/>
     </row>
-    <row r="200" spans="1:8" ht="13">
-      <c r="A200" s="47"/>
+    <row r="200" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A200" s="46"/>
       <c r="D200" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4360,8 +4349,8 @@
       <c r="G200" s="12"/>
       <c r="H200" s="13"/>
     </row>
-    <row r="201" spans="1:8" ht="13">
-      <c r="A201" s="47"/>
+    <row r="201" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A201" s="46"/>
       <c r="D201" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4370,8 +4359,8 @@
       <c r="G201" s="12"/>
       <c r="H201" s="13"/>
     </row>
-    <row r="202" spans="1:8" ht="13">
-      <c r="A202" s="47"/>
+    <row r="202" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A202" s="46"/>
       <c r="D202" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4380,8 +4369,8 @@
       <c r="G202" s="12"/>
       <c r="H202" s="13"/>
     </row>
-    <row r="203" spans="1:8" ht="13">
-      <c r="A203" s="47"/>
+    <row r="203" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A203" s="46"/>
       <c r="D203" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4390,8 +4379,8 @@
       <c r="G203" s="12"/>
       <c r="H203" s="13"/>
     </row>
-    <row r="204" spans="1:8" ht="13">
-      <c r="A204" s="47"/>
+    <row r="204" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A204" s="46"/>
       <c r="D204" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4400,8 +4389,8 @@
       <c r="G204" s="12"/>
       <c r="H204" s="13"/>
     </row>
-    <row r="205" spans="1:8" ht="13">
-      <c r="A205" s="47"/>
+    <row r="205" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A205" s="46"/>
       <c r="D205" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4410,8 +4399,8 @@
       <c r="G205" s="12"/>
       <c r="H205" s="13"/>
     </row>
-    <row r="206" spans="1:8" ht="13">
-      <c r="A206" s="47"/>
+    <row r="206" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A206" s="46"/>
       <c r="D206" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4420,8 +4409,8 @@
       <c r="G206" s="12"/>
       <c r="H206" s="13"/>
     </row>
-    <row r="207" spans="1:8" ht="13">
-      <c r="A207" s="47"/>
+    <row r="207" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A207" s="46"/>
       <c r="D207" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4430,8 +4419,8 @@
       <c r="G207" s="12"/>
       <c r="H207" s="13"/>
     </row>
-    <row r="208" spans="1:8" ht="13">
-      <c r="A208" s="47"/>
+    <row r="208" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A208" s="46"/>
       <c r="D208" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4440,8 +4429,8 @@
       <c r="G208" s="12"/>
       <c r="H208" s="13"/>
     </row>
-    <row r="209" spans="1:8" ht="13">
-      <c r="A209" s="47"/>
+    <row r="209" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A209" s="46"/>
       <c r="D209" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4450,8 +4439,8 @@
       <c r="G209" s="12"/>
       <c r="H209" s="13"/>
     </row>
-    <row r="210" spans="1:8" ht="13">
-      <c r="A210" s="47"/>
+    <row r="210" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A210" s="46"/>
       <c r="D210" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4460,8 +4449,8 @@
       <c r="G210" s="12"/>
       <c r="H210" s="13"/>
     </row>
-    <row r="211" spans="1:8" ht="13">
-      <c r="A211" s="47"/>
+    <row r="211" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A211" s="46"/>
       <c r="D211" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4470,8 +4459,8 @@
       <c r="G211" s="12"/>
       <c r="H211" s="13"/>
     </row>
-    <row r="212" spans="1:8" ht="13">
-      <c r="A212" s="47"/>
+    <row r="212" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A212" s="46"/>
       <c r="D212" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4480,8 +4469,8 @@
       <c r="G212" s="12"/>
       <c r="H212" s="13"/>
     </row>
-    <row r="213" spans="1:8" ht="13">
-      <c r="A213" s="47"/>
+    <row r="213" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A213" s="46"/>
       <c r="D213" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4490,8 +4479,8 @@
       <c r="G213" s="12"/>
       <c r="H213" s="13"/>
     </row>
-    <row r="214" spans="1:8" ht="13">
-      <c r="A214" s="47"/>
+    <row r="214" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A214" s="46"/>
       <c r="D214" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4500,8 +4489,8 @@
       <c r="G214" s="12"/>
       <c r="H214" s="13"/>
     </row>
-    <row r="215" spans="1:8" ht="13">
-      <c r="A215" s="47"/>
+    <row r="215" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A215" s="46"/>
       <c r="D215" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4510,8 +4499,8 @@
       <c r="G215" s="12"/>
       <c r="H215" s="13"/>
     </row>
-    <row r="216" spans="1:8" ht="13">
-      <c r="A216" s="47"/>
+    <row r="216" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A216" s="46"/>
       <c r="D216" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4520,8 +4509,8 @@
       <c r="G216" s="12"/>
       <c r="H216" s="13"/>
     </row>
-    <row r="217" spans="1:8" ht="13">
-      <c r="A217" s="47"/>
+    <row r="217" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A217" s="46"/>
       <c r="D217" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4530,8 +4519,8 @@
       <c r="G217" s="12"/>
       <c r="H217" s="13"/>
     </row>
-    <row r="218" spans="1:8" ht="13">
-      <c r="A218" s="47"/>
+    <row r="218" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A218" s="46"/>
       <c r="D218" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4540,8 +4529,8 @@
       <c r="G218" s="12"/>
       <c r="H218" s="13"/>
     </row>
-    <row r="219" spans="1:8" ht="13">
-      <c r="A219" s="47"/>
+    <row r="219" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A219" s="46"/>
       <c r="D219" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4550,8 +4539,8 @@
       <c r="G219" s="12"/>
       <c r="H219" s="13"/>
     </row>
-    <row r="220" spans="1:8" ht="13">
-      <c r="A220" s="47"/>
+    <row r="220" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A220" s="46"/>
       <c r="D220" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4560,8 +4549,8 @@
       <c r="G220" s="12"/>
       <c r="H220" s="13"/>
     </row>
-    <row r="221" spans="1:8" ht="13">
-      <c r="A221" s="47"/>
+    <row r="221" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A221" s="46"/>
       <c r="D221" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4570,8 +4559,8 @@
       <c r="G221" s="12"/>
       <c r="H221" s="13"/>
     </row>
-    <row r="222" spans="1:8" ht="13">
-      <c r="A222" s="47"/>
+    <row r="222" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A222" s="46"/>
       <c r="D222" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4580,8 +4569,8 @@
       <c r="G222" s="12"/>
       <c r="H222" s="13"/>
     </row>
-    <row r="223" spans="1:8" ht="13">
-      <c r="A223" s="47"/>
+    <row r="223" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A223" s="46"/>
       <c r="D223" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4590,8 +4579,8 @@
       <c r="G223" s="12"/>
       <c r="H223" s="13"/>
     </row>
-    <row r="224" spans="1:8" ht="13">
-      <c r="A224" s="47"/>
+    <row r="224" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A224" s="46"/>
       <c r="D224" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4600,8 +4589,8 @@
       <c r="G224" s="12"/>
       <c r="H224" s="13"/>
     </row>
-    <row r="225" spans="1:8" ht="13">
-      <c r="A225" s="47"/>
+    <row r="225" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A225" s="46"/>
       <c r="D225" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4610,8 +4599,8 @@
       <c r="G225" s="12"/>
       <c r="H225" s="13"/>
     </row>
-    <row r="226" spans="1:8" ht="13">
-      <c r="A226" s="47"/>
+    <row r="226" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A226" s="46"/>
       <c r="D226" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4620,8 +4609,8 @@
       <c r="G226" s="12"/>
       <c r="H226" s="13"/>
     </row>
-    <row r="227" spans="1:8" ht="13">
-      <c r="A227" s="47"/>
+    <row r="227" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A227" s="46"/>
       <c r="D227" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4630,8 +4619,8 @@
       <c r="G227" s="12"/>
       <c r="H227" s="13"/>
     </row>
-    <row r="228" spans="1:8" ht="13">
-      <c r="A228" s="47"/>
+    <row r="228" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A228" s="46"/>
       <c r="D228" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4640,8 +4629,8 @@
       <c r="G228" s="12"/>
       <c r="H228" s="13"/>
     </row>
-    <row r="229" spans="1:8" ht="13">
-      <c r="A229" s="47"/>
+    <row r="229" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A229" s="46"/>
       <c r="D229" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4650,8 +4639,8 @@
       <c r="G229" s="12"/>
       <c r="H229" s="13"/>
     </row>
-    <row r="230" spans="1:8" ht="13">
-      <c r="A230" s="47"/>
+    <row r="230" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A230" s="46"/>
       <c r="D230" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4660,8 +4649,8 @@
       <c r="G230" s="12"/>
       <c r="H230" s="13"/>
     </row>
-    <row r="231" spans="1:8" ht="13">
-      <c r="A231" s="47"/>
+    <row r="231" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A231" s="46"/>
       <c r="D231" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4670,8 +4659,8 @@
       <c r="G231" s="12"/>
       <c r="H231" s="13"/>
     </row>
-    <row r="232" spans="1:8" ht="13">
-      <c r="A232" s="47"/>
+    <row r="232" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A232" s="46"/>
       <c r="D232" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4680,8 +4669,8 @@
       <c r="G232" s="12"/>
       <c r="H232" s="13"/>
     </row>
-    <row r="233" spans="1:8" ht="13">
-      <c r="A233" s="47"/>
+    <row r="233" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A233" s="46"/>
       <c r="D233" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4690,8 +4679,8 @@
       <c r="G233" s="12"/>
       <c r="H233" s="13"/>
     </row>
-    <row r="234" spans="1:8" ht="13">
-      <c r="A234" s="47"/>
+    <row r="234" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A234" s="46"/>
       <c r="D234" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4700,8 +4689,8 @@
       <c r="G234" s="12"/>
       <c r="H234" s="13"/>
     </row>
-    <row r="235" spans="1:8" ht="13">
-      <c r="A235" s="47"/>
+    <row r="235" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A235" s="46"/>
       <c r="D235" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4710,8 +4699,8 @@
       <c r="G235" s="12"/>
       <c r="H235" s="13"/>
     </row>
-    <row r="236" spans="1:8" ht="13">
-      <c r="A236" s="47"/>
+    <row r="236" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A236" s="46"/>
       <c r="D236" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4720,8 +4709,8 @@
       <c r="G236" s="12"/>
       <c r="H236" s="13"/>
     </row>
-    <row r="237" spans="1:8" ht="13">
-      <c r="A237" s="47"/>
+    <row r="237" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A237" s="46"/>
       <c r="D237" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4730,8 +4719,8 @@
       <c r="G237" s="12"/>
       <c r="H237" s="13"/>
     </row>
-    <row r="238" spans="1:8" ht="13">
-      <c r="A238" s="47"/>
+    <row r="238" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A238" s="46"/>
       <c r="D238" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4740,8 +4729,8 @@
       <c r="G238" s="12"/>
       <c r="H238" s="13"/>
     </row>
-    <row r="239" spans="1:8" ht="13">
-      <c r="A239" s="47"/>
+    <row r="239" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A239" s="46"/>
       <c r="D239" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4750,8 +4739,8 @@
       <c r="G239" s="12"/>
       <c r="H239" s="13"/>
     </row>
-    <row r="240" spans="1:8" ht="13">
-      <c r="A240" s="47"/>
+    <row r="240" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A240" s="46"/>
       <c r="D240" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4760,8 +4749,8 @@
       <c r="G240" s="12"/>
       <c r="H240" s="13"/>
     </row>
-    <row r="241" spans="1:8" ht="13">
-      <c r="A241" s="47"/>
+    <row r="241" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A241" s="46"/>
       <c r="D241" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4770,8 +4759,8 @@
       <c r="G241" s="12"/>
       <c r="H241" s="13"/>
     </row>
-    <row r="242" spans="1:8" ht="13">
-      <c r="A242" s="47"/>
+    <row r="242" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A242" s="46"/>
       <c r="D242" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4780,8 +4769,8 @@
       <c r="G242" s="12"/>
       <c r="H242" s="13"/>
     </row>
-    <row r="243" spans="1:8" ht="13">
-      <c r="A243" s="47"/>
+    <row r="243" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A243" s="46"/>
       <c r="D243" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4790,8 +4779,8 @@
       <c r="G243" s="12"/>
       <c r="H243" s="13"/>
     </row>
-    <row r="244" spans="1:8" ht="13">
-      <c r="A244" s="47"/>
+    <row r="244" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A244" s="46"/>
       <c r="D244" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4800,8 +4789,8 @@
       <c r="G244" s="12"/>
       <c r="H244" s="13"/>
     </row>
-    <row r="245" spans="1:8" ht="13">
-      <c r="A245" s="47"/>
+    <row r="245" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A245" s="46"/>
       <c r="D245" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4810,8 +4799,8 @@
       <c r="G245" s="12"/>
       <c r="H245" s="13"/>
     </row>
-    <row r="246" spans="1:8" ht="13">
-      <c r="A246" s="47"/>
+    <row r="246" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A246" s="46"/>
       <c r="D246" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4820,8 +4809,8 @@
       <c r="G246" s="12"/>
       <c r="H246" s="13"/>
     </row>
-    <row r="247" spans="1:8" ht="13">
-      <c r="A247" s="47"/>
+    <row r="247" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A247" s="46"/>
       <c r="D247" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4830,8 +4819,8 @@
       <c r="G247" s="12"/>
       <c r="H247" s="13"/>
     </row>
-    <row r="248" spans="1:8" ht="13">
-      <c r="A248" s="47"/>
+    <row r="248" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A248" s="46"/>
       <c r="D248" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4840,8 +4829,8 @@
       <c r="G248" s="12"/>
       <c r="H248" s="13"/>
     </row>
-    <row r="249" spans="1:8" ht="13">
-      <c r="A249" s="47"/>
+    <row r="249" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A249" s="46"/>
       <c r="D249" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4850,8 +4839,8 @@
       <c r="G249" s="12"/>
       <c r="H249" s="13"/>
     </row>
-    <row r="250" spans="1:8" ht="13">
-      <c r="A250" s="47"/>
+    <row r="250" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A250" s="46"/>
       <c r="D250" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4860,8 +4849,8 @@
       <c r="G250" s="12"/>
       <c r="H250" s="13"/>
     </row>
-    <row r="251" spans="1:8" ht="13">
-      <c r="A251" s="47"/>
+    <row r="251" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A251" s="46"/>
       <c r="D251" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4870,8 +4859,8 @@
       <c r="G251" s="12"/>
       <c r="H251" s="13"/>
     </row>
-    <row r="252" spans="1:8" ht="13">
-      <c r="A252" s="47"/>
+    <row r="252" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A252" s="46"/>
       <c r="D252" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4880,8 +4869,8 @@
       <c r="G252" s="12"/>
       <c r="H252" s="13"/>
     </row>
-    <row r="253" spans="1:8" ht="13">
-      <c r="A253" s="47"/>
+    <row r="253" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A253" s="46"/>
       <c r="D253" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4890,8 +4879,8 @@
       <c r="G253" s="12"/>
       <c r="H253" s="13"/>
     </row>
-    <row r="254" spans="1:8" ht="13">
-      <c r="A254" s="47"/>
+    <row r="254" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A254" s="46"/>
       <c r="D254" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4900,8 +4889,8 @@
       <c r="G254" s="12"/>
       <c r="H254" s="13"/>
     </row>
-    <row r="255" spans="1:8" ht="13">
-      <c r="A255" s="47"/>
+    <row r="255" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A255" s="46"/>
       <c r="D255" s="40" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4910,8 +4899,8 @@
       <c r="G255" s="12"/>
       <c r="H255" s="13"/>
     </row>
-    <row r="256" spans="1:8" ht="13">
-      <c r="A256" s="47"/>
+    <row r="256" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A256" s="46"/>
       <c r="D256" s="40" t="str">
         <f t="shared" ref="D256:D319" si="3">UPPER(C256)</f>
         <v/>
@@ -4920,8 +4909,8 @@
       <c r="G256" s="12"/>
       <c r="H256" s="13"/>
     </row>
-    <row r="257" spans="1:8" ht="13">
-      <c r="A257" s="47"/>
+    <row r="257" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A257" s="46"/>
       <c r="D257" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4930,8 +4919,8 @@
       <c r="G257" s="12"/>
       <c r="H257" s="13"/>
     </row>
-    <row r="258" spans="1:8" ht="13">
-      <c r="A258" s="47"/>
+    <row r="258" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A258" s="46"/>
       <c r="D258" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4940,8 +4929,8 @@
       <c r="G258" s="12"/>
       <c r="H258" s="13"/>
     </row>
-    <row r="259" spans="1:8" ht="13">
-      <c r="A259" s="47"/>
+    <row r="259" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A259" s="46"/>
       <c r="D259" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4950,8 +4939,8 @@
       <c r="G259" s="12"/>
       <c r="H259" s="13"/>
     </row>
-    <row r="260" spans="1:8" ht="13">
-      <c r="A260" s="47"/>
+    <row r="260" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A260" s="46"/>
       <c r="D260" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4960,8 +4949,8 @@
       <c r="G260" s="12"/>
       <c r="H260" s="13"/>
     </row>
-    <row r="261" spans="1:8" ht="13">
-      <c r="A261" s="47"/>
+    <row r="261" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A261" s="46"/>
       <c r="D261" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4970,8 +4959,8 @@
       <c r="G261" s="12"/>
       <c r="H261" s="13"/>
     </row>
-    <row r="262" spans="1:8" ht="13">
-      <c r="A262" s="47"/>
+    <row r="262" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A262" s="46"/>
       <c r="D262" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4980,8 +4969,8 @@
       <c r="G262" s="12"/>
       <c r="H262" s="13"/>
     </row>
-    <row r="263" spans="1:8" ht="13">
-      <c r="A263" s="47"/>
+    <row r="263" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A263" s="46"/>
       <c r="D263" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4990,8 +4979,8 @@
       <c r="G263" s="12"/>
       <c r="H263" s="13"/>
     </row>
-    <row r="264" spans="1:8" ht="13">
-      <c r="A264" s="47"/>
+    <row r="264" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A264" s="46"/>
       <c r="D264" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5000,8 +4989,8 @@
       <c r="G264" s="12"/>
       <c r="H264" s="13"/>
     </row>
-    <row r="265" spans="1:8" ht="13">
-      <c r="A265" s="47"/>
+    <row r="265" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A265" s="46"/>
       <c r="D265" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5010,8 +4999,8 @@
       <c r="G265" s="12"/>
       <c r="H265" s="13"/>
     </row>
-    <row r="266" spans="1:8" ht="13">
-      <c r="A266" s="47"/>
+    <row r="266" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A266" s="46"/>
       <c r="D266" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5020,8 +5009,8 @@
       <c r="G266" s="12"/>
       <c r="H266" s="13"/>
     </row>
-    <row r="267" spans="1:8" ht="13">
-      <c r="A267" s="47"/>
+    <row r="267" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A267" s="46"/>
       <c r="D267" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5030,8 +5019,8 @@
       <c r="G267" s="12"/>
       <c r="H267" s="13"/>
     </row>
-    <row r="268" spans="1:8" ht="13">
-      <c r="A268" s="47"/>
+    <row r="268" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A268" s="46"/>
       <c r="D268" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5040,8 +5029,8 @@
       <c r="G268" s="12"/>
       <c r="H268" s="13"/>
     </row>
-    <row r="269" spans="1:8" ht="13">
-      <c r="A269" s="47"/>
+    <row r="269" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A269" s="46"/>
       <c r="D269" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5050,8 +5039,8 @@
       <c r="G269" s="12"/>
       <c r="H269" s="13"/>
     </row>
-    <row r="270" spans="1:8" ht="13">
-      <c r="A270" s="47"/>
+    <row r="270" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A270" s="46"/>
       <c r="D270" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5060,8 +5049,8 @@
       <c r="G270" s="12"/>
       <c r="H270" s="13"/>
     </row>
-    <row r="271" spans="1:8" ht="13">
-      <c r="A271" s="47"/>
+    <row r="271" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A271" s="46"/>
       <c r="D271" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5070,8 +5059,8 @@
       <c r="G271" s="12"/>
       <c r="H271" s="13"/>
     </row>
-    <row r="272" spans="1:8" ht="13">
-      <c r="A272" s="47"/>
+    <row r="272" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A272" s="46"/>
       <c r="D272" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5080,8 +5069,8 @@
       <c r="G272" s="12"/>
       <c r="H272" s="13"/>
     </row>
-    <row r="273" spans="1:8" ht="13">
-      <c r="A273" s="47"/>
+    <row r="273" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A273" s="46"/>
       <c r="D273" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5090,8 +5079,8 @@
       <c r="G273" s="12"/>
       <c r="H273" s="13"/>
     </row>
-    <row r="274" spans="1:8" ht="13">
-      <c r="A274" s="47"/>
+    <row r="274" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A274" s="46"/>
       <c r="D274" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5100,8 +5089,8 @@
       <c r="G274" s="12"/>
       <c r="H274" s="13"/>
     </row>
-    <row r="275" spans="1:8" ht="13">
-      <c r="A275" s="47"/>
+    <row r="275" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A275" s="46"/>
       <c r="D275" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5110,8 +5099,8 @@
       <c r="G275" s="12"/>
       <c r="H275" s="13"/>
     </row>
-    <row r="276" spans="1:8" ht="13">
-      <c r="A276" s="47"/>
+    <row r="276" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A276" s="46"/>
       <c r="D276" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5120,8 +5109,8 @@
       <c r="G276" s="12"/>
       <c r="H276" s="13"/>
     </row>
-    <row r="277" spans="1:8" ht="13">
-      <c r="A277" s="47"/>
+    <row r="277" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A277" s="46"/>
       <c r="D277" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5130,8 +5119,8 @@
       <c r="G277" s="12"/>
       <c r="H277" s="13"/>
     </row>
-    <row r="278" spans="1:8" ht="13">
-      <c r="A278" s="47"/>
+    <row r="278" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A278" s="46"/>
       <c r="D278" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5140,8 +5129,8 @@
       <c r="G278" s="12"/>
       <c r="H278" s="13"/>
     </row>
-    <row r="279" spans="1:8" ht="13">
-      <c r="A279" s="47"/>
+    <row r="279" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A279" s="46"/>
       <c r="D279" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5150,8 +5139,8 @@
       <c r="G279" s="12"/>
       <c r="H279" s="13"/>
     </row>
-    <row r="280" spans="1:8" ht="13">
-      <c r="A280" s="47"/>
+    <row r="280" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A280" s="46"/>
       <c r="D280" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5160,8 +5149,8 @@
       <c r="G280" s="12"/>
       <c r="H280" s="13"/>
     </row>
-    <row r="281" spans="1:8" ht="13">
-      <c r="A281" s="47"/>
+    <row r="281" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A281" s="46"/>
       <c r="D281" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5170,8 +5159,8 @@
       <c r="G281" s="12"/>
       <c r="H281" s="13"/>
     </row>
-    <row r="282" spans="1:8" ht="13">
-      <c r="A282" s="47"/>
+    <row r="282" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A282" s="46"/>
       <c r="D282" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5180,8 +5169,8 @@
       <c r="G282" s="12"/>
       <c r="H282" s="13"/>
     </row>
-    <row r="283" spans="1:8" ht="13">
-      <c r="A283" s="47"/>
+    <row r="283" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A283" s="46"/>
       <c r="D283" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5190,8 +5179,8 @@
       <c r="G283" s="12"/>
       <c r="H283" s="13"/>
     </row>
-    <row r="284" spans="1:8" ht="13">
-      <c r="A284" s="47"/>
+    <row r="284" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A284" s="46"/>
       <c r="D284" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5200,8 +5189,8 @@
       <c r="G284" s="12"/>
       <c r="H284" s="13"/>
     </row>
-    <row r="285" spans="1:8" ht="13">
-      <c r="A285" s="47"/>
+    <row r="285" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A285" s="46"/>
       <c r="D285" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5210,8 +5199,8 @@
       <c r="G285" s="12"/>
       <c r="H285" s="13"/>
     </row>
-    <row r="286" spans="1:8" ht="13">
-      <c r="A286" s="47"/>
+    <row r="286" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A286" s="46"/>
       <c r="D286" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5220,8 +5209,8 @@
       <c r="G286" s="12"/>
       <c r="H286" s="13"/>
     </row>
-    <row r="287" spans="1:8" ht="13">
-      <c r="A287" s="47"/>
+    <row r="287" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A287" s="46"/>
       <c r="D287" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5230,8 +5219,8 @@
       <c r="G287" s="12"/>
       <c r="H287" s="13"/>
     </row>
-    <row r="288" spans="1:8" ht="13">
-      <c r="A288" s="47"/>
+    <row r="288" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A288" s="46"/>
       <c r="D288" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5240,8 +5229,8 @@
       <c r="G288" s="12"/>
       <c r="H288" s="13"/>
     </row>
-    <row r="289" spans="1:8" ht="13">
-      <c r="A289" s="47"/>
+    <row r="289" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A289" s="46"/>
       <c r="D289" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5250,8 +5239,8 @@
       <c r="G289" s="12"/>
       <c r="H289" s="13"/>
     </row>
-    <row r="290" spans="1:8" ht="13">
-      <c r="A290" s="47"/>
+    <row r="290" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A290" s="46"/>
       <c r="D290" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5260,8 +5249,8 @@
       <c r="G290" s="12"/>
       <c r="H290" s="13"/>
     </row>
-    <row r="291" spans="1:8" ht="13">
-      <c r="A291" s="47"/>
+    <row r="291" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A291" s="46"/>
       <c r="D291" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5270,8 +5259,8 @@
       <c r="G291" s="12"/>
       <c r="H291" s="13"/>
     </row>
-    <row r="292" spans="1:8" ht="13">
-      <c r="A292" s="47"/>
+    <row r="292" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A292" s="46"/>
       <c r="D292" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5280,8 +5269,8 @@
       <c r="G292" s="12"/>
       <c r="H292" s="13"/>
     </row>
-    <row r="293" spans="1:8" ht="13">
-      <c r="A293" s="47"/>
+    <row r="293" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A293" s="46"/>
       <c r="D293" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5290,8 +5279,8 @@
       <c r="G293" s="12"/>
       <c r="H293" s="13"/>
     </row>
-    <row r="294" spans="1:8" ht="13">
-      <c r="A294" s="47"/>
+    <row r="294" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A294" s="46"/>
       <c r="D294" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5300,8 +5289,8 @@
       <c r="G294" s="12"/>
       <c r="H294" s="13"/>
     </row>
-    <row r="295" spans="1:8" ht="13">
-      <c r="A295" s="47"/>
+    <row r="295" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A295" s="46"/>
       <c r="D295" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5310,8 +5299,8 @@
       <c r="G295" s="12"/>
       <c r="H295" s="13"/>
     </row>
-    <row r="296" spans="1:8" ht="13">
-      <c r="A296" s="47"/>
+    <row r="296" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A296" s="46"/>
       <c r="D296" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5320,8 +5309,8 @@
       <c r="G296" s="12"/>
       <c r="H296" s="13"/>
     </row>
-    <row r="297" spans="1:8" ht="13">
-      <c r="A297" s="47"/>
+    <row r="297" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A297" s="46"/>
       <c r="D297" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5330,8 +5319,8 @@
       <c r="G297" s="12"/>
       <c r="H297" s="13"/>
     </row>
-    <row r="298" spans="1:8" ht="13">
-      <c r="A298" s="47"/>
+    <row r="298" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A298" s="46"/>
       <c r="D298" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5340,8 +5329,8 @@
       <c r="G298" s="12"/>
       <c r="H298" s="13"/>
     </row>
-    <row r="299" spans="1:8" ht="13">
-      <c r="A299" s="47"/>
+    <row r="299" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A299" s="46"/>
       <c r="D299" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5350,8 +5339,8 @@
       <c r="G299" s="12"/>
       <c r="H299" s="13"/>
     </row>
-    <row r="300" spans="1:8" ht="13">
-      <c r="A300" s="47"/>
+    <row r="300" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A300" s="46"/>
       <c r="D300" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5360,8 +5349,8 @@
       <c r="G300" s="12"/>
       <c r="H300" s="13"/>
     </row>
-    <row r="301" spans="1:8" ht="13">
-      <c r="A301" s="47"/>
+    <row r="301" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A301" s="46"/>
       <c r="D301" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5370,8 +5359,8 @@
       <c r="G301" s="12"/>
       <c r="H301" s="13"/>
     </row>
-    <row r="302" spans="1:8" ht="13">
-      <c r="A302" s="47"/>
+    <row r="302" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A302" s="46"/>
       <c r="D302" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5380,8 +5369,8 @@
       <c r="G302" s="12"/>
       <c r="H302" s="13"/>
     </row>
-    <row r="303" spans="1:8" ht="13">
-      <c r="A303" s="47"/>
+    <row r="303" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A303" s="46"/>
       <c r="D303" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5390,8 +5379,8 @@
       <c r="G303" s="12"/>
       <c r="H303" s="13"/>
     </row>
-    <row r="304" spans="1:8" ht="13">
-      <c r="A304" s="47"/>
+    <row r="304" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A304" s="46"/>
       <c r="D304" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5400,8 +5389,8 @@
       <c r="G304" s="12"/>
       <c r="H304" s="13"/>
     </row>
-    <row r="305" spans="1:8" ht="13">
-      <c r="A305" s="47"/>
+    <row r="305" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A305" s="46"/>
       <c r="D305" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5410,8 +5399,8 @@
       <c r="G305" s="12"/>
       <c r="H305" s="13"/>
     </row>
-    <row r="306" spans="1:8" ht="13">
-      <c r="A306" s="47"/>
+    <row r="306" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A306" s="46"/>
       <c r="D306" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5420,8 +5409,8 @@
       <c r="G306" s="12"/>
       <c r="H306" s="13"/>
     </row>
-    <row r="307" spans="1:8" ht="13">
-      <c r="A307" s="47"/>
+    <row r="307" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A307" s="46"/>
       <c r="D307" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5430,8 +5419,8 @@
       <c r="G307" s="12"/>
       <c r="H307" s="13"/>
     </row>
-    <row r="308" spans="1:8" ht="13">
-      <c r="A308" s="47"/>
+    <row r="308" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A308" s="46"/>
       <c r="D308" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5440,8 +5429,8 @@
       <c r="G308" s="12"/>
       <c r="H308" s="13"/>
     </row>
-    <row r="309" spans="1:8" ht="13">
-      <c r="A309" s="47"/>
+    <row r="309" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A309" s="46"/>
       <c r="D309" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5450,8 +5439,8 @@
       <c r="G309" s="12"/>
       <c r="H309" s="13"/>
     </row>
-    <row r="310" spans="1:8" ht="13">
-      <c r="A310" s="47"/>
+    <row r="310" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A310" s="46"/>
       <c r="D310" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5460,8 +5449,8 @@
       <c r="G310" s="12"/>
       <c r="H310" s="13"/>
     </row>
-    <row r="311" spans="1:8" ht="13">
-      <c r="A311" s="47"/>
+    <row r="311" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A311" s="46"/>
       <c r="D311" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5470,8 +5459,8 @@
       <c r="G311" s="12"/>
       <c r="H311" s="13"/>
     </row>
-    <row r="312" spans="1:8" ht="13">
-      <c r="A312" s="47"/>
+    <row r="312" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A312" s="46"/>
       <c r="D312" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5480,8 +5469,8 @@
       <c r="G312" s="12"/>
       <c r="H312" s="13"/>
     </row>
-    <row r="313" spans="1:8" ht="13">
-      <c r="A313" s="47"/>
+    <row r="313" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A313" s="46"/>
       <c r="D313" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5490,8 +5479,8 @@
       <c r="G313" s="12"/>
       <c r="H313" s="13"/>
     </row>
-    <row r="314" spans="1:8" ht="13">
-      <c r="A314" s="47"/>
+    <row r="314" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A314" s="46"/>
       <c r="D314" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5500,8 +5489,8 @@
       <c r="G314" s="12"/>
       <c r="H314" s="13"/>
     </row>
-    <row r="315" spans="1:8" ht="13">
-      <c r="A315" s="47"/>
+    <row r="315" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A315" s="46"/>
       <c r="D315" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5510,8 +5499,8 @@
       <c r="G315" s="12"/>
       <c r="H315" s="13"/>
     </row>
-    <row r="316" spans="1:8" ht="13">
-      <c r="A316" s="47"/>
+    <row r="316" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A316" s="46"/>
       <c r="D316" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5520,8 +5509,8 @@
       <c r="G316" s="12"/>
       <c r="H316" s="13"/>
     </row>
-    <row r="317" spans="1:8" ht="13">
-      <c r="A317" s="47"/>
+    <row r="317" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A317" s="46"/>
       <c r="D317" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5530,8 +5519,8 @@
       <c r="G317" s="12"/>
       <c r="H317" s="13"/>
     </row>
-    <row r="318" spans="1:8" ht="13">
-      <c r="A318" s="47"/>
+    <row r="318" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A318" s="46"/>
       <c r="D318" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5540,8 +5529,8 @@
       <c r="G318" s="12"/>
       <c r="H318" s="13"/>
     </row>
-    <row r="319" spans="1:8" ht="13">
-      <c r="A319" s="47"/>
+    <row r="319" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A319" s="46"/>
       <c r="D319" s="40" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5550,8 +5539,8 @@
       <c r="G319" s="12"/>
       <c r="H319" s="13"/>
     </row>
-    <row r="320" spans="1:8" ht="13">
-      <c r="A320" s="47"/>
+    <row r="320" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A320" s="46"/>
       <c r="D320" s="40" t="str">
         <f t="shared" ref="D320:D338" si="4">UPPER(C320)</f>
         <v/>
@@ -5560,8 +5549,8 @@
       <c r="G320" s="12"/>
       <c r="H320" s="13"/>
     </row>
-    <row r="321" spans="1:8" ht="13">
-      <c r="A321" s="47"/>
+    <row r="321" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A321" s="46"/>
       <c r="D321" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5570,8 +5559,8 @@
       <c r="G321" s="12"/>
       <c r="H321" s="13"/>
     </row>
-    <row r="322" spans="1:8" ht="13">
-      <c r="A322" s="47"/>
+    <row r="322" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A322" s="46"/>
       <c r="D322" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5580,8 +5569,8 @@
       <c r="G322" s="12"/>
       <c r="H322" s="13"/>
     </row>
-    <row r="323" spans="1:8" ht="13">
-      <c r="A323" s="47"/>
+    <row r="323" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A323" s="46"/>
       <c r="D323" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5590,8 +5579,8 @@
       <c r="G323" s="12"/>
       <c r="H323" s="13"/>
     </row>
-    <row r="324" spans="1:8" ht="13">
-      <c r="A324" s="47"/>
+    <row r="324" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A324" s="46"/>
       <c r="D324" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5600,8 +5589,8 @@
       <c r="G324" s="12"/>
       <c r="H324" s="13"/>
     </row>
-    <row r="325" spans="1:8" ht="13">
-      <c r="A325" s="47"/>
+    <row r="325" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A325" s="46"/>
       <c r="D325" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5610,8 +5599,8 @@
       <c r="G325" s="12"/>
       <c r="H325" s="13"/>
     </row>
-    <row r="326" spans="1:8" ht="13">
-      <c r="A326" s="47"/>
+    <row r="326" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A326" s="46"/>
       <c r="D326" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5620,8 +5609,8 @@
       <c r="G326" s="12"/>
       <c r="H326" s="13"/>
     </row>
-    <row r="327" spans="1:8" ht="13">
-      <c r="A327" s="47"/>
+    <row r="327" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A327" s="46"/>
       <c r="D327" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5630,8 +5619,8 @@
       <c r="G327" s="12"/>
       <c r="H327" s="13"/>
     </row>
-    <row r="328" spans="1:8" ht="13">
-      <c r="A328" s="47"/>
+    <row r="328" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A328" s="46"/>
       <c r="D328" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5640,8 +5629,8 @@
       <c r="G328" s="12"/>
       <c r="H328" s="13"/>
     </row>
-    <row r="329" spans="1:8" ht="13">
-      <c r="A329" s="47"/>
+    <row r="329" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A329" s="46"/>
       <c r="D329" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5650,8 +5639,8 @@
       <c r="G329" s="12"/>
       <c r="H329" s="13"/>
     </row>
-    <row r="330" spans="1:8" ht="13">
-      <c r="A330" s="47"/>
+    <row r="330" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A330" s="46"/>
       <c r="D330" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5660,8 +5649,8 @@
       <c r="G330" s="12"/>
       <c r="H330" s="13"/>
     </row>
-    <row r="331" spans="1:8" ht="13">
-      <c r="A331" s="47"/>
+    <row r="331" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A331" s="46"/>
       <c r="D331" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5670,8 +5659,8 @@
       <c r="G331" s="12"/>
       <c r="H331" s="13"/>
     </row>
-    <row r="332" spans="1:8" ht="13">
-      <c r="A332" s="47"/>
+    <row r="332" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A332" s="46"/>
       <c r="D332" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5680,8 +5669,8 @@
       <c r="G332" s="12"/>
       <c r="H332" s="13"/>
     </row>
-    <row r="333" spans="1:8" ht="13">
-      <c r="A333" s="47"/>
+    <row r="333" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A333" s="46"/>
       <c r="D333" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5690,8 +5679,8 @@
       <c r="G333" s="12"/>
       <c r="H333" s="13"/>
     </row>
-    <row r="334" spans="1:8" ht="13">
-      <c r="A334" s="47"/>
+    <row r="334" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A334" s="46"/>
       <c r="D334" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5700,8 +5689,8 @@
       <c r="G334" s="12"/>
       <c r="H334" s="13"/>
     </row>
-    <row r="335" spans="1:8" ht="13">
-      <c r="A335" s="47"/>
+    <row r="335" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A335" s="46"/>
       <c r="D335" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5710,8 +5699,8 @@
       <c r="G335" s="12"/>
       <c r="H335" s="13"/>
     </row>
-    <row r="336" spans="1:8" ht="13">
-      <c r="A336" s="47"/>
+    <row r="336" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A336" s="46"/>
       <c r="D336" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5720,8 +5709,8 @@
       <c r="G336" s="12"/>
       <c r="H336" s="13"/>
     </row>
-    <row r="337" spans="1:8" ht="13">
-      <c r="A337" s="47"/>
+    <row r="337" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A337" s="46"/>
       <c r="D337" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5730,8 +5719,8 @@
       <c r="G337" s="12"/>
       <c r="H337" s="13"/>
     </row>
-    <row r="338" spans="1:8" ht="13">
-      <c r="A338" s="47"/>
+    <row r="338" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A338" s="46"/>
       <c r="D338" s="40" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5740,4028 +5729,4030 @@
       <c r="G338" s="12"/>
       <c r="H338" s="13"/>
     </row>
-    <row r="339" spans="1:8" ht="13">
-      <c r="A339" s="47"/>
+    <row r="339" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A339" s="46"/>
       <c r="F339" s="11"/>
       <c r="G339" s="12"/>
       <c r="H339" s="13"/>
     </row>
-    <row r="340" spans="1:8" ht="13">
-      <c r="A340" s="47"/>
+    <row r="340" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A340" s="46"/>
       <c r="F340" s="11"/>
       <c r="G340" s="12"/>
       <c r="H340" s="13"/>
     </row>
-    <row r="341" spans="1:8" ht="13">
-      <c r="A341" s="47"/>
+    <row r="341" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A341" s="46"/>
       <c r="F341" s="11"/>
       <c r="G341" s="12"/>
       <c r="H341" s="13"/>
     </row>
-    <row r="342" spans="1:8" ht="13">
-      <c r="A342" s="47"/>
+    <row r="342" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A342" s="46"/>
       <c r="F342" s="11"/>
       <c r="G342" s="12"/>
       <c r="H342" s="13"/>
     </row>
-    <row r="343" spans="1:8" ht="13">
-      <c r="A343" s="47"/>
+    <row r="343" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A343" s="46"/>
       <c r="F343" s="11"/>
       <c r="G343" s="12"/>
       <c r="H343" s="13"/>
     </row>
-    <row r="344" spans="1:8" ht="13">
-      <c r="A344" s="47"/>
+    <row r="344" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A344" s="46"/>
       <c r="F344" s="11"/>
       <c r="G344" s="12"/>
       <c r="H344" s="13"/>
     </row>
-    <row r="345" spans="1:8" ht="13">
-      <c r="A345" s="47"/>
+    <row r="345" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A345" s="46"/>
       <c r="F345" s="11"/>
       <c r="G345" s="12"/>
       <c r="H345" s="13"/>
     </row>
-    <row r="346" spans="1:8" ht="13">
-      <c r="A346" s="47"/>
+    <row r="346" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A346" s="46"/>
       <c r="F346" s="11"/>
       <c r="G346" s="12"/>
       <c r="H346" s="13"/>
     </row>
-    <row r="347" spans="1:8" ht="13">
-      <c r="A347" s="47"/>
+    <row r="347" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A347" s="46"/>
       <c r="F347" s="11"/>
       <c r="G347" s="12"/>
       <c r="H347" s="13"/>
     </row>
-    <row r="348" spans="1:8" ht="13">
-      <c r="A348" s="47"/>
+    <row r="348" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A348" s="46"/>
       <c r="F348" s="11"/>
       <c r="G348" s="12"/>
       <c r="H348" s="13"/>
     </row>
-    <row r="349" spans="1:8" ht="13">
-      <c r="A349" s="47"/>
+    <row r="349" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A349" s="46"/>
       <c r="F349" s="11"/>
       <c r="G349" s="12"/>
       <c r="H349" s="13"/>
     </row>
-    <row r="350" spans="1:8" ht="13">
-      <c r="A350" s="47"/>
+    <row r="350" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A350" s="46"/>
       <c r="F350" s="11"/>
       <c r="G350" s="12"/>
       <c r="H350" s="13"/>
     </row>
-    <row r="351" spans="1:8" ht="13">
-      <c r="A351" s="47"/>
+    <row r="351" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A351" s="46"/>
       <c r="F351" s="11"/>
       <c r="G351" s="12"/>
       <c r="H351" s="13"/>
     </row>
-    <row r="352" spans="1:8" ht="13">
-      <c r="A352" s="47"/>
+    <row r="352" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A352" s="46"/>
       <c r="F352" s="11"/>
       <c r="G352" s="12"/>
       <c r="H352" s="13"/>
     </row>
-    <row r="353" spans="1:8" ht="13">
-      <c r="A353" s="47"/>
+    <row r="353" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A353" s="46"/>
       <c r="F353" s="11"/>
       <c r="G353" s="12"/>
       <c r="H353" s="13"/>
     </row>
-    <row r="354" spans="1:8" ht="13">
-      <c r="A354" s="47"/>
+    <row r="354" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A354" s="46"/>
       <c r="F354" s="11"/>
       <c r="G354" s="12"/>
       <c r="H354" s="13"/>
     </row>
-    <row r="355" spans="1:8" ht="13">
-      <c r="A355" s="47"/>
+    <row r="355" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A355" s="46"/>
       <c r="F355" s="11"/>
       <c r="G355" s="12"/>
       <c r="H355" s="13"/>
     </row>
-    <row r="356" spans="1:8" ht="13">
-      <c r="A356" s="47"/>
+    <row r="356" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A356" s="46"/>
       <c r="F356" s="11"/>
       <c r="G356" s="12"/>
       <c r="H356" s="13"/>
     </row>
-    <row r="357" spans="1:8" ht="13">
-      <c r="A357" s="47"/>
+    <row r="357" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A357" s="46"/>
       <c r="F357" s="11"/>
       <c r="G357" s="12"/>
       <c r="H357" s="13"/>
     </row>
-    <row r="358" spans="1:8" ht="13">
-      <c r="A358" s="47"/>
+    <row r="358" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A358" s="46"/>
       <c r="F358" s="11"/>
       <c r="G358" s="12"/>
       <c r="H358" s="13"/>
     </row>
-    <row r="359" spans="1:8" ht="13">
-      <c r="A359" s="47"/>
+    <row r="359" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A359" s="46"/>
       <c r="F359" s="11"/>
       <c r="G359" s="12"/>
       <c r="H359" s="13"/>
     </row>
-    <row r="360" spans="1:8" ht="13">
-      <c r="A360" s="47"/>
+    <row r="360" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A360" s="46"/>
       <c r="F360" s="11"/>
       <c r="G360" s="12"/>
       <c r="H360" s="13"/>
     </row>
-    <row r="361" spans="1:8" ht="13">
-      <c r="A361" s="47"/>
+    <row r="361" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A361" s="46"/>
       <c r="F361" s="11"/>
       <c r="G361" s="12"/>
       <c r="H361" s="13"/>
     </row>
-    <row r="362" spans="1:8" ht="13">
-      <c r="A362" s="47"/>
+    <row r="362" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A362" s="46"/>
       <c r="F362" s="11"/>
       <c r="G362" s="12"/>
       <c r="H362" s="13"/>
     </row>
-    <row r="363" spans="1:8" ht="13">
-      <c r="A363" s="47"/>
+    <row r="363" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A363" s="46"/>
       <c r="F363" s="11"/>
       <c r="G363" s="12"/>
       <c r="H363" s="13"/>
     </row>
-    <row r="364" spans="1:8" ht="13">
-      <c r="A364" s="47"/>
+    <row r="364" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A364" s="46"/>
       <c r="F364" s="11"/>
       <c r="G364" s="12"/>
       <c r="H364" s="13"/>
     </row>
-    <row r="365" spans="1:8" ht="13">
-      <c r="A365" s="47"/>
+    <row r="365" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A365" s="46"/>
       <c r="F365" s="11"/>
       <c r="G365" s="12"/>
       <c r="H365" s="13"/>
     </row>
-    <row r="366" spans="1:8" ht="13">
-      <c r="A366" s="47"/>
+    <row r="366" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A366" s="46"/>
       <c r="F366" s="11"/>
       <c r="G366" s="12"/>
       <c r="H366" s="13"/>
     </row>
-    <row r="367" spans="1:8" ht="13">
-      <c r="A367" s="47"/>
+    <row r="367" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A367" s="46"/>
       <c r="F367" s="11"/>
       <c r="G367" s="12"/>
       <c r="H367" s="13"/>
     </row>
-    <row r="368" spans="1:8" ht="13">
-      <c r="A368" s="47"/>
+    <row r="368" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A368" s="46"/>
       <c r="F368" s="11"/>
       <c r="G368" s="12"/>
       <c r="H368" s="13"/>
     </row>
-    <row r="369" spans="1:8" ht="13">
-      <c r="A369" s="47"/>
+    <row r="369" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A369" s="46"/>
       <c r="F369" s="11"/>
       <c r="G369" s="12"/>
       <c r="H369" s="13"/>
     </row>
-    <row r="370" spans="1:8" ht="13">
-      <c r="A370" s="47"/>
+    <row r="370" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A370" s="46"/>
       <c r="F370" s="11"/>
       <c r="G370" s="12"/>
       <c r="H370" s="13"/>
     </row>
-    <row r="371" spans="1:8" ht="13">
-      <c r="A371" s="47"/>
+    <row r="371" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A371" s="46"/>
       <c r="F371" s="11"/>
       <c r="G371" s="12"/>
       <c r="H371" s="13"/>
     </row>
-    <row r="372" spans="1:8" ht="13">
-      <c r="A372" s="47"/>
+    <row r="372" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A372" s="46"/>
       <c r="F372" s="11"/>
       <c r="G372" s="12"/>
       <c r="H372" s="13"/>
     </row>
-    <row r="373" spans="1:8" ht="13">
-      <c r="A373" s="47"/>
+    <row r="373" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A373" s="46"/>
       <c r="F373" s="11"/>
       <c r="G373" s="12"/>
       <c r="H373" s="13"/>
     </row>
-    <row r="374" spans="1:8" ht="13">
-      <c r="A374" s="47"/>
+    <row r="374" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A374" s="46"/>
       <c r="F374" s="11"/>
       <c r="G374" s="12"/>
       <c r="H374" s="13"/>
     </row>
-    <row r="375" spans="1:8" ht="13">
-      <c r="A375" s="47"/>
+    <row r="375" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A375" s="46"/>
       <c r="F375" s="11"/>
       <c r="G375" s="12"/>
       <c r="H375" s="13"/>
     </row>
-    <row r="376" spans="1:8" ht="13">
-      <c r="A376" s="47"/>
+    <row r="376" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A376" s="46"/>
       <c r="F376" s="11"/>
       <c r="G376" s="12"/>
       <c r="H376" s="13"/>
     </row>
-    <row r="377" spans="1:8" ht="13">
-      <c r="A377" s="47"/>
+    <row r="377" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A377" s="46"/>
       <c r="F377" s="11"/>
       <c r="G377" s="12"/>
       <c r="H377" s="13"/>
     </row>
-    <row r="378" spans="1:8" ht="13">
-      <c r="A378" s="47"/>
+    <row r="378" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A378" s="46"/>
       <c r="F378" s="11"/>
       <c r="G378" s="12"/>
       <c r="H378" s="13"/>
     </row>
-    <row r="379" spans="1:8" ht="13">
-      <c r="A379" s="47"/>
+    <row r="379" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A379" s="46"/>
       <c r="F379" s="11"/>
       <c r="G379" s="12"/>
       <c r="H379" s="13"/>
     </row>
-    <row r="380" spans="1:8" ht="13">
-      <c r="A380" s="47"/>
+    <row r="380" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A380" s="46"/>
       <c r="F380" s="11"/>
       <c r="G380" s="12"/>
       <c r="H380" s="13"/>
     </row>
-    <row r="381" spans="1:8" ht="13">
-      <c r="A381" s="47"/>
+    <row r="381" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A381" s="46"/>
       <c r="F381" s="11"/>
       <c r="G381" s="12"/>
       <c r="H381" s="13"/>
     </row>
-    <row r="382" spans="1:8" ht="13">
-      <c r="A382" s="47"/>
+    <row r="382" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A382" s="46"/>
       <c r="F382" s="11"/>
       <c r="G382" s="12"/>
       <c r="H382" s="13"/>
     </row>
-    <row r="383" spans="1:8" ht="13">
-      <c r="A383" s="47"/>
+    <row r="383" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A383" s="46"/>
       <c r="F383" s="11"/>
       <c r="G383" s="12"/>
       <c r="H383" s="13"/>
     </row>
-    <row r="384" spans="1:8" ht="13">
-      <c r="A384" s="47"/>
+    <row r="384" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A384" s="46"/>
       <c r="F384" s="11"/>
       <c r="G384" s="12"/>
       <c r="H384" s="13"/>
     </row>
-    <row r="385" spans="1:8" ht="13">
-      <c r="A385" s="47"/>
+    <row r="385" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A385" s="46"/>
       <c r="F385" s="11"/>
       <c r="G385" s="12"/>
       <c r="H385" s="13"/>
     </row>
-    <row r="386" spans="1:8" ht="13">
-      <c r="A386" s="47"/>
+    <row r="386" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A386" s="46"/>
       <c r="F386" s="11"/>
       <c r="G386" s="12"/>
       <c r="H386" s="13"/>
     </row>
-    <row r="387" spans="1:8" ht="13">
-      <c r="A387" s="47"/>
+    <row r="387" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A387" s="46"/>
       <c r="F387" s="11"/>
       <c r="G387" s="12"/>
       <c r="H387" s="13"/>
     </row>
-    <row r="388" spans="1:8" ht="13">
-      <c r="A388" s="47"/>
+    <row r="388" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A388" s="46"/>
       <c r="F388" s="11"/>
       <c r="G388" s="12"/>
       <c r="H388" s="13"/>
     </row>
-    <row r="389" spans="1:8" ht="13">
-      <c r="A389" s="47"/>
+    <row r="389" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A389" s="46"/>
       <c r="F389" s="11"/>
       <c r="G389" s="12"/>
       <c r="H389" s="13"/>
     </row>
-    <row r="390" spans="1:8" ht="13">
-      <c r="A390" s="47"/>
+    <row r="390" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A390" s="46"/>
       <c r="F390" s="11"/>
       <c r="G390" s="12"/>
       <c r="H390" s="13"/>
     </row>
-    <row r="391" spans="1:8" ht="13">
-      <c r="A391" s="47"/>
+    <row r="391" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A391" s="46"/>
       <c r="F391" s="11"/>
       <c r="G391" s="12"/>
       <c r="H391" s="13"/>
     </row>
-    <row r="392" spans="1:8" ht="13">
-      <c r="A392" s="47"/>
+    <row r="392" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A392" s="46"/>
       <c r="F392" s="11"/>
       <c r="G392" s="12"/>
       <c r="H392" s="13"/>
     </row>
-    <row r="393" spans="1:8" ht="13">
-      <c r="A393" s="47"/>
+    <row r="393" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A393" s="46"/>
       <c r="F393" s="11"/>
       <c r="G393" s="12"/>
       <c r="H393" s="13"/>
     </row>
-    <row r="394" spans="1:8" ht="13">
-      <c r="A394" s="47"/>
+    <row r="394" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A394" s="46"/>
       <c r="F394" s="11"/>
       <c r="G394" s="12"/>
       <c r="H394" s="13"/>
     </row>
-    <row r="395" spans="1:8" ht="13">
-      <c r="A395" s="47"/>
+    <row r="395" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A395" s="46"/>
       <c r="F395" s="11"/>
       <c r="G395" s="12"/>
       <c r="H395" s="13"/>
     </row>
-    <row r="396" spans="1:8" ht="13">
-      <c r="A396" s="47"/>
+    <row r="396" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A396" s="46"/>
       <c r="F396" s="11"/>
       <c r="G396" s="12"/>
       <c r="H396" s="13"/>
     </row>
-    <row r="397" spans="1:8" ht="13">
-      <c r="A397" s="47"/>
+    <row r="397" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A397" s="46"/>
       <c r="F397" s="11"/>
       <c r="G397" s="12"/>
       <c r="H397" s="13"/>
     </row>
-    <row r="398" spans="1:8" ht="13">
-      <c r="A398" s="47"/>
+    <row r="398" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A398" s="46"/>
       <c r="F398" s="11"/>
       <c r="G398" s="12"/>
       <c r="H398" s="13"/>
     </row>
-    <row r="399" spans="1:8" ht="13">
-      <c r="A399" s="47"/>
+    <row r="399" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A399" s="46"/>
       <c r="F399" s="11"/>
       <c r="G399" s="12"/>
       <c r="H399" s="13"/>
     </row>
-    <row r="400" spans="1:8" ht="13">
-      <c r="A400" s="47"/>
+    <row r="400" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A400" s="46"/>
       <c r="F400" s="11"/>
       <c r="G400" s="12"/>
       <c r="H400" s="13"/>
     </row>
-    <row r="401" spans="1:8" ht="13">
-      <c r="A401" s="47"/>
+    <row r="401" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A401" s="46"/>
       <c r="F401" s="11"/>
       <c r="G401" s="12"/>
       <c r="H401" s="13"/>
     </row>
-    <row r="402" spans="1:8" ht="13">
-      <c r="A402" s="47"/>
+    <row r="402" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A402" s="46"/>
       <c r="F402" s="11"/>
       <c r="G402" s="12"/>
       <c r="H402" s="13"/>
     </row>
-    <row r="403" spans="1:8" ht="13">
-      <c r="A403" s="47"/>
+    <row r="403" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A403" s="46"/>
       <c r="F403" s="11"/>
       <c r="G403" s="12"/>
       <c r="H403" s="13"/>
     </row>
-    <row r="404" spans="1:8" ht="13">
-      <c r="A404" s="47"/>
+    <row r="404" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A404" s="46"/>
       <c r="F404" s="11"/>
       <c r="G404" s="12"/>
       <c r="H404" s="13"/>
     </row>
-    <row r="405" spans="1:8" ht="13">
-      <c r="A405" s="47"/>
+    <row r="405" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A405" s="46"/>
       <c r="F405" s="11"/>
       <c r="G405" s="12"/>
       <c r="H405" s="13"/>
     </row>
-    <row r="406" spans="1:8" ht="13">
-      <c r="A406" s="47"/>
+    <row r="406" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A406" s="46"/>
       <c r="F406" s="11"/>
       <c r="G406" s="12"/>
       <c r="H406" s="13"/>
     </row>
-    <row r="407" spans="1:8" ht="13">
-      <c r="A407" s="47"/>
+    <row r="407" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A407" s="46"/>
       <c r="F407" s="11"/>
       <c r="G407" s="12"/>
       <c r="H407" s="13"/>
     </row>
-    <row r="408" spans="1:8" ht="13">
-      <c r="A408" s="47"/>
+    <row r="408" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A408" s="46"/>
       <c r="F408" s="11"/>
       <c r="G408" s="12"/>
       <c r="H408" s="13"/>
     </row>
-    <row r="409" spans="1:8" ht="13">
-      <c r="A409" s="47"/>
+    <row r="409" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A409" s="46"/>
       <c r="F409" s="11"/>
       <c r="G409" s="12"/>
       <c r="H409" s="13"/>
     </row>
-    <row r="410" spans="1:8" ht="13">
-      <c r="A410" s="47"/>
+    <row r="410" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A410" s="46"/>
       <c r="F410" s="11"/>
       <c r="G410" s="12"/>
       <c r="H410" s="13"/>
     </row>
-    <row r="411" spans="1:8" ht="13">
-      <c r="A411" s="47"/>
+    <row r="411" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A411" s="46"/>
       <c r="F411" s="11"/>
       <c r="G411" s="12"/>
       <c r="H411" s="13"/>
     </row>
-    <row r="412" spans="1:8" ht="13">
-      <c r="A412" s="47"/>
+    <row r="412" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A412" s="46"/>
       <c r="F412" s="11"/>
       <c r="G412" s="12"/>
       <c r="H412" s="13"/>
     </row>
-    <row r="413" spans="1:8" ht="13">
-      <c r="A413" s="47"/>
+    <row r="413" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A413" s="46"/>
       <c r="F413" s="11"/>
       <c r="G413" s="12"/>
       <c r="H413" s="13"/>
     </row>
-    <row r="414" spans="1:8" ht="13">
-      <c r="A414" s="47"/>
+    <row r="414" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A414" s="46"/>
       <c r="F414" s="11"/>
       <c r="G414" s="12"/>
       <c r="H414" s="13"/>
     </row>
-    <row r="415" spans="1:8" ht="13">
-      <c r="A415" s="47"/>
+    <row r="415" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A415" s="46"/>
       <c r="F415" s="11"/>
       <c r="G415" s="12"/>
       <c r="H415" s="13"/>
     </row>
-    <row r="416" spans="1:8" ht="13">
-      <c r="A416" s="47"/>
+    <row r="416" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A416" s="46"/>
       <c r="F416" s="11"/>
       <c r="G416" s="12"/>
       <c r="H416" s="13"/>
     </row>
-    <row r="417" spans="1:8" ht="13">
-      <c r="A417" s="47"/>
+    <row r="417" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A417" s="46"/>
       <c r="F417" s="11"/>
       <c r="G417" s="12"/>
       <c r="H417" s="13"/>
     </row>
-    <row r="418" spans="1:8" ht="13">
-      <c r="A418" s="47"/>
+    <row r="418" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A418" s="46"/>
       <c r="F418" s="11"/>
       <c r="G418" s="12"/>
       <c r="H418" s="13"/>
     </row>
-    <row r="419" spans="1:8" ht="13">
-      <c r="A419" s="47"/>
+    <row r="419" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A419" s="46"/>
       <c r="F419" s="11"/>
       <c r="G419" s="12"/>
       <c r="H419" s="13"/>
     </row>
-    <row r="420" spans="1:8" ht="13">
-      <c r="A420" s="47"/>
+    <row r="420" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A420" s="46"/>
       <c r="F420" s="11"/>
       <c r="G420" s="12"/>
       <c r="H420" s="13"/>
     </row>
-    <row r="421" spans="1:8" ht="13">
-      <c r="A421" s="47"/>
+    <row r="421" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A421" s="46"/>
       <c r="F421" s="11"/>
       <c r="G421" s="12"/>
       <c r="H421" s="13"/>
     </row>
-    <row r="422" spans="1:8" ht="13">
-      <c r="A422" s="47"/>
+    <row r="422" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A422" s="46"/>
       <c r="F422" s="11"/>
       <c r="G422" s="12"/>
       <c r="H422" s="13"/>
     </row>
-    <row r="423" spans="1:8" ht="13">
-      <c r="A423" s="47"/>
+    <row r="423" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A423" s="46"/>
       <c r="F423" s="11"/>
       <c r="G423" s="12"/>
       <c r="H423" s="13"/>
     </row>
-    <row r="424" spans="1:8" ht="13">
-      <c r="A424" s="47"/>
+    <row r="424" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A424" s="46"/>
       <c r="F424" s="11"/>
       <c r="G424" s="12"/>
       <c r="H424" s="13"/>
     </row>
-    <row r="425" spans="1:8" ht="13">
-      <c r="A425" s="47"/>
+    <row r="425" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A425" s="46"/>
       <c r="F425" s="11"/>
       <c r="G425" s="12"/>
       <c r="H425" s="13"/>
     </row>
-    <row r="426" spans="1:8" ht="13">
-      <c r="A426" s="47"/>
+    <row r="426" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A426" s="46"/>
       <c r="F426" s="11"/>
       <c r="G426" s="12"/>
       <c r="H426" s="13"/>
     </row>
-    <row r="427" spans="1:8" ht="13">
-      <c r="A427" s="47"/>
+    <row r="427" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A427" s="46"/>
       <c r="F427" s="11"/>
       <c r="G427" s="12"/>
       <c r="H427" s="13"/>
     </row>
-    <row r="428" spans="1:8" ht="13">
-      <c r="A428" s="47"/>
+    <row r="428" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A428" s="46"/>
       <c r="F428" s="11"/>
       <c r="G428" s="12"/>
       <c r="H428" s="13"/>
     </row>
-    <row r="429" spans="1:8" ht="13">
-      <c r="A429" s="47"/>
+    <row r="429" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A429" s="46"/>
       <c r="F429" s="11"/>
       <c r="G429" s="12"/>
       <c r="H429" s="13"/>
     </row>
-    <row r="430" spans="1:8" ht="13">
-      <c r="A430" s="47"/>
+    <row r="430" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A430" s="46"/>
       <c r="F430" s="11"/>
       <c r="G430" s="12"/>
       <c r="H430" s="13"/>
     </row>
-    <row r="431" spans="1:8" ht="13">
-      <c r="A431" s="47"/>
+    <row r="431" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A431" s="46"/>
       <c r="F431" s="11"/>
       <c r="G431" s="12"/>
       <c r="H431" s="13"/>
     </row>
-    <row r="432" spans="1:8" ht="13">
-      <c r="A432" s="47"/>
+    <row r="432" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A432" s="46"/>
       <c r="F432" s="11"/>
       <c r="G432" s="12"/>
       <c r="H432" s="13"/>
     </row>
-    <row r="433" spans="1:8" ht="13">
-      <c r="A433" s="47"/>
+    <row r="433" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A433" s="46"/>
       <c r="F433" s="11"/>
       <c r="G433" s="12"/>
       <c r="H433" s="13"/>
     </row>
-    <row r="434" spans="1:8" ht="13">
-      <c r="A434" s="47"/>
+    <row r="434" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A434" s="46"/>
       <c r="F434" s="11"/>
       <c r="G434" s="12"/>
       <c r="H434" s="13"/>
     </row>
-    <row r="435" spans="1:8" ht="13">
-      <c r="A435" s="47"/>
+    <row r="435" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A435" s="46"/>
       <c r="F435" s="11"/>
       <c r="G435" s="12"/>
       <c r="H435" s="13"/>
     </row>
-    <row r="436" spans="1:8" ht="13">
-      <c r="A436" s="47"/>
+    <row r="436" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A436" s="46"/>
       <c r="F436" s="11"/>
       <c r="G436" s="12"/>
       <c r="H436" s="13"/>
     </row>
-    <row r="437" spans="1:8" ht="13">
-      <c r="A437" s="47"/>
+    <row r="437" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A437" s="46"/>
       <c r="F437" s="11"/>
       <c r="G437" s="12"/>
       <c r="H437" s="13"/>
     </row>
-    <row r="438" spans="1:8" ht="13">
-      <c r="A438" s="47"/>
+    <row r="438" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A438" s="46"/>
       <c r="F438" s="11"/>
       <c r="G438" s="12"/>
       <c r="H438" s="13"/>
     </row>
-    <row r="439" spans="1:8" ht="13">
-      <c r="A439" s="47"/>
+    <row r="439" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A439" s="46"/>
       <c r="F439" s="11"/>
       <c r="G439" s="12"/>
       <c r="H439" s="13"/>
     </row>
-    <row r="440" spans="1:8" ht="13">
-      <c r="A440" s="47"/>
+    <row r="440" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A440" s="46"/>
       <c r="F440" s="11"/>
       <c r="G440" s="12"/>
       <c r="H440" s="13"/>
     </row>
-    <row r="441" spans="1:8" ht="13">
-      <c r="A441" s="47"/>
+    <row r="441" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A441" s="46"/>
       <c r="F441" s="11"/>
       <c r="G441" s="12"/>
       <c r="H441" s="13"/>
     </row>
-    <row r="442" spans="1:8" ht="13">
-      <c r="A442" s="47"/>
+    <row r="442" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A442" s="46"/>
       <c r="F442" s="11"/>
       <c r="G442" s="12"/>
       <c r="H442" s="13"/>
     </row>
-    <row r="443" spans="1:8" ht="13">
-      <c r="A443" s="47"/>
+    <row r="443" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A443" s="46"/>
       <c r="F443" s="11"/>
       <c r="G443" s="12"/>
       <c r="H443" s="13"/>
     </row>
-    <row r="444" spans="1:8" ht="13">
-      <c r="A444" s="47"/>
+    <row r="444" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A444" s="46"/>
       <c r="F444" s="11"/>
       <c r="G444" s="12"/>
       <c r="H444" s="13"/>
     </row>
-    <row r="445" spans="1:8" ht="13">
-      <c r="A445" s="47"/>
+    <row r="445" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A445" s="46"/>
       <c r="F445" s="11"/>
       <c r="G445" s="12"/>
       <c r="H445" s="13"/>
     </row>
-    <row r="446" spans="1:8" ht="13">
-      <c r="A446" s="47"/>
+    <row r="446" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A446" s="46"/>
       <c r="F446" s="11"/>
       <c r="G446" s="12"/>
       <c r="H446" s="13"/>
     </row>
-    <row r="447" spans="1:8" ht="13">
-      <c r="A447" s="47"/>
+    <row r="447" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A447" s="46"/>
       <c r="F447" s="11"/>
       <c r="G447" s="12"/>
       <c r="H447" s="13"/>
     </row>
-    <row r="448" spans="1:8" ht="13">
-      <c r="A448" s="47"/>
+    <row r="448" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A448" s="46"/>
       <c r="F448" s="11"/>
       <c r="G448" s="12"/>
       <c r="H448" s="13"/>
     </row>
-    <row r="449" spans="1:8" ht="13">
-      <c r="A449" s="47"/>
+    <row r="449" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A449" s="46"/>
       <c r="F449" s="11"/>
       <c r="G449" s="12"/>
       <c r="H449" s="13"/>
     </row>
-    <row r="450" spans="1:8" ht="13">
-      <c r="A450" s="47"/>
+    <row r="450" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A450" s="46"/>
       <c r="F450" s="11"/>
       <c r="G450" s="12"/>
       <c r="H450" s="13"/>
     </row>
-    <row r="451" spans="1:8" ht="13">
-      <c r="A451" s="47"/>
+    <row r="451" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A451" s="46"/>
       <c r="F451" s="11"/>
       <c r="G451" s="12"/>
       <c r="H451" s="13"/>
     </row>
-    <row r="452" spans="1:8" ht="13">
-      <c r="A452" s="47"/>
+    <row r="452" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A452" s="46"/>
       <c r="F452" s="11"/>
       <c r="G452" s="12"/>
       <c r="H452" s="13"/>
     </row>
-    <row r="453" spans="1:8" ht="13">
-      <c r="A453" s="47"/>
+    <row r="453" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A453" s="46"/>
       <c r="F453" s="11"/>
       <c r="G453" s="12"/>
       <c r="H453" s="13"/>
     </row>
-    <row r="454" spans="1:8" ht="13">
-      <c r="A454" s="47"/>
+    <row r="454" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A454" s="46"/>
       <c r="F454" s="11"/>
       <c r="G454" s="12"/>
       <c r="H454" s="13"/>
     </row>
-    <row r="455" spans="1:8" ht="13">
-      <c r="A455" s="47"/>
+    <row r="455" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A455" s="46"/>
       <c r="F455" s="11"/>
       <c r="G455" s="12"/>
       <c r="H455" s="13"/>
     </row>
-    <row r="456" spans="1:8" ht="13">
-      <c r="A456" s="47"/>
+    <row r="456" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A456" s="46"/>
       <c r="F456" s="11"/>
       <c r="G456" s="12"/>
       <c r="H456" s="13"/>
     </row>
-    <row r="457" spans="1:8" ht="13">
-      <c r="A457" s="47"/>
+    <row r="457" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A457" s="46"/>
       <c r="F457" s="11"/>
       <c r="G457" s="12"/>
       <c r="H457" s="13"/>
     </row>
-    <row r="458" spans="1:8" ht="13">
-      <c r="A458" s="47"/>
+    <row r="458" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A458" s="46"/>
       <c r="F458" s="11"/>
       <c r="G458" s="12"/>
       <c r="H458" s="13"/>
     </row>
-    <row r="459" spans="1:8" ht="13">
-      <c r="A459" s="47"/>
+    <row r="459" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A459" s="46"/>
       <c r="F459" s="11"/>
       <c r="G459" s="12"/>
       <c r="H459" s="13"/>
     </row>
-    <row r="460" spans="1:8" ht="13">
-      <c r="A460" s="47"/>
+    <row r="460" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A460" s="46"/>
       <c r="F460" s="11"/>
       <c r="G460" s="12"/>
       <c r="H460" s="13"/>
     </row>
-    <row r="461" spans="1:8" ht="13">
-      <c r="A461" s="47"/>
+    <row r="461" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A461" s="46"/>
       <c r="F461" s="11"/>
       <c r="G461" s="12"/>
       <c r="H461" s="13"/>
     </row>
-    <row r="462" spans="1:8" ht="13">
-      <c r="A462" s="47"/>
+    <row r="462" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A462" s="46"/>
       <c r="F462" s="11"/>
       <c r="G462" s="12"/>
       <c r="H462" s="13"/>
     </row>
-    <row r="463" spans="1:8" ht="13">
-      <c r="A463" s="47"/>
+    <row r="463" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A463" s="46"/>
       <c r="F463" s="11"/>
       <c r="G463" s="12"/>
       <c r="H463" s="13"/>
     </row>
-    <row r="464" spans="1:8" ht="13">
-      <c r="A464" s="47"/>
+    <row r="464" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A464" s="46"/>
       <c r="F464" s="11"/>
       <c r="G464" s="12"/>
       <c r="H464" s="13"/>
     </row>
-    <row r="465" spans="1:8" ht="13">
-      <c r="A465" s="47"/>
+    <row r="465" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A465" s="46"/>
       <c r="F465" s="11"/>
       <c r="G465" s="12"/>
       <c r="H465" s="13"/>
     </row>
-    <row r="466" spans="1:8" ht="13">
-      <c r="A466" s="47"/>
+    <row r="466" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A466" s="46"/>
       <c r="F466" s="11"/>
       <c r="G466" s="12"/>
       <c r="H466" s="13"/>
     </row>
-    <row r="467" spans="1:8" ht="13">
-      <c r="A467" s="47"/>
+    <row r="467" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A467" s="46"/>
       <c r="F467" s="11"/>
       <c r="G467" s="12"/>
       <c r="H467" s="13"/>
     </row>
-    <row r="468" spans="1:8" ht="13">
-      <c r="A468" s="47"/>
+    <row r="468" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A468" s="46"/>
       <c r="F468" s="11"/>
       <c r="G468" s="12"/>
       <c r="H468" s="13"/>
     </row>
-    <row r="469" spans="1:8" ht="13">
-      <c r="A469" s="47"/>
+    <row r="469" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A469" s="46"/>
       <c r="F469" s="11"/>
       <c r="G469" s="12"/>
       <c r="H469" s="13"/>
     </row>
-    <row r="470" spans="1:8" ht="13">
-      <c r="A470" s="47"/>
+    <row r="470" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A470" s="46"/>
       <c r="F470" s="11"/>
       <c r="G470" s="12"/>
       <c r="H470" s="13"/>
     </row>
-    <row r="471" spans="1:8" ht="13">
-      <c r="A471" s="47"/>
+    <row r="471" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A471" s="46"/>
       <c r="F471" s="11"/>
       <c r="G471" s="12"/>
       <c r="H471" s="13"/>
     </row>
-    <row r="472" spans="1:8" ht="13">
-      <c r="A472" s="47"/>
+    <row r="472" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A472" s="46"/>
       <c r="F472" s="11"/>
       <c r="G472" s="12"/>
       <c r="H472" s="13"/>
     </row>
-    <row r="473" spans="1:8" ht="13">
-      <c r="A473" s="47"/>
+    <row r="473" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A473" s="46"/>
       <c r="F473" s="11"/>
       <c r="G473" s="12"/>
       <c r="H473" s="13"/>
     </row>
-    <row r="474" spans="1:8" ht="13">
-      <c r="A474" s="47"/>
+    <row r="474" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A474" s="46"/>
       <c r="F474" s="11"/>
       <c r="G474" s="12"/>
       <c r="H474" s="13"/>
     </row>
-    <row r="475" spans="1:8" ht="13">
-      <c r="A475" s="47"/>
+    <row r="475" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A475" s="46"/>
       <c r="F475" s="11"/>
       <c r="G475" s="12"/>
       <c r="H475" s="13"/>
     </row>
-    <row r="476" spans="1:8" ht="13">
-      <c r="A476" s="47"/>
+    <row r="476" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A476" s="46"/>
       <c r="F476" s="11"/>
       <c r="G476" s="12"/>
       <c r="H476" s="13"/>
     </row>
-    <row r="477" spans="1:8" ht="13">
-      <c r="A477" s="47"/>
+    <row r="477" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A477" s="46"/>
       <c r="F477" s="11"/>
       <c r="G477" s="12"/>
       <c r="H477" s="13"/>
     </row>
-    <row r="478" spans="1:8" ht="13">
-      <c r="A478" s="47"/>
+    <row r="478" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A478" s="46"/>
       <c r="F478" s="11"/>
       <c r="G478" s="12"/>
       <c r="H478" s="13"/>
     </row>
-    <row r="479" spans="1:8" ht="13">
-      <c r="A479" s="47"/>
+    <row r="479" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A479" s="46"/>
       <c r="F479" s="11"/>
       <c r="G479" s="12"/>
       <c r="H479" s="13"/>
     </row>
-    <row r="480" spans="1:8" ht="13">
-      <c r="A480" s="47"/>
+    <row r="480" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A480" s="46"/>
       <c r="F480" s="11"/>
       <c r="G480" s="12"/>
       <c r="H480" s="13"/>
     </row>
-    <row r="481" spans="1:8" ht="13">
-      <c r="A481" s="47"/>
+    <row r="481" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A481" s="46"/>
       <c r="F481" s="11"/>
       <c r="G481" s="12"/>
       <c r="H481" s="13"/>
     </row>
-    <row r="482" spans="1:8" ht="13">
-      <c r="A482" s="47"/>
+    <row r="482" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A482" s="46"/>
       <c r="F482" s="11"/>
       <c r="G482" s="12"/>
       <c r="H482" s="13"/>
     </row>
-    <row r="483" spans="1:8" ht="13">
-      <c r="A483" s="47"/>
+    <row r="483" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A483" s="46"/>
       <c r="F483" s="11"/>
       <c r="G483" s="12"/>
       <c r="H483" s="13"/>
     </row>
-    <row r="484" spans="1:8" ht="13">
-      <c r="A484" s="47"/>
+    <row r="484" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A484" s="46"/>
       <c r="F484" s="11"/>
       <c r="G484" s="12"/>
       <c r="H484" s="13"/>
     </row>
-    <row r="485" spans="1:8" ht="13">
-      <c r="A485" s="47"/>
+    <row r="485" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A485" s="46"/>
       <c r="F485" s="11"/>
       <c r="G485" s="12"/>
       <c r="H485" s="13"/>
     </row>
-    <row r="486" spans="1:8" ht="13">
-      <c r="A486" s="47"/>
+    <row r="486" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A486" s="46"/>
       <c r="F486" s="11"/>
       <c r="G486" s="12"/>
       <c r="H486" s="13"/>
     </row>
-    <row r="487" spans="1:8" ht="13">
-      <c r="A487" s="47"/>
+    <row r="487" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A487" s="46"/>
       <c r="F487" s="11"/>
       <c r="G487" s="12"/>
       <c r="H487" s="13"/>
     </row>
-    <row r="488" spans="1:8" ht="13">
-      <c r="A488" s="47"/>
+    <row r="488" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A488" s="46"/>
       <c r="F488" s="11"/>
       <c r="G488" s="12"/>
       <c r="H488" s="13"/>
     </row>
-    <row r="489" spans="1:8" ht="13">
-      <c r="A489" s="47"/>
+    <row r="489" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A489" s="46"/>
       <c r="F489" s="11"/>
       <c r="G489" s="12"/>
       <c r="H489" s="13"/>
     </row>
-    <row r="490" spans="1:8" ht="13">
-      <c r="A490" s="47"/>
+    <row r="490" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A490" s="46"/>
       <c r="F490" s="11"/>
       <c r="G490" s="12"/>
       <c r="H490" s="13"/>
     </row>
-    <row r="491" spans="1:8" ht="13">
-      <c r="A491" s="47"/>
+    <row r="491" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A491" s="46"/>
       <c r="F491" s="11"/>
       <c r="G491" s="12"/>
       <c r="H491" s="13"/>
     </row>
-    <row r="492" spans="1:8" ht="13">
-      <c r="A492" s="47"/>
+    <row r="492" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A492" s="46"/>
       <c r="F492" s="11"/>
       <c r="G492" s="12"/>
       <c r="H492" s="13"/>
     </row>
-    <row r="493" spans="1:8" ht="13">
-      <c r="A493" s="47"/>
+    <row r="493" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A493" s="46"/>
       <c r="F493" s="11"/>
       <c r="G493" s="12"/>
       <c r="H493" s="13"/>
     </row>
-    <row r="494" spans="1:8" ht="13">
-      <c r="A494" s="47"/>
+    <row r="494" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A494" s="46"/>
       <c r="F494" s="11"/>
       <c r="G494" s="12"/>
       <c r="H494" s="13"/>
     </row>
-    <row r="495" spans="1:8" ht="13">
-      <c r="A495" s="47"/>
+    <row r="495" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A495" s="46"/>
       <c r="F495" s="11"/>
       <c r="G495" s="12"/>
       <c r="H495" s="13"/>
     </row>
-    <row r="496" spans="1:8" ht="13">
-      <c r="A496" s="47"/>
+    <row r="496" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A496" s="46"/>
       <c r="F496" s="11"/>
       <c r="G496" s="12"/>
       <c r="H496" s="13"/>
     </row>
-    <row r="497" spans="1:8" ht="13">
-      <c r="A497" s="47"/>
+    <row r="497" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A497" s="46"/>
       <c r="F497" s="11"/>
       <c r="G497" s="12"/>
       <c r="H497" s="13"/>
     </row>
-    <row r="498" spans="1:8" ht="13">
-      <c r="A498" s="47"/>
+    <row r="498" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A498" s="46"/>
       <c r="F498" s="11"/>
       <c r="G498" s="12"/>
       <c r="H498" s="13"/>
     </row>
-    <row r="499" spans="1:8" ht="13">
-      <c r="A499" s="47"/>
+    <row r="499" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A499" s="46"/>
       <c r="F499" s="11"/>
       <c r="G499" s="12"/>
       <c r="H499" s="13"/>
     </row>
-    <row r="500" spans="1:8" ht="13">
-      <c r="A500" s="47"/>
+    <row r="500" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A500" s="46"/>
       <c r="F500" s="11"/>
       <c r="G500" s="12"/>
       <c r="H500" s="13"/>
     </row>
-    <row r="501" spans="1:8" ht="13">
-      <c r="A501" s="47"/>
+    <row r="501" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A501" s="46"/>
       <c r="F501" s="11"/>
       <c r="G501" s="12"/>
       <c r="H501" s="13"/>
     </row>
-    <row r="502" spans="1:8" ht="13">
-      <c r="A502" s="47"/>
+    <row r="502" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A502" s="46"/>
       <c r="F502" s="11"/>
       <c r="G502" s="12"/>
       <c r="H502" s="13"/>
     </row>
-    <row r="503" spans="1:8" ht="13">
-      <c r="A503" s="47"/>
+    <row r="503" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A503" s="46"/>
       <c r="F503" s="11"/>
       <c r="G503" s="12"/>
       <c r="H503" s="13"/>
     </row>
-    <row r="504" spans="1:8" ht="13">
-      <c r="A504" s="47"/>
+    <row r="504" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A504" s="46"/>
       <c r="F504" s="11"/>
       <c r="G504" s="12"/>
       <c r="H504" s="13"/>
     </row>
-    <row r="505" spans="1:8" ht="13">
-      <c r="A505" s="47"/>
+    <row r="505" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A505" s="46"/>
       <c r="F505" s="11"/>
       <c r="G505" s="12"/>
       <c r="H505" s="13"/>
     </row>
-    <row r="506" spans="1:8" ht="13">
-      <c r="A506" s="47"/>
+    <row r="506" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A506" s="46"/>
       <c r="F506" s="11"/>
       <c r="G506" s="12"/>
       <c r="H506" s="13"/>
     </row>
-    <row r="507" spans="1:8" ht="13">
-      <c r="A507" s="47"/>
+    <row r="507" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A507" s="46"/>
       <c r="F507" s="11"/>
       <c r="G507" s="12"/>
       <c r="H507" s="13"/>
     </row>
-    <row r="508" spans="1:8" ht="13">
-      <c r="A508" s="47"/>
+    <row r="508" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A508" s="46"/>
       <c r="F508" s="11"/>
       <c r="G508" s="12"/>
       <c r="H508" s="13"/>
     </row>
-    <row r="509" spans="1:8" ht="13">
-      <c r="A509" s="47"/>
+    <row r="509" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A509" s="46"/>
       <c r="F509" s="11"/>
       <c r="G509" s="12"/>
       <c r="H509" s="13"/>
     </row>
-    <row r="510" spans="1:8" ht="13">
-      <c r="A510" s="47"/>
+    <row r="510" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A510" s="46"/>
       <c r="F510" s="11"/>
       <c r="G510" s="12"/>
       <c r="H510" s="13"/>
     </row>
-    <row r="511" spans="1:8" ht="13">
-      <c r="A511" s="47"/>
+    <row r="511" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A511" s="46"/>
       <c r="F511" s="11"/>
       <c r="G511" s="12"/>
       <c r="H511" s="13"/>
     </row>
-    <row r="512" spans="1:8" ht="13">
-      <c r="A512" s="47"/>
+    <row r="512" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A512" s="46"/>
       <c r="F512" s="11"/>
       <c r="G512" s="12"/>
       <c r="H512" s="13"/>
     </row>
-    <row r="513" spans="1:8" ht="13">
-      <c r="A513" s="47"/>
+    <row r="513" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A513" s="46"/>
       <c r="F513" s="11"/>
       <c r="G513" s="12"/>
       <c r="H513" s="13"/>
     </row>
-    <row r="514" spans="1:8" ht="13">
-      <c r="A514" s="47"/>
+    <row r="514" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A514" s="46"/>
       <c r="F514" s="11"/>
       <c r="G514" s="12"/>
       <c r="H514" s="13"/>
     </row>
-    <row r="515" spans="1:8" ht="13">
-      <c r="A515" s="47"/>
+    <row r="515" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A515" s="46"/>
       <c r="F515" s="11"/>
       <c r="G515" s="12"/>
       <c r="H515" s="13"/>
     </row>
-    <row r="516" spans="1:8" ht="13">
-      <c r="A516" s="47"/>
+    <row r="516" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A516" s="46"/>
       <c r="F516" s="11"/>
       <c r="G516" s="12"/>
       <c r="H516" s="13"/>
     </row>
-    <row r="517" spans="1:8" ht="13">
-      <c r="A517" s="47"/>
+    <row r="517" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A517" s="46"/>
       <c r="F517" s="11"/>
       <c r="G517" s="12"/>
       <c r="H517" s="13"/>
     </row>
-    <row r="518" spans="1:8" ht="13">
-      <c r="A518" s="47"/>
+    <row r="518" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A518" s="46"/>
       <c r="F518" s="11"/>
       <c r="G518" s="12"/>
       <c r="H518" s="13"/>
     </row>
-    <row r="519" spans="1:8" ht="13">
-      <c r="A519" s="47"/>
+    <row r="519" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A519" s="46"/>
       <c r="F519" s="11"/>
       <c r="G519" s="12"/>
       <c r="H519" s="13"/>
     </row>
-    <row r="520" spans="1:8" ht="13">
-      <c r="A520" s="47"/>
+    <row r="520" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A520" s="46"/>
       <c r="F520" s="11"/>
       <c r="G520" s="12"/>
       <c r="H520" s="13"/>
     </row>
-    <row r="521" spans="1:8" ht="13">
-      <c r="A521" s="47"/>
+    <row r="521" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A521" s="46"/>
       <c r="F521" s="11"/>
       <c r="G521" s="12"/>
       <c r="H521" s="13"/>
     </row>
-    <row r="522" spans="1:8" ht="13">
-      <c r="A522" s="47"/>
+    <row r="522" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A522" s="46"/>
       <c r="F522" s="11"/>
       <c r="G522" s="12"/>
       <c r="H522" s="13"/>
     </row>
-    <row r="523" spans="1:8" ht="13">
-      <c r="A523" s="47"/>
+    <row r="523" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A523" s="46"/>
       <c r="F523" s="11"/>
       <c r="G523" s="12"/>
       <c r="H523" s="13"/>
     </row>
-    <row r="524" spans="1:8" ht="13">
-      <c r="A524" s="47"/>
+    <row r="524" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A524" s="46"/>
       <c r="F524" s="11"/>
       <c r="G524" s="12"/>
       <c r="H524" s="13"/>
     </row>
-    <row r="525" spans="1:8" ht="13">
-      <c r="A525" s="47"/>
+    <row r="525" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A525" s="46"/>
       <c r="F525" s="11"/>
       <c r="G525" s="12"/>
       <c r="H525" s="13"/>
     </row>
-    <row r="526" spans="1:8" ht="13">
-      <c r="A526" s="47"/>
+    <row r="526" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A526" s="46"/>
       <c r="F526" s="11"/>
       <c r="G526" s="12"/>
       <c r="H526" s="13"/>
     </row>
-    <row r="527" spans="1:8" ht="13">
-      <c r="A527" s="47"/>
+    <row r="527" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A527" s="46"/>
       <c r="F527" s="11"/>
       <c r="G527" s="12"/>
       <c r="H527" s="13"/>
     </row>
-    <row r="528" spans="1:8" ht="13">
-      <c r="A528" s="47"/>
+    <row r="528" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A528" s="46"/>
       <c r="F528" s="11"/>
       <c r="G528" s="12"/>
       <c r="H528" s="13"/>
     </row>
-    <row r="529" spans="1:8" ht="13">
-      <c r="A529" s="47"/>
+    <row r="529" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A529" s="46"/>
       <c r="F529" s="11"/>
       <c r="G529" s="12"/>
       <c r="H529" s="13"/>
     </row>
-    <row r="530" spans="1:8" ht="13">
-      <c r="A530" s="47"/>
+    <row r="530" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A530" s="46"/>
       <c r="F530" s="11"/>
       <c r="G530" s="12"/>
       <c r="H530" s="13"/>
     </row>
-    <row r="531" spans="1:8" ht="13">
-      <c r="A531" s="47"/>
+    <row r="531" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A531" s="46"/>
       <c r="F531" s="11"/>
       <c r="G531" s="12"/>
       <c r="H531" s="13"/>
     </row>
-    <row r="532" spans="1:8" ht="13">
-      <c r="A532" s="47"/>
+    <row r="532" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A532" s="46"/>
       <c r="F532" s="11"/>
       <c r="G532" s="12"/>
       <c r="H532" s="13"/>
     </row>
-    <row r="533" spans="1:8" ht="13">
-      <c r="A533" s="47"/>
+    <row r="533" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A533" s="46"/>
       <c r="F533" s="11"/>
       <c r="G533" s="12"/>
       <c r="H533" s="13"/>
     </row>
-    <row r="534" spans="1:8" ht="13">
-      <c r="A534" s="47"/>
+    <row r="534" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A534" s="46"/>
       <c r="F534" s="11"/>
       <c r="G534" s="12"/>
       <c r="H534" s="13"/>
     </row>
-    <row r="535" spans="1:8" ht="13">
-      <c r="A535" s="47"/>
+    <row r="535" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A535" s="46"/>
       <c r="F535" s="11"/>
       <c r="G535" s="12"/>
       <c r="H535" s="13"/>
     </row>
-    <row r="536" spans="1:8" ht="13">
-      <c r="A536" s="47"/>
+    <row r="536" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A536" s="46"/>
       <c r="F536" s="11"/>
       <c r="G536" s="12"/>
       <c r="H536" s="13"/>
     </row>
-    <row r="537" spans="1:8" ht="13">
-      <c r="A537" s="47"/>
+    <row r="537" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A537" s="46"/>
       <c r="F537" s="11"/>
       <c r="G537" s="12"/>
       <c r="H537" s="13"/>
     </row>
-    <row r="538" spans="1:8" ht="13">
-      <c r="A538" s="47"/>
+    <row r="538" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A538" s="46"/>
       <c r="F538" s="11"/>
       <c r="G538" s="12"/>
       <c r="H538" s="13"/>
     </row>
-    <row r="539" spans="1:8" ht="13">
-      <c r="A539" s="47"/>
+    <row r="539" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A539" s="46"/>
       <c r="F539" s="11"/>
       <c r="G539" s="12"/>
       <c r="H539" s="13"/>
     </row>
-    <row r="540" spans="1:8" ht="13">
-      <c r="A540" s="47"/>
+    <row r="540" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A540" s="46"/>
       <c r="F540" s="11"/>
       <c r="G540" s="12"/>
       <c r="H540" s="13"/>
     </row>
-    <row r="541" spans="1:8" ht="13">
-      <c r="A541" s="47"/>
+    <row r="541" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A541" s="46"/>
       <c r="F541" s="11"/>
       <c r="G541" s="12"/>
       <c r="H541" s="13"/>
     </row>
-    <row r="542" spans="1:8" ht="13">
-      <c r="A542" s="47"/>
+    <row r="542" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A542" s="46"/>
       <c r="F542" s="11"/>
       <c r="G542" s="12"/>
       <c r="H542" s="13"/>
     </row>
-    <row r="543" spans="1:8" ht="13">
-      <c r="A543" s="47"/>
+    <row r="543" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A543" s="46"/>
       <c r="F543" s="11"/>
       <c r="G543" s="12"/>
       <c r="H543" s="13"/>
     </row>
-    <row r="544" spans="1:8" ht="13">
-      <c r="A544" s="47"/>
+    <row r="544" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A544" s="46"/>
       <c r="F544" s="11"/>
       <c r="G544" s="12"/>
       <c r="H544" s="13"/>
     </row>
-    <row r="545" spans="1:8" ht="13">
-      <c r="A545" s="47"/>
+    <row r="545" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A545" s="46"/>
       <c r="F545" s="11"/>
       <c r="G545" s="12"/>
       <c r="H545" s="13"/>
     </row>
-    <row r="546" spans="1:8" ht="13">
-      <c r="A546" s="47"/>
+    <row r="546" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A546" s="46"/>
       <c r="F546" s="11"/>
       <c r="G546" s="12"/>
       <c r="H546" s="13"/>
     </row>
-    <row r="547" spans="1:8" ht="13">
-      <c r="A547" s="47"/>
+    <row r="547" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A547" s="46"/>
       <c r="F547" s="11"/>
       <c r="G547" s="12"/>
       <c r="H547" s="13"/>
     </row>
-    <row r="548" spans="1:8" ht="13">
-      <c r="A548" s="47"/>
+    <row r="548" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A548" s="46"/>
       <c r="F548" s="11"/>
       <c r="G548" s="12"/>
       <c r="H548" s="13"/>
     </row>
-    <row r="549" spans="1:8" ht="13">
-      <c r="A549" s="47"/>
+    <row r="549" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A549" s="46"/>
       <c r="F549" s="11"/>
       <c r="G549" s="12"/>
       <c r="H549" s="13"/>
     </row>
-    <row r="550" spans="1:8" ht="13">
-      <c r="A550" s="47"/>
+    <row r="550" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A550" s="46"/>
       <c r="F550" s="11"/>
       <c r="G550" s="12"/>
       <c r="H550" s="13"/>
     </row>
-    <row r="551" spans="1:8" ht="13">
-      <c r="A551" s="47"/>
+    <row r="551" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A551" s="46"/>
       <c r="F551" s="11"/>
       <c r="G551" s="12"/>
       <c r="H551" s="13"/>
     </row>
-    <row r="552" spans="1:8" ht="13">
-      <c r="A552" s="47"/>
+    <row r="552" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A552" s="46"/>
       <c r="F552" s="11"/>
       <c r="G552" s="12"/>
       <c r="H552" s="13"/>
     </row>
-    <row r="553" spans="1:8" ht="13">
-      <c r="A553" s="47"/>
+    <row r="553" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A553" s="46"/>
       <c r="F553" s="11"/>
       <c r="G553" s="12"/>
       <c r="H553" s="13"/>
     </row>
-    <row r="554" spans="1:8" ht="13">
-      <c r="A554" s="47"/>
+    <row r="554" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A554" s="46"/>
       <c r="F554" s="11"/>
       <c r="G554" s="12"/>
       <c r="H554" s="13"/>
     </row>
-    <row r="555" spans="1:8" ht="13">
-      <c r="A555" s="47"/>
+    <row r="555" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A555" s="46"/>
       <c r="F555" s="11"/>
       <c r="G555" s="12"/>
       <c r="H555" s="13"/>
     </row>
-    <row r="556" spans="1:8" ht="13">
-      <c r="A556" s="47"/>
+    <row r="556" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A556" s="46"/>
       <c r="F556" s="11"/>
       <c r="G556" s="12"/>
       <c r="H556" s="13"/>
     </row>
-    <row r="557" spans="1:8" ht="13">
-      <c r="A557" s="47"/>
+    <row r="557" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A557" s="46"/>
       <c r="F557" s="11"/>
       <c r="G557" s="12"/>
       <c r="H557" s="13"/>
     </row>
-    <row r="558" spans="1:8" ht="13">
-      <c r="A558" s="47"/>
+    <row r="558" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A558" s="46"/>
       <c r="F558" s="11"/>
       <c r="G558" s="12"/>
       <c r="H558" s="13"/>
     </row>
-    <row r="559" spans="1:8" ht="13">
-      <c r="A559" s="47"/>
+    <row r="559" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A559" s="46"/>
       <c r="F559" s="11"/>
       <c r="G559" s="12"/>
       <c r="H559" s="13"/>
     </row>
-    <row r="560" spans="1:8" ht="13">
-      <c r="A560" s="47"/>
+    <row r="560" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A560" s="46"/>
       <c r="F560" s="11"/>
       <c r="G560" s="12"/>
       <c r="H560" s="13"/>
     </row>
-    <row r="561" spans="1:8" ht="13">
-      <c r="A561" s="47"/>
+    <row r="561" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A561" s="46"/>
       <c r="F561" s="11"/>
       <c r="G561" s="12"/>
       <c r="H561" s="13"/>
     </row>
-    <row r="562" spans="1:8" ht="13">
-      <c r="A562" s="47"/>
+    <row r="562" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A562" s="46"/>
       <c r="F562" s="11"/>
       <c r="G562" s="12"/>
       <c r="H562" s="13"/>
     </row>
-    <row r="563" spans="1:8" ht="13">
-      <c r="A563" s="47"/>
+    <row r="563" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A563" s="46"/>
       <c r="F563" s="11"/>
       <c r="G563" s="12"/>
       <c r="H563" s="13"/>
     </row>
-    <row r="564" spans="1:8" ht="13">
-      <c r="A564" s="47"/>
+    <row r="564" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A564" s="46"/>
       <c r="F564" s="11"/>
       <c r="G564" s="12"/>
       <c r="H564" s="13"/>
     </row>
-    <row r="565" spans="1:8" ht="13">
-      <c r="A565" s="47"/>
+    <row r="565" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A565" s="46"/>
       <c r="F565" s="11"/>
       <c r="G565" s="12"/>
       <c r="H565" s="13"/>
     </row>
-    <row r="566" spans="1:8" ht="13">
-      <c r="A566" s="47"/>
+    <row r="566" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A566" s="46"/>
       <c r="F566" s="11"/>
       <c r="G566" s="12"/>
       <c r="H566" s="13"/>
     </row>
-    <row r="567" spans="1:8" ht="13">
-      <c r="A567" s="47"/>
+    <row r="567" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A567" s="46"/>
       <c r="F567" s="11"/>
       <c r="G567" s="12"/>
       <c r="H567" s="13"/>
     </row>
-    <row r="568" spans="1:8" ht="13">
-      <c r="A568" s="47"/>
+    <row r="568" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A568" s="46"/>
       <c r="F568" s="11"/>
       <c r="G568" s="12"/>
       <c r="H568" s="13"/>
     </row>
-    <row r="569" spans="1:8" ht="13">
-      <c r="A569" s="47"/>
+    <row r="569" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A569" s="46"/>
       <c r="F569" s="11"/>
       <c r="G569" s="12"/>
       <c r="H569" s="13"/>
     </row>
-    <row r="570" spans="1:8" ht="13">
-      <c r="A570" s="47"/>
+    <row r="570" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A570" s="46"/>
       <c r="F570" s="11"/>
       <c r="G570" s="12"/>
       <c r="H570" s="13"/>
     </row>
-    <row r="571" spans="1:8" ht="13">
-      <c r="A571" s="47"/>
+    <row r="571" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A571" s="46"/>
       <c r="F571" s="11"/>
       <c r="G571" s="12"/>
       <c r="H571" s="13"/>
     </row>
-    <row r="572" spans="1:8" ht="13">
-      <c r="A572" s="47"/>
+    <row r="572" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A572" s="46"/>
       <c r="F572" s="11"/>
       <c r="G572" s="12"/>
       <c r="H572" s="13"/>
     </row>
-    <row r="573" spans="1:8" ht="13">
-      <c r="A573" s="47"/>
+    <row r="573" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A573" s="46"/>
       <c r="F573" s="11"/>
       <c r="G573" s="12"/>
       <c r="H573" s="13"/>
     </row>
-    <row r="574" spans="1:8" ht="13">
-      <c r="A574" s="47"/>
+    <row r="574" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A574" s="46"/>
       <c r="F574" s="11"/>
       <c r="G574" s="12"/>
       <c r="H574" s="13"/>
     </row>
-    <row r="575" spans="1:8" ht="13">
-      <c r="A575" s="47"/>
+    <row r="575" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A575" s="46"/>
       <c r="F575" s="11"/>
       <c r="G575" s="12"/>
       <c r="H575" s="13"/>
     </row>
-    <row r="576" spans="1:8" ht="13">
-      <c r="A576" s="47"/>
+    <row r="576" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A576" s="46"/>
       <c r="F576" s="11"/>
       <c r="G576" s="12"/>
       <c r="H576" s="13"/>
     </row>
-    <row r="577" spans="1:8" ht="13">
-      <c r="A577" s="47"/>
+    <row r="577" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A577" s="46"/>
       <c r="F577" s="11"/>
       <c r="G577" s="12"/>
       <c r="H577" s="13"/>
     </row>
-    <row r="578" spans="1:8" ht="13">
-      <c r="A578" s="47"/>
+    <row r="578" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A578" s="46"/>
       <c r="F578" s="11"/>
       <c r="G578" s="12"/>
       <c r="H578" s="13"/>
     </row>
-    <row r="579" spans="1:8" ht="13">
-      <c r="A579" s="47"/>
+    <row r="579" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A579" s="46"/>
       <c r="F579" s="11"/>
       <c r="G579" s="12"/>
       <c r="H579" s="13"/>
     </row>
-    <row r="580" spans="1:8" ht="13">
-      <c r="A580" s="47"/>
+    <row r="580" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A580" s="46"/>
       <c r="F580" s="11"/>
       <c r="G580" s="12"/>
       <c r="H580" s="13"/>
     </row>
-    <row r="581" spans="1:8" ht="13">
-      <c r="A581" s="47"/>
+    <row r="581" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A581" s="46"/>
       <c r="F581" s="11"/>
       <c r="G581" s="12"/>
       <c r="H581" s="13"/>
     </row>
-    <row r="582" spans="1:8" ht="13">
-      <c r="A582" s="47"/>
+    <row r="582" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A582" s="46"/>
       <c r="F582" s="11"/>
       <c r="G582" s="12"/>
       <c r="H582" s="13"/>
     </row>
-    <row r="583" spans="1:8" ht="13">
-      <c r="A583" s="47"/>
+    <row r="583" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A583" s="46"/>
       <c r="F583" s="11"/>
       <c r="G583" s="12"/>
       <c r="H583" s="13"/>
     </row>
-    <row r="584" spans="1:8" ht="13">
-      <c r="A584" s="47"/>
+    <row r="584" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A584" s="46"/>
       <c r="F584" s="11"/>
       <c r="G584" s="12"/>
       <c r="H584" s="13"/>
     </row>
-    <row r="585" spans="1:8" ht="13">
-      <c r="A585" s="47"/>
+    <row r="585" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A585" s="46"/>
       <c r="F585" s="11"/>
       <c r="G585" s="12"/>
       <c r="H585" s="13"/>
     </row>
-    <row r="586" spans="1:8" ht="13">
-      <c r="A586" s="47"/>
+    <row r="586" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A586" s="46"/>
       <c r="F586" s="11"/>
       <c r="G586" s="12"/>
       <c r="H586" s="13"/>
     </row>
-    <row r="587" spans="1:8" ht="13">
-      <c r="A587" s="47"/>
+    <row r="587" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A587" s="46"/>
       <c r="F587" s="11"/>
       <c r="G587" s="12"/>
       <c r="H587" s="13"/>
     </row>
-    <row r="588" spans="1:8" ht="13">
-      <c r="A588" s="47"/>
+    <row r="588" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A588" s="46"/>
       <c r="F588" s="11"/>
       <c r="G588" s="12"/>
       <c r="H588" s="13"/>
     </row>
-    <row r="589" spans="1:8" ht="13">
-      <c r="A589" s="47"/>
+    <row r="589" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A589" s="46"/>
       <c r="F589" s="11"/>
       <c r="G589" s="12"/>
       <c r="H589" s="13"/>
     </row>
-    <row r="590" spans="1:8" ht="13">
-      <c r="A590" s="47"/>
+    <row r="590" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A590" s="46"/>
       <c r="F590" s="11"/>
       <c r="G590" s="12"/>
       <c r="H590" s="13"/>
     </row>
-    <row r="591" spans="1:8" ht="13">
-      <c r="A591" s="47"/>
+    <row r="591" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A591" s="46"/>
       <c r="F591" s="11"/>
       <c r="G591" s="12"/>
       <c r="H591" s="13"/>
     </row>
-    <row r="592" spans="1:8" ht="13">
-      <c r="A592" s="47"/>
+    <row r="592" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A592" s="46"/>
       <c r="F592" s="11"/>
       <c r="G592" s="12"/>
       <c r="H592" s="13"/>
     </row>
-    <row r="593" spans="1:8" ht="13">
-      <c r="A593" s="47"/>
+    <row r="593" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A593" s="46"/>
       <c r="F593" s="11"/>
       <c r="G593" s="12"/>
       <c r="H593" s="13"/>
     </row>
-    <row r="594" spans="1:8" ht="13">
-      <c r="A594" s="47"/>
+    <row r="594" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A594" s="46"/>
       <c r="F594" s="11"/>
       <c r="G594" s="12"/>
       <c r="H594" s="13"/>
     </row>
-    <row r="595" spans="1:8" ht="13">
-      <c r="A595" s="47"/>
+    <row r="595" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A595" s="46"/>
       <c r="F595" s="11"/>
       <c r="G595" s="12"/>
       <c r="H595" s="13"/>
     </row>
-    <row r="596" spans="1:8" ht="13">
-      <c r="A596" s="47"/>
+    <row r="596" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A596" s="46"/>
       <c r="F596" s="11"/>
       <c r="G596" s="12"/>
       <c r="H596" s="13"/>
     </row>
-    <row r="597" spans="1:8" ht="13">
-      <c r="A597" s="47"/>
+    <row r="597" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A597" s="46"/>
       <c r="F597" s="11"/>
       <c r="G597" s="12"/>
       <c r="H597" s="13"/>
     </row>
-    <row r="598" spans="1:8" ht="13">
-      <c r="A598" s="47"/>
+    <row r="598" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A598" s="46"/>
       <c r="F598" s="11"/>
       <c r="G598" s="12"/>
       <c r="H598" s="13"/>
     </row>
-    <row r="599" spans="1:8" ht="13">
-      <c r="A599" s="47"/>
+    <row r="599" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A599" s="46"/>
       <c r="F599" s="11"/>
       <c r="G599" s="12"/>
       <c r="H599" s="13"/>
     </row>
-    <row r="600" spans="1:8" ht="13">
-      <c r="A600" s="47"/>
+    <row r="600" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A600" s="46"/>
       <c r="F600" s="11"/>
       <c r="G600" s="12"/>
       <c r="H600" s="13"/>
     </row>
-    <row r="601" spans="1:8" ht="13">
-      <c r="A601" s="47"/>
+    <row r="601" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A601" s="46"/>
       <c r="F601" s="11"/>
       <c r="G601" s="12"/>
       <c r="H601" s="13"/>
     </row>
-    <row r="602" spans="1:8" ht="13">
-      <c r="A602" s="47"/>
+    <row r="602" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A602" s="46"/>
       <c r="F602" s="11"/>
       <c r="G602" s="12"/>
       <c r="H602" s="13"/>
     </row>
-    <row r="603" spans="1:8" ht="13">
-      <c r="A603" s="47"/>
+    <row r="603" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A603" s="46"/>
       <c r="F603" s="11"/>
       <c r="G603" s="12"/>
       <c r="H603" s="13"/>
     </row>
-    <row r="604" spans="1:8" ht="13">
-      <c r="A604" s="47"/>
+    <row r="604" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A604" s="46"/>
       <c r="F604" s="11"/>
       <c r="G604" s="12"/>
       <c r="H604" s="13"/>
     </row>
-    <row r="605" spans="1:8" ht="13">
-      <c r="A605" s="47"/>
+    <row r="605" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A605" s="46"/>
       <c r="F605" s="11"/>
       <c r="G605" s="12"/>
       <c r="H605" s="13"/>
     </row>
-    <row r="606" spans="1:8" ht="13">
-      <c r="A606" s="47"/>
+    <row r="606" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A606" s="46"/>
       <c r="F606" s="11"/>
       <c r="G606" s="12"/>
       <c r="H606" s="13"/>
     </row>
-    <row r="607" spans="1:8" ht="13">
-      <c r="A607" s="47"/>
+    <row r="607" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A607" s="46"/>
       <c r="F607" s="11"/>
       <c r="G607" s="12"/>
       <c r="H607" s="13"/>
     </row>
-    <row r="608" spans="1:8" ht="13">
-      <c r="A608" s="47"/>
+    <row r="608" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A608" s="46"/>
       <c r="F608" s="11"/>
       <c r="G608" s="12"/>
       <c r="H608" s="13"/>
     </row>
-    <row r="609" spans="1:8" ht="13">
-      <c r="A609" s="47"/>
+    <row r="609" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A609" s="46"/>
       <c r="F609" s="11"/>
       <c r="G609" s="12"/>
       <c r="H609" s="13"/>
     </row>
-    <row r="610" spans="1:8" ht="13">
-      <c r="A610" s="47"/>
+    <row r="610" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A610" s="46"/>
       <c r="F610" s="11"/>
       <c r="G610" s="12"/>
       <c r="H610" s="13"/>
     </row>
-    <row r="611" spans="1:8" ht="13">
-      <c r="A611" s="47"/>
+    <row r="611" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A611" s="46"/>
       <c r="F611" s="11"/>
       <c r="G611" s="12"/>
       <c r="H611" s="13"/>
     </row>
-    <row r="612" spans="1:8" ht="13">
-      <c r="A612" s="47"/>
+    <row r="612" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A612" s="46"/>
       <c r="F612" s="11"/>
       <c r="G612" s="12"/>
       <c r="H612" s="13"/>
     </row>
-    <row r="613" spans="1:8" ht="13">
-      <c r="A613" s="47"/>
+    <row r="613" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A613" s="46"/>
       <c r="F613" s="11"/>
       <c r="G613" s="12"/>
       <c r="H613" s="13"/>
     </row>
-    <row r="614" spans="1:8" ht="13">
-      <c r="A614" s="47"/>
+    <row r="614" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A614" s="46"/>
       <c r="F614" s="11"/>
       <c r="G614" s="12"/>
       <c r="H614" s="13"/>
     </row>
-    <row r="615" spans="1:8" ht="13">
-      <c r="A615" s="47"/>
+    <row r="615" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A615" s="46"/>
       <c r="F615" s="11"/>
       <c r="G615" s="12"/>
       <c r="H615" s="13"/>
     </row>
-    <row r="616" spans="1:8" ht="13">
-      <c r="A616" s="47"/>
+    <row r="616" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A616" s="46"/>
       <c r="F616" s="11"/>
       <c r="G616" s="12"/>
       <c r="H616" s="13"/>
     </row>
-    <row r="617" spans="1:8" ht="13">
-      <c r="A617" s="47"/>
+    <row r="617" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A617" s="46"/>
       <c r="F617" s="11"/>
       <c r="G617" s="12"/>
       <c r="H617" s="13"/>
     </row>
-    <row r="618" spans="1:8" ht="13">
-      <c r="A618" s="47"/>
+    <row r="618" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A618" s="46"/>
       <c r="F618" s="11"/>
       <c r="G618" s="12"/>
       <c r="H618" s="13"/>
     </row>
-    <row r="619" spans="1:8" ht="13">
-      <c r="A619" s="47"/>
+    <row r="619" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A619" s="46"/>
       <c r="F619" s="11"/>
       <c r="G619" s="12"/>
       <c r="H619" s="13"/>
     </row>
-    <row r="620" spans="1:8" ht="13">
-      <c r="A620" s="47"/>
+    <row r="620" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A620" s="46"/>
       <c r="F620" s="11"/>
       <c r="G620" s="12"/>
       <c r="H620" s="13"/>
     </row>
-    <row r="621" spans="1:8" ht="13">
-      <c r="A621" s="47"/>
+    <row r="621" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A621" s="46"/>
       <c r="F621" s="11"/>
       <c r="G621" s="12"/>
       <c r="H621" s="13"/>
     </row>
-    <row r="622" spans="1:8" ht="13">
-      <c r="A622" s="47"/>
+    <row r="622" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A622" s="46"/>
       <c r="F622" s="11"/>
       <c r="G622" s="12"/>
       <c r="H622" s="13"/>
     </row>
-    <row r="623" spans="1:8" ht="13">
-      <c r="A623" s="47"/>
+    <row r="623" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A623" s="46"/>
       <c r="F623" s="11"/>
       <c r="G623" s="12"/>
       <c r="H623" s="13"/>
     </row>
-    <row r="624" spans="1:8" ht="13">
-      <c r="A624" s="47"/>
+    <row r="624" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A624" s="46"/>
       <c r="F624" s="11"/>
       <c r="G624" s="12"/>
       <c r="H624" s="13"/>
     </row>
-    <row r="625" spans="1:8" ht="13">
-      <c r="A625" s="47"/>
+    <row r="625" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A625" s="46"/>
       <c r="F625" s="11"/>
       <c r="G625" s="12"/>
       <c r="H625" s="13"/>
     </row>
-    <row r="626" spans="1:8" ht="13">
-      <c r="A626" s="47"/>
+    <row r="626" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A626" s="46"/>
       <c r="F626" s="11"/>
       <c r="G626" s="12"/>
       <c r="H626" s="13"/>
     </row>
-    <row r="627" spans="1:8" ht="13">
-      <c r="A627" s="47"/>
+    <row r="627" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A627" s="46"/>
       <c r="F627" s="11"/>
       <c r="G627" s="12"/>
       <c r="H627" s="13"/>
     </row>
-    <row r="628" spans="1:8" ht="13">
-      <c r="A628" s="47"/>
+    <row r="628" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A628" s="46"/>
       <c r="F628" s="11"/>
       <c r="G628" s="12"/>
       <c r="H628" s="13"/>
     </row>
-    <row r="629" spans="1:8" ht="13">
-      <c r="A629" s="47"/>
+    <row r="629" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A629" s="46"/>
       <c r="F629" s="11"/>
       <c r="G629" s="12"/>
       <c r="H629" s="13"/>
     </row>
-    <row r="630" spans="1:8" ht="13">
-      <c r="A630" s="47"/>
+    <row r="630" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A630" s="46"/>
       <c r="F630" s="11"/>
       <c r="G630" s="12"/>
       <c r="H630" s="13"/>
     </row>
-    <row r="631" spans="1:8" ht="13">
-      <c r="A631" s="47"/>
+    <row r="631" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A631" s="46"/>
       <c r="F631" s="11"/>
       <c r="G631" s="12"/>
       <c r="H631" s="13"/>
     </row>
-    <row r="632" spans="1:8" ht="13">
-      <c r="A632" s="47"/>
+    <row r="632" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A632" s="46"/>
       <c r="F632" s="11"/>
       <c r="G632" s="12"/>
       <c r="H632" s="13"/>
     </row>
-    <row r="633" spans="1:8" ht="13">
-      <c r="A633" s="47"/>
+    <row r="633" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A633" s="46"/>
       <c r="F633" s="11"/>
       <c r="G633" s="12"/>
       <c r="H633" s="13"/>
     </row>
-    <row r="634" spans="1:8" ht="13">
-      <c r="A634" s="47"/>
+    <row r="634" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A634" s="46"/>
       <c r="F634" s="11"/>
       <c r="G634" s="12"/>
       <c r="H634" s="13"/>
     </row>
-    <row r="635" spans="1:8" ht="13">
-      <c r="A635" s="47"/>
+    <row r="635" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A635" s="46"/>
       <c r="F635" s="11"/>
       <c r="G635" s="12"/>
       <c r="H635" s="13"/>
     </row>
-    <row r="636" spans="1:8" ht="13">
-      <c r="A636" s="47"/>
+    <row r="636" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A636" s="46"/>
       <c r="F636" s="11"/>
       <c r="G636" s="12"/>
       <c r="H636" s="13"/>
     </row>
-    <row r="637" spans="1:8" ht="13">
-      <c r="A637" s="47"/>
+    <row r="637" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A637" s="46"/>
       <c r="F637" s="11"/>
       <c r="G637" s="12"/>
       <c r="H637" s="13"/>
     </row>
-    <row r="638" spans="1:8" ht="13">
-      <c r="A638" s="47"/>
+    <row r="638" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A638" s="46"/>
       <c r="F638" s="11"/>
       <c r="G638" s="12"/>
       <c r="H638" s="13"/>
     </row>
-    <row r="639" spans="1:8" ht="13">
-      <c r="A639" s="47"/>
+    <row r="639" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A639" s="46"/>
       <c r="F639" s="11"/>
       <c r="G639" s="12"/>
       <c r="H639" s="13"/>
     </row>
-    <row r="640" spans="1:8" ht="13">
-      <c r="A640" s="47"/>
+    <row r="640" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A640" s="46"/>
       <c r="F640" s="11"/>
       <c r="G640" s="12"/>
       <c r="H640" s="13"/>
     </row>
-    <row r="641" spans="1:8" ht="13">
-      <c r="A641" s="47"/>
+    <row r="641" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A641" s="46"/>
       <c r="F641" s="11"/>
       <c r="G641" s="12"/>
       <c r="H641" s="13"/>
     </row>
-    <row r="642" spans="1:8" ht="13">
-      <c r="A642" s="47"/>
+    <row r="642" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A642" s="46"/>
       <c r="F642" s="11"/>
       <c r="G642" s="12"/>
       <c r="H642" s="13"/>
     </row>
-    <row r="643" spans="1:8" ht="13">
-      <c r="A643" s="47"/>
+    <row r="643" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A643" s="46"/>
       <c r="F643" s="11"/>
       <c r="G643" s="12"/>
       <c r="H643" s="13"/>
     </row>
-    <row r="644" spans="1:8" ht="13">
-      <c r="A644" s="47"/>
+    <row r="644" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A644" s="46"/>
       <c r="F644" s="11"/>
       <c r="G644" s="12"/>
       <c r="H644" s="13"/>
     </row>
-    <row r="645" spans="1:8" ht="13">
-      <c r="A645" s="47"/>
+    <row r="645" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A645" s="46"/>
       <c r="F645" s="11"/>
       <c r="G645" s="12"/>
       <c r="H645" s="13"/>
     </row>
-    <row r="646" spans="1:8" ht="13">
-      <c r="A646" s="47"/>
+    <row r="646" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A646" s="46"/>
       <c r="F646" s="11"/>
       <c r="G646" s="12"/>
       <c r="H646" s="13"/>
     </row>
-    <row r="647" spans="1:8" ht="13">
-      <c r="A647" s="47"/>
+    <row r="647" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A647" s="46"/>
       <c r="F647" s="11"/>
       <c r="G647" s="12"/>
       <c r="H647" s="13"/>
     </row>
-    <row r="648" spans="1:8" ht="13">
-      <c r="A648" s="47"/>
+    <row r="648" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A648" s="46"/>
       <c r="F648" s="11"/>
       <c r="G648" s="12"/>
       <c r="H648" s="13"/>
     </row>
-    <row r="649" spans="1:8" ht="13">
-      <c r="A649" s="47"/>
+    <row r="649" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A649" s="46"/>
       <c r="F649" s="11"/>
       <c r="G649" s="12"/>
       <c r="H649" s="13"/>
     </row>
-    <row r="650" spans="1:8" ht="13">
-      <c r="A650" s="47"/>
+    <row r="650" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A650" s="46"/>
       <c r="F650" s="11"/>
       <c r="G650" s="12"/>
       <c r="H650" s="13"/>
     </row>
-    <row r="651" spans="1:8" ht="13">
-      <c r="A651" s="47"/>
+    <row r="651" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A651" s="46"/>
       <c r="F651" s="11"/>
       <c r="G651" s="12"/>
       <c r="H651" s="13"/>
     </row>
-    <row r="652" spans="1:8" ht="13">
-      <c r="A652" s="47"/>
+    <row r="652" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A652" s="46"/>
       <c r="F652" s="11"/>
       <c r="G652" s="12"/>
       <c r="H652" s="13"/>
     </row>
-    <row r="653" spans="1:8" ht="13">
-      <c r="A653" s="47"/>
+    <row r="653" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A653" s="46"/>
       <c r="F653" s="11"/>
       <c r="G653" s="12"/>
       <c r="H653" s="13"/>
     </row>
-    <row r="654" spans="1:8" ht="13">
-      <c r="A654" s="47"/>
+    <row r="654" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A654" s="46"/>
       <c r="F654" s="11"/>
       <c r="G654" s="12"/>
       <c r="H654" s="13"/>
     </row>
-    <row r="655" spans="1:8" ht="13">
-      <c r="A655" s="47"/>
+    <row r="655" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A655" s="46"/>
       <c r="F655" s="11"/>
       <c r="G655" s="12"/>
       <c r="H655" s="13"/>
     </row>
-    <row r="656" spans="1:8" ht="13">
-      <c r="A656" s="47"/>
+    <row r="656" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A656" s="46"/>
       <c r="F656" s="11"/>
       <c r="G656" s="12"/>
       <c r="H656" s="13"/>
     </row>
-    <row r="657" spans="1:8" ht="13">
-      <c r="A657" s="47"/>
+    <row r="657" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A657" s="46"/>
       <c r="F657" s="11"/>
       <c r="G657" s="12"/>
       <c r="H657" s="13"/>
     </row>
-    <row r="658" spans="1:8" ht="13">
-      <c r="A658" s="47"/>
+    <row r="658" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A658" s="46"/>
       <c r="F658" s="11"/>
       <c r="G658" s="12"/>
       <c r="H658" s="13"/>
     </row>
-    <row r="659" spans="1:8" ht="13">
-      <c r="A659" s="47"/>
+    <row r="659" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A659" s="46"/>
       <c r="F659" s="11"/>
       <c r="G659" s="12"/>
       <c r="H659" s="13"/>
     </row>
-    <row r="660" spans="1:8" ht="13">
-      <c r="A660" s="47"/>
+    <row r="660" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A660" s="46"/>
       <c r="F660" s="11"/>
       <c r="G660" s="12"/>
       <c r="H660" s="13"/>
     </row>
-    <row r="661" spans="1:8" ht="13">
-      <c r="A661" s="47"/>
+    <row r="661" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A661" s="46"/>
       <c r="F661" s="11"/>
       <c r="G661" s="12"/>
       <c r="H661" s="13"/>
     </row>
-    <row r="662" spans="1:8" ht="13">
-      <c r="A662" s="47"/>
+    <row r="662" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A662" s="46"/>
       <c r="F662" s="11"/>
       <c r="G662" s="12"/>
       <c r="H662" s="13"/>
     </row>
-    <row r="663" spans="1:8" ht="13">
-      <c r="A663" s="47"/>
+    <row r="663" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A663" s="46"/>
       <c r="F663" s="11"/>
       <c r="G663" s="12"/>
       <c r="H663" s="13"/>
     </row>
-    <row r="664" spans="1:8" ht="13">
-      <c r="A664" s="47"/>
+    <row r="664" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A664" s="46"/>
       <c r="F664" s="11"/>
       <c r="G664" s="12"/>
       <c r="H664" s="13"/>
     </row>
-    <row r="665" spans="1:8" ht="13">
-      <c r="A665" s="47"/>
+    <row r="665" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A665" s="46"/>
       <c r="F665" s="11"/>
       <c r="G665" s="12"/>
       <c r="H665" s="13"/>
     </row>
-    <row r="666" spans="1:8" ht="13">
-      <c r="A666" s="47"/>
+    <row r="666" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A666" s="46"/>
       <c r="F666" s="11"/>
       <c r="G666" s="12"/>
       <c r="H666" s="13"/>
     </row>
-    <row r="667" spans="1:8" ht="13">
-      <c r="A667" s="47"/>
+    <row r="667" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A667" s="46"/>
       <c r="F667" s="11"/>
       <c r="G667" s="12"/>
       <c r="H667" s="13"/>
     </row>
-    <row r="668" spans="1:8" ht="13">
-      <c r="A668" s="47"/>
+    <row r="668" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A668" s="46"/>
       <c r="F668" s="11"/>
       <c r="G668" s="12"/>
       <c r="H668" s="13"/>
     </row>
-    <row r="669" spans="1:8" ht="13">
-      <c r="A669" s="47"/>
+    <row r="669" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A669" s="46"/>
       <c r="F669" s="11"/>
       <c r="G669" s="12"/>
       <c r="H669" s="13"/>
     </row>
-    <row r="670" spans="1:8" ht="13">
-      <c r="A670" s="47"/>
+    <row r="670" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A670" s="46"/>
       <c r="F670" s="11"/>
       <c r="G670" s="12"/>
       <c r="H670" s="13"/>
     </row>
-    <row r="671" spans="1:8" ht="13">
-      <c r="A671" s="47"/>
+    <row r="671" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A671" s="46"/>
       <c r="F671" s="11"/>
       <c r="G671" s="12"/>
       <c r="H671" s="13"/>
     </row>
-    <row r="672" spans="1:8" ht="13">
-      <c r="A672" s="47"/>
+    <row r="672" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A672" s="46"/>
       <c r="F672" s="11"/>
       <c r="G672" s="12"/>
       <c r="H672" s="13"/>
     </row>
-    <row r="673" spans="1:8" ht="13">
-      <c r="A673" s="47"/>
+    <row r="673" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A673" s="46"/>
       <c r="F673" s="11"/>
       <c r="G673" s="12"/>
       <c r="H673" s="13"/>
     </row>
-    <row r="674" spans="1:8" ht="13">
-      <c r="A674" s="47"/>
+    <row r="674" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A674" s="46"/>
       <c r="F674" s="11"/>
       <c r="G674" s="12"/>
       <c r="H674" s="13"/>
     </row>
-    <row r="675" spans="1:8" ht="13">
-      <c r="A675" s="47"/>
+    <row r="675" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A675" s="46"/>
       <c r="F675" s="11"/>
       <c r="G675" s="12"/>
       <c r="H675" s="13"/>
     </row>
-    <row r="676" spans="1:8" ht="13">
-      <c r="A676" s="47"/>
+    <row r="676" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A676" s="46"/>
       <c r="F676" s="11"/>
       <c r="G676" s="12"/>
       <c r="H676" s="13"/>
     </row>
-    <row r="677" spans="1:8" ht="13">
-      <c r="A677" s="47"/>
+    <row r="677" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A677" s="46"/>
       <c r="F677" s="11"/>
       <c r="G677" s="12"/>
       <c r="H677" s="13"/>
     </row>
-    <row r="678" spans="1:8" ht="13">
-      <c r="A678" s="47"/>
+    <row r="678" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A678" s="46"/>
       <c r="F678" s="11"/>
       <c r="G678" s="12"/>
       <c r="H678" s="13"/>
     </row>
-    <row r="679" spans="1:8" ht="13">
-      <c r="A679" s="47"/>
+    <row r="679" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A679" s="46"/>
       <c r="F679" s="11"/>
       <c r="G679" s="12"/>
       <c r="H679" s="13"/>
     </row>
-    <row r="680" spans="1:8" ht="13">
-      <c r="A680" s="47"/>
+    <row r="680" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A680" s="46"/>
       <c r="F680" s="11"/>
       <c r="G680" s="12"/>
       <c r="H680" s="13"/>
     </row>
-    <row r="681" spans="1:8" ht="13">
-      <c r="A681" s="47"/>
+    <row r="681" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A681" s="46"/>
       <c r="F681" s="11"/>
       <c r="G681" s="12"/>
       <c r="H681" s="13"/>
     </row>
-    <row r="682" spans="1:8" ht="13">
-      <c r="A682" s="47"/>
+    <row r="682" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A682" s="46"/>
       <c r="F682" s="11"/>
       <c r="G682" s="12"/>
       <c r="H682" s="13"/>
     </row>
-    <row r="683" spans="1:8" ht="13">
-      <c r="A683" s="47"/>
+    <row r="683" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A683" s="46"/>
       <c r="F683" s="11"/>
       <c r="G683" s="12"/>
       <c r="H683" s="13"/>
     </row>
-    <row r="684" spans="1:8" ht="13">
-      <c r="A684" s="47"/>
+    <row r="684" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A684" s="46"/>
       <c r="F684" s="11"/>
       <c r="G684" s="12"/>
       <c r="H684" s="13"/>
     </row>
-    <row r="685" spans="1:8" ht="13">
-      <c r="A685" s="47"/>
+    <row r="685" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A685" s="46"/>
       <c r="F685" s="11"/>
       <c r="G685" s="12"/>
       <c r="H685" s="13"/>
     </row>
-    <row r="686" spans="1:8" ht="13">
-      <c r="A686" s="47"/>
+    <row r="686" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A686" s="46"/>
       <c r="F686" s="11"/>
       <c r="G686" s="12"/>
       <c r="H686" s="13"/>
     </row>
-    <row r="687" spans="1:8" ht="13">
-      <c r="A687" s="47"/>
+    <row r="687" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A687" s="46"/>
       <c r="F687" s="11"/>
       <c r="G687" s="12"/>
       <c r="H687" s="13"/>
     </row>
-    <row r="688" spans="1:8" ht="13">
-      <c r="A688" s="47"/>
+    <row r="688" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A688" s="46"/>
       <c r="F688" s="11"/>
       <c r="G688" s="12"/>
       <c r="H688" s="13"/>
     </row>
-    <row r="689" spans="1:8" ht="13">
-      <c r="A689" s="47"/>
+    <row r="689" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A689" s="46"/>
       <c r="F689" s="11"/>
       <c r="G689" s="12"/>
       <c r="H689" s="13"/>
     </row>
-    <row r="690" spans="1:8" ht="13">
-      <c r="A690" s="47"/>
+    <row r="690" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A690" s="46"/>
       <c r="F690" s="11"/>
       <c r="G690" s="12"/>
       <c r="H690" s="13"/>
     </row>
-    <row r="691" spans="1:8" ht="13">
-      <c r="A691" s="47"/>
+    <row r="691" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A691" s="46"/>
       <c r="F691" s="11"/>
       <c r="G691" s="12"/>
       <c r="H691" s="13"/>
     </row>
-    <row r="692" spans="1:8" ht="13">
-      <c r="A692" s="47"/>
+    <row r="692" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A692" s="46"/>
       <c r="F692" s="11"/>
       <c r="G692" s="12"/>
       <c r="H692" s="13"/>
     </row>
-    <row r="693" spans="1:8" ht="13">
-      <c r="A693" s="47"/>
+    <row r="693" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A693" s="46"/>
       <c r="F693" s="11"/>
       <c r="G693" s="12"/>
       <c r="H693" s="13"/>
     </row>
-    <row r="694" spans="1:8" ht="13">
-      <c r="A694" s="47"/>
+    <row r="694" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A694" s="46"/>
       <c r="F694" s="11"/>
       <c r="G694" s="12"/>
       <c r="H694" s="13"/>
     </row>
-    <row r="695" spans="1:8" ht="13">
-      <c r="A695" s="47"/>
+    <row r="695" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A695" s="46"/>
       <c r="F695" s="11"/>
       <c r="G695" s="12"/>
       <c r="H695" s="13"/>
     </row>
-    <row r="696" spans="1:8" ht="13">
-      <c r="A696" s="47"/>
+    <row r="696" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A696" s="46"/>
       <c r="F696" s="11"/>
       <c r="G696" s="12"/>
       <c r="H696" s="13"/>
     </row>
-    <row r="697" spans="1:8" ht="13">
-      <c r="A697" s="47"/>
+    <row r="697" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A697" s="46"/>
       <c r="F697" s="11"/>
       <c r="G697" s="12"/>
       <c r="H697" s="13"/>
     </row>
-    <row r="698" spans="1:8" ht="13">
-      <c r="A698" s="47"/>
+    <row r="698" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A698" s="46"/>
       <c r="F698" s="11"/>
       <c r="G698" s="12"/>
       <c r="H698" s="13"/>
     </row>
-    <row r="699" spans="1:8" ht="13">
-      <c r="A699" s="47"/>
+    <row r="699" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A699" s="46"/>
       <c r="F699" s="11"/>
       <c r="G699" s="12"/>
       <c r="H699" s="13"/>
     </row>
-    <row r="700" spans="1:8" ht="13">
-      <c r="A700" s="47"/>
+    <row r="700" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A700" s="46"/>
       <c r="F700" s="11"/>
       <c r="G700" s="12"/>
       <c r="H700" s="13"/>
     </row>
-    <row r="701" spans="1:8" ht="13">
-      <c r="A701" s="47"/>
+    <row r="701" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A701" s="46"/>
       <c r="F701" s="11"/>
       <c r="G701" s="12"/>
       <c r="H701" s="13"/>
     </row>
-    <row r="702" spans="1:8" ht="13">
-      <c r="A702" s="47"/>
+    <row r="702" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A702" s="46"/>
       <c r="F702" s="11"/>
       <c r="G702" s="12"/>
       <c r="H702" s="13"/>
     </row>
-    <row r="703" spans="1:8" ht="13">
-      <c r="A703" s="47"/>
+    <row r="703" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A703" s="46"/>
       <c r="F703" s="11"/>
       <c r="G703" s="12"/>
       <c r="H703" s="13"/>
     </row>
-    <row r="704" spans="1:8" ht="13">
-      <c r="A704" s="47"/>
+    <row r="704" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A704" s="46"/>
       <c r="F704" s="11"/>
       <c r="G704" s="12"/>
       <c r="H704" s="13"/>
     </row>
-    <row r="705" spans="1:8" ht="13">
-      <c r="A705" s="47"/>
+    <row r="705" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A705" s="46"/>
       <c r="F705" s="11"/>
       <c r="G705" s="12"/>
       <c r="H705" s="13"/>
     </row>
-    <row r="706" spans="1:8" ht="13">
-      <c r="A706" s="47"/>
+    <row r="706" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A706" s="46"/>
       <c r="F706" s="11"/>
       <c r="G706" s="12"/>
       <c r="H706" s="13"/>
     </row>
-    <row r="707" spans="1:8" ht="13">
-      <c r="A707" s="47"/>
+    <row r="707" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A707" s="46"/>
       <c r="F707" s="11"/>
       <c r="G707" s="12"/>
       <c r="H707" s="13"/>
     </row>
-    <row r="708" spans="1:8" ht="13">
-      <c r="A708" s="47"/>
+    <row r="708" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A708" s="46"/>
       <c r="F708" s="11"/>
       <c r="G708" s="12"/>
       <c r="H708" s="13"/>
     </row>
-    <row r="709" spans="1:8" ht="13">
-      <c r="A709" s="47"/>
+    <row r="709" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A709" s="46"/>
       <c r="F709" s="11"/>
       <c r="G709" s="12"/>
       <c r="H709" s="13"/>
     </row>
-    <row r="710" spans="1:8" ht="13">
-      <c r="A710" s="47"/>
+    <row r="710" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A710" s="46"/>
       <c r="F710" s="11"/>
       <c r="G710" s="12"/>
       <c r="H710" s="13"/>
     </row>
-    <row r="711" spans="1:8" ht="13">
-      <c r="A711" s="47"/>
+    <row r="711" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A711" s="46"/>
       <c r="F711" s="11"/>
       <c r="G711" s="12"/>
       <c r="H711" s="13"/>
     </row>
-    <row r="712" spans="1:8" ht="13">
-      <c r="A712" s="47"/>
+    <row r="712" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A712" s="46"/>
       <c r="F712" s="11"/>
       <c r="G712" s="12"/>
       <c r="H712" s="13"/>
     </row>
-    <row r="713" spans="1:8" ht="13">
-      <c r="A713" s="47"/>
+    <row r="713" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A713" s="46"/>
       <c r="F713" s="11"/>
       <c r="G713" s="12"/>
       <c r="H713" s="13"/>
     </row>
-    <row r="714" spans="1:8" ht="13">
-      <c r="A714" s="47"/>
+    <row r="714" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A714" s="46"/>
       <c r="F714" s="11"/>
       <c r="G714" s="12"/>
       <c r="H714" s="13"/>
     </row>
-    <row r="715" spans="1:8" ht="13">
-      <c r="A715" s="47"/>
+    <row r="715" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A715" s="46"/>
       <c r="F715" s="11"/>
       <c r="G715" s="12"/>
       <c r="H715" s="13"/>
     </row>
-    <row r="716" spans="1:8" ht="13">
-      <c r="A716" s="47"/>
+    <row r="716" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A716" s="46"/>
       <c r="F716" s="11"/>
       <c r="G716" s="12"/>
       <c r="H716" s="13"/>
     </row>
-    <row r="717" spans="1:8" ht="13">
-      <c r="A717" s="47"/>
+    <row r="717" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A717" s="46"/>
       <c r="F717" s="11"/>
       <c r="G717" s="12"/>
       <c r="H717" s="13"/>
     </row>
-    <row r="718" spans="1:8" ht="13">
-      <c r="A718" s="47"/>
+    <row r="718" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A718" s="46"/>
       <c r="F718" s="11"/>
       <c r="G718" s="12"/>
       <c r="H718" s="13"/>
     </row>
-    <row r="719" spans="1:8" ht="13">
-      <c r="A719" s="47"/>
+    <row r="719" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A719" s="46"/>
       <c r="F719" s="11"/>
       <c r="G719" s="12"/>
       <c r="H719" s="13"/>
     </row>
-    <row r="720" spans="1:8" ht="13">
-      <c r="A720" s="47"/>
+    <row r="720" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A720" s="46"/>
       <c r="F720" s="11"/>
       <c r="G720" s="12"/>
       <c r="H720" s="13"/>
     </row>
-    <row r="721" spans="1:8" ht="13">
-      <c r="A721" s="47"/>
+    <row r="721" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A721" s="46"/>
       <c r="F721" s="11"/>
       <c r="G721" s="12"/>
       <c r="H721" s="13"/>
     </row>
-    <row r="722" spans="1:8" ht="13">
-      <c r="A722" s="47"/>
+    <row r="722" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A722" s="46"/>
       <c r="F722" s="11"/>
       <c r="G722" s="12"/>
       <c r="H722" s="13"/>
     </row>
-    <row r="723" spans="1:8" ht="13">
-      <c r="A723" s="47"/>
+    <row r="723" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A723" s="46"/>
       <c r="F723" s="11"/>
       <c r="G723" s="12"/>
       <c r="H723" s="13"/>
     </row>
-    <row r="724" spans="1:8" ht="13">
-      <c r="A724" s="47"/>
+    <row r="724" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A724" s="46"/>
       <c r="F724" s="11"/>
       <c r="G724" s="12"/>
       <c r="H724" s="13"/>
     </row>
-    <row r="725" spans="1:8" ht="13">
-      <c r="A725" s="47"/>
+    <row r="725" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A725" s="46"/>
       <c r="F725" s="11"/>
       <c r="G725" s="12"/>
       <c r="H725" s="13"/>
     </row>
-    <row r="726" spans="1:8" ht="13">
-      <c r="A726" s="47"/>
+    <row r="726" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A726" s="46"/>
       <c r="F726" s="11"/>
       <c r="G726" s="12"/>
       <c r="H726" s="13"/>
     </row>
-    <row r="727" spans="1:8" ht="13">
-      <c r="A727" s="47"/>
+    <row r="727" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A727" s="46"/>
       <c r="F727" s="11"/>
       <c r="G727" s="12"/>
       <c r="H727" s="13"/>
     </row>
-    <row r="728" spans="1:8" ht="13">
-      <c r="A728" s="47"/>
+    <row r="728" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A728" s="46"/>
       <c r="F728" s="11"/>
       <c r="G728" s="12"/>
       <c r="H728" s="13"/>
     </row>
-    <row r="729" spans="1:8" ht="13">
-      <c r="A729" s="47"/>
+    <row r="729" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A729" s="46"/>
       <c r="F729" s="11"/>
       <c r="G729" s="12"/>
       <c r="H729" s="13"/>
     </row>
-    <row r="730" spans="1:8" ht="13">
-      <c r="A730" s="47"/>
+    <row r="730" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A730" s="46"/>
       <c r="F730" s="11"/>
       <c r="G730" s="12"/>
       <c r="H730" s="13"/>
     </row>
-    <row r="731" spans="1:8" ht="13">
-      <c r="A731" s="47"/>
+    <row r="731" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A731" s="46"/>
       <c r="F731" s="11"/>
       <c r="G731" s="12"/>
       <c r="H731" s="13"/>
     </row>
-    <row r="732" spans="1:8" ht="13">
-      <c r="A732" s="47"/>
+    <row r="732" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A732" s="46"/>
       <c r="F732" s="11"/>
       <c r="G732" s="12"/>
       <c r="H732" s="13"/>
     </row>
-    <row r="733" spans="1:8" ht="13">
-      <c r="A733" s="47"/>
+    <row r="733" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A733" s="46"/>
       <c r="F733" s="11"/>
       <c r="G733" s="12"/>
       <c r="H733" s="13"/>
     </row>
-    <row r="734" spans="1:8" ht="13">
-      <c r="A734" s="47"/>
+    <row r="734" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A734" s="46"/>
       <c r="F734" s="11"/>
       <c r="G734" s="12"/>
       <c r="H734" s="13"/>
     </row>
-    <row r="735" spans="1:8" ht="13">
-      <c r="A735" s="47"/>
+    <row r="735" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A735" s="46"/>
       <c r="F735" s="11"/>
       <c r="G735" s="12"/>
       <c r="H735" s="13"/>
     </row>
-    <row r="736" spans="1:8" ht="13">
-      <c r="A736" s="47"/>
+    <row r="736" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A736" s="46"/>
       <c r="F736" s="11"/>
       <c r="G736" s="12"/>
       <c r="H736" s="13"/>
     </row>
-    <row r="737" spans="1:8" ht="13">
-      <c r="A737" s="47"/>
+    <row r="737" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A737" s="46"/>
       <c r="F737" s="11"/>
       <c r="G737" s="12"/>
       <c r="H737" s="13"/>
     </row>
-    <row r="738" spans="1:8" ht="13">
-      <c r="A738" s="47"/>
+    <row r="738" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A738" s="46"/>
       <c r="F738" s="11"/>
       <c r="G738" s="12"/>
       <c r="H738" s="13"/>
     </row>
-    <row r="739" spans="1:8" ht="13">
-      <c r="A739" s="47"/>
+    <row r="739" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A739" s="46"/>
       <c r="F739" s="11"/>
       <c r="G739" s="12"/>
       <c r="H739" s="13"/>
     </row>
-    <row r="740" spans="1:8" ht="13">
-      <c r="A740" s="47"/>
+    <row r="740" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A740" s="46"/>
       <c r="F740" s="11"/>
       <c r="G740" s="12"/>
       <c r="H740" s="13"/>
     </row>
-    <row r="741" spans="1:8" ht="13">
-      <c r="A741" s="47"/>
+    <row r="741" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A741" s="46"/>
       <c r="F741" s="11"/>
       <c r="G741" s="12"/>
       <c r="H741" s="13"/>
     </row>
-    <row r="742" spans="1:8" ht="13">
-      <c r="A742" s="47"/>
+    <row r="742" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A742" s="46"/>
       <c r="F742" s="11"/>
       <c r="G742" s="12"/>
       <c r="H742" s="13"/>
     </row>
-    <row r="743" spans="1:8" ht="13">
-      <c r="A743" s="47"/>
+    <row r="743" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A743" s="46"/>
       <c r="F743" s="11"/>
       <c r="G743" s="12"/>
       <c r="H743" s="13"/>
     </row>
-    <row r="744" spans="1:8" ht="13">
-      <c r="A744" s="47"/>
+    <row r="744" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A744" s="46"/>
       <c r="F744" s="11"/>
       <c r="G744" s="12"/>
       <c r="H744" s="13"/>
     </row>
-    <row r="745" spans="1:8" ht="13">
-      <c r="A745" s="47"/>
+    <row r="745" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A745" s="46"/>
       <c r="F745" s="11"/>
       <c r="G745" s="12"/>
       <c r="H745" s="13"/>
     </row>
-    <row r="746" spans="1:8" ht="13">
-      <c r="A746" s="47"/>
+    <row r="746" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A746" s="46"/>
       <c r="F746" s="11"/>
       <c r="G746" s="12"/>
       <c r="H746" s="13"/>
     </row>
-    <row r="747" spans="1:8" ht="13">
-      <c r="A747" s="47"/>
+    <row r="747" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A747" s="46"/>
       <c r="F747" s="11"/>
       <c r="G747" s="12"/>
       <c r="H747" s="13"/>
     </row>
-    <row r="748" spans="1:8" ht="13">
-      <c r="A748" s="47"/>
+    <row r="748" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A748" s="46"/>
       <c r="F748" s="11"/>
       <c r="G748" s="12"/>
       <c r="H748" s="13"/>
     </row>
-    <row r="749" spans="1:8" ht="13">
-      <c r="A749" s="47"/>
+    <row r="749" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A749" s="46"/>
       <c r="F749" s="11"/>
       <c r="G749" s="12"/>
       <c r="H749" s="13"/>
     </row>
-    <row r="750" spans="1:8" ht="13">
-      <c r="A750" s="47"/>
+    <row r="750" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A750" s="46"/>
       <c r="F750" s="11"/>
       <c r="G750" s="12"/>
       <c r="H750" s="13"/>
     </row>
-    <row r="751" spans="1:8" ht="13">
-      <c r="A751" s="47"/>
+    <row r="751" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A751" s="46"/>
       <c r="F751" s="11"/>
       <c r="G751" s="12"/>
       <c r="H751" s="13"/>
     </row>
-    <row r="752" spans="1:8" ht="13">
-      <c r="A752" s="47"/>
+    <row r="752" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A752" s="46"/>
       <c r="F752" s="11"/>
       <c r="G752" s="12"/>
       <c r="H752" s="13"/>
     </row>
-    <row r="753" spans="1:8" ht="13">
-      <c r="A753" s="47"/>
+    <row r="753" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A753" s="46"/>
       <c r="F753" s="11"/>
       <c r="G753" s="12"/>
       <c r="H753" s="13"/>
     </row>
-    <row r="754" spans="1:8" ht="13">
-      <c r="A754" s="47"/>
+    <row r="754" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A754" s="46"/>
       <c r="F754" s="11"/>
       <c r="G754" s="12"/>
       <c r="H754" s="13"/>
     </row>
-    <row r="755" spans="1:8" ht="13">
-      <c r="A755" s="47"/>
+    <row r="755" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A755" s="46"/>
       <c r="F755" s="11"/>
       <c r="G755" s="12"/>
       <c r="H755" s="13"/>
     </row>
-    <row r="756" spans="1:8" ht="13">
-      <c r="A756" s="47"/>
+    <row r="756" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A756" s="46"/>
       <c r="F756" s="11"/>
       <c r="G756" s="12"/>
       <c r="H756" s="13"/>
     </row>
-    <row r="757" spans="1:8" ht="13">
-      <c r="A757" s="47"/>
+    <row r="757" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A757" s="46"/>
       <c r="F757" s="11"/>
       <c r="G757" s="12"/>
       <c r="H757" s="13"/>
     </row>
-    <row r="758" spans="1:8" ht="13">
-      <c r="A758" s="47"/>
+    <row r="758" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A758" s="46"/>
       <c r="F758" s="11"/>
       <c r="G758" s="12"/>
       <c r="H758" s="13"/>
     </row>
-    <row r="759" spans="1:8" ht="13">
-      <c r="A759" s="47"/>
+    <row r="759" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A759" s="46"/>
       <c r="F759" s="11"/>
       <c r="G759" s="12"/>
       <c r="H759" s="13"/>
     </row>
-    <row r="760" spans="1:8" ht="13">
-      <c r="A760" s="47"/>
+    <row r="760" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A760" s="46"/>
       <c r="F760" s="11"/>
       <c r="G760" s="12"/>
       <c r="H760" s="13"/>
     </row>
-    <row r="761" spans="1:8" ht="13">
-      <c r="A761" s="47"/>
+    <row r="761" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A761" s="46"/>
       <c r="F761" s="11"/>
       <c r="G761" s="12"/>
       <c r="H761" s="13"/>
     </row>
-    <row r="762" spans="1:8" ht="13">
-      <c r="A762" s="47"/>
+    <row r="762" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A762" s="46"/>
       <c r="F762" s="11"/>
       <c r="G762" s="12"/>
       <c r="H762" s="13"/>
     </row>
-    <row r="763" spans="1:8" ht="13">
-      <c r="A763" s="47"/>
+    <row r="763" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A763" s="46"/>
       <c r="F763" s="11"/>
       <c r="G763" s="12"/>
       <c r="H763" s="13"/>
     </row>
-    <row r="764" spans="1:8" ht="13">
-      <c r="A764" s="47"/>
+    <row r="764" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A764" s="46"/>
       <c r="F764" s="11"/>
       <c r="G764" s="12"/>
       <c r="H764" s="13"/>
     </row>
-    <row r="765" spans="1:8" ht="13">
-      <c r="A765" s="47"/>
+    <row r="765" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A765" s="46"/>
       <c r="F765" s="11"/>
       <c r="G765" s="12"/>
       <c r="H765" s="13"/>
     </row>
-    <row r="766" spans="1:8" ht="13">
-      <c r="A766" s="47"/>
+    <row r="766" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A766" s="46"/>
       <c r="F766" s="11"/>
       <c r="G766" s="12"/>
       <c r="H766" s="13"/>
     </row>
-    <row r="767" spans="1:8" ht="13">
-      <c r="A767" s="47"/>
+    <row r="767" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A767" s="46"/>
       <c r="F767" s="11"/>
       <c r="G767" s="12"/>
       <c r="H767" s="13"/>
     </row>
-    <row r="768" spans="1:8" ht="13">
-      <c r="A768" s="47"/>
+    <row r="768" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A768" s="46"/>
       <c r="F768" s="11"/>
       <c r="G768" s="12"/>
       <c r="H768" s="13"/>
     </row>
-    <row r="769" spans="1:8" ht="13">
-      <c r="A769" s="47"/>
+    <row r="769" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A769" s="46"/>
       <c r="F769" s="11"/>
       <c r="G769" s="12"/>
       <c r="H769" s="13"/>
     </row>
-    <row r="770" spans="1:8" ht="13">
-      <c r="A770" s="47"/>
+    <row r="770" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A770" s="46"/>
       <c r="F770" s="11"/>
       <c r="G770" s="12"/>
       <c r="H770" s="13"/>
     </row>
-    <row r="771" spans="1:8" ht="13">
-      <c r="A771" s="47"/>
+    <row r="771" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A771" s="46"/>
       <c r="F771" s="11"/>
       <c r="G771" s="12"/>
       <c r="H771" s="13"/>
     </row>
-    <row r="772" spans="1:8" ht="13">
-      <c r="A772" s="47"/>
+    <row r="772" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A772" s="46"/>
       <c r="F772" s="11"/>
       <c r="G772" s="12"/>
       <c r="H772" s="13"/>
     </row>
-    <row r="773" spans="1:8" ht="13">
-      <c r="A773" s="47"/>
+    <row r="773" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A773" s="46"/>
       <c r="F773" s="11"/>
       <c r="G773" s="12"/>
       <c r="H773" s="13"/>
     </row>
-    <row r="774" spans="1:8" ht="13">
-      <c r="A774" s="47"/>
+    <row r="774" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A774" s="46"/>
       <c r="F774" s="11"/>
       <c r="G774" s="12"/>
       <c r="H774" s="13"/>
     </row>
-    <row r="775" spans="1:8" ht="13">
-      <c r="A775" s="47"/>
+    <row r="775" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A775" s="46"/>
       <c r="F775" s="11"/>
       <c r="G775" s="12"/>
       <c r="H775" s="13"/>
     </row>
-    <row r="776" spans="1:8" ht="13">
-      <c r="A776" s="47"/>
+    <row r="776" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A776" s="46"/>
       <c r="F776" s="11"/>
       <c r="G776" s="12"/>
       <c r="H776" s="13"/>
     </row>
-    <row r="777" spans="1:8" ht="13">
-      <c r="A777" s="47"/>
+    <row r="777" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A777" s="46"/>
       <c r="F777" s="11"/>
       <c r="G777" s="12"/>
       <c r="H777" s="13"/>
     </row>
-    <row r="778" spans="1:8" ht="13">
-      <c r="A778" s="47"/>
+    <row r="778" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A778" s="46"/>
       <c r="F778" s="11"/>
       <c r="G778" s="12"/>
       <c r="H778" s="13"/>
     </row>
-    <row r="779" spans="1:8" ht="13">
-      <c r="A779" s="47"/>
+    <row r="779" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A779" s="46"/>
       <c r="F779" s="11"/>
       <c r="G779" s="12"/>
       <c r="H779" s="13"/>
     </row>
-    <row r="780" spans="1:8" ht="13">
-      <c r="A780" s="47"/>
+    <row r="780" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A780" s="46"/>
       <c r="F780" s="11"/>
       <c r="G780" s="12"/>
       <c r="H780" s="13"/>
     </row>
-    <row r="781" spans="1:8" ht="13">
-      <c r="A781" s="47"/>
+    <row r="781" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A781" s="46"/>
       <c r="F781" s="11"/>
       <c r="G781" s="12"/>
       <c r="H781" s="13"/>
     </row>
-    <row r="782" spans="1:8" ht="13">
-      <c r="A782" s="47"/>
+    <row r="782" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A782" s="46"/>
       <c r="F782" s="11"/>
       <c r="G782" s="12"/>
       <c r="H782" s="13"/>
     </row>
-    <row r="783" spans="1:8" ht="13">
-      <c r="A783" s="47"/>
+    <row r="783" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A783" s="46"/>
       <c r="F783" s="11"/>
       <c r="G783" s="12"/>
       <c r="H783" s="13"/>
     </row>
-    <row r="784" spans="1:8" ht="13">
-      <c r="A784" s="47"/>
+    <row r="784" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A784" s="46"/>
       <c r="F784" s="11"/>
       <c r="G784" s="12"/>
       <c r="H784" s="13"/>
     </row>
-    <row r="785" spans="1:8" ht="13">
-      <c r="A785" s="47"/>
+    <row r="785" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A785" s="46"/>
       <c r="F785" s="11"/>
       <c r="G785" s="12"/>
       <c r="H785" s="13"/>
     </row>
-    <row r="786" spans="1:8" ht="13">
-      <c r="A786" s="47"/>
+    <row r="786" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A786" s="46"/>
       <c r="F786" s="11"/>
       <c r="G786" s="12"/>
       <c r="H786" s="13"/>
     </row>
-    <row r="787" spans="1:8" ht="13">
-      <c r="A787" s="47"/>
+    <row r="787" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A787" s="46"/>
       <c r="F787" s="11"/>
       <c r="G787" s="12"/>
       <c r="H787" s="13"/>
     </row>
-    <row r="788" spans="1:8" ht="13">
-      <c r="A788" s="47"/>
+    <row r="788" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A788" s="46"/>
       <c r="F788" s="11"/>
       <c r="G788" s="12"/>
       <c r="H788" s="13"/>
     </row>
-    <row r="789" spans="1:8" ht="13">
-      <c r="A789" s="47"/>
+    <row r="789" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A789" s="46"/>
       <c r="F789" s="11"/>
       <c r="G789" s="12"/>
       <c r="H789" s="13"/>
     </row>
-    <row r="790" spans="1:8" ht="13">
-      <c r="A790" s="47"/>
+    <row r="790" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A790" s="46"/>
       <c r="F790" s="11"/>
       <c r="G790" s="12"/>
       <c r="H790" s="13"/>
     </row>
-    <row r="791" spans="1:8" ht="13">
-      <c r="A791" s="47"/>
+    <row r="791" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A791" s="46"/>
       <c r="F791" s="11"/>
       <c r="G791" s="12"/>
       <c r="H791" s="13"/>
     </row>
-    <row r="792" spans="1:8" ht="13">
-      <c r="A792" s="47"/>
+    <row r="792" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A792" s="46"/>
       <c r="F792" s="11"/>
       <c r="G792" s="12"/>
       <c r="H792" s="13"/>
     </row>
-    <row r="793" spans="1:8" ht="13">
-      <c r="A793" s="47"/>
+    <row r="793" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A793" s="46"/>
       <c r="F793" s="11"/>
       <c r="G793" s="12"/>
       <c r="H793" s="13"/>
     </row>
-    <row r="794" spans="1:8" ht="13">
-      <c r="A794" s="47"/>
+    <row r="794" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A794" s="46"/>
       <c r="F794" s="11"/>
       <c r="G794" s="12"/>
       <c r="H794" s="13"/>
     </row>
-    <row r="795" spans="1:8" ht="13">
-      <c r="A795" s="47"/>
+    <row r="795" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A795" s="46"/>
       <c r="F795" s="11"/>
       <c r="G795" s="12"/>
       <c r="H795" s="13"/>
     </row>
-    <row r="796" spans="1:8" ht="13">
-      <c r="A796" s="47"/>
+    <row r="796" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A796" s="46"/>
       <c r="F796" s="11"/>
       <c r="G796" s="12"/>
       <c r="H796" s="13"/>
     </row>
-    <row r="797" spans="1:8" ht="13">
-      <c r="A797" s="47"/>
+    <row r="797" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A797" s="46"/>
       <c r="F797" s="11"/>
       <c r="G797" s="12"/>
       <c r="H797" s="13"/>
     </row>
-    <row r="798" spans="1:8" ht="13">
-      <c r="A798" s="47"/>
+    <row r="798" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A798" s="46"/>
       <c r="F798" s="11"/>
       <c r="G798" s="12"/>
       <c r="H798" s="13"/>
     </row>
-    <row r="799" spans="1:8" ht="13">
-      <c r="A799" s="47"/>
+    <row r="799" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A799" s="46"/>
       <c r="F799" s="11"/>
       <c r="G799" s="12"/>
       <c r="H799" s="13"/>
     </row>
-    <row r="800" spans="1:8" ht="13">
-      <c r="A800" s="47"/>
+    <row r="800" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A800" s="46"/>
       <c r="F800" s="11"/>
       <c r="G800" s="12"/>
       <c r="H800" s="13"/>
     </row>
-    <row r="801" spans="1:8" ht="13">
-      <c r="A801" s="47"/>
+    <row r="801" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A801" s="46"/>
       <c r="F801" s="11"/>
       <c r="G801" s="12"/>
       <c r="H801" s="13"/>
     </row>
-    <row r="802" spans="1:8" ht="13">
-      <c r="A802" s="47"/>
+    <row r="802" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A802" s="46"/>
       <c r="F802" s="11"/>
       <c r="G802" s="12"/>
       <c r="H802" s="13"/>
     </row>
-    <row r="803" spans="1:8" ht="13">
-      <c r="A803" s="47"/>
+    <row r="803" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A803" s="46"/>
       <c r="F803" s="11"/>
       <c r="G803" s="12"/>
       <c r="H803" s="13"/>
     </row>
-    <row r="804" spans="1:8" ht="13">
-      <c r="A804" s="47"/>
+    <row r="804" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A804" s="46"/>
       <c r="F804" s="11"/>
       <c r="G804" s="12"/>
       <c r="H804" s="13"/>
     </row>
-    <row r="805" spans="1:8" ht="13">
-      <c r="A805" s="47"/>
+    <row r="805" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A805" s="46"/>
       <c r="F805" s="11"/>
       <c r="G805" s="12"/>
       <c r="H805" s="13"/>
     </row>
-    <row r="806" spans="1:8" ht="13">
-      <c r="A806" s="47"/>
+    <row r="806" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A806" s="46"/>
       <c r="F806" s="11"/>
       <c r="G806" s="12"/>
       <c r="H806" s="13"/>
     </row>
-    <row r="807" spans="1:8" ht="13">
-      <c r="A807" s="47"/>
+    <row r="807" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A807" s="46"/>
       <c r="F807" s="11"/>
       <c r="G807" s="12"/>
       <c r="H807" s="13"/>
     </row>
-    <row r="808" spans="1:8" ht="13">
-      <c r="A808" s="47"/>
+    <row r="808" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A808" s="46"/>
       <c r="F808" s="11"/>
       <c r="G808" s="12"/>
       <c r="H808" s="13"/>
     </row>
-    <row r="809" spans="1:8" ht="13">
-      <c r="A809" s="47"/>
+    <row r="809" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A809" s="46"/>
       <c r="F809" s="11"/>
       <c r="G809" s="12"/>
       <c r="H809" s="13"/>
     </row>
-    <row r="810" spans="1:8" ht="13">
-      <c r="A810" s="47"/>
+    <row r="810" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A810" s="46"/>
       <c r="F810" s="11"/>
       <c r="G810" s="12"/>
       <c r="H810" s="13"/>
     </row>
-    <row r="811" spans="1:8" ht="13">
-      <c r="A811" s="47"/>
+    <row r="811" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A811" s="46"/>
       <c r="F811" s="11"/>
       <c r="G811" s="12"/>
       <c r="H811" s="13"/>
     </row>
-    <row r="812" spans="1:8" ht="13">
-      <c r="A812" s="47"/>
+    <row r="812" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A812" s="46"/>
       <c r="F812" s="11"/>
       <c r="G812" s="12"/>
       <c r="H812" s="13"/>
     </row>
-    <row r="813" spans="1:8" ht="13">
-      <c r="A813" s="47"/>
+    <row r="813" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A813" s="46"/>
       <c r="F813" s="11"/>
       <c r="G813" s="12"/>
       <c r="H813" s="13"/>
     </row>
-    <row r="814" spans="1:8" ht="13">
-      <c r="A814" s="47"/>
+    <row r="814" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A814" s="46"/>
       <c r="F814" s="11"/>
       <c r="G814" s="12"/>
       <c r="H814" s="13"/>
     </row>
-    <row r="815" spans="1:8" ht="13">
-      <c r="A815" s="47"/>
+    <row r="815" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A815" s="46"/>
       <c r="F815" s="11"/>
       <c r="G815" s="12"/>
       <c r="H815" s="13"/>
     </row>
-    <row r="816" spans="1:8" ht="13">
-      <c r="A816" s="47"/>
+    <row r="816" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A816" s="46"/>
       <c r="F816" s="11"/>
       <c r="G816" s="12"/>
       <c r="H816" s="13"/>
     </row>
-    <row r="817" spans="1:8" ht="13">
-      <c r="A817" s="47"/>
+    <row r="817" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A817" s="46"/>
       <c r="F817" s="11"/>
       <c r="G817" s="12"/>
       <c r="H817" s="13"/>
     </row>
-    <row r="818" spans="1:8" ht="13">
-      <c r="A818" s="47"/>
+    <row r="818" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A818" s="46"/>
       <c r="F818" s="11"/>
       <c r="G818" s="12"/>
       <c r="H818" s="13"/>
     </row>
-    <row r="819" spans="1:8" ht="13">
-      <c r="A819" s="47"/>
+    <row r="819" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A819" s="46"/>
       <c r="F819" s="11"/>
       <c r="G819" s="12"/>
       <c r="H819" s="13"/>
     </row>
-    <row r="820" spans="1:8" ht="13">
-      <c r="A820" s="47"/>
+    <row r="820" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A820" s="46"/>
       <c r="F820" s="11"/>
       <c r="G820" s="12"/>
       <c r="H820" s="13"/>
     </row>
-    <row r="821" spans="1:8" ht="13">
-      <c r="A821" s="47"/>
+    <row r="821" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A821" s="46"/>
       <c r="F821" s="11"/>
       <c r="G821" s="12"/>
       <c r="H821" s="13"/>
     </row>
-    <row r="822" spans="1:8" ht="13">
-      <c r="A822" s="47"/>
+    <row r="822" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A822" s="46"/>
       <c r="F822" s="11"/>
       <c r="G822" s="12"/>
       <c r="H822" s="13"/>
     </row>
-    <row r="823" spans="1:8" ht="13">
-      <c r="A823" s="47"/>
+    <row r="823" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A823" s="46"/>
       <c r="F823" s="11"/>
       <c r="G823" s="12"/>
       <c r="H823" s="13"/>
     </row>
-    <row r="824" spans="1:8" ht="13">
-      <c r="A824" s="47"/>
+    <row r="824" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A824" s="46"/>
       <c r="F824" s="11"/>
       <c r="G824" s="12"/>
       <c r="H824" s="13"/>
     </row>
-    <row r="825" spans="1:8" ht="13">
-      <c r="A825" s="47"/>
+    <row r="825" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A825" s="46"/>
       <c r="F825" s="11"/>
       <c r="G825" s="12"/>
       <c r="H825" s="13"/>
     </row>
-    <row r="826" spans="1:8" ht="13">
-      <c r="A826" s="47"/>
+    <row r="826" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A826" s="46"/>
       <c r="F826" s="11"/>
       <c r="G826" s="12"/>
       <c r="H826" s="13"/>
     </row>
-    <row r="827" spans="1:8" ht="13">
-      <c r="A827" s="47"/>
+    <row r="827" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A827" s="46"/>
       <c r="F827" s="11"/>
       <c r="G827" s="12"/>
       <c r="H827" s="13"/>
     </row>
-    <row r="828" spans="1:8" ht="13">
-      <c r="A828" s="47"/>
+    <row r="828" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A828" s="46"/>
       <c r="F828" s="11"/>
       <c r="G828" s="12"/>
       <c r="H828" s="13"/>
     </row>
-    <row r="829" spans="1:8" ht="13">
-      <c r="A829" s="47"/>
+    <row r="829" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A829" s="46"/>
       <c r="F829" s="11"/>
       <c r="G829" s="12"/>
       <c r="H829" s="13"/>
     </row>
-    <row r="830" spans="1:8" ht="13">
-      <c r="A830" s="47"/>
+    <row r="830" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A830" s="46"/>
       <c r="F830" s="11"/>
       <c r="G830" s="12"/>
       <c r="H830" s="13"/>
     </row>
-    <row r="831" spans="1:8" ht="13">
-      <c r="A831" s="47"/>
+    <row r="831" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A831" s="46"/>
       <c r="F831" s="11"/>
       <c r="G831" s="12"/>
       <c r="H831" s="13"/>
     </row>
-    <row r="832" spans="1:8" ht="13">
-      <c r="A832" s="47"/>
+    <row r="832" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A832" s="46"/>
       <c r="F832" s="11"/>
       <c r="G832" s="12"/>
       <c r="H832" s="13"/>
     </row>
-    <row r="833" spans="1:8" ht="13">
-      <c r="A833" s="47"/>
+    <row r="833" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A833" s="46"/>
       <c r="F833" s="11"/>
       <c r="G833" s="12"/>
       <c r="H833" s="13"/>
     </row>
-    <row r="834" spans="1:8" ht="13">
-      <c r="A834" s="47"/>
+    <row r="834" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A834" s="46"/>
       <c r="F834" s="11"/>
       <c r="G834" s="12"/>
       <c r="H834" s="13"/>
     </row>
-    <row r="835" spans="1:8" ht="13">
-      <c r="A835" s="47"/>
+    <row r="835" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A835" s="46"/>
       <c r="F835" s="11"/>
       <c r="G835" s="12"/>
       <c r="H835" s="13"/>
     </row>
-    <row r="836" spans="1:8" ht="13">
-      <c r="A836" s="47"/>
+    <row r="836" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A836" s="46"/>
       <c r="F836" s="11"/>
       <c r="G836" s="12"/>
       <c r="H836" s="13"/>
     </row>
-    <row r="837" spans="1:8" ht="13">
-      <c r="A837" s="47"/>
+    <row r="837" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A837" s="46"/>
       <c r="F837" s="11"/>
       <c r="G837" s="12"/>
       <c r="H837" s="13"/>
     </row>
-    <row r="838" spans="1:8" ht="13">
-      <c r="A838" s="47"/>
+    <row r="838" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A838" s="46"/>
       <c r="F838" s="11"/>
       <c r="G838" s="12"/>
       <c r="H838" s="13"/>
     </row>
-    <row r="839" spans="1:8" ht="13">
-      <c r="A839" s="47"/>
+    <row r="839" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A839" s="46"/>
       <c r="F839" s="11"/>
       <c r="G839" s="12"/>
       <c r="H839" s="13"/>
     </row>
-    <row r="840" spans="1:8" ht="13">
-      <c r="A840" s="47"/>
+    <row r="840" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A840" s="46"/>
       <c r="F840" s="11"/>
       <c r="G840" s="12"/>
       <c r="H840" s="13"/>
     </row>
-    <row r="841" spans="1:8" ht="13">
-      <c r="A841" s="47"/>
+    <row r="841" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A841" s="46"/>
       <c r="F841" s="11"/>
       <c r="G841" s="12"/>
       <c r="H841" s="13"/>
     </row>
-    <row r="842" spans="1:8" ht="13">
-      <c r="A842" s="47"/>
+    <row r="842" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A842" s="46"/>
       <c r="F842" s="11"/>
       <c r="G842" s="12"/>
       <c r="H842" s="13"/>
     </row>
-    <row r="843" spans="1:8" ht="13">
-      <c r="A843" s="47"/>
+    <row r="843" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A843" s="46"/>
       <c r="F843" s="11"/>
       <c r="G843" s="12"/>
       <c r="H843" s="13"/>
     </row>
-    <row r="844" spans="1:8" ht="13">
-      <c r="A844" s="47"/>
+    <row r="844" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A844" s="46"/>
       <c r="F844" s="11"/>
       <c r="G844" s="12"/>
       <c r="H844" s="13"/>
     </row>
-    <row r="845" spans="1:8" ht="13">
-      <c r="A845" s="47"/>
+    <row r="845" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A845" s="46"/>
       <c r="F845" s="11"/>
       <c r="G845" s="12"/>
       <c r="H845" s="13"/>
     </row>
-    <row r="846" spans="1:8" ht="13">
-      <c r="A846" s="47"/>
+    <row r="846" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A846" s="46"/>
       <c r="F846" s="11"/>
       <c r="G846" s="12"/>
       <c r="H846" s="13"/>
     </row>
-    <row r="847" spans="1:8" ht="13">
-      <c r="A847" s="47"/>
+    <row r="847" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A847" s="46"/>
       <c r="F847" s="11"/>
       <c r="G847" s="12"/>
       <c r="H847" s="13"/>
     </row>
-    <row r="848" spans="1:8" ht="13">
-      <c r="A848" s="47"/>
+    <row r="848" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A848" s="46"/>
       <c r="F848" s="11"/>
       <c r="G848" s="12"/>
       <c r="H848" s="13"/>
     </row>
-    <row r="849" spans="1:8" ht="13">
-      <c r="A849" s="47"/>
+    <row r="849" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A849" s="46"/>
       <c r="F849" s="11"/>
       <c r="G849" s="12"/>
       <c r="H849" s="13"/>
     </row>
-    <row r="850" spans="1:8" ht="13">
-      <c r="A850" s="47"/>
+    <row r="850" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A850" s="46"/>
       <c r="F850" s="11"/>
       <c r="G850" s="12"/>
       <c r="H850" s="13"/>
     </row>
-    <row r="851" spans="1:8" ht="13">
-      <c r="A851" s="47"/>
+    <row r="851" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A851" s="46"/>
       <c r="F851" s="11"/>
       <c r="G851" s="12"/>
       <c r="H851" s="13"/>
     </row>
-    <row r="852" spans="1:8" ht="13">
-      <c r="A852" s="47"/>
+    <row r="852" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A852" s="46"/>
       <c r="F852" s="11"/>
       <c r="G852" s="12"/>
       <c r="H852" s="13"/>
     </row>
-    <row r="853" spans="1:8" ht="13">
-      <c r="A853" s="47"/>
+    <row r="853" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A853" s="46"/>
       <c r="F853" s="11"/>
       <c r="G853" s="12"/>
       <c r="H853" s="13"/>
     </row>
-    <row r="854" spans="1:8" ht="13">
-      <c r="A854" s="47"/>
+    <row r="854" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A854" s="46"/>
       <c r="F854" s="11"/>
       <c r="G854" s="12"/>
       <c r="H854" s="13"/>
     </row>
-    <row r="855" spans="1:8" ht="13">
-      <c r="A855" s="47"/>
+    <row r="855" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A855" s="46"/>
       <c r="F855" s="11"/>
       <c r="G855" s="12"/>
       <c r="H855" s="13"/>
     </row>
-    <row r="856" spans="1:8" ht="13">
-      <c r="A856" s="47"/>
+    <row r="856" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A856" s="46"/>
       <c r="F856" s="11"/>
       <c r="G856" s="12"/>
       <c r="H856" s="13"/>
     </row>
-    <row r="857" spans="1:8" ht="13">
-      <c r="A857" s="47"/>
+    <row r="857" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A857" s="46"/>
       <c r="F857" s="11"/>
       <c r="G857" s="12"/>
       <c r="H857" s="13"/>
     </row>
-    <row r="858" spans="1:8" ht="13">
-      <c r="A858" s="47"/>
+    <row r="858" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A858" s="46"/>
       <c r="F858" s="11"/>
       <c r="G858" s="12"/>
       <c r="H858" s="13"/>
     </row>
-    <row r="859" spans="1:8" ht="13">
-      <c r="A859" s="47"/>
+    <row r="859" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A859" s="46"/>
       <c r="F859" s="11"/>
       <c r="G859" s="12"/>
       <c r="H859" s="13"/>
     </row>
-    <row r="860" spans="1:8" ht="13">
-      <c r="A860" s="47"/>
+    <row r="860" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A860" s="46"/>
       <c r="F860" s="11"/>
       <c r="G860" s="12"/>
       <c r="H860" s="13"/>
     </row>
-    <row r="861" spans="1:8" ht="13">
-      <c r="A861" s="47"/>
+    <row r="861" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A861" s="46"/>
       <c r="F861" s="11"/>
       <c r="G861" s="12"/>
       <c r="H861" s="13"/>
     </row>
-    <row r="862" spans="1:8" ht="13">
-      <c r="A862" s="47"/>
+    <row r="862" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A862" s="46"/>
       <c r="F862" s="11"/>
       <c r="G862" s="12"/>
       <c r="H862" s="13"/>
     </row>
-    <row r="863" spans="1:8" ht="13">
-      <c r="A863" s="47"/>
+    <row r="863" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A863" s="46"/>
       <c r="F863" s="11"/>
       <c r="G863" s="12"/>
       <c r="H863" s="13"/>
     </row>
-    <row r="864" spans="1:8" ht="13">
-      <c r="A864" s="47"/>
+    <row r="864" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A864" s="46"/>
       <c r="F864" s="11"/>
       <c r="G864" s="12"/>
       <c r="H864" s="13"/>
     </row>
-    <row r="865" spans="1:8" ht="13">
-      <c r="A865" s="47"/>
+    <row r="865" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A865" s="46"/>
       <c r="F865" s="11"/>
       <c r="G865" s="12"/>
       <c r="H865" s="13"/>
     </row>
-    <row r="866" spans="1:8" ht="13">
-      <c r="A866" s="47"/>
+    <row r="866" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A866" s="46"/>
       <c r="F866" s="11"/>
       <c r="G866" s="12"/>
       <c r="H866" s="13"/>
     </row>
-    <row r="867" spans="1:8" ht="13">
-      <c r="A867" s="47"/>
+    <row r="867" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A867" s="46"/>
       <c r="F867" s="11"/>
       <c r="G867" s="12"/>
       <c r="H867" s="13"/>
     </row>
-    <row r="868" spans="1:8" ht="13">
-      <c r="A868" s="47"/>
+    <row r="868" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A868" s="46"/>
       <c r="F868" s="11"/>
       <c r="G868" s="12"/>
       <c r="H868" s="13"/>
     </row>
-    <row r="869" spans="1:8" ht="13">
-      <c r="A869" s="47"/>
+    <row r="869" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A869" s="46"/>
       <c r="F869" s="11"/>
       <c r="G869" s="12"/>
       <c r="H869" s="13"/>
     </row>
-    <row r="870" spans="1:8" ht="13">
-      <c r="A870" s="47"/>
+    <row r="870" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A870" s="46"/>
       <c r="F870" s="11"/>
       <c r="G870" s="12"/>
       <c r="H870" s="13"/>
     </row>
-    <row r="871" spans="1:8" ht="13">
-      <c r="A871" s="47"/>
+    <row r="871" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A871" s="46"/>
       <c r="F871" s="11"/>
       <c r="G871" s="12"/>
       <c r="H871" s="13"/>
     </row>
-    <row r="872" spans="1:8" ht="13">
-      <c r="A872" s="47"/>
+    <row r="872" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A872" s="46"/>
       <c r="F872" s="11"/>
       <c r="G872" s="12"/>
       <c r="H872" s="13"/>
     </row>
-    <row r="873" spans="1:8" ht="13">
-      <c r="A873" s="47"/>
+    <row r="873" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A873" s="46"/>
       <c r="F873" s="11"/>
       <c r="G873" s="12"/>
       <c r="H873" s="13"/>
     </row>
-    <row r="874" spans="1:8" ht="13">
-      <c r="A874" s="47"/>
+    <row r="874" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A874" s="46"/>
       <c r="F874" s="11"/>
       <c r="G874" s="12"/>
       <c r="H874" s="13"/>
     </row>
-    <row r="875" spans="1:8" ht="13">
-      <c r="A875" s="47"/>
+    <row r="875" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A875" s="46"/>
       <c r="F875" s="11"/>
       <c r="G875" s="12"/>
       <c r="H875" s="13"/>
     </row>
-    <row r="876" spans="1:8" ht="13">
-      <c r="A876" s="47"/>
+    <row r="876" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A876" s="46"/>
       <c r="F876" s="11"/>
       <c r="G876" s="12"/>
       <c r="H876" s="13"/>
     </row>
-    <row r="877" spans="1:8" ht="13">
-      <c r="A877" s="47"/>
+    <row r="877" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A877" s="46"/>
       <c r="F877" s="11"/>
       <c r="G877" s="12"/>
       <c r="H877" s="13"/>
     </row>
-    <row r="878" spans="1:8" ht="13">
-      <c r="A878" s="47"/>
+    <row r="878" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A878" s="46"/>
       <c r="F878" s="11"/>
       <c r="G878" s="12"/>
       <c r="H878" s="13"/>
     </row>
-    <row r="879" spans="1:8" ht="13">
-      <c r="A879" s="47"/>
+    <row r="879" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A879" s="46"/>
       <c r="F879" s="11"/>
       <c r="G879" s="12"/>
       <c r="H879" s="13"/>
     </row>
-    <row r="880" spans="1:8" ht="13">
-      <c r="A880" s="47"/>
+    <row r="880" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A880" s="46"/>
       <c r="F880" s="11"/>
       <c r="G880" s="12"/>
       <c r="H880" s="13"/>
     </row>
-    <row r="881" spans="1:8" ht="13">
-      <c r="A881" s="47"/>
+    <row r="881" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A881" s="46"/>
       <c r="F881" s="11"/>
       <c r="G881" s="12"/>
       <c r="H881" s="13"/>
     </row>
-    <row r="882" spans="1:8" ht="13">
-      <c r="A882" s="47"/>
+    <row r="882" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A882" s="46"/>
       <c r="F882" s="11"/>
       <c r="G882" s="12"/>
       <c r="H882" s="13"/>
     </row>
-    <row r="883" spans="1:8" ht="13">
-      <c r="A883" s="47"/>
+    <row r="883" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A883" s="46"/>
       <c r="F883" s="11"/>
       <c r="G883" s="12"/>
       <c r="H883" s="13"/>
     </row>
-    <row r="884" spans="1:8" ht="13">
-      <c r="A884" s="47"/>
+    <row r="884" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A884" s="46"/>
       <c r="F884" s="11"/>
       <c r="G884" s="12"/>
       <c r="H884" s="13"/>
     </row>
-    <row r="885" spans="1:8" ht="13">
-      <c r="A885" s="47"/>
+    <row r="885" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A885" s="46"/>
       <c r="F885" s="11"/>
       <c r="G885" s="12"/>
       <c r="H885" s="13"/>
     </row>
-    <row r="886" spans="1:8" ht="13">
-      <c r="A886" s="47"/>
+    <row r="886" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A886" s="46"/>
       <c r="F886" s="11"/>
       <c r="G886" s="12"/>
       <c r="H886" s="13"/>
     </row>
-    <row r="887" spans="1:8" ht="13">
-      <c r="A887" s="47"/>
+    <row r="887" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A887" s="46"/>
       <c r="F887" s="11"/>
       <c r="G887" s="12"/>
       <c r="H887" s="13"/>
     </row>
-    <row r="888" spans="1:8" ht="13">
-      <c r="A888" s="47"/>
+    <row r="888" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A888" s="46"/>
       <c r="F888" s="11"/>
       <c r="G888" s="12"/>
       <c r="H888" s="13"/>
     </row>
-    <row r="889" spans="1:8" ht="13">
-      <c r="A889" s="47"/>
+    <row r="889" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A889" s="46"/>
       <c r="F889" s="11"/>
       <c r="G889" s="12"/>
       <c r="H889" s="13"/>
     </row>
-    <row r="890" spans="1:8" ht="13">
-      <c r="A890" s="47"/>
+    <row r="890" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A890" s="46"/>
       <c r="F890" s="11"/>
       <c r="G890" s="12"/>
       <c r="H890" s="13"/>
     </row>
-    <row r="891" spans="1:8" ht="13">
-      <c r="A891" s="47"/>
+    <row r="891" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A891" s="46"/>
       <c r="F891" s="11"/>
       <c r="G891" s="12"/>
       <c r="H891" s="13"/>
     </row>
-    <row r="892" spans="1:8" ht="13">
-      <c r="A892" s="47"/>
+    <row r="892" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A892" s="46"/>
       <c r="F892" s="11"/>
       <c r="G892" s="12"/>
       <c r="H892" s="13"/>
     </row>
-    <row r="893" spans="1:8" ht="13">
-      <c r="A893" s="47"/>
+    <row r="893" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A893" s="46"/>
       <c r="F893" s="11"/>
       <c r="G893" s="12"/>
       <c r="H893" s="13"/>
     </row>
-    <row r="894" spans="1:8" ht="13">
-      <c r="A894" s="47"/>
+    <row r="894" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A894" s="46"/>
       <c r="F894" s="11"/>
       <c r="G894" s="12"/>
       <c r="H894" s="13"/>
     </row>
-    <row r="895" spans="1:8" ht="13">
-      <c r="A895" s="47"/>
+    <row r="895" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A895" s="46"/>
       <c r="F895" s="11"/>
       <c r="G895" s="12"/>
       <c r="H895" s="13"/>
     </row>
-    <row r="896" spans="1:8" ht="13">
-      <c r="A896" s="47"/>
+    <row r="896" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A896" s="46"/>
       <c r="F896" s="11"/>
       <c r="G896" s="12"/>
       <c r="H896" s="13"/>
     </row>
-    <row r="897" spans="1:8" ht="13">
-      <c r="A897" s="47"/>
+    <row r="897" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A897" s="46"/>
       <c r="F897" s="11"/>
       <c r="G897" s="12"/>
       <c r="H897" s="13"/>
     </row>
-    <row r="898" spans="1:8" ht="13">
-      <c r="A898" s="47"/>
+    <row r="898" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A898" s="46"/>
       <c r="F898" s="11"/>
       <c r="G898" s="12"/>
       <c r="H898" s="13"/>
     </row>
-    <row r="899" spans="1:8" ht="13">
-      <c r="A899" s="47"/>
+    <row r="899" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A899" s="46"/>
       <c r="F899" s="11"/>
       <c r="G899" s="12"/>
       <c r="H899" s="13"/>
     </row>
-    <row r="900" spans="1:8" ht="13">
-      <c r="A900" s="47"/>
+    <row r="900" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A900" s="46"/>
       <c r="F900" s="11"/>
       <c r="G900" s="12"/>
       <c r="H900" s="13"/>
     </row>
-    <row r="901" spans="1:8" ht="13">
-      <c r="A901" s="47"/>
+    <row r="901" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A901" s="46"/>
       <c r="F901" s="11"/>
       <c r="G901" s="12"/>
       <c r="H901" s="13"/>
     </row>
-    <row r="902" spans="1:8" ht="13">
-      <c r="A902" s="47"/>
+    <row r="902" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A902" s="46"/>
       <c r="F902" s="11"/>
       <c r="G902" s="12"/>
       <c r="H902" s="13"/>
     </row>
-    <row r="903" spans="1:8" ht="13">
-      <c r="A903" s="47"/>
+    <row r="903" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A903" s="46"/>
       <c r="F903" s="11"/>
       <c r="G903" s="12"/>
       <c r="H903" s="13"/>
     </row>
-    <row r="904" spans="1:8" ht="13">
-      <c r="A904" s="47"/>
+    <row r="904" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A904" s="46"/>
       <c r="F904" s="11"/>
       <c r="G904" s="12"/>
       <c r="H904" s="13"/>
     </row>
-    <row r="905" spans="1:8" ht="13">
-      <c r="A905" s="47"/>
+    <row r="905" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A905" s="46"/>
       <c r="F905" s="11"/>
       <c r="G905" s="12"/>
       <c r="H905" s="13"/>
     </row>
-    <row r="906" spans="1:8" ht="13">
-      <c r="A906" s="47"/>
+    <row r="906" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A906" s="46"/>
       <c r="F906" s="11"/>
       <c r="G906" s="12"/>
       <c r="H906" s="13"/>
     </row>
-    <row r="907" spans="1:8" ht="13">
-      <c r="A907" s="47"/>
+    <row r="907" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A907" s="46"/>
       <c r="F907" s="11"/>
       <c r="G907" s="12"/>
       <c r="H907" s="13"/>
     </row>
-    <row r="908" spans="1:8" ht="13">
-      <c r="A908" s="47"/>
+    <row r="908" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A908" s="46"/>
       <c r="F908" s="11"/>
       <c r="G908" s="12"/>
       <c r="H908" s="13"/>
     </row>
-    <row r="909" spans="1:8" ht="13">
-      <c r="A909" s="47"/>
+    <row r="909" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A909" s="46"/>
       <c r="F909" s="11"/>
       <c r="G909" s="12"/>
       <c r="H909" s="13"/>
     </row>
-    <row r="910" spans="1:8" ht="13">
-      <c r="A910" s="47"/>
+    <row r="910" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A910" s="46"/>
       <c r="F910" s="11"/>
       <c r="G910" s="12"/>
       <c r="H910" s="13"/>
     </row>
-    <row r="911" spans="1:8" ht="13">
-      <c r="A911" s="47"/>
+    <row r="911" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A911" s="46"/>
       <c r="F911" s="11"/>
       <c r="G911" s="12"/>
       <c r="H911" s="13"/>
     </row>
-    <row r="912" spans="1:8" ht="13">
-      <c r="A912" s="47"/>
+    <row r="912" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A912" s="46"/>
       <c r="F912" s="11"/>
       <c r="G912" s="12"/>
       <c r="H912" s="13"/>
     </row>
-    <row r="913" spans="1:8" ht="13">
-      <c r="A913" s="47"/>
+    <row r="913" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A913" s="46"/>
       <c r="F913" s="11"/>
       <c r="G913" s="12"/>
       <c r="H913" s="13"/>
     </row>
-    <row r="914" spans="1:8" ht="13">
-      <c r="A914" s="47"/>
+    <row r="914" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A914" s="46"/>
       <c r="F914" s="11"/>
       <c r="G914" s="12"/>
       <c r="H914" s="13"/>
     </row>
-    <row r="915" spans="1:8" ht="13">
-      <c r="A915" s="47"/>
+    <row r="915" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A915" s="46"/>
       <c r="F915" s="11"/>
       <c r="G915" s="12"/>
       <c r="H915" s="13"/>
     </row>
-    <row r="916" spans="1:8" ht="13">
-      <c r="A916" s="47"/>
+    <row r="916" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A916" s="46"/>
       <c r="F916" s="11"/>
       <c r="G916" s="12"/>
       <c r="H916" s="13"/>
     </row>
-    <row r="917" spans="1:8" ht="13">
-      <c r="A917" s="47"/>
+    <row r="917" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A917" s="46"/>
       <c r="F917" s="11"/>
       <c r="G917" s="12"/>
       <c r="H917" s="13"/>
     </row>
-    <row r="918" spans="1:8" ht="13">
-      <c r="A918" s="47"/>
+    <row r="918" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A918" s="46"/>
       <c r="F918" s="11"/>
       <c r="G918" s="12"/>
       <c r="H918" s="13"/>
     </row>
-    <row r="919" spans="1:8" ht="13">
-      <c r="A919" s="47"/>
+    <row r="919" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A919" s="46"/>
       <c r="F919" s="11"/>
       <c r="G919" s="12"/>
       <c r="H919" s="13"/>
     </row>
-    <row r="920" spans="1:8" ht="13">
-      <c r="A920" s="47"/>
+    <row r="920" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A920" s="46"/>
       <c r="F920" s="11"/>
       <c r="G920" s="12"/>
       <c r="H920" s="13"/>
     </row>
-    <row r="921" spans="1:8" ht="13">
-      <c r="A921" s="47"/>
+    <row r="921" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A921" s="46"/>
       <c r="F921" s="11"/>
       <c r="G921" s="12"/>
       <c r="H921" s="13"/>
     </row>
-    <row r="922" spans="1:8" ht="13">
-      <c r="A922" s="47"/>
+    <row r="922" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A922" s="46"/>
       <c r="F922" s="11"/>
       <c r="G922" s="12"/>
       <c r="H922" s="13"/>
     </row>
-    <row r="923" spans="1:8" ht="13">
-      <c r="A923" s="47"/>
+    <row r="923" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A923" s="46"/>
       <c r="F923" s="11"/>
       <c r="G923" s="12"/>
       <c r="H923" s="13"/>
     </row>
-    <row r="924" spans="1:8" ht="13">
-      <c r="A924" s="47"/>
+    <row r="924" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A924" s="46"/>
       <c r="F924" s="11"/>
       <c r="G924" s="12"/>
       <c r="H924" s="13"/>
     </row>
-    <row r="925" spans="1:8" ht="13">
-      <c r="A925" s="47"/>
+    <row r="925" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A925" s="46"/>
       <c r="F925" s="11"/>
       <c r="G925" s="12"/>
       <c r="H925" s="13"/>
     </row>
-    <row r="926" spans="1:8" ht="13">
-      <c r="A926" s="47"/>
+    <row r="926" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A926" s="46"/>
       <c r="F926" s="11"/>
       <c r="G926" s="12"/>
       <c r="H926" s="13"/>
     </row>
-    <row r="927" spans="1:8" ht="13">
-      <c r="A927" s="47"/>
+    <row r="927" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A927" s="46"/>
       <c r="F927" s="11"/>
       <c r="G927" s="12"/>
       <c r="H927" s="13"/>
     </row>
-    <row r="928" spans="1:8" ht="13">
-      <c r="A928" s="47"/>
+    <row r="928" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A928" s="46"/>
       <c r="F928" s="11"/>
       <c r="G928" s="12"/>
       <c r="H928" s="13"/>
     </row>
-    <row r="929" spans="1:8" ht="13">
-      <c r="A929" s="47"/>
+    <row r="929" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A929" s="46"/>
       <c r="F929" s="11"/>
       <c r="G929" s="12"/>
       <c r="H929" s="13"/>
     </row>
-    <row r="930" spans="1:8" ht="13">
-      <c r="A930" s="47"/>
+    <row r="930" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A930" s="46"/>
       <c r="F930" s="11"/>
       <c r="G930" s="12"/>
       <c r="H930" s="13"/>
     </row>
-    <row r="931" spans="1:8" ht="13">
-      <c r="A931" s="47"/>
+    <row r="931" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A931" s="46"/>
       <c r="F931" s="11"/>
       <c r="G931" s="12"/>
       <c r="H931" s="13"/>
     </row>
-    <row r="932" spans="1:8" ht="13">
-      <c r="A932" s="47"/>
+    <row r="932" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A932" s="46"/>
       <c r="F932" s="11"/>
       <c r="G932" s="12"/>
       <c r="H932" s="13"/>
     </row>
-    <row r="933" spans="1:8" ht="13">
-      <c r="A933" s="47"/>
+    <row r="933" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A933" s="46"/>
       <c r="F933" s="11"/>
       <c r="G933" s="12"/>
       <c r="H933" s="13"/>
     </row>
-    <row r="934" spans="1:8" ht="13">
-      <c r="A934" s="47"/>
+    <row r="934" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A934" s="46"/>
       <c r="F934" s="11"/>
       <c r="G934" s="12"/>
       <c r="H934" s="13"/>
     </row>
-    <row r="935" spans="1:8" ht="13">
-      <c r="A935" s="47"/>
+    <row r="935" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A935" s="46"/>
       <c r="F935" s="11"/>
       <c r="G935" s="12"/>
       <c r="H935" s="13"/>
     </row>
-    <row r="936" spans="1:8" ht="13">
-      <c r="A936" s="47"/>
+    <row r="936" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A936" s="46"/>
       <c r="F936" s="11"/>
       <c r="G936" s="12"/>
       <c r="H936" s="13"/>
     </row>
-    <row r="937" spans="1:8" ht="13">
-      <c r="A937" s="47"/>
+    <row r="937" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A937" s="46"/>
       <c r="F937" s="11"/>
       <c r="G937" s="12"/>
       <c r="H937" s="13"/>
     </row>
-    <row r="938" spans="1:8" ht="13">
-      <c r="A938" s="47"/>
+    <row r="938" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A938" s="46"/>
       <c r="F938" s="11"/>
       <c r="G938" s="12"/>
       <c r="H938" s="13"/>
     </row>
-    <row r="939" spans="1:8" ht="13">
-      <c r="A939" s="47"/>
+    <row r="939" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A939" s="46"/>
       <c r="F939" s="11"/>
       <c r="G939" s="12"/>
       <c r="H939" s="13"/>
     </row>
-    <row r="940" spans="1:8" ht="13">
-      <c r="A940" s="47"/>
+    <row r="940" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A940" s="46"/>
       <c r="F940" s="11"/>
       <c r="G940" s="12"/>
       <c r="H940" s="13"/>
     </row>
-    <row r="941" spans="1:8" ht="13">
-      <c r="A941" s="47"/>
+    <row r="941" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A941" s="46"/>
       <c r="F941" s="11"/>
       <c r="G941" s="12"/>
       <c r="H941" s="13"/>
     </row>
-    <row r="942" spans="1:8" ht="13">
-      <c r="A942" s="47"/>
+    <row r="942" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A942" s="46"/>
       <c r="F942" s="11"/>
       <c r="G942" s="12"/>
       <c r="H942" s="13"/>
     </row>
-    <row r="943" spans="1:8" ht="13">
-      <c r="A943" s="47"/>
+    <row r="943" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A943" s="46"/>
       <c r="F943" s="11"/>
       <c r="G943" s="12"/>
       <c r="H943" s="13"/>
     </row>
-    <row r="944" spans="1:8" ht="13">
-      <c r="A944" s="47"/>
+    <row r="944" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A944" s="46"/>
       <c r="F944" s="11"/>
       <c r="G944" s="12"/>
       <c r="H944" s="13"/>
     </row>
-    <row r="945" spans="1:8" ht="13">
-      <c r="A945" s="47"/>
+    <row r="945" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A945" s="46"/>
       <c r="F945" s="11"/>
       <c r="G945" s="12"/>
       <c r="H945" s="13"/>
     </row>
-    <row r="946" spans="1:8" ht="13">
-      <c r="A946" s="47"/>
+    <row r="946" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A946" s="46"/>
       <c r="F946" s="11"/>
       <c r="G946" s="12"/>
       <c r="H946" s="13"/>
     </row>
-    <row r="947" spans="1:8" ht="13">
-      <c r="A947" s="47"/>
+    <row r="947" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A947" s="46"/>
       <c r="F947" s="11"/>
       <c r="G947" s="12"/>
       <c r="H947" s="13"/>
     </row>
-    <row r="948" spans="1:8" ht="13">
-      <c r="A948" s="47"/>
+    <row r="948" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A948" s="46"/>
       <c r="F948" s="11"/>
       <c r="G948" s="12"/>
       <c r="H948" s="13"/>
     </row>
-    <row r="949" spans="1:8" ht="13">
-      <c r="A949" s="47"/>
+    <row r="949" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A949" s="46"/>
       <c r="F949" s="11"/>
       <c r="G949" s="12"/>
       <c r="H949" s="13"/>
     </row>
-    <row r="950" spans="1:8" ht="13">
-      <c r="A950" s="47"/>
+    <row r="950" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A950" s="46"/>
       <c r="F950" s="11"/>
       <c r="G950" s="12"/>
       <c r="H950" s="13"/>
     </row>
-    <row r="951" spans="1:8" ht="13">
-      <c r="A951" s="47"/>
+    <row r="951" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A951" s="46"/>
       <c r="F951" s="11"/>
       <c r="G951" s="12"/>
       <c r="H951" s="13"/>
     </row>
-    <row r="952" spans="1:8" ht="13">
-      <c r="A952" s="47"/>
+    <row r="952" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A952" s="46"/>
       <c r="F952" s="11"/>
       <c r="G952" s="12"/>
       <c r="H952" s="13"/>
     </row>
-    <row r="953" spans="1:8" ht="13">
-      <c r="A953" s="47"/>
+    <row r="953" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A953" s="46"/>
       <c r="F953" s="11"/>
       <c r="G953" s="12"/>
       <c r="H953" s="13"/>
     </row>
-    <row r="954" spans="1:8" ht="13">
-      <c r="A954" s="47"/>
+    <row r="954" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A954" s="46"/>
       <c r="F954" s="11"/>
       <c r="G954" s="12"/>
       <c r="H954" s="13"/>
     </row>
-    <row r="955" spans="1:8" ht="13">
-      <c r="A955" s="47"/>
+    <row r="955" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A955" s="46"/>
       <c r="F955" s="11"/>
       <c r="G955" s="12"/>
       <c r="H955" s="13"/>
     </row>
-    <row r="956" spans="1:8" ht="13">
-      <c r="A956" s="47"/>
+    <row r="956" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A956" s="46"/>
       <c r="F956" s="11"/>
       <c r="G956" s="12"/>
       <c r="H956" s="13"/>
     </row>
-    <row r="957" spans="1:8" ht="13">
-      <c r="A957" s="47"/>
+    <row r="957" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A957" s="46"/>
       <c r="F957" s="11"/>
       <c r="G957" s="12"/>
       <c r="H957" s="13"/>
     </row>
-    <row r="958" spans="1:8" ht="13">
-      <c r="A958" s="47"/>
+    <row r="958" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A958" s="46"/>
       <c r="F958" s="11"/>
       <c r="G958" s="12"/>
       <c r="H958" s="13"/>
     </row>
-    <row r="959" spans="1:8" ht="13">
-      <c r="A959" s="47"/>
+    <row r="959" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A959" s="46"/>
       <c r="F959" s="11"/>
       <c r="G959" s="12"/>
       <c r="H959" s="13"/>
     </row>
-    <row r="960" spans="1:8" ht="13">
-      <c r="A960" s="47"/>
+    <row r="960" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A960" s="46"/>
       <c r="F960" s="11"/>
       <c r="G960" s="12"/>
       <c r="H960" s="13"/>
     </row>
-    <row r="961" spans="1:8" ht="13">
-      <c r="A961" s="47"/>
+    <row r="961" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A961" s="46"/>
       <c r="F961" s="11"/>
       <c r="G961" s="12"/>
       <c r="H961" s="13"/>
     </row>
-    <row r="962" spans="1:8" ht="13">
-      <c r="A962" s="47"/>
+    <row r="962" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A962" s="46"/>
       <c r="F962" s="11"/>
       <c r="G962" s="12"/>
       <c r="H962" s="13"/>
     </row>
-    <row r="963" spans="1:8" ht="13">
-      <c r="A963" s="47"/>
+    <row r="963" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A963" s="46"/>
       <c r="F963" s="11"/>
       <c r="G963" s="12"/>
       <c r="H963" s="13"/>
     </row>
-    <row r="964" spans="1:8" ht="13">
-      <c r="A964" s="47"/>
+    <row r="964" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A964" s="46"/>
       <c r="F964" s="11"/>
       <c r="G964" s="12"/>
       <c r="H964" s="13"/>
     </row>
-    <row r="965" spans="1:8" ht="13">
-      <c r="A965" s="47"/>
+    <row r="965" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A965" s="46"/>
       <c r="F965" s="11"/>
       <c r="G965" s="12"/>
       <c r="H965" s="13"/>
     </row>
-    <row r="966" spans="1:8" ht="13">
-      <c r="A966" s="47"/>
+    <row r="966" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A966" s="46"/>
       <c r="F966" s="11"/>
       <c r="G966" s="12"/>
       <c r="H966" s="13"/>
     </row>
-    <row r="967" spans="1:8" ht="13">
-      <c r="A967" s="47"/>
+    <row r="967" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A967" s="46"/>
       <c r="F967" s="11"/>
       <c r="G967" s="12"/>
       <c r="H967" s="13"/>
     </row>
-    <row r="968" spans="1:8" ht="13">
-      <c r="A968" s="47"/>
+    <row r="968" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A968" s="46"/>
       <c r="F968" s="11"/>
       <c r="G968" s="12"/>
       <c r="H968" s="13"/>
     </row>
-    <row r="969" spans="1:8" ht="13">
-      <c r="A969" s="47"/>
+    <row r="969" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A969" s="46"/>
       <c r="F969" s="11"/>
       <c r="G969" s="12"/>
       <c r="H969" s="13"/>
     </row>
-    <row r="970" spans="1:8" ht="13">
-      <c r="A970" s="47"/>
+    <row r="970" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A970" s="46"/>
       <c r="F970" s="11"/>
       <c r="G970" s="12"/>
       <c r="H970" s="13"/>
     </row>
-    <row r="971" spans="1:8" ht="13">
-      <c r="A971" s="47"/>
+    <row r="971" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A971" s="46"/>
       <c r="F971" s="11"/>
       <c r="G971" s="12"/>
       <c r="H971" s="13"/>
     </row>
-    <row r="972" spans="1:8" ht="13">
-      <c r="A972" s="47"/>
+    <row r="972" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A972" s="46"/>
       <c r="F972" s="11"/>
       <c r="G972" s="12"/>
       <c r="H972" s="13"/>
     </row>
-    <row r="973" spans="1:8" ht="13">
-      <c r="A973" s="47"/>
+    <row r="973" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A973" s="46"/>
       <c r="F973" s="11"/>
       <c r="G973" s="12"/>
       <c r="H973" s="13"/>
     </row>
-    <row r="974" spans="1:8" ht="13">
-      <c r="A974" s="47"/>
+    <row r="974" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A974" s="46"/>
       <c r="F974" s="11"/>
       <c r="G974" s="12"/>
       <c r="H974" s="13"/>
     </row>
-    <row r="975" spans="1:8" ht="13">
-      <c r="A975" s="47"/>
+    <row r="975" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A975" s="46"/>
       <c r="F975" s="11"/>
       <c r="G975" s="12"/>
       <c r="H975" s="13"/>
     </row>
-    <row r="976" spans="1:8" ht="13">
-      <c r="A976" s="47"/>
+    <row r="976" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A976" s="46"/>
       <c r="F976" s="11"/>
       <c r="G976" s="12"/>
       <c r="H976" s="13"/>
     </row>
-    <row r="977" spans="1:8" ht="13">
-      <c r="A977" s="47"/>
+    <row r="977" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A977" s="46"/>
       <c r="F977" s="11"/>
       <c r="G977" s="12"/>
       <c r="H977" s="13"/>
     </row>
-    <row r="978" spans="1:8" ht="13">
-      <c r="A978" s="47"/>
+    <row r="978" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A978" s="46"/>
       <c r="F978" s="11"/>
       <c r="G978" s="12"/>
       <c r="H978" s="13"/>
     </row>
-    <row r="979" spans="1:8" ht="13">
-      <c r="A979" s="47"/>
+    <row r="979" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A979" s="46"/>
       <c r="F979" s="11"/>
       <c r="G979" s="12"/>
       <c r="H979" s="13"/>
     </row>
-    <row r="980" spans="1:8" ht="13">
-      <c r="A980" s="47"/>
+    <row r="980" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A980" s="46"/>
       <c r="F980" s="11"/>
       <c r="G980" s="12"/>
       <c r="H980" s="13"/>
     </row>
-    <row r="981" spans="1:8" ht="13">
-      <c r="A981" s="47"/>
+    <row r="981" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A981" s="46"/>
       <c r="F981" s="11"/>
       <c r="G981" s="12"/>
       <c r="H981" s="13"/>
     </row>
-    <row r="982" spans="1:8" ht="13">
-      <c r="A982" s="47"/>
+    <row r="982" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A982" s="46"/>
       <c r="F982" s="11"/>
       <c r="G982" s="12"/>
       <c r="H982" s="13"/>
     </row>
-    <row r="983" spans="1:8" ht="13">
-      <c r="A983" s="47"/>
+    <row r="983" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A983" s="46"/>
       <c r="F983" s="11"/>
       <c r="G983" s="12"/>
       <c r="H983" s="13"/>
     </row>
-    <row r="984" spans="1:8" ht="13">
-      <c r="A984" s="47"/>
+    <row r="984" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A984" s="46"/>
       <c r="F984" s="11"/>
       <c r="G984" s="12"/>
       <c r="H984" s="13"/>
     </row>
-    <row r="985" spans="1:8" ht="13">
-      <c r="A985" s="47"/>
+    <row r="985" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A985" s="46"/>
       <c r="F985" s="11"/>
       <c r="G985" s="12"/>
       <c r="H985" s="13"/>
     </row>
-    <row r="986" spans="1:8" ht="13">
-      <c r="A986" s="47"/>
+    <row r="986" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A986" s="46"/>
       <c r="F986" s="11"/>
       <c r="G986" s="12"/>
       <c r="H986" s="13"/>
     </row>
-    <row r="987" spans="1:8" ht="13">
-      <c r="A987" s="47"/>
+    <row r="987" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A987" s="46"/>
       <c r="F987" s="11"/>
       <c r="G987" s="12"/>
       <c r="H987" s="13"/>
     </row>
-    <row r="988" spans="1:8" ht="13">
-      <c r="A988" s="47"/>
+    <row r="988" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A988" s="46"/>
       <c r="F988" s="11"/>
       <c r="G988" s="12"/>
       <c r="H988" s="13"/>
     </row>
-    <row r="989" spans="1:8" ht="13">
-      <c r="A989" s="47"/>
+    <row r="989" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A989" s="46"/>
       <c r="F989" s="11"/>
       <c r="G989" s="12"/>
       <c r="H989" s="13"/>
     </row>
-    <row r="990" spans="1:8" ht="13">
-      <c r="A990" s="47"/>
+    <row r="990" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A990" s="46"/>
       <c r="F990" s="11"/>
       <c r="G990" s="12"/>
       <c r="H990" s="13"/>
     </row>
-    <row r="991" spans="1:8" ht="13">
-      <c r="A991" s="47"/>
+    <row r="991" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A991" s="46"/>
       <c r="F991" s="11"/>
       <c r="G991" s="12"/>
       <c r="H991" s="13"/>
     </row>
-    <row r="992" spans="1:8" ht="13">
-      <c r="A992" s="47"/>
+    <row r="992" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A992" s="46"/>
       <c r="F992" s="11"/>
       <c r="G992" s="12"/>
       <c r="H992" s="13"/>
     </row>
-    <row r="993" spans="1:8" ht="13">
-      <c r="A993" s="47"/>
+    <row r="993" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A993" s="46"/>
       <c r="F993" s="11"/>
       <c r="G993" s="12"/>
       <c r="H993" s="13"/>
     </row>
-    <row r="994" spans="1:8" ht="13">
-      <c r="A994" s="47"/>
+    <row r="994" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A994" s="46"/>
       <c r="F994" s="11"/>
       <c r="G994" s="12"/>
       <c r="H994" s="13"/>
     </row>
-    <row r="995" spans="1:8" ht="13">
-      <c r="A995" s="47"/>
+    <row r="995" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A995" s="46"/>
       <c r="F995" s="11"/>
       <c r="G995" s="12"/>
       <c r="H995" s="13"/>
     </row>
-    <row r="996" spans="1:8" ht="13">
-      <c r="A996" s="47"/>
+    <row r="996" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A996" s="46"/>
       <c r="F996" s="11"/>
       <c r="G996" s="12"/>
       <c r="H996" s="13"/>
     </row>
-    <row r="997" spans="1:8" ht="13">
-      <c r="A997" s="47"/>
+    <row r="997" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A997" s="46"/>
       <c r="F997" s="11"/>
       <c r="G997" s="12"/>
       <c r="H997" s="13"/>
     </row>
-    <row r="998" spans="1:8" ht="13">
-      <c r="A998" s="47"/>
+    <row r="998" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A998" s="46"/>
       <c r="F998" s="11"/>
       <c r="G998" s="12"/>
       <c r="H998" s="13"/>
     </row>
-    <row r="999" spans="1:8" ht="13">
-      <c r="A999" s="47"/>
+    <row r="999" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A999" s="46"/>
       <c r="F999" s="11"/>
       <c r="G999" s="12"/>
       <c r="H999" s="13"/>
     </row>
-    <row r="1000" spans="1:8" ht="13">
-      <c r="A1000" s="47"/>
+    <row r="1000" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1000" s="46"/>
       <c r="F1000" s="11"/>
       <c r="G1000" s="12"/>
       <c r="H1000" s="13"/>
     </row>
-    <row r="1001" spans="1:8" ht="13">
-      <c r="A1001" s="47"/>
+    <row r="1001" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1001" s="46"/>
       <c r="F1001" s="11"/>
       <c r="G1001" s="12"/>
       <c r="H1001" s="13"/>
     </row>
-    <row r="1002" spans="1:8" ht="13">
-      <c r="A1002" s="47"/>
+    <row r="1002" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1002" s="46"/>
       <c r="F1002" s="11"/>
       <c r="G1002" s="12"/>
       <c r="H1002" s="13"/>
     </row>
-    <row r="1003" spans="1:8" ht="13">
-      <c r="A1003" s="47"/>
+    <row r="1003" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1003" s="46"/>
       <c r="F1003" s="11"/>
       <c r="G1003" s="12"/>
       <c r="H1003" s="13"/>
     </row>
-    <row r="1004" spans="1:8" ht="13">
-      <c r="A1004" s="47"/>
+    <row r="1004" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1004" s="46"/>
       <c r="F1004" s="11"/>
       <c r="G1004" s="12"/>
       <c r="H1004" s="13"/>
     </row>
-    <row r="1005" spans="1:8" ht="13">
-      <c r="A1005" s="47"/>
+    <row r="1005" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1005" s="46"/>
       <c r="F1005" s="11"/>
       <c r="G1005" s="12"/>
       <c r="H1005" s="13"/>
     </row>
-    <row r="1006" spans="1:8" ht="13">
-      <c r="A1006" s="47"/>
+    <row r="1006" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1006" s="46"/>
       <c r="F1006" s="11"/>
       <c r="G1006" s="12"/>
       <c r="H1006" s="13"/>
     </row>
-    <row r="1007" spans="1:8" ht="13">
-      <c r="A1007" s="47"/>
+    <row r="1007" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1007" s="46"/>
       <c r="F1007" s="11"/>
       <c r="G1007" s="12"/>
       <c r="H1007" s="13"/>
     </row>
-    <row r="1008" spans="1:8" ht="13">
-      <c r="A1008" s="47"/>
+    <row r="1008" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1008" s="46"/>
       <c r="F1008" s="11"/>
       <c r="G1008" s="12"/>
       <c r="H1008" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="G15:H15"/>
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="A17:A20"/>
@@ -9778,8 +9769,6 @@
     <mergeCell ref="E17:E20"/>
     <mergeCell ref="D17:D20"/>
     <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="G15:H15"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>

--- a/key-value.xlsx
+++ b/key-value.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000"/>
+    <workbookView xWindow="1280" yWindow="780" windowWidth="28800" windowHeight="16580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1565,7 +1565,7 @@
   </sheetPr>
   <dimension ref="A1:AD1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="165" zoomScaleNormal="179" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="179" workbookViewId="0">
       <selection activeCell="F57" sqref="F57:H57"/>
     </sheetView>
   </sheetViews>
